--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{101971D5-F37C-4619-9CA2-E827039B2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85339BD-D73E-44AC-B732-0737818EE066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -385,20 +385,70 @@
   <si>
     <t>Husk det hele er i dollar skal conveterges</t>
   </si>
+  <si>
+    <t>Balance of current account</t>
+  </si>
+  <si>
+    <t>Kilder:</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.CAB.XOKA.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.TRF.CURR.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BX.TRF.CURR.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>Balance of capital account</t>
+  </si>
+  <si>
+    <t>Primary income</t>
+  </si>
+  <si>
+    <t>Primary income Balance</t>
+  </si>
+  <si>
+    <t>Secondary income</t>
+  </si>
+  <si>
+    <t>Receipts</t>
+  </si>
+  <si>
+    <t>Expenditure/payments</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BM.GSR.FCTY.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BX.GSR.FCTY.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.GSR.FCTY.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
+    <numFmt numFmtId="169" formatCode="#.##0..&quot;M&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6.5"/>
@@ -423,6 +473,25 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,101 +649,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -719,16 +790,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,19 +808,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4AFFC842-15A6-4E53-B942-1162ACB461AB}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{F1A4957E-D0C2-4874-B1C3-A3DFC032343A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:BA61"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1074,12 +1173,17 @@
     <col min="16" max="16" width="5.83203125" customWidth="1"/>
     <col min="17" max="17" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.33203125" customWidth="1"/>
+    <col min="39" max="40" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1225,7 @@
       <c r="AM1" s="17"/>
       <c r="AN1" s="18"/>
     </row>
-    <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1283,7 @@
       </c>
       <c r="AN2" s="20"/>
     </row>
-    <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:53" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1267,8 +1371,11 @@
       <c r="AP3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA3" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1357,14 +1464,14 @@
         <v>13</v>
       </c>
       <c r="AN4" s="26"/>
-      <c r="AP4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="18"/>
-    </row>
-    <row r="5" spans="1:51" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP4" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="62"/>
+    </row>
+    <row r="5" spans="1:53" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>769982</v>
       </c>
@@ -1421,6 +1528,15 @@
       <c r="V5">
         <v>2000</v>
       </c>
+      <c r="AE5" s="61">
+        <v>111592000000</v>
+      </c>
+      <c r="AF5" s="54">
+        <v>121601974113.286</v>
+      </c>
+      <c r="AG5" s="66">
+        <v>-10009150685.822599</v>
+      </c>
       <c r="AI5" s="54">
         <v>29024580581.181</v>
       </c>
@@ -1431,6 +1547,9 @@
       <c r="AK5" s="54">
         <v>-27754667103.983299</v>
       </c>
+      <c r="AM5" s="54">
+        <v>-33903966248.290001</v>
+      </c>
       <c r="AP5" t="s">
         <v>30</v>
       </c>
@@ -1461,8 +1580,11 @@
       <c r="AY5" s="54">
         <v>-49452783073.685303</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>915035</v>
       </c>
@@ -1519,12 +1641,24 @@
       <c r="V6">
         <v>2001</v>
       </c>
+      <c r="AE6">
+        <v>95962727376</v>
+      </c>
+      <c r="AF6" s="54">
+        <v>108600918650.31</v>
+      </c>
+      <c r="AG6" s="66">
+        <v>-12637295394.5007</v>
+      </c>
       <c r="AI6" s="54">
         <v>36583607181.196701</v>
       </c>
       <c r="AK6" s="54">
         <v>-26150960553.785702</v>
       </c>
+      <c r="AM6" s="54">
+        <v>-7099486034.1670504</v>
+      </c>
       <c r="AP6" t="s">
         <v>31</v>
       </c>
@@ -1555,8 +1689,11 @@
       <c r="AY6" s="54">
         <v>66309172358.963097</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1027494</v>
       </c>
@@ -1613,14 +1750,26 @@
       <c r="V7">
         <v>2002</v>
       </c>
+      <c r="AE7" s="61">
+        <v>102731000000</v>
+      </c>
+      <c r="AF7" s="54">
+        <v>123854346911.62</v>
+      </c>
+      <c r="AG7" s="66">
+        <v>-21123280725.437599</v>
+      </c>
       <c r="AI7" s="54">
         <v>39312672599.650703</v>
       </c>
       <c r="AK7" s="54">
         <v>-27565036175.347198</v>
       </c>
-    </row>
-    <row r="8" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM7" s="54">
+        <v>39720517927.696602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1069020</v>
       </c>
@@ -1677,14 +1826,29 @@
       <c r="V8">
         <v>2003</v>
       </c>
+      <c r="AE8" s="61">
+        <v>126507000000</v>
+      </c>
+      <c r="AF8" s="54">
+        <v>150232550446.35501</v>
+      </c>
+      <c r="AG8" s="66">
+        <v>-23725947693.539001</v>
+      </c>
       <c r="AI8" s="54">
         <v>56682895143.9338</v>
       </c>
       <c r="AK8" s="54">
         <v>-34991833212.856003</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM8" s="54">
+        <v>35985324846.9412</v>
+      </c>
+      <c r="AP8" s="65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1071458</v>
       </c>
@@ -1741,14 +1905,59 @@
       <c r="V9">
         <v>2004</v>
       </c>
+      <c r="AE9" s="61">
+        <v>177066000000</v>
+      </c>
+      <c r="AF9" s="54">
+        <v>158507231268.68701</v>
+      </c>
+      <c r="AG9" s="66">
+        <v>18557264888.780899</v>
+      </c>
       <c r="AI9" s="54">
         <v>48232770206.7099</v>
       </c>
       <c r="AK9" s="54">
         <v>-37225896193.073601</v>
       </c>
-    </row>
-    <row r="10" spans="1:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM9" s="54">
+        <v>127505924403.463</v>
+      </c>
+      <c r="AP9" s="54">
+        <v>-33903966248.290001</v>
+      </c>
+      <c r="AQ9" s="54">
+        <v>-7099486034.1670504</v>
+      </c>
+      <c r="AR9" s="54">
+        <v>39720517927.696602</v>
+      </c>
+      <c r="AS9" s="54">
+        <v>35985324846.9412</v>
+      </c>
+      <c r="AT9" s="54">
+        <v>127505924403.463</v>
+      </c>
+      <c r="AU9" s="54">
+        <v>133087243134.907</v>
+      </c>
+      <c r="AV9" s="54">
+        <v>173486477217.38501</v>
+      </c>
+      <c r="AW9" s="54">
+        <v>235777197044.80099</v>
+      </c>
+      <c r="AX9" s="54">
+        <v>213250033110.591</v>
+      </c>
+      <c r="AY9" s="54">
+        <v>201134895341.823</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1106923</v>
       </c>
@@ -1805,14 +2014,26 @@
       <c r="V10">
         <v>2005</v>
       </c>
+      <c r="AE10" s="61">
+        <v>207475000000</v>
+      </c>
+      <c r="AF10" s="54">
+        <v>183863880742.689</v>
+      </c>
+      <c r="AG10" s="66">
+        <v>23611400319.265999</v>
+      </c>
       <c r="AI10" s="54">
         <v>52763835148.554901</v>
       </c>
       <c r="AK10" s="54">
         <v>-39293130315.450798</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM10" s="54">
+        <v>133087243134.907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1166594</v>
       </c>
@@ -1869,14 +2090,29 @@
       <c r="V11">
         <v>2006</v>
       </c>
+      <c r="AE11" s="61">
+        <v>262287000000</v>
+      </c>
+      <c r="AF11" s="54">
+        <v>211166865102.056</v>
+      </c>
+      <c r="AG11" s="66">
+        <v>51120962615.648804</v>
+      </c>
       <c r="AI11" s="54">
         <v>49766012958.167099</v>
       </c>
       <c r="AK11" s="54">
         <v>-40119606190.966797</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM11" s="54">
+        <v>173486477217.38501</v>
+      </c>
+      <c r="AP11" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1179166</v>
       </c>
@@ -1933,14 +2169,62 @@
       <c r="V12">
         <v>2007</v>
       </c>
+      <c r="AE12" s="61">
+        <v>336026000000</v>
+      </c>
+      <c r="AF12" s="54">
+        <v>286626220721.87701</v>
+      </c>
+      <c r="AG12" s="66">
+        <v>49401389352.730003</v>
+      </c>
       <c r="AI12" s="54">
         <v>57873052235.311996</v>
       </c>
       <c r="AK12" s="54">
         <v>-45753753443.565102</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM12" s="54">
+        <v>235777197044.80099</v>
+      </c>
+      <c r="AP12" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ12" s="61">
+        <v>111592000000</v>
+      </c>
+      <c r="AR12">
+        <v>95962727376</v>
+      </c>
+      <c r="AS12" s="61">
+        <v>102731000000</v>
+      </c>
+      <c r="AT12" s="61">
+        <v>126507000000</v>
+      </c>
+      <c r="AU12" s="61">
+        <v>177066000000</v>
+      </c>
+      <c r="AV12" s="61">
+        <v>207475000000</v>
+      </c>
+      <c r="AW12" s="61">
+        <v>262287000000</v>
+      </c>
+      <c r="AX12" s="61">
+        <v>336026000000</v>
+      </c>
+      <c r="AY12" s="61">
+        <v>290388000000</v>
+      </c>
+      <c r="AZ12" s="61">
+        <v>256091000000</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1256858</v>
       </c>
@@ -1997,14 +2281,62 @@
       <c r="V13">
         <v>2008</v>
       </c>
+      <c r="AE13" s="61">
+        <v>290388000000</v>
+      </c>
+      <c r="AF13" s="54">
+        <v>257190133797.85699</v>
+      </c>
+      <c r="AG13" s="66">
+        <v>33196539491.124599</v>
+      </c>
       <c r="AI13" s="54">
         <v>66309172358.963097</v>
       </c>
       <c r="AK13" s="54">
         <v>-49452783073.685303</v>
       </c>
-    </row>
-    <row r="14" spans="1:51" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM13" s="54">
+        <v>213250033110.591</v>
+      </c>
+      <c r="AP13" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ13" s="54">
+        <v>121601974113.286</v>
+      </c>
+      <c r="AR13" s="54">
+        <v>108600918650.31</v>
+      </c>
+      <c r="AS13" s="54">
+        <v>123854346911.62</v>
+      </c>
+      <c r="AT13" s="54">
+        <v>150232550446.35501</v>
+      </c>
+      <c r="AU13" s="54">
+        <v>158507231268.68701</v>
+      </c>
+      <c r="AV13" s="54">
+        <v>183863880742.689</v>
+      </c>
+      <c r="AW13" s="54">
+        <v>211166865102.056</v>
+      </c>
+      <c r="AX13" s="54">
+        <v>286626220721.87701</v>
+      </c>
+      <c r="AY13" s="54">
+        <v>257190133797.85699</v>
+      </c>
+      <c r="AZ13" s="54">
+        <v>179098064332.97501</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1290468</v>
       </c>
@@ -2056,8 +2388,16 @@
       <c r="S14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="15" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="54"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="66"/>
+      <c r="AM14" s="54"/>
+      <c r="AP14" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1309678</v>
       </c>
@@ -2109,8 +2449,41 @@
       <c r="S15">
         <v>2019</v>
       </c>
-    </row>
-    <row r="16" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ15" s="66">
+        <v>-10009150685.822599</v>
+      </c>
+      <c r="AR15" s="66">
+        <v>-12637295394.5007</v>
+      </c>
+      <c r="AS15" s="66">
+        <v>-21123280725.437599</v>
+      </c>
+      <c r="AT15" s="66">
+        <v>-23725947693.539001</v>
+      </c>
+      <c r="AU15" s="66">
+        <v>18557264888.780899</v>
+      </c>
+      <c r="AV15" s="66">
+        <v>23611400319.265999</v>
+      </c>
+      <c r="AW15" s="66">
+        <v>51120962615.648804</v>
+      </c>
+      <c r="AX15" s="66">
+        <v>49401389352.730003</v>
+      </c>
+      <c r="AY15" s="66">
+        <v>33196539491.124599</v>
+      </c>
+      <c r="AZ15" s="66">
+        <v>76991798049.827606</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1188235</v>
       </c>
@@ -2165,7 +2538,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1375112</v>
       </c>
@@ -2217,8 +2590,9 @@
       <c r="S17" s="53">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM17" s="53"/>
+    </row>
+    <row r="18" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1579998</v>
       </c>
@@ -2271,7 +2645,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1539230</v>
       </c>
@@ -2327,7 +2701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>331607</v>
       </c>
@@ -2388,8 +2762,17 @@
       <c r="T20" s="53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+    </row>
+    <row r="21" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>339209</v>
       </c>
@@ -2448,7 +2831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>337135</v>
       </c>
@@ -2507,7 +2890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>367161</v>
       </c>
@@ -2566,7 +2949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>374464</v>
       </c>
@@ -2627,8 +3010,18 @@
       <c r="T24" s="53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+    </row>
+    <row r="25" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>393905</v>
       </c>
@@ -2687,7 +3080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>404809</v>
       </c>
@@ -2746,7 +3139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>406820</v>
       </c>
@@ -2805,7 +3198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>400692</v>
       </c>
@@ -2864,7 +3257,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>387808</v>
       </c>
@@ -2920,7 +3313,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>378816</v>
       </c>
@@ -2976,7 +3369,7 @@
         <v>65507</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>371914</v>
       </c>
@@ -3032,7 +3425,7 @@
         <v>68695</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>104185</v>
       </c>
@@ -5039,10 +5432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5071,10 +5464,24 @@
     <col min="22" max="22" width="6.6640625" customWidth="1"/>
     <col min="23" max="23" width="2.6640625" customWidth="1"/>
     <col min="24" max="24" width="6.6640625" customWidth="1"/>
-    <col min="29" max="29" width="5.1640625" customWidth="1"/>
+    <col min="29" max="29" width="12.1640625" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.1640625" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" customWidth="1"/>
+    <col min="54" max="54" width="11" customWidth="1"/>
+    <col min="55" max="56" width="12.1640625" customWidth="1"/>
+    <col min="57" max="57" width="12.6640625" customWidth="1"/>
+    <col min="58" max="58" width="12.33203125" customWidth="1"/>
+    <col min="59" max="59" width="12.1640625" customWidth="1"/>
+    <col min="60" max="61" width="11" customWidth="1"/>
+    <col min="62" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
@@ -5136,7 +5543,7 @@
       </c>
       <c r="AY1" s="32"/>
     </row>
-    <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="37" t="s">
@@ -5210,7 +5617,7 @@
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
     </row>
-    <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="39"/>
@@ -5279,8 +5686,11 @@
       <c r="AW3" s="22"/>
       <c r="AX3" s="35"/>
       <c r="AY3" s="36"/>
-    </row>
-    <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BK3" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>14</v>
       </c>
@@ -5378,7 +5788,7 @@
       </c>
       <c r="AY4" s="26"/>
     </row>
-    <row r="5" spans="1:51" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5457,8 +5867,14 @@
       <c r="AA5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="59">
+        <v>4659840536.6381798</v>
+      </c>
+      <c r="BA5" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5537,8 +5953,44 @@
       <c r="AA6">
         <v>2001</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC6" s="59">
+        <v>-2880447378.1082602</v>
+      </c>
+      <c r="BA6" s="55">
+        <v>4659840536.6381798</v>
+      </c>
+      <c r="BB6" s="55">
+        <v>-2880447378.1082602</v>
+      </c>
+      <c r="BC6" s="55">
+        <v>-3964977928.8617902</v>
+      </c>
+      <c r="BD6" s="55">
+        <v>7040955192.3926001</v>
+      </c>
+      <c r="BE6" s="55">
+        <v>-186180959.74026299</v>
+      </c>
+      <c r="BF6" s="55">
+        <v>-2993023965.5292501</v>
+      </c>
+      <c r="BG6" s="55">
+        <v>-1714537854.9198899</v>
+      </c>
+      <c r="BH6" s="55">
+        <v>-2314920943.3025799</v>
+      </c>
+      <c r="BI6" s="55">
+        <v>-1216764111.40026</v>
+      </c>
+      <c r="BJ6" s="55">
+        <v>-2597448679.9067101</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -5617,8 +6069,11 @@
       <c r="AA7">
         <v>2002</v>
       </c>
-    </row>
-    <row r="8" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="59">
+        <v>-3964977928.8617902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -5697,8 +6152,11 @@
       <c r="AA8">
         <v>2003</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="59">
+        <v>7040955192.3926001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -5777,8 +6235,11 @@
       <c r="AA9">
         <v>2004</v>
       </c>
-    </row>
-    <row r="10" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="59">
+        <v>-186180959.74026299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -5857,8 +6318,11 @@
       <c r="AA10">
         <v>2005</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="59">
+        <v>-2993023965.5292501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -5937,8 +6401,11 @@
       <c r="AA11">
         <v>2006</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="59">
+        <v>-1714537854.9198899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -6017,8 +6484,11 @@
       <c r="AA12">
         <v>2007</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="59">
+        <v>-2314920943.3025799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -6097,8 +6567,11 @@
       <c r="AA13">
         <v>2008</v>
       </c>
-    </row>
-    <row r="14" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC13" s="59">
+        <v>-1216764111.40026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -6174,8 +6647,10 @@
       <c r="Y14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="15" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="59"/>
+      <c r="AF14" s="57"/>
+    </row>
+    <row r="15" spans="1:63" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
@@ -6252,7 +6727,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
@@ -6328,8 +6803,10 @@
       <c r="Y16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="58"/>
+      <c r="AF16" s="56"/>
+    </row>
+    <row r="17" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
@@ -6406,7 +6883,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -6483,7 +6960,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
@@ -6563,7 +7040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -6643,7 +7120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -6720,7 +7197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -6797,7 +7274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
@@ -6874,7 +7351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
@@ -6954,7 +7431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
@@ -7031,7 +7508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
@@ -7107,8 +7584,38 @@
       <c r="Z26" s="53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE26" s="55">
+        <v>4659840536.6381798</v>
+      </c>
+      <c r="AF26" s="55">
+        <v>-2880447378.1082602</v>
+      </c>
+      <c r="AG26" s="55">
+        <v>-3964977928.8617902</v>
+      </c>
+      <c r="AH26" s="55">
+        <v>7040955192.3926001</v>
+      </c>
+      <c r="AI26" s="55">
+        <v>-186180959.74026299</v>
+      </c>
+      <c r="AJ26" s="55">
+        <v>-2993023965.5292501</v>
+      </c>
+      <c r="AK26" s="55">
+        <v>-1714537854.9198899</v>
+      </c>
+      <c r="AL26" s="55">
+        <v>-2314920943.3025799</v>
+      </c>
+      <c r="AM26" s="55">
+        <v>-1216764111.40026</v>
+      </c>
+      <c r="AN26" s="55">
+        <v>-2597448679.9067101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>9</v>
       </c>
@@ -7185,7 +7692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -7262,7 +7769,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>9</v>
       </c>
@@ -7336,7 +7843,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
@@ -7410,7 +7917,7 @@
         <v>34092</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
@@ -7484,7 +7991,7 @@
         <v>29261</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
@@ -9760,690 +10267,690 @@
     <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="I5" r:id="rId5" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="K5" r:id="rId6" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="M5" r:id="rId7" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="O5" r:id="rId8" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="Q5" r:id="rId9" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="S5" r:id="rId10" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="U5" r:id="rId11" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="W5" r:id="rId12" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A6" r:id="rId13" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C6" r:id="rId14" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E6" r:id="rId15" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="G6" r:id="rId16" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="I6" r:id="rId17" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="K6" r:id="rId18" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="M6" r:id="rId19" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="O6" r:id="rId20" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="Q6" r:id="rId21" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="S6" r:id="rId22" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="U6" r:id="rId23" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="W6" r:id="rId24" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="A7" r:id="rId25" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C7" r:id="rId26" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="E7" r:id="rId27" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="G7" r:id="rId28" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I7" r:id="rId29" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="K7" r:id="rId30" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="M7" r:id="rId31" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="O7" r:id="rId32" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="Q7" r:id="rId33" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="S7" r:id="rId34" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="U7" r:id="rId35" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="W7" r:id="rId36" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="A8" r:id="rId37" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C8" r:id="rId38" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="E8" r:id="rId39" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="G8" r:id="rId40" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I8" r:id="rId41" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="K8" r:id="rId42" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="M8" r:id="rId43" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="O8" r:id="rId44" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="Q8" r:id="rId45" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="S8" r:id="rId46" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="U8" r:id="rId47" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="W8" r:id="rId48" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="A9" r:id="rId49" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="C9" r:id="rId50" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="E9" r:id="rId51" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="G9" r:id="rId52" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I9" r:id="rId53" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="K9" r:id="rId54" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="M9" r:id="rId55" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="O9" r:id="rId56" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="Q9" r:id="rId57" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="S9" r:id="rId58" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="U9" r:id="rId59" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="W9" r:id="rId60" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="A10" r:id="rId61" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="C10" r:id="rId62" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="E10" r:id="rId63" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="G10" r:id="rId64" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I10" r:id="rId65" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="K10" r:id="rId66" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="M10" r:id="rId67" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="O10" r:id="rId68" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="Q10" r:id="rId69" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="S10" r:id="rId70" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="U10" r:id="rId71" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="W10" r:id="rId72" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="A11" r:id="rId73" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="C11" r:id="rId74" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="E11" r:id="rId75" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="G11" r:id="rId76" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I11" r:id="rId77" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="K11" r:id="rId78" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="M11" r:id="rId79" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="O11" r:id="rId80" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="Q11" r:id="rId81" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="S11" r:id="rId82" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="U11" r:id="rId83" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="W11" r:id="rId84" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="A12" r:id="rId85" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="C12" r:id="rId86" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="E12" r:id="rId87" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="G12" r:id="rId88" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I12" r:id="rId89" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="K12" r:id="rId90" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="M12" r:id="rId91" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="O12" r:id="rId92" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="Q12" r:id="rId93" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="S12" r:id="rId94" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="U12" r:id="rId95" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="W12" r:id="rId96" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="A13" r:id="rId97" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="C13" r:id="rId98" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="E13" r:id="rId99" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="G13" r:id="rId100" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I13" r:id="rId101" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="K13" r:id="rId102" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="M13" r:id="rId103" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="O13" r:id="rId104" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="Q13" r:id="rId105" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="S13" r:id="rId106" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="U13" r:id="rId107" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="W13" r:id="rId108" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="A14" r:id="rId109" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="C14" r:id="rId110" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="E14" r:id="rId111" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="G14" r:id="rId112" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I14" r:id="rId113" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="K14" r:id="rId114" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="M14" r:id="rId115" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="O14" r:id="rId116" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="Q14" r:id="rId117" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="S14" r:id="rId118" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="U14" r:id="rId119" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="W14" r:id="rId120" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="A15" r:id="rId121" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="C15" r:id="rId122" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="E15" r:id="rId123" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="G15" r:id="rId124" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="I15" r:id="rId125" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="K15" r:id="rId126" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="M15" r:id="rId127" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="O15" r:id="rId128" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="Q15" r:id="rId129" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="S15" r:id="rId130" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="U15" r:id="rId131" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="W15" r:id="rId132" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="A16" r:id="rId133" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="C16" r:id="rId134" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="E16" r:id="rId135" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="G16" r:id="rId136" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="I16" r:id="rId137" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="K16" r:id="rId138" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="M16" r:id="rId139" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="O16" r:id="rId140" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="Q16" r:id="rId141" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="S16" r:id="rId142" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="U16" r:id="rId143" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="W16" r:id="rId144" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="A17" r:id="rId145" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="C17" r:id="rId146" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="E17" r:id="rId147" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="G17" r:id="rId148" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
-    <hyperlink ref="I17" r:id="rId149" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
-    <hyperlink ref="K17" r:id="rId150" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
-    <hyperlink ref="M17" r:id="rId151" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
-    <hyperlink ref="O17" r:id="rId152" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
-    <hyperlink ref="Q17" r:id="rId153" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
-    <hyperlink ref="S17" r:id="rId154" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
-    <hyperlink ref="U17" r:id="rId155" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
-    <hyperlink ref="W17" r:id="rId156" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
-    <hyperlink ref="A18" r:id="rId157" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
-    <hyperlink ref="C18" r:id="rId158" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
-    <hyperlink ref="E18" r:id="rId159" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
-    <hyperlink ref="G18" r:id="rId160" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
-    <hyperlink ref="I18" r:id="rId161" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
-    <hyperlink ref="K18" r:id="rId162" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
-    <hyperlink ref="M18" r:id="rId163" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
-    <hyperlink ref="O18" r:id="rId164" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="Q18" r:id="rId165" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="S18" r:id="rId166" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="U18" r:id="rId167" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="W18" r:id="rId168" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
-    <hyperlink ref="A19" r:id="rId169" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
-    <hyperlink ref="C19" r:id="rId170" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
-    <hyperlink ref="E19" r:id="rId171" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
-    <hyperlink ref="G19" r:id="rId172" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
-    <hyperlink ref="I19" r:id="rId173" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
-    <hyperlink ref="K19" r:id="rId174" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
-    <hyperlink ref="M19" r:id="rId175" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
-    <hyperlink ref="O19" r:id="rId176" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
-    <hyperlink ref="Q19" r:id="rId177" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
-    <hyperlink ref="S19" r:id="rId178" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
-    <hyperlink ref="U19" r:id="rId179" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
-    <hyperlink ref="W19" r:id="rId180" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
-    <hyperlink ref="A20" r:id="rId181" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
-    <hyperlink ref="C20" r:id="rId182" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
-    <hyperlink ref="E20" r:id="rId183" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
-    <hyperlink ref="G20" r:id="rId184" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
-    <hyperlink ref="I20" r:id="rId185" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
-    <hyperlink ref="K20" r:id="rId186" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
-    <hyperlink ref="M20" r:id="rId187" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
-    <hyperlink ref="O20" r:id="rId188" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
-    <hyperlink ref="Q20" r:id="rId189" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
-    <hyperlink ref="S20" r:id="rId190" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
-    <hyperlink ref="U20" r:id="rId191" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
-    <hyperlink ref="W20" r:id="rId192" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
-    <hyperlink ref="A21" r:id="rId193" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
-    <hyperlink ref="C21" r:id="rId194" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
-    <hyperlink ref="E21" r:id="rId195" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
-    <hyperlink ref="G21" r:id="rId196" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
-    <hyperlink ref="I21" r:id="rId197" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
-    <hyperlink ref="K21" r:id="rId198" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
-    <hyperlink ref="M21" r:id="rId199" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
-    <hyperlink ref="O21" r:id="rId200" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
-    <hyperlink ref="Q21" r:id="rId201" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
-    <hyperlink ref="S21" r:id="rId202" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
-    <hyperlink ref="U21" r:id="rId203" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
-    <hyperlink ref="W21" r:id="rId204" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
-    <hyperlink ref="A22" r:id="rId205" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
-    <hyperlink ref="C22" r:id="rId206" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="E22" r:id="rId207" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
-    <hyperlink ref="G22" r:id="rId208" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
-    <hyperlink ref="I22" r:id="rId209" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
-    <hyperlink ref="K22" r:id="rId210" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
-    <hyperlink ref="M22" r:id="rId211" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
-    <hyperlink ref="O22" r:id="rId212" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="Q22" r:id="rId213" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
-    <hyperlink ref="S22" r:id="rId214" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="U22" r:id="rId215" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="W22" r:id="rId216" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="A23" r:id="rId217" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="C23" r:id="rId218" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
-    <hyperlink ref="E23" r:id="rId219" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="G23" r:id="rId220" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
-    <hyperlink ref="I23" r:id="rId221" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
-    <hyperlink ref="K23" r:id="rId222" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="M23" r:id="rId223" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="O23" r:id="rId224" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
-    <hyperlink ref="Q23" r:id="rId225" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
-    <hyperlink ref="S23" r:id="rId226" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
-    <hyperlink ref="U23" r:id="rId227" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="W23" r:id="rId228" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
-    <hyperlink ref="A24" r:id="rId229" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
-    <hyperlink ref="C24" r:id="rId230" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
-    <hyperlink ref="E24" r:id="rId231" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
-    <hyperlink ref="G24" r:id="rId232" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
-    <hyperlink ref="I24" r:id="rId233" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
-    <hyperlink ref="K24" r:id="rId234" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
-    <hyperlink ref="M24" r:id="rId235" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
-    <hyperlink ref="O24" r:id="rId236" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
-    <hyperlink ref="Q24" r:id="rId237" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
-    <hyperlink ref="S24" r:id="rId238" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
-    <hyperlink ref="U24" r:id="rId239" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
-    <hyperlink ref="W24" r:id="rId240" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
-    <hyperlink ref="A25" r:id="rId241" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
-    <hyperlink ref="C25" r:id="rId242" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
-    <hyperlink ref="E25" r:id="rId243" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
-    <hyperlink ref="G25" r:id="rId244" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
-    <hyperlink ref="I25" r:id="rId245" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
-    <hyperlink ref="K25" r:id="rId246" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
-    <hyperlink ref="M25" r:id="rId247" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
-    <hyperlink ref="O25" r:id="rId248" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
-    <hyperlink ref="Q25" r:id="rId249" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
-    <hyperlink ref="S25" r:id="rId250" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
-    <hyperlink ref="U25" r:id="rId251" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
-    <hyperlink ref="W25" r:id="rId252" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
-    <hyperlink ref="A26" r:id="rId253" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
-    <hyperlink ref="C26" r:id="rId254" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
-    <hyperlink ref="E26" r:id="rId255" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
-    <hyperlink ref="G26" r:id="rId256" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
-    <hyperlink ref="I26" r:id="rId257" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
-    <hyperlink ref="K26" r:id="rId258" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
-    <hyperlink ref="M26" r:id="rId259" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
-    <hyperlink ref="O26" r:id="rId260" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
-    <hyperlink ref="Q26" r:id="rId261" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
-    <hyperlink ref="S26" r:id="rId262" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
-    <hyperlink ref="U26" r:id="rId263" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
-    <hyperlink ref="W26" r:id="rId264" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
-    <hyperlink ref="A27" r:id="rId265" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
-    <hyperlink ref="C27" r:id="rId266" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
-    <hyperlink ref="E27" r:id="rId267" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
-    <hyperlink ref="G27" r:id="rId268" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
-    <hyperlink ref="I27" r:id="rId269" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
-    <hyperlink ref="K27" r:id="rId270" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
-    <hyperlink ref="M27" r:id="rId271" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
-    <hyperlink ref="O27" r:id="rId272" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
-    <hyperlink ref="Q27" r:id="rId273" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
-    <hyperlink ref="S27" r:id="rId274" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
-    <hyperlink ref="U27" r:id="rId275" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
-    <hyperlink ref="W27" r:id="rId276" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
-    <hyperlink ref="A28" r:id="rId277" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
-    <hyperlink ref="C28" r:id="rId278" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
-    <hyperlink ref="E28" r:id="rId279" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
-    <hyperlink ref="G28" r:id="rId280" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
-    <hyperlink ref="I28" r:id="rId281" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
-    <hyperlink ref="K28" r:id="rId282" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
-    <hyperlink ref="M28" r:id="rId283" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
-    <hyperlink ref="O28" r:id="rId284" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
-    <hyperlink ref="Q28" r:id="rId285" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
-    <hyperlink ref="S28" r:id="rId286" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
-    <hyperlink ref="U28" r:id="rId287" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
-    <hyperlink ref="W28" r:id="rId288" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
-    <hyperlink ref="A29" r:id="rId289" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
-    <hyperlink ref="C29" r:id="rId290" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
-    <hyperlink ref="E29" r:id="rId291" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
-    <hyperlink ref="G29" r:id="rId292" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
-    <hyperlink ref="I29" r:id="rId293" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
-    <hyperlink ref="K29" r:id="rId294" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
-    <hyperlink ref="M29" r:id="rId295" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
-    <hyperlink ref="O29" r:id="rId296" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
-    <hyperlink ref="Q29" r:id="rId297" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
-    <hyperlink ref="S29" r:id="rId298" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
-    <hyperlink ref="U29" r:id="rId299" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
-    <hyperlink ref="W29" r:id="rId300" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
-    <hyperlink ref="A30" r:id="rId301" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
-    <hyperlink ref="C30" r:id="rId302" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
-    <hyperlink ref="E30" r:id="rId303" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
-    <hyperlink ref="G30" r:id="rId304" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
-    <hyperlink ref="I30" r:id="rId305" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
-    <hyperlink ref="K30" r:id="rId306" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
-    <hyperlink ref="M30" r:id="rId307" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
-    <hyperlink ref="O30" r:id="rId308" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
-    <hyperlink ref="Q30" r:id="rId309" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
-    <hyperlink ref="S30" r:id="rId310" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
-    <hyperlink ref="U30" r:id="rId311" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
-    <hyperlink ref="W30" r:id="rId312" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
-    <hyperlink ref="A31" r:id="rId313" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
-    <hyperlink ref="C31" r:id="rId314" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
-    <hyperlink ref="E31" r:id="rId315" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
-    <hyperlink ref="G31" r:id="rId316" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
-    <hyperlink ref="I31" r:id="rId317" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
-    <hyperlink ref="K31" r:id="rId318" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
-    <hyperlink ref="M31" r:id="rId319" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
-    <hyperlink ref="O31" r:id="rId320" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
-    <hyperlink ref="Q31" r:id="rId321" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
-    <hyperlink ref="S31" r:id="rId322" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
-    <hyperlink ref="U31" r:id="rId323" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
-    <hyperlink ref="W31" r:id="rId324" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
-    <hyperlink ref="A32" r:id="rId325" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
-    <hyperlink ref="C32" r:id="rId326" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
-    <hyperlink ref="E32" r:id="rId327" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
-    <hyperlink ref="G32" r:id="rId328" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
-    <hyperlink ref="I32" r:id="rId329" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
-    <hyperlink ref="K32" r:id="rId330" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
-    <hyperlink ref="M32" r:id="rId331" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
-    <hyperlink ref="O32" r:id="rId332" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
-    <hyperlink ref="Q32" r:id="rId333" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
-    <hyperlink ref="S32" r:id="rId334" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
-    <hyperlink ref="U32" r:id="rId335" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
-    <hyperlink ref="W32" r:id="rId336" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
-    <hyperlink ref="A33" r:id="rId337" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
-    <hyperlink ref="C33" r:id="rId338" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
-    <hyperlink ref="E33" r:id="rId339" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
-    <hyperlink ref="G33" r:id="rId340" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
-    <hyperlink ref="I33" r:id="rId341" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
-    <hyperlink ref="K33" r:id="rId342" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
-    <hyperlink ref="M33" r:id="rId343" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
-    <hyperlink ref="O33" r:id="rId344" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
-    <hyperlink ref="Q33" r:id="rId345" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
-    <hyperlink ref="S33" r:id="rId346" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
-    <hyperlink ref="U33" r:id="rId347" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
-    <hyperlink ref="W33" r:id="rId348" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
-    <hyperlink ref="A34" r:id="rId349" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
-    <hyperlink ref="C34" r:id="rId350" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
-    <hyperlink ref="E34" r:id="rId351" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
-    <hyperlink ref="G34" r:id="rId352" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
-    <hyperlink ref="I34" r:id="rId353" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
-    <hyperlink ref="K34" r:id="rId354" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
-    <hyperlink ref="M34" r:id="rId355" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
-    <hyperlink ref="O34" r:id="rId356" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
-    <hyperlink ref="Q34" r:id="rId357" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
-    <hyperlink ref="S34" r:id="rId358" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
-    <hyperlink ref="U34" r:id="rId359" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
-    <hyperlink ref="W34" r:id="rId360" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
-    <hyperlink ref="A35" r:id="rId361" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
-    <hyperlink ref="C35" r:id="rId362" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
-    <hyperlink ref="E35" r:id="rId363" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
-    <hyperlink ref="G35" r:id="rId364" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
-    <hyperlink ref="I35" r:id="rId365" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
-    <hyperlink ref="K35" r:id="rId366" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
-    <hyperlink ref="M35" r:id="rId367" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
-    <hyperlink ref="O35" r:id="rId368" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
-    <hyperlink ref="Q35" r:id="rId369" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
-    <hyperlink ref="S35" r:id="rId370" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
-    <hyperlink ref="U35" r:id="rId371" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
-    <hyperlink ref="W35" r:id="rId372" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
-    <hyperlink ref="A36" r:id="rId373" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
-    <hyperlink ref="C36" r:id="rId374" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
-    <hyperlink ref="E36" r:id="rId375" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
-    <hyperlink ref="G36" r:id="rId376" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
-    <hyperlink ref="I36" r:id="rId377" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
-    <hyperlink ref="K36" r:id="rId378" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
-    <hyperlink ref="M36" r:id="rId379" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
-    <hyperlink ref="O36" r:id="rId380" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
-    <hyperlink ref="Q36" r:id="rId381" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
-    <hyperlink ref="S36" r:id="rId382" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
-    <hyperlink ref="U36" r:id="rId383" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
-    <hyperlink ref="W36" r:id="rId384" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
-    <hyperlink ref="A37" r:id="rId385" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
-    <hyperlink ref="C37" r:id="rId386" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
-    <hyperlink ref="E37" r:id="rId387" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
-    <hyperlink ref="G37" r:id="rId388" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
-    <hyperlink ref="I37" r:id="rId389" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
-    <hyperlink ref="K37" r:id="rId390" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
-    <hyperlink ref="M37" r:id="rId391" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
-    <hyperlink ref="O37" r:id="rId392" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
-    <hyperlink ref="Q37" r:id="rId393" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
-    <hyperlink ref="S37" r:id="rId394" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
-    <hyperlink ref="U37" r:id="rId395" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
-    <hyperlink ref="W37" r:id="rId396" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
-    <hyperlink ref="A38" r:id="rId397" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
-    <hyperlink ref="C38" r:id="rId398" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
-    <hyperlink ref="E38" r:id="rId399" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
-    <hyperlink ref="G38" r:id="rId400" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
-    <hyperlink ref="I38" r:id="rId401" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
-    <hyperlink ref="K38" r:id="rId402" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
-    <hyperlink ref="M38" r:id="rId403" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
-    <hyperlink ref="O38" r:id="rId404" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
-    <hyperlink ref="Q38" r:id="rId405" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
-    <hyperlink ref="S38" r:id="rId406" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
-    <hyperlink ref="U38" r:id="rId407" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
-    <hyperlink ref="W38" r:id="rId408" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
-    <hyperlink ref="A39" r:id="rId409" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
-    <hyperlink ref="C39" r:id="rId410" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
-    <hyperlink ref="E39" r:id="rId411" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
-    <hyperlink ref="G39" r:id="rId412" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
-    <hyperlink ref="I39" r:id="rId413" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
-    <hyperlink ref="K39" r:id="rId414" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
-    <hyperlink ref="M39" r:id="rId415" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
-    <hyperlink ref="O39" r:id="rId416" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
-    <hyperlink ref="Q39" r:id="rId417" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
-    <hyperlink ref="S39" r:id="rId418" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
-    <hyperlink ref="U39" r:id="rId419" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
-    <hyperlink ref="W39" r:id="rId420" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
-    <hyperlink ref="A40" r:id="rId421" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
-    <hyperlink ref="C40" r:id="rId422" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
-    <hyperlink ref="E40" r:id="rId423" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
-    <hyperlink ref="G40" r:id="rId424" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
-    <hyperlink ref="I40" r:id="rId425" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
-    <hyperlink ref="K40" r:id="rId426" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
-    <hyperlink ref="M40" r:id="rId427" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
-    <hyperlink ref="O40" r:id="rId428" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
-    <hyperlink ref="Q40" r:id="rId429" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
-    <hyperlink ref="S40" r:id="rId430" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
-    <hyperlink ref="U40" r:id="rId431" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AE010000}"/>
-    <hyperlink ref="W40" r:id="rId432" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AF010000}"/>
-    <hyperlink ref="A41" r:id="rId433" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B0010000}"/>
-    <hyperlink ref="C41" r:id="rId434" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B1010000}"/>
-    <hyperlink ref="E41" r:id="rId435" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B2010000}"/>
-    <hyperlink ref="G41" r:id="rId436" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B3010000}"/>
-    <hyperlink ref="I41" r:id="rId437" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B4010000}"/>
-    <hyperlink ref="K41" r:id="rId438" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B5010000}"/>
-    <hyperlink ref="M41" r:id="rId439" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B6010000}"/>
-    <hyperlink ref="O41" r:id="rId440" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B7010000}"/>
-    <hyperlink ref="Q41" r:id="rId441" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B8010000}"/>
-    <hyperlink ref="S41" r:id="rId442" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B9010000}"/>
-    <hyperlink ref="U41" r:id="rId443" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BA010000}"/>
-    <hyperlink ref="W41" r:id="rId444" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BB010000}"/>
-    <hyperlink ref="A42" r:id="rId445" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BC010000}"/>
-    <hyperlink ref="C42" r:id="rId446" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BD010000}"/>
-    <hyperlink ref="E42" r:id="rId447" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
-    <hyperlink ref="G42" r:id="rId448" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
-    <hyperlink ref="I42" r:id="rId449" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
-    <hyperlink ref="K42" r:id="rId450" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
-    <hyperlink ref="M42" r:id="rId451" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C2010000}"/>
-    <hyperlink ref="O42" r:id="rId452" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
-    <hyperlink ref="Q42" r:id="rId453" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
-    <hyperlink ref="S42" r:id="rId454" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
-    <hyperlink ref="U42" r:id="rId455" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C6010000}"/>
-    <hyperlink ref="W42" r:id="rId456" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C7010000}"/>
-    <hyperlink ref="A43" r:id="rId457" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C8010000}"/>
-    <hyperlink ref="C43" r:id="rId458" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C9010000}"/>
-    <hyperlink ref="E43" r:id="rId459" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CA010000}"/>
-    <hyperlink ref="G43" r:id="rId460" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CB010000}"/>
-    <hyperlink ref="I43" r:id="rId461" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CC010000}"/>
-    <hyperlink ref="K43" r:id="rId462" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CD010000}"/>
-    <hyperlink ref="M43" r:id="rId463" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CE010000}"/>
-    <hyperlink ref="O43" r:id="rId464" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CF010000}"/>
-    <hyperlink ref="Q43" r:id="rId465" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D0010000}"/>
-    <hyperlink ref="S43" r:id="rId466" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D1010000}"/>
-    <hyperlink ref="U43" r:id="rId467" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D2010000}"/>
-    <hyperlink ref="W43" r:id="rId468" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D3010000}"/>
-    <hyperlink ref="A44" r:id="rId469" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D4010000}"/>
-    <hyperlink ref="C44" r:id="rId470" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D5010000}"/>
-    <hyperlink ref="E44" r:id="rId471" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D6010000}"/>
-    <hyperlink ref="G44" r:id="rId472" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D7010000}"/>
-    <hyperlink ref="I44" r:id="rId473" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D8010000}"/>
-    <hyperlink ref="K44" r:id="rId474" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D9010000}"/>
-    <hyperlink ref="M44" r:id="rId475" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DA010000}"/>
-    <hyperlink ref="O44" r:id="rId476" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DB010000}"/>
-    <hyperlink ref="Q44" r:id="rId477" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DC010000}"/>
-    <hyperlink ref="S44" r:id="rId478" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DD010000}"/>
-    <hyperlink ref="U44" r:id="rId479" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DE010000}"/>
-    <hyperlink ref="W44" r:id="rId480" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DF010000}"/>
-    <hyperlink ref="A45" r:id="rId481" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E0010000}"/>
-    <hyperlink ref="C45" r:id="rId482" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E1010000}"/>
-    <hyperlink ref="E45" r:id="rId483" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E2010000}"/>
-    <hyperlink ref="G45" r:id="rId484" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E3010000}"/>
-    <hyperlink ref="I45" r:id="rId485" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E4010000}"/>
-    <hyperlink ref="K45" r:id="rId486" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E5010000}"/>
-    <hyperlink ref="M45" r:id="rId487" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E6010000}"/>
-    <hyperlink ref="O45" r:id="rId488" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E7010000}"/>
-    <hyperlink ref="Q45" r:id="rId489" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E8010000}"/>
-    <hyperlink ref="S45" r:id="rId490" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E9010000}"/>
-    <hyperlink ref="U45" r:id="rId491" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EA010000}"/>
-    <hyperlink ref="W45" r:id="rId492" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EB010000}"/>
-    <hyperlink ref="A46" r:id="rId493" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EC010000}"/>
-    <hyperlink ref="C46" r:id="rId494" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000ED010000}"/>
-    <hyperlink ref="E46" r:id="rId495" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EE010000}"/>
-    <hyperlink ref="G46" r:id="rId496" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EF010000}"/>
-    <hyperlink ref="I46" r:id="rId497" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F0010000}"/>
-    <hyperlink ref="K46" r:id="rId498" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F1010000}"/>
-    <hyperlink ref="M46" r:id="rId499" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F2010000}"/>
-    <hyperlink ref="O46" r:id="rId500" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F3010000}"/>
-    <hyperlink ref="Q46" r:id="rId501" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F4010000}"/>
-    <hyperlink ref="S46" r:id="rId502" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F5010000}"/>
-    <hyperlink ref="U46" r:id="rId503" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F6010000}"/>
-    <hyperlink ref="W46" r:id="rId504" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F7010000}"/>
-    <hyperlink ref="A47" r:id="rId505" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F8010000}"/>
-    <hyperlink ref="C47" r:id="rId506" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F9010000}"/>
-    <hyperlink ref="E47" r:id="rId507" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FA010000}"/>
-    <hyperlink ref="G47" r:id="rId508" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FB010000}"/>
-    <hyperlink ref="I47" r:id="rId509" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FC010000}"/>
-    <hyperlink ref="K47" r:id="rId510" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FD010000}"/>
-    <hyperlink ref="M47" r:id="rId511" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FE010000}"/>
-    <hyperlink ref="O47" r:id="rId512" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FF010000}"/>
-    <hyperlink ref="Q47" r:id="rId513" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000000020000}"/>
-    <hyperlink ref="S47" r:id="rId514" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000001020000}"/>
-    <hyperlink ref="U47" r:id="rId515" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000002020000}"/>
-    <hyperlink ref="W47" r:id="rId516" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000003020000}"/>
-    <hyperlink ref="A48" r:id="rId517" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000004020000}"/>
-    <hyperlink ref="C48" r:id="rId518" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000005020000}"/>
-    <hyperlink ref="E48" r:id="rId519" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000006020000}"/>
-    <hyperlink ref="G48" r:id="rId520" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000007020000}"/>
-    <hyperlink ref="I48" r:id="rId521" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000008020000}"/>
-    <hyperlink ref="K48" r:id="rId522" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000009020000}"/>
-    <hyperlink ref="M48" r:id="rId523" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000A020000}"/>
-    <hyperlink ref="O48" r:id="rId524" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000B020000}"/>
-    <hyperlink ref="Q48" r:id="rId525" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000C020000}"/>
-    <hyperlink ref="S48" r:id="rId526" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000D020000}"/>
-    <hyperlink ref="U48" r:id="rId527" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000E020000}"/>
-    <hyperlink ref="W48" r:id="rId528" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000F020000}"/>
-    <hyperlink ref="A49" r:id="rId529" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000010020000}"/>
-    <hyperlink ref="C49" r:id="rId530" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000011020000}"/>
-    <hyperlink ref="E49" r:id="rId531" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000012020000}"/>
-    <hyperlink ref="G49" r:id="rId532" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000013020000}"/>
-    <hyperlink ref="I49" r:id="rId533" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000014020000}"/>
-    <hyperlink ref="K49" r:id="rId534" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000015020000}"/>
-    <hyperlink ref="M49" r:id="rId535" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000016020000}"/>
-    <hyperlink ref="O49" r:id="rId536" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000017020000}"/>
-    <hyperlink ref="Q49" r:id="rId537" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000018020000}"/>
-    <hyperlink ref="S49" r:id="rId538" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000019020000}"/>
-    <hyperlink ref="U49" r:id="rId539" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001A020000}"/>
-    <hyperlink ref="W49" r:id="rId540" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001B020000}"/>
-    <hyperlink ref="A50" r:id="rId541" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001C020000}"/>
-    <hyperlink ref="C50" r:id="rId542" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001D020000}"/>
-    <hyperlink ref="E50" r:id="rId543" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00001E020000}"/>
-    <hyperlink ref="G50" r:id="rId544" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00001F020000}"/>
-    <hyperlink ref="I50" r:id="rId545" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000020020000}"/>
-    <hyperlink ref="K50" r:id="rId546" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000021020000}"/>
-    <hyperlink ref="M50" r:id="rId547" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000022020000}"/>
-    <hyperlink ref="O50" r:id="rId548" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000023020000}"/>
-    <hyperlink ref="Q50" r:id="rId549" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000024020000}"/>
-    <hyperlink ref="S50" r:id="rId550" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000025020000}"/>
-    <hyperlink ref="U50" r:id="rId551" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000026020000}"/>
-    <hyperlink ref="W50" r:id="rId552" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000027020000}"/>
-    <hyperlink ref="A51" r:id="rId553" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000028020000}"/>
-    <hyperlink ref="C51" r:id="rId554" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000029020000}"/>
-    <hyperlink ref="E51" r:id="rId555" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00002A020000}"/>
-    <hyperlink ref="G51" r:id="rId556" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00002B020000}"/>
-    <hyperlink ref="I51" r:id="rId557" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002C020000}"/>
-    <hyperlink ref="K51" r:id="rId558" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002D020000}"/>
-    <hyperlink ref="M51" r:id="rId559" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002E020000}"/>
-    <hyperlink ref="O51" r:id="rId560" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002F020000}"/>
-    <hyperlink ref="Q51" r:id="rId561" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000030020000}"/>
-    <hyperlink ref="S51" r:id="rId562" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000031020000}"/>
-    <hyperlink ref="U51" r:id="rId563" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000032020000}"/>
-    <hyperlink ref="W51" r:id="rId564" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000033020000}"/>
-    <hyperlink ref="A52" r:id="rId565" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000034020000}"/>
-    <hyperlink ref="C52" r:id="rId566" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000035020000}"/>
-    <hyperlink ref="E52" r:id="rId567" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000036020000}"/>
-    <hyperlink ref="G52" r:id="rId568" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000037020000}"/>
-    <hyperlink ref="I52" r:id="rId569" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000038020000}"/>
-    <hyperlink ref="K52" r:id="rId570" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000039020000}"/>
-    <hyperlink ref="M52" r:id="rId571" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003A020000}"/>
-    <hyperlink ref="O52" r:id="rId572" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003B020000}"/>
-    <hyperlink ref="Q52" r:id="rId573" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003C020000}"/>
-    <hyperlink ref="S52" r:id="rId574" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003D020000}"/>
-    <hyperlink ref="U52" r:id="rId575" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003E020000}"/>
-    <hyperlink ref="W52" r:id="rId576" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003F020000}"/>
-    <hyperlink ref="A53" r:id="rId577" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000040020000}"/>
-    <hyperlink ref="C53" r:id="rId578" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000041020000}"/>
-    <hyperlink ref="E53" r:id="rId579" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000042020000}"/>
-    <hyperlink ref="G53" r:id="rId580" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000043020000}"/>
-    <hyperlink ref="I53" r:id="rId581" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000044020000}"/>
-    <hyperlink ref="K53" r:id="rId582" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000045020000}"/>
-    <hyperlink ref="M53" r:id="rId583" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000046020000}"/>
-    <hyperlink ref="O53" r:id="rId584" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000047020000}"/>
-    <hyperlink ref="Q53" r:id="rId585" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000048020000}"/>
-    <hyperlink ref="S53" r:id="rId586" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000049020000}"/>
-    <hyperlink ref="U53" r:id="rId587" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004A020000}"/>
-    <hyperlink ref="W53" r:id="rId588" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004B020000}"/>
-    <hyperlink ref="A54" r:id="rId589" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004C020000}"/>
-    <hyperlink ref="C54" r:id="rId590" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004D020000}"/>
-    <hyperlink ref="E54" r:id="rId591" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00004E020000}"/>
-    <hyperlink ref="G54" r:id="rId592" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00004F020000}"/>
-    <hyperlink ref="I54" r:id="rId593" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000050020000}"/>
-    <hyperlink ref="K54" r:id="rId594" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000051020000}"/>
-    <hyperlink ref="M54" r:id="rId595" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000052020000}"/>
-    <hyperlink ref="O54" r:id="rId596" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000053020000}"/>
-    <hyperlink ref="Q54" r:id="rId597" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000054020000}"/>
-    <hyperlink ref="S54" r:id="rId598" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000055020000}"/>
-    <hyperlink ref="U54" r:id="rId599" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000056020000}"/>
-    <hyperlink ref="W54" r:id="rId600" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000057020000}"/>
-    <hyperlink ref="A55" r:id="rId601" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000058020000}"/>
-    <hyperlink ref="C55" r:id="rId602" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000059020000}"/>
-    <hyperlink ref="E55" r:id="rId603" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00005A020000}"/>
-    <hyperlink ref="G55" r:id="rId604" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00005B020000}"/>
-    <hyperlink ref="I55" r:id="rId605" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005C020000}"/>
-    <hyperlink ref="K55" r:id="rId606" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005D020000}"/>
-    <hyperlink ref="M55" r:id="rId607" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005E020000}"/>
-    <hyperlink ref="O55" r:id="rId608" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005F020000}"/>
-    <hyperlink ref="Q55" r:id="rId609" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000060020000}"/>
-    <hyperlink ref="S55" r:id="rId610" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000061020000}"/>
-    <hyperlink ref="U55" r:id="rId611" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000062020000}"/>
-    <hyperlink ref="W55" r:id="rId612" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000063020000}"/>
-    <hyperlink ref="A56" r:id="rId613" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000064020000}"/>
-    <hyperlink ref="C56" r:id="rId614" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000065020000}"/>
-    <hyperlink ref="E56" r:id="rId615" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000066020000}"/>
-    <hyperlink ref="G56" r:id="rId616" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000067020000}"/>
-    <hyperlink ref="I56" r:id="rId617" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000068020000}"/>
-    <hyperlink ref="K56" r:id="rId618" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000069020000}"/>
-    <hyperlink ref="M56" r:id="rId619" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006A020000}"/>
-    <hyperlink ref="O56" r:id="rId620" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006B020000}"/>
-    <hyperlink ref="Q56" r:id="rId621" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006C020000}"/>
-    <hyperlink ref="S56" r:id="rId622" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006D020000}"/>
-    <hyperlink ref="U56" r:id="rId623" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006E020000}"/>
-    <hyperlink ref="W56" r:id="rId624" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006F020000}"/>
-    <hyperlink ref="A57" r:id="rId625" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000070020000}"/>
-    <hyperlink ref="C57" r:id="rId626" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000071020000}"/>
-    <hyperlink ref="E57" r:id="rId627" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000072020000}"/>
-    <hyperlink ref="G57" r:id="rId628" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000073020000}"/>
-    <hyperlink ref="I57" r:id="rId629" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000074020000}"/>
-    <hyperlink ref="K57" r:id="rId630" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000075020000}"/>
-    <hyperlink ref="M57" r:id="rId631" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000076020000}"/>
-    <hyperlink ref="O57" r:id="rId632" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000077020000}"/>
-    <hyperlink ref="Q57" r:id="rId633" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078020000}"/>
-    <hyperlink ref="S57" r:id="rId634" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000079020000}"/>
-    <hyperlink ref="U57" r:id="rId635" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007A020000}"/>
-    <hyperlink ref="W57" r:id="rId636" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007B020000}"/>
-    <hyperlink ref="A58" r:id="rId637" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007C020000}"/>
-    <hyperlink ref="C58" r:id="rId638" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007D020000}"/>
-    <hyperlink ref="E58" r:id="rId639" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00007E020000}"/>
-    <hyperlink ref="G58" r:id="rId640" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00007F020000}"/>
-    <hyperlink ref="I58" r:id="rId641" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000080020000}"/>
-    <hyperlink ref="K58" r:id="rId642" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000081020000}"/>
-    <hyperlink ref="M58" r:id="rId643" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000082020000}"/>
-    <hyperlink ref="O58" r:id="rId644" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000083020000}"/>
-    <hyperlink ref="Q58" r:id="rId645" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000084020000}"/>
-    <hyperlink ref="S58" r:id="rId646" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000085020000}"/>
-    <hyperlink ref="U58" r:id="rId647" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000086020000}"/>
-    <hyperlink ref="W58" r:id="rId648" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000087020000}"/>
-    <hyperlink ref="A59" r:id="rId649" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000088020000}"/>
-    <hyperlink ref="C59" r:id="rId650" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000089020000}"/>
-    <hyperlink ref="E59" r:id="rId651" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00008A020000}"/>
-    <hyperlink ref="G59" r:id="rId652" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00008B020000}"/>
-    <hyperlink ref="I59" r:id="rId653" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008C020000}"/>
-    <hyperlink ref="K59" r:id="rId654" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008D020000}"/>
-    <hyperlink ref="M59" r:id="rId655" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008E020000}"/>
-    <hyperlink ref="O59" r:id="rId656" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008F020000}"/>
-    <hyperlink ref="Q59" r:id="rId657" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000090020000}"/>
-    <hyperlink ref="S59" r:id="rId658" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000091020000}"/>
-    <hyperlink ref="U59" r:id="rId659" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000092020000}"/>
-    <hyperlink ref="W59" r:id="rId660" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000093020000}"/>
-    <hyperlink ref="A60" r:id="rId661" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000094020000}"/>
-    <hyperlink ref="C60" r:id="rId662" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000095020000}"/>
-    <hyperlink ref="E60" r:id="rId663" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000096020000}"/>
-    <hyperlink ref="G60" r:id="rId664" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000097020000}"/>
-    <hyperlink ref="I60" r:id="rId665" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000098020000}"/>
-    <hyperlink ref="K60" r:id="rId666" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000099020000}"/>
-    <hyperlink ref="M60" r:id="rId667" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009A020000}"/>
-    <hyperlink ref="O60" r:id="rId668" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009B020000}"/>
-    <hyperlink ref="Q60" r:id="rId669" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009C020000}"/>
-    <hyperlink ref="S60" r:id="rId670" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009D020000}"/>
-    <hyperlink ref="U60" r:id="rId671" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009E020000}"/>
-    <hyperlink ref="W60" r:id="rId672" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009F020000}"/>
-    <hyperlink ref="A61" r:id="rId673" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A0020000}"/>
-    <hyperlink ref="C61" r:id="rId674" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A1020000}"/>
-    <hyperlink ref="E61" r:id="rId675" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A2020000}"/>
-    <hyperlink ref="G61" r:id="rId676" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A3020000}"/>
-    <hyperlink ref="I61" r:id="rId677" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A4020000}"/>
-    <hyperlink ref="K61" r:id="rId678" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A5020000}"/>
-    <hyperlink ref="M61" r:id="rId679" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A6020000}"/>
-    <hyperlink ref="O61" r:id="rId680" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A7020000}"/>
-    <hyperlink ref="Q61" r:id="rId681" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A8020000}"/>
-    <hyperlink ref="S61" r:id="rId682" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A9020000}"/>
-    <hyperlink ref="U61" r:id="rId683" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AA020000}"/>
-    <hyperlink ref="W61" r:id="rId684" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AB020000}"/>
+    <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="E15" r:id="rId3" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="G15" r:id="rId4" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="I15" r:id="rId5" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="K15" r:id="rId6" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="M15" r:id="rId7" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="O15" r:id="rId8" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="Q15" r:id="rId9" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="S15" r:id="rId10" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="U15" r:id="rId11" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="W15" r:id="rId12" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="G16" r:id="rId16" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="I16" r:id="rId17" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="K16" r:id="rId18" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="M16" r:id="rId19" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="O16" r:id="rId20" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="Q16" r:id="rId21" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="S16" r:id="rId22" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="U16" r:id="rId23" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="W16" r:id="rId24" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="A17" r:id="rId25" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="C17" r:id="rId26" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="E17" r:id="rId27" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="G17" r:id="rId28" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="I17" r:id="rId29" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="K17" r:id="rId30" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="M17" r:id="rId31" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="O17" r:id="rId32" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="Q17" r:id="rId33" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="S17" r:id="rId34" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="U17" r:id="rId35" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="W17" r:id="rId36" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="A18" r:id="rId37" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="C18" r:id="rId38" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="E18" r:id="rId39" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="G18" r:id="rId40" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="I18" r:id="rId41" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="K18" r:id="rId42" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="M18" r:id="rId43" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="O18" r:id="rId44" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="Q18" r:id="rId45" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="S18" r:id="rId46" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="U18" r:id="rId47" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="W18" r:id="rId48" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="A19" r:id="rId49" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="C19" r:id="rId50" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="E19" r:id="rId51" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="G19" r:id="rId52" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="I19" r:id="rId53" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="K19" r:id="rId54" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="M19" r:id="rId55" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="O19" r:id="rId56" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="Q19" r:id="rId57" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="S19" r:id="rId58" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="U19" r:id="rId59" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="W19" r:id="rId60" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="A20" r:id="rId61" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="C20" r:id="rId62" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="E20" r:id="rId63" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="G20" r:id="rId64" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="I20" r:id="rId65" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="K20" r:id="rId66" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="M20" r:id="rId67" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="O20" r:id="rId68" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="Q20" r:id="rId69" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="S20" r:id="rId70" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="U20" r:id="rId71" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="W20" r:id="rId72" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="A21" r:id="rId73" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="C21" r:id="rId74" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="E21" r:id="rId75" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="G21" r:id="rId76" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="I21" r:id="rId77" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="K21" r:id="rId78" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="M21" r:id="rId79" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="O21" r:id="rId80" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="Q21" r:id="rId81" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="S21" r:id="rId82" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="U21" r:id="rId83" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="W21" r:id="rId84" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="A22" r:id="rId85" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="C22" r:id="rId86" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="E22" r:id="rId87" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="G22" r:id="rId88" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="I22" r:id="rId89" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="K22" r:id="rId90" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="M22" r:id="rId91" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="O22" r:id="rId92" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="Q22" r:id="rId93" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="S22" r:id="rId94" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="U22" r:id="rId95" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="W22" r:id="rId96" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="A23" r:id="rId97" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="C23" r:id="rId98" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="E23" r:id="rId99" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="G23" r:id="rId100" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="I23" r:id="rId101" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="K23" r:id="rId102" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="M23" r:id="rId103" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="O23" r:id="rId104" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="Q23" r:id="rId105" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="S23" r:id="rId106" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="U23" r:id="rId107" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="W23" r:id="rId108" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="A24" r:id="rId109" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="C24" r:id="rId110" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="E24" r:id="rId111" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="G24" r:id="rId112" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="I24" r:id="rId113" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="K24" r:id="rId114" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="M24" r:id="rId115" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="O24" r:id="rId116" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="Q24" r:id="rId117" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="S24" r:id="rId118" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="U24" r:id="rId119" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="W24" r:id="rId120" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="A25" r:id="rId121" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="C25" r:id="rId122" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="E25" r:id="rId123" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="G25" r:id="rId124" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="I25" r:id="rId125" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="K25" r:id="rId126" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="M25" r:id="rId127" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="O25" r:id="rId128" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="Q25" r:id="rId129" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="S25" r:id="rId130" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="U25" r:id="rId131" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="W25" r:id="rId132" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="A26" r:id="rId133" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="C26" r:id="rId134" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="E26" r:id="rId135" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="G26" r:id="rId136" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="I26" r:id="rId137" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="K26" r:id="rId138" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="M26" r:id="rId139" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="O26" r:id="rId140" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="Q26" r:id="rId141" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="S26" r:id="rId142" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="U26" r:id="rId143" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="W26" r:id="rId144" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="A27" r:id="rId145" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="C27" r:id="rId146" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="E27" r:id="rId147" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="G27" r:id="rId148" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="I27" r:id="rId149" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="K27" r:id="rId150" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="M27" r:id="rId151" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="O27" r:id="rId152" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="Q27" r:id="rId153" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="S27" r:id="rId154" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="U27" r:id="rId155" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="W27" r:id="rId156" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="A28" r:id="rId157" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="C28" r:id="rId158" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="E28" r:id="rId159" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="G28" r:id="rId160" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="I28" r:id="rId161" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="K28" r:id="rId162" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="M28" r:id="rId163" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="O28" r:id="rId164" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="Q28" r:id="rId165" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="S28" r:id="rId166" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="U28" r:id="rId167" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="W28" r:id="rId168" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="A29" r:id="rId169" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="C29" r:id="rId170" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="E29" r:id="rId171" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="G29" r:id="rId172" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="I29" r:id="rId173" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="K29" r:id="rId174" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="M29" r:id="rId175" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="O29" r:id="rId176" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="Q29" r:id="rId177" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="S29" r:id="rId178" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="U29" r:id="rId179" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="W29" r:id="rId180" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="A30" r:id="rId181" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="C30" r:id="rId182" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="E30" r:id="rId183" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="G30" r:id="rId184" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="I30" r:id="rId185" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="K30" r:id="rId186" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="M30" r:id="rId187" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="O30" r:id="rId188" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="Q30" r:id="rId189" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="S30" r:id="rId190" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="U30" r:id="rId191" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="W30" r:id="rId192" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="A31" r:id="rId193" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="C31" r:id="rId194" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="E31" r:id="rId195" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="G31" r:id="rId196" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="I31" r:id="rId197" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="K31" r:id="rId198" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="M31" r:id="rId199" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="O31" r:id="rId200" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="Q31" r:id="rId201" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="S31" r:id="rId202" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="U31" r:id="rId203" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="W31" r:id="rId204" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="A32" r:id="rId205" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="C32" r:id="rId206" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="E32" r:id="rId207" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="G32" r:id="rId208" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="I32" r:id="rId209" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="K32" r:id="rId210" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="M32" r:id="rId211" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="O32" r:id="rId212" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="Q32" r:id="rId213" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="S32" r:id="rId214" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="U32" r:id="rId215" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="W32" r:id="rId216" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="A33" r:id="rId217" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="C33" r:id="rId218" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="E33" r:id="rId219" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="G33" r:id="rId220" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="I33" r:id="rId221" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="K33" r:id="rId222" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="M33" r:id="rId223" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="O33" r:id="rId224" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="Q33" r:id="rId225" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
+    <hyperlink ref="S33" r:id="rId226" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
+    <hyperlink ref="U33" r:id="rId227" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
+    <hyperlink ref="W33" r:id="rId228" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
+    <hyperlink ref="A34" r:id="rId229" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="C34" r:id="rId230" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="E34" r:id="rId231" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
+    <hyperlink ref="G34" r:id="rId232" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
+    <hyperlink ref="I34" r:id="rId233" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
+    <hyperlink ref="K34" r:id="rId234" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
+    <hyperlink ref="M34" r:id="rId235" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
+    <hyperlink ref="O34" r:id="rId236" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
+    <hyperlink ref="Q34" r:id="rId237" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
+    <hyperlink ref="S34" r:id="rId238" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
+    <hyperlink ref="U34" r:id="rId239" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
+    <hyperlink ref="W34" r:id="rId240" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
+    <hyperlink ref="A35" r:id="rId241" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
+    <hyperlink ref="C35" r:id="rId242" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
+    <hyperlink ref="E35" r:id="rId243" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
+    <hyperlink ref="G35" r:id="rId244" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
+    <hyperlink ref="I35" r:id="rId245" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
+    <hyperlink ref="K35" r:id="rId246" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
+    <hyperlink ref="M35" r:id="rId247" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
+    <hyperlink ref="O35" r:id="rId248" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
+    <hyperlink ref="Q35" r:id="rId249" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
+    <hyperlink ref="S35" r:id="rId250" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
+    <hyperlink ref="U35" r:id="rId251" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
+    <hyperlink ref="W35" r:id="rId252" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
+    <hyperlink ref="A36" r:id="rId253" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
+    <hyperlink ref="C36" r:id="rId254" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
+    <hyperlink ref="E36" r:id="rId255" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
+    <hyperlink ref="G36" r:id="rId256" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
+    <hyperlink ref="I36" r:id="rId257" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
+    <hyperlink ref="K36" r:id="rId258" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
+    <hyperlink ref="M36" r:id="rId259" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
+    <hyperlink ref="O36" r:id="rId260" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
+    <hyperlink ref="Q36" r:id="rId261" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
+    <hyperlink ref="S36" r:id="rId262" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
+    <hyperlink ref="U36" r:id="rId263" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
+    <hyperlink ref="W36" r:id="rId264" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
+    <hyperlink ref="A37" r:id="rId265" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
+    <hyperlink ref="C37" r:id="rId266" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
+    <hyperlink ref="E37" r:id="rId267" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
+    <hyperlink ref="G37" r:id="rId268" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
+    <hyperlink ref="I37" r:id="rId269" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
+    <hyperlink ref="K37" r:id="rId270" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
+    <hyperlink ref="M37" r:id="rId271" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
+    <hyperlink ref="O37" r:id="rId272" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
+    <hyperlink ref="Q37" r:id="rId273" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
+    <hyperlink ref="S37" r:id="rId274" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
+    <hyperlink ref="U37" r:id="rId275" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
+    <hyperlink ref="W37" r:id="rId276" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
+    <hyperlink ref="A38" r:id="rId277" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
+    <hyperlink ref="C38" r:id="rId278" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
+    <hyperlink ref="E38" r:id="rId279" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
+    <hyperlink ref="G38" r:id="rId280" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
+    <hyperlink ref="I38" r:id="rId281" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
+    <hyperlink ref="K38" r:id="rId282" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
+    <hyperlink ref="M38" r:id="rId283" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
+    <hyperlink ref="O38" r:id="rId284" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
+    <hyperlink ref="Q38" r:id="rId285" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
+    <hyperlink ref="S38" r:id="rId286" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
+    <hyperlink ref="U38" r:id="rId287" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
+    <hyperlink ref="W38" r:id="rId288" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
+    <hyperlink ref="A39" r:id="rId289" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
+    <hyperlink ref="C39" r:id="rId290" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
+    <hyperlink ref="E39" r:id="rId291" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
+    <hyperlink ref="G39" r:id="rId292" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
+    <hyperlink ref="I39" r:id="rId293" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
+    <hyperlink ref="K39" r:id="rId294" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
+    <hyperlink ref="M39" r:id="rId295" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
+    <hyperlink ref="O39" r:id="rId296" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
+    <hyperlink ref="Q39" r:id="rId297" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
+    <hyperlink ref="S39" r:id="rId298" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
+    <hyperlink ref="U39" r:id="rId299" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
+    <hyperlink ref="W39" r:id="rId300" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
+    <hyperlink ref="A40" r:id="rId301" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
+    <hyperlink ref="C40" r:id="rId302" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
+    <hyperlink ref="E40" r:id="rId303" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
+    <hyperlink ref="G40" r:id="rId304" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
+    <hyperlink ref="I40" r:id="rId305" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
+    <hyperlink ref="K40" r:id="rId306" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
+    <hyperlink ref="M40" r:id="rId307" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
+    <hyperlink ref="O40" r:id="rId308" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
+    <hyperlink ref="Q40" r:id="rId309" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
+    <hyperlink ref="S40" r:id="rId310" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
+    <hyperlink ref="U40" r:id="rId311" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AE010000}"/>
+    <hyperlink ref="W40" r:id="rId312" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AF010000}"/>
+    <hyperlink ref="A41" r:id="rId313" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B0010000}"/>
+    <hyperlink ref="C41" r:id="rId314" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B1010000}"/>
+    <hyperlink ref="E41" r:id="rId315" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B2010000}"/>
+    <hyperlink ref="G41" r:id="rId316" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B3010000}"/>
+    <hyperlink ref="I41" r:id="rId317" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B4010000}"/>
+    <hyperlink ref="K41" r:id="rId318" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B5010000}"/>
+    <hyperlink ref="M41" r:id="rId319" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B6010000}"/>
+    <hyperlink ref="O41" r:id="rId320" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B7010000}"/>
+    <hyperlink ref="Q41" r:id="rId321" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B8010000}"/>
+    <hyperlink ref="S41" r:id="rId322" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000B9010000}"/>
+    <hyperlink ref="U41" r:id="rId323" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BA010000}"/>
+    <hyperlink ref="W41" r:id="rId324" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BB010000}"/>
+    <hyperlink ref="A42" r:id="rId325" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BC010000}"/>
+    <hyperlink ref="C42" r:id="rId326" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BD010000}"/>
+    <hyperlink ref="E42" r:id="rId327" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
+    <hyperlink ref="G42" r:id="rId328" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
+    <hyperlink ref="I42" r:id="rId329" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
+    <hyperlink ref="K42" r:id="rId330" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
+    <hyperlink ref="M42" r:id="rId331" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C2010000}"/>
+    <hyperlink ref="O42" r:id="rId332" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
+    <hyperlink ref="Q42" r:id="rId333" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
+    <hyperlink ref="S42" r:id="rId334" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
+    <hyperlink ref="U42" r:id="rId335" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C6010000}"/>
+    <hyperlink ref="W42" r:id="rId336" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C7010000}"/>
+    <hyperlink ref="A43" r:id="rId337" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C8010000}"/>
+    <hyperlink ref="C43" r:id="rId338" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000C9010000}"/>
+    <hyperlink ref="E43" r:id="rId339" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CA010000}"/>
+    <hyperlink ref="G43" r:id="rId340" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CB010000}"/>
+    <hyperlink ref="I43" r:id="rId341" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CC010000}"/>
+    <hyperlink ref="K43" r:id="rId342" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CD010000}"/>
+    <hyperlink ref="M43" r:id="rId343" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CE010000}"/>
+    <hyperlink ref="O43" r:id="rId344" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000CF010000}"/>
+    <hyperlink ref="Q43" r:id="rId345" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D0010000}"/>
+    <hyperlink ref="S43" r:id="rId346" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D1010000}"/>
+    <hyperlink ref="U43" r:id="rId347" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D2010000}"/>
+    <hyperlink ref="W43" r:id="rId348" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D3010000}"/>
+    <hyperlink ref="A44" r:id="rId349" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D4010000}"/>
+    <hyperlink ref="C44" r:id="rId350" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D5010000}"/>
+    <hyperlink ref="E44" r:id="rId351" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D6010000}"/>
+    <hyperlink ref="G44" r:id="rId352" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D7010000}"/>
+    <hyperlink ref="I44" r:id="rId353" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D8010000}"/>
+    <hyperlink ref="K44" r:id="rId354" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000D9010000}"/>
+    <hyperlink ref="M44" r:id="rId355" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DA010000}"/>
+    <hyperlink ref="O44" r:id="rId356" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DB010000}"/>
+    <hyperlink ref="Q44" r:id="rId357" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DC010000}"/>
+    <hyperlink ref="S44" r:id="rId358" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DD010000}"/>
+    <hyperlink ref="U44" r:id="rId359" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DE010000}"/>
+    <hyperlink ref="W44" r:id="rId360" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000DF010000}"/>
+    <hyperlink ref="A45" r:id="rId361" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E0010000}"/>
+    <hyperlink ref="C45" r:id="rId362" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E1010000}"/>
+    <hyperlink ref="E45" r:id="rId363" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E2010000}"/>
+    <hyperlink ref="G45" r:id="rId364" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E3010000}"/>
+    <hyperlink ref="I45" r:id="rId365" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E4010000}"/>
+    <hyperlink ref="K45" r:id="rId366" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E5010000}"/>
+    <hyperlink ref="M45" r:id="rId367" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E6010000}"/>
+    <hyperlink ref="O45" r:id="rId368" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E7010000}"/>
+    <hyperlink ref="Q45" r:id="rId369" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E8010000}"/>
+    <hyperlink ref="S45" r:id="rId370" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000E9010000}"/>
+    <hyperlink ref="U45" r:id="rId371" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EA010000}"/>
+    <hyperlink ref="W45" r:id="rId372" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EB010000}"/>
+    <hyperlink ref="A46" r:id="rId373" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EC010000}"/>
+    <hyperlink ref="C46" r:id="rId374" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000ED010000}"/>
+    <hyperlink ref="E46" r:id="rId375" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EE010000}"/>
+    <hyperlink ref="G46" r:id="rId376" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000EF010000}"/>
+    <hyperlink ref="I46" r:id="rId377" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F0010000}"/>
+    <hyperlink ref="K46" r:id="rId378" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F1010000}"/>
+    <hyperlink ref="M46" r:id="rId379" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F2010000}"/>
+    <hyperlink ref="O46" r:id="rId380" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F3010000}"/>
+    <hyperlink ref="Q46" r:id="rId381" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F4010000}"/>
+    <hyperlink ref="S46" r:id="rId382" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F5010000}"/>
+    <hyperlink ref="U46" r:id="rId383" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F6010000}"/>
+    <hyperlink ref="W46" r:id="rId384" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F7010000}"/>
+    <hyperlink ref="A47" r:id="rId385" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F8010000}"/>
+    <hyperlink ref="C47" r:id="rId386" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000F9010000}"/>
+    <hyperlink ref="E47" r:id="rId387" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FA010000}"/>
+    <hyperlink ref="G47" r:id="rId388" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FB010000}"/>
+    <hyperlink ref="I47" r:id="rId389" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FC010000}"/>
+    <hyperlink ref="K47" r:id="rId390" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FD010000}"/>
+    <hyperlink ref="M47" r:id="rId391" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FE010000}"/>
+    <hyperlink ref="O47" r:id="rId392" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000FF010000}"/>
+    <hyperlink ref="Q47" r:id="rId393" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000000020000}"/>
+    <hyperlink ref="S47" r:id="rId394" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000001020000}"/>
+    <hyperlink ref="U47" r:id="rId395" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000002020000}"/>
+    <hyperlink ref="W47" r:id="rId396" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000003020000}"/>
+    <hyperlink ref="A48" r:id="rId397" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000004020000}"/>
+    <hyperlink ref="C48" r:id="rId398" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000005020000}"/>
+    <hyperlink ref="E48" r:id="rId399" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000006020000}"/>
+    <hyperlink ref="G48" r:id="rId400" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000007020000}"/>
+    <hyperlink ref="I48" r:id="rId401" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000008020000}"/>
+    <hyperlink ref="K48" r:id="rId402" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000009020000}"/>
+    <hyperlink ref="M48" r:id="rId403" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000A020000}"/>
+    <hyperlink ref="O48" r:id="rId404" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000B020000}"/>
+    <hyperlink ref="Q48" r:id="rId405" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000C020000}"/>
+    <hyperlink ref="S48" r:id="rId406" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000D020000}"/>
+    <hyperlink ref="U48" r:id="rId407" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000E020000}"/>
+    <hyperlink ref="W48" r:id="rId408" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000F020000}"/>
+    <hyperlink ref="A49" r:id="rId409" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000010020000}"/>
+    <hyperlink ref="C49" r:id="rId410" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000011020000}"/>
+    <hyperlink ref="E49" r:id="rId411" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000012020000}"/>
+    <hyperlink ref="G49" r:id="rId412" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000013020000}"/>
+    <hyperlink ref="I49" r:id="rId413" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000014020000}"/>
+    <hyperlink ref="K49" r:id="rId414" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000015020000}"/>
+    <hyperlink ref="M49" r:id="rId415" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000016020000}"/>
+    <hyperlink ref="O49" r:id="rId416" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000017020000}"/>
+    <hyperlink ref="Q49" r:id="rId417" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000018020000}"/>
+    <hyperlink ref="S49" r:id="rId418" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000019020000}"/>
+    <hyperlink ref="U49" r:id="rId419" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001A020000}"/>
+    <hyperlink ref="W49" r:id="rId420" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001B020000}"/>
+    <hyperlink ref="A50" r:id="rId421" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001C020000}"/>
+    <hyperlink ref="C50" r:id="rId422" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001D020000}"/>
+    <hyperlink ref="E50" r:id="rId423" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00001E020000}"/>
+    <hyperlink ref="G50" r:id="rId424" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00001F020000}"/>
+    <hyperlink ref="I50" r:id="rId425" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000020020000}"/>
+    <hyperlink ref="K50" r:id="rId426" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000021020000}"/>
+    <hyperlink ref="M50" r:id="rId427" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000022020000}"/>
+    <hyperlink ref="O50" r:id="rId428" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000023020000}"/>
+    <hyperlink ref="Q50" r:id="rId429" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000024020000}"/>
+    <hyperlink ref="S50" r:id="rId430" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000025020000}"/>
+    <hyperlink ref="U50" r:id="rId431" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000026020000}"/>
+    <hyperlink ref="W50" r:id="rId432" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000027020000}"/>
+    <hyperlink ref="A51" r:id="rId433" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000028020000}"/>
+    <hyperlink ref="C51" r:id="rId434" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000029020000}"/>
+    <hyperlink ref="E51" r:id="rId435" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00002A020000}"/>
+    <hyperlink ref="G51" r:id="rId436" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00002B020000}"/>
+    <hyperlink ref="I51" r:id="rId437" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002C020000}"/>
+    <hyperlink ref="K51" r:id="rId438" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002D020000}"/>
+    <hyperlink ref="M51" r:id="rId439" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002E020000}"/>
+    <hyperlink ref="O51" r:id="rId440" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002F020000}"/>
+    <hyperlink ref="Q51" r:id="rId441" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000030020000}"/>
+    <hyperlink ref="S51" r:id="rId442" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000031020000}"/>
+    <hyperlink ref="U51" r:id="rId443" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000032020000}"/>
+    <hyperlink ref="W51" r:id="rId444" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000033020000}"/>
+    <hyperlink ref="A52" r:id="rId445" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000034020000}"/>
+    <hyperlink ref="C52" r:id="rId446" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000035020000}"/>
+    <hyperlink ref="E52" r:id="rId447" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000036020000}"/>
+    <hyperlink ref="G52" r:id="rId448" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000037020000}"/>
+    <hyperlink ref="I52" r:id="rId449" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000038020000}"/>
+    <hyperlink ref="K52" r:id="rId450" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000039020000}"/>
+    <hyperlink ref="M52" r:id="rId451" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003A020000}"/>
+    <hyperlink ref="O52" r:id="rId452" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003B020000}"/>
+    <hyperlink ref="Q52" r:id="rId453" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003C020000}"/>
+    <hyperlink ref="S52" r:id="rId454" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003D020000}"/>
+    <hyperlink ref="U52" r:id="rId455" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003E020000}"/>
+    <hyperlink ref="W52" r:id="rId456" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003F020000}"/>
+    <hyperlink ref="A53" r:id="rId457" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000040020000}"/>
+    <hyperlink ref="C53" r:id="rId458" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000041020000}"/>
+    <hyperlink ref="E53" r:id="rId459" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000042020000}"/>
+    <hyperlink ref="G53" r:id="rId460" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000043020000}"/>
+    <hyperlink ref="I53" r:id="rId461" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000044020000}"/>
+    <hyperlink ref="K53" r:id="rId462" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000045020000}"/>
+    <hyperlink ref="M53" r:id="rId463" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000046020000}"/>
+    <hyperlink ref="O53" r:id="rId464" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000047020000}"/>
+    <hyperlink ref="Q53" r:id="rId465" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000048020000}"/>
+    <hyperlink ref="S53" r:id="rId466" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000049020000}"/>
+    <hyperlink ref="U53" r:id="rId467" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004A020000}"/>
+    <hyperlink ref="W53" r:id="rId468" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004B020000}"/>
+    <hyperlink ref="A54" r:id="rId469" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004C020000}"/>
+    <hyperlink ref="C54" r:id="rId470" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004D020000}"/>
+    <hyperlink ref="E54" r:id="rId471" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00004E020000}"/>
+    <hyperlink ref="G54" r:id="rId472" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00004F020000}"/>
+    <hyperlink ref="I54" r:id="rId473" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000050020000}"/>
+    <hyperlink ref="K54" r:id="rId474" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000051020000}"/>
+    <hyperlink ref="M54" r:id="rId475" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000052020000}"/>
+    <hyperlink ref="O54" r:id="rId476" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000053020000}"/>
+    <hyperlink ref="Q54" r:id="rId477" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000054020000}"/>
+    <hyperlink ref="S54" r:id="rId478" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000055020000}"/>
+    <hyperlink ref="U54" r:id="rId479" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000056020000}"/>
+    <hyperlink ref="W54" r:id="rId480" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000057020000}"/>
+    <hyperlink ref="A55" r:id="rId481" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000058020000}"/>
+    <hyperlink ref="C55" r:id="rId482" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000059020000}"/>
+    <hyperlink ref="E55" r:id="rId483" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00005A020000}"/>
+    <hyperlink ref="G55" r:id="rId484" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00005B020000}"/>
+    <hyperlink ref="I55" r:id="rId485" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005C020000}"/>
+    <hyperlink ref="K55" r:id="rId486" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005D020000}"/>
+    <hyperlink ref="M55" r:id="rId487" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005E020000}"/>
+    <hyperlink ref="O55" r:id="rId488" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005F020000}"/>
+    <hyperlink ref="Q55" r:id="rId489" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000060020000}"/>
+    <hyperlink ref="S55" r:id="rId490" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000061020000}"/>
+    <hyperlink ref="U55" r:id="rId491" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000062020000}"/>
+    <hyperlink ref="W55" r:id="rId492" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000063020000}"/>
+    <hyperlink ref="A56" r:id="rId493" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000064020000}"/>
+    <hyperlink ref="C56" r:id="rId494" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000065020000}"/>
+    <hyperlink ref="E56" r:id="rId495" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000066020000}"/>
+    <hyperlink ref="G56" r:id="rId496" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000067020000}"/>
+    <hyperlink ref="I56" r:id="rId497" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000068020000}"/>
+    <hyperlink ref="K56" r:id="rId498" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000069020000}"/>
+    <hyperlink ref="M56" r:id="rId499" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006A020000}"/>
+    <hyperlink ref="O56" r:id="rId500" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006B020000}"/>
+    <hyperlink ref="Q56" r:id="rId501" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006C020000}"/>
+    <hyperlink ref="S56" r:id="rId502" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006D020000}"/>
+    <hyperlink ref="U56" r:id="rId503" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006E020000}"/>
+    <hyperlink ref="W56" r:id="rId504" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006F020000}"/>
+    <hyperlink ref="A57" r:id="rId505" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000070020000}"/>
+    <hyperlink ref="C57" r:id="rId506" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000071020000}"/>
+    <hyperlink ref="E57" r:id="rId507" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000072020000}"/>
+    <hyperlink ref="G57" r:id="rId508" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000073020000}"/>
+    <hyperlink ref="I57" r:id="rId509" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000074020000}"/>
+    <hyperlink ref="K57" r:id="rId510" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000075020000}"/>
+    <hyperlink ref="M57" r:id="rId511" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000076020000}"/>
+    <hyperlink ref="O57" r:id="rId512" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000077020000}"/>
+    <hyperlink ref="Q57" r:id="rId513" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078020000}"/>
+    <hyperlink ref="S57" r:id="rId514" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000079020000}"/>
+    <hyperlink ref="U57" r:id="rId515" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007A020000}"/>
+    <hyperlink ref="W57" r:id="rId516" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007B020000}"/>
+    <hyperlink ref="A58" r:id="rId517" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007C020000}"/>
+    <hyperlink ref="C58" r:id="rId518" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00007D020000}"/>
+    <hyperlink ref="E58" r:id="rId519" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00007E020000}"/>
+    <hyperlink ref="G58" r:id="rId520" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00007F020000}"/>
+    <hyperlink ref="I58" r:id="rId521" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000080020000}"/>
+    <hyperlink ref="K58" r:id="rId522" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000081020000}"/>
+    <hyperlink ref="M58" r:id="rId523" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000082020000}"/>
+    <hyperlink ref="O58" r:id="rId524" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000083020000}"/>
+    <hyperlink ref="Q58" r:id="rId525" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000084020000}"/>
+    <hyperlink ref="S58" r:id="rId526" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000085020000}"/>
+    <hyperlink ref="U58" r:id="rId527" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000086020000}"/>
+    <hyperlink ref="W58" r:id="rId528" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000087020000}"/>
+    <hyperlink ref="A59" r:id="rId529" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000088020000}"/>
+    <hyperlink ref="C59" r:id="rId530" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000089020000}"/>
+    <hyperlink ref="E59" r:id="rId531" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00008A020000}"/>
+    <hyperlink ref="G59" r:id="rId532" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00008B020000}"/>
+    <hyperlink ref="I59" r:id="rId533" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008C020000}"/>
+    <hyperlink ref="K59" r:id="rId534" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008D020000}"/>
+    <hyperlink ref="M59" r:id="rId535" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008E020000}"/>
+    <hyperlink ref="O59" r:id="rId536" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00008F020000}"/>
+    <hyperlink ref="Q59" r:id="rId537" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000090020000}"/>
+    <hyperlink ref="S59" r:id="rId538" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000091020000}"/>
+    <hyperlink ref="U59" r:id="rId539" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000092020000}"/>
+    <hyperlink ref="W59" r:id="rId540" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000093020000}"/>
+    <hyperlink ref="A60" r:id="rId541" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000094020000}"/>
+    <hyperlink ref="C60" r:id="rId542" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000095020000}"/>
+    <hyperlink ref="E60" r:id="rId543" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000096020000}"/>
+    <hyperlink ref="G60" r:id="rId544" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000097020000}"/>
+    <hyperlink ref="I60" r:id="rId545" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000098020000}"/>
+    <hyperlink ref="K60" r:id="rId546" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000099020000}"/>
+    <hyperlink ref="M60" r:id="rId547" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009A020000}"/>
+    <hyperlink ref="O60" r:id="rId548" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009B020000}"/>
+    <hyperlink ref="Q60" r:id="rId549" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009C020000}"/>
+    <hyperlink ref="S60" r:id="rId550" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009D020000}"/>
+    <hyperlink ref="U60" r:id="rId551" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009E020000}"/>
+    <hyperlink ref="W60" r:id="rId552" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00009F020000}"/>
+    <hyperlink ref="A61" r:id="rId553" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A0020000}"/>
+    <hyperlink ref="C61" r:id="rId554" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A1020000}"/>
+    <hyperlink ref="E61" r:id="rId555" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A2020000}"/>
+    <hyperlink ref="G61" r:id="rId556" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A3020000}"/>
+    <hyperlink ref="I61" r:id="rId557" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A4020000}"/>
+    <hyperlink ref="K61" r:id="rId558" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A5020000}"/>
+    <hyperlink ref="M61" r:id="rId559" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A6020000}"/>
+    <hyperlink ref="O61" r:id="rId560" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A7020000}"/>
+    <hyperlink ref="Q61" r:id="rId561" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A8020000}"/>
+    <hyperlink ref="S61" r:id="rId562" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000A9020000}"/>
+    <hyperlink ref="U61" r:id="rId563" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AA020000}"/>
+    <hyperlink ref="W61" r:id="rId564" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-0000AB020000}"/>
+    <hyperlink ref="W14" r:id="rId565" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="U14" r:id="rId566" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="S14" r:id="rId567" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="Q14" r:id="rId568" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="O14" r:id="rId569" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="M14" r:id="rId570" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="K14" r:id="rId571" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I14" r:id="rId572" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="G14" r:id="rId573" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="E14" r:id="rId574" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="C14" r:id="rId575" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="A14" r:id="rId576" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="W13" r:id="rId577" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="U13" r:id="rId578" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="S13" r:id="rId579" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="Q13" r:id="rId580" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="O13" r:id="rId581" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="M13" r:id="rId582" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="K13" r:id="rId583" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I13" r:id="rId584" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="G13" r:id="rId585" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="E13" r:id="rId586" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="C13" r:id="rId587" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="A13" r:id="rId588" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="W12" r:id="rId589" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="U12" r:id="rId590" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="S12" r:id="rId591" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="Q12" r:id="rId592" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="O12" r:id="rId593" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="M12" r:id="rId594" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="K12" r:id="rId595" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I12" r:id="rId596" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="G12" r:id="rId597" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="E12" r:id="rId598" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="C12" r:id="rId599" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A12" r:id="rId600" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="W11" r:id="rId601" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="U11" r:id="rId602" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="S11" r:id="rId603" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="Q11" r:id="rId604" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="O11" r:id="rId605" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="M11" r:id="rId606" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="K11" r:id="rId607" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I11" r:id="rId608" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="G11" r:id="rId609" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="E11" r:id="rId610" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="C11" r:id="rId611" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A11" r:id="rId612" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="W10" r:id="rId613" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="U10" r:id="rId614" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="S10" r:id="rId615" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="Q10" r:id="rId616" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="O10" r:id="rId617" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="M10" r:id="rId618" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="K10" r:id="rId619" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I10" r:id="rId620" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="G10" r:id="rId621" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="E10" r:id="rId622" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="C10" r:id="rId623" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A10" r:id="rId624" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="W9" r:id="rId625" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="U9" r:id="rId626" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="S9" r:id="rId627" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="Q9" r:id="rId628" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="O9" r:id="rId629" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="M9" r:id="rId630" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="K9" r:id="rId631" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I9" r:id="rId632" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="G9" r:id="rId633" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E9" r:id="rId634" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="C9" r:id="rId635" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A9" r:id="rId636" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="W8" r:id="rId637" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="U8" r:id="rId638" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="S8" r:id="rId639" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="Q8" r:id="rId640" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="O8" r:id="rId641" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="M8" r:id="rId642" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="K8" r:id="rId643" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I8" r:id="rId644" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G8" r:id="rId645" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="E8" r:id="rId646" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="C8" r:id="rId647" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A8" r:id="rId648" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="W7" r:id="rId649" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="U7" r:id="rId650" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="S7" r:id="rId651" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="Q7" r:id="rId652" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="O7" r:id="rId653" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="M7" r:id="rId654" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="K7" r:id="rId655" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I7" r:id="rId656" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="G7" r:id="rId657" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E7" r:id="rId658" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C7" r:id="rId659" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A7" r:id="rId660" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="W6" r:id="rId661" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="U6" r:id="rId662" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="S6" r:id="rId663" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="Q6" r:id="rId664" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="O6" r:id="rId665" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="M6" r:id="rId666" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="K6" r:id="rId667" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="I6" r:id="rId668" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G6" r:id="rId669" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E6" r:id="rId670" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C6" r:id="rId671" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A6" r:id="rId672" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="W5" r:id="rId673" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.EO._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="U5" r:id="rId674" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA._T.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="S5" r:id="rId675" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.A.FA.R.F._Z.EUR.X1._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="Q5" r:id="rId676" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S121.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="O5" r:id="rId677" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S13.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="M5" r:id="rId678" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1P.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId679" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S12T.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I5" r:id="rId680" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.O.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId681" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.A.FA.F.F7.T.EUR._T.T.N.ALL" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId682" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.P.F._Z.EUR._T.M.N.ALL" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId683" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.N.FA.D.F._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId684" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85339BD-D73E-44AC-B732-0737818EE066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB9124-C022-4EFB-AF37-7844C9D2D729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Current Account" sheetId="3" r:id="rId3"/>
+    <sheet name="Financiel acc and Capital acc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -427,16 +451,130 @@
   <si>
     <t>https://data.worldbank.org/indicator/BN.GSR.FCTY.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
   </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BX.GSR.MRCH.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BM.GSR.MRCH.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BX.GSR.NFSV.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BM.GSR.NFSV.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>Net finansiel account</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.FIN.TOTL.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>Net error and ommissions</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.KAC.EOMS.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>Net direct investment</t>
+  </si>
+  <si>
+    <t>Net portfolio investment</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.KLT.PTXL.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BN.KLT.DINV.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>EURUSD RATES average price</t>
+  </si>
+  <si>
+    <t>source: &lt;a href='https://www.macrotrends.net/2548/euro-dollar-exchange-rate-historical-chart'&gt;Source&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.macrotrends.net/2548/euro-dollar-exchange-rate-historical-chart'&gt;Macrotrends&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.macrotrends.net/2548/euro-dollar-exchange-rate-historical-chart'&gt;Euro Dollar Exchange Rate (EUR USD) - Historical Chart&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>€ million</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>USDEUR</t>
+  </si>
+  <si>
+    <t>Financial account (increase in net foreign assets: + / decrease in net foreign assets: -)</t>
+  </si>
+  <si>
+    <t>Net direct Investment</t>
+  </si>
+  <si>
+    <t>financial deri- vatives and employee stock options</t>
+  </si>
+  <si>
+    <t>Net other investment</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Monetary financial institutions 2</t>
+  </si>
+  <si>
+    <t>Enter- prises and
+households 2</t>
+  </si>
+  <si>
+    <t>General government</t>
+  </si>
+  <si>
+    <t>Bundesbank</t>
+  </si>
+  <si>
+    <t>Reserve assets</t>
+  </si>
+  <si>
+    <t>Net financial account</t>
+  </si>
+  <si>
+    <t>Net
+errors and omissions 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
-    <numFmt numFmtId="169" formatCode="#.##0..&quot;M&quot;"/>
+    <numFmt numFmtId="165" formatCode="#.##0..&quot;M&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -478,6 +616,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,6 +632,12 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,7 +647,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -648,13 +793,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF727272"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF727272"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF727272"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF727272"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF727272"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF727272"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF727272"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF727272"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF727272"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF727272"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF727272"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF727272"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF727272"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF727272"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -704,6 +1048,62 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,22 +1130,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -814,36 +1208,144 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA61"/>
+  <dimension ref="A1:AV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="Z3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,314 +1676,297 @@
     <col min="17" max="17" width="2.6640625" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
     <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.83203125" customWidth="1"/>
+    <col min="33" max="34" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.83203125" customWidth="1"/>
+    <col min="42" max="42" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
-      <c r="W1" s="16" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40"/>
+      <c r="W1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
-    </row>
-    <row r="2" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+    </row>
+    <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="16" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="W2" s="16" t="s">
+      <c r="R2" s="42"/>
+      <c r="W2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="16" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="16" t="s">
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="20"/>
-    </row>
-    <row r="3" spans="1:53" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:48" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AB3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AE3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="23" t="s">
+      <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="22"/>
-      <c r="AP3" t="s">
+      <c r="AI3" s="43"/>
+      <c r="AK3" t="s">
         <v>32</v>
       </c>
-      <c r="BA3" s="53" t="s">
+      <c r="AV3" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="36">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="36">
         <v>6</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="25">
-        <v>9</v>
-      </c>
-      <c r="L4" s="26"/>
+      <c r="K4" s="36">
+        <v>9</v>
+      </c>
+      <c r="L4" s="37"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="36">
         <v>12</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="36">
         <v>13</v>
       </c>
-      <c r="R4" s="26"/>
+      <c r="R4" s="37"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
       <c r="X4" s="3">
         <v>2</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="18">
         <v>3</v>
       </c>
-      <c r="Z4" s="26"/>
+      <c r="Z4" s="3">
+        <v>4</v>
+      </c>
       <c r="AA4" s="3">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="3">
         <v>5</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AB4" s="18">
         <v>6</v>
       </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="3">
+      <c r="AC4" s="3">
         <v>7</v>
       </c>
+      <c r="AD4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>9</v>
+      </c>
       <c r="AF4" s="3">
-        <v>8</v>
-      </c>
-      <c r="AG4" s="25">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="3">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="3">
         <v>11</v>
       </c>
-      <c r="AK4" s="25">
+      <c r="AH4" s="18">
         <v>12</v>
       </c>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="25">
+      <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AN4" s="26"/>
-      <c r="AP4" s="64" t="s">
+      <c r="AK4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="62"/>
-    </row>
-    <row r="5" spans="1:53" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="35"/>
+    </row>
+    <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>769982</v>
       </c>
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="49">
         <v>140626</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -1518,83 +2003,103 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="49">
         <v>142744</v>
       </c>
-      <c r="R5" s="28"/>
+      <c r="R5" s="50"/>
       <c r="S5">
         <v>2009</v>
       </c>
       <c r="V5">
         <v>2000</v>
       </c>
-      <c r="AE5" s="61">
+      <c r="W5" s="76">
+        <v>517849235935.83197</v>
+      </c>
+      <c r="X5" s="76">
+        <v>458490174761.44</v>
+      </c>
+      <c r="Y5" s="82">
+        <f>W5-X5</f>
+        <v>59359061174.391968</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>81342926057.419006</v>
+      </c>
+      <c r="AA5" s="76">
+        <v>136841165555.034</v>
+      </c>
+      <c r="AB5" s="82">
+        <f>Z5-AA5</f>
+        <v>-55498239497.61499</v>
+      </c>
+      <c r="AC5" s="78">
         <v>111592000000</v>
       </c>
-      <c r="AF5" s="54">
+      <c r="AD5" s="76">
         <v>121601974113.286</v>
       </c>
-      <c r="AG5" s="66">
+      <c r="AE5" s="83">
         <v>-10009150685.822599</v>
       </c>
-      <c r="AI5" s="54">
+      <c r="AF5" s="76">
         <v>29024580581.181</v>
       </c>
-      <c r="AJ5">
-        <f>(AI5-AK5)*1.39</f>
-        <v>78923154282.378372</v>
-      </c>
-      <c r="AK5" s="54">
+      <c r="AG5">
+        <f>AF5+AH15</f>
+        <v>56779247685.164299</v>
+      </c>
+      <c r="AH5" s="81">
         <v>-27754667103.983299</v>
       </c>
-      <c r="AM5" s="54">
+      <c r="AI5" s="77">
         <v>-33903966248.290001</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AK5" t="s">
         <v>30</v>
       </c>
-      <c r="AQ5" s="54">
+      <c r="AL5" s="24">
         <v>-27754667103.983299</v>
       </c>
-      <c r="AR5" s="54">
+      <c r="AM5" s="24">
         <v>-26150960553.785702</v>
       </c>
-      <c r="AS5" s="54">
+      <c r="AN5" s="24">
         <v>-27565036175.347198</v>
       </c>
-      <c r="AT5" s="54">
+      <c r="AO5" s="24">
         <v>-34991833212.856003</v>
       </c>
-      <c r="AU5" s="54">
+      <c r="AP5" s="24">
         <v>-37225896193.073601</v>
       </c>
-      <c r="AV5" s="54">
+      <c r="AQ5" s="24">
         <v>-39293130315.450798</v>
       </c>
-      <c r="AW5" s="54">
+      <c r="AR5" s="24">
         <v>-40119606190.966797</v>
       </c>
-      <c r="AX5" s="54">
+      <c r="AS5" s="24">
         <v>-45753753443.565102</v>
       </c>
-      <c r="AY5" s="54">
+      <c r="AT5" s="24">
         <v>-49452783073.685303</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="AV5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>915035</v>
       </c>
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="47">
         <v>160829</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -1631,79 +2136,103 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="47">
         <v>147298</v>
       </c>
-      <c r="R6" s="30"/>
+      <c r="R6" s="48"/>
       <c r="S6">
         <v>2010</v>
       </c>
       <c r="V6">
         <v>2001</v>
       </c>
-      <c r="AE6">
+      <c r="W6" s="76">
+        <v>536597295079.27002</v>
+      </c>
+      <c r="X6" s="76">
+        <v>445973015157.05603</v>
+      </c>
+      <c r="Y6" s="82">
+        <f t="shared" ref="Y6:Y13" si="0">W6-X6</f>
+        <v>90624279922.213989</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>82875272450.070206</v>
+      </c>
+      <c r="AA6" s="76">
+        <v>141810809794.42499</v>
+      </c>
+      <c r="AB6" s="82">
+        <f t="shared" ref="AB6:AB13" si="1">Z6-AA6</f>
+        <v>-58935537344.354782</v>
+      </c>
+      <c r="AC6" s="76">
         <v>95962727376</v>
       </c>
-      <c r="AF6" s="54">
+      <c r="AD6" s="76">
         <v>108600918650.31</v>
       </c>
-      <c r="AG6" s="66">
+      <c r="AE6" s="84">
         <v>-12637295394.5007</v>
       </c>
-      <c r="AI6" s="54">
+      <c r="AF6" s="76">
         <v>36583607181.196701</v>
       </c>
-      <c r="AK6" s="54">
+      <c r="AG6">
+        <f>AF6+AH16</f>
+        <v>62734567734.982407</v>
+      </c>
+      <c r="AH6" s="76">
         <v>-26150960553.785702</v>
       </c>
-      <c r="AM6" s="54">
+      <c r="AI6" s="77">
         <v>-7099486034.1670504</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AK6" t="s">
         <v>31</v>
       </c>
-      <c r="AQ6" s="54">
+      <c r="AL6" s="24">
         <v>29024580581.181</v>
       </c>
-      <c r="AR6" s="54">
+      <c r="AM6" s="24">
         <v>36583607181.196701</v>
       </c>
-      <c r="AS6" s="54">
+      <c r="AN6" s="24">
         <v>39312672599.650703</v>
       </c>
-      <c r="AT6" s="54">
+      <c r="AO6" s="24">
         <v>56682895143.9338</v>
       </c>
-      <c r="AU6" s="54">
+      <c r="AP6" s="24">
         <v>48232770206.7099</v>
       </c>
-      <c r="AV6" s="54">
+      <c r="AQ6" s="24">
         <v>52763835148.554901</v>
       </c>
-      <c r="AW6" s="54">
+      <c r="AR6" s="24">
         <v>49766012958.167099</v>
       </c>
-      <c r="AX6" s="54">
+      <c r="AS6" s="24">
         <v>57873052235.311996</v>
       </c>
-      <c r="AY6" s="54">
+      <c r="AT6" s="24">
         <v>66309172358.963097</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="AV6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1027494</v>
       </c>
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="47">
         <v>162970</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -1740,46 +2269,70 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="47">
         <v>167340</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="48"/>
       <c r="S7">
         <v>2011</v>
       </c>
       <c r="V7">
         <v>2002</v>
       </c>
-      <c r="AE7" s="61">
+      <c r="W7" s="76">
+        <v>578744070285.672</v>
+      </c>
+      <c r="X7" s="76">
+        <v>444511217220.90302</v>
+      </c>
+      <c r="Y7" s="82">
+        <f t="shared" si="0"/>
+        <v>134232853064.76898</v>
+      </c>
+      <c r="Z7" s="76">
+        <v>99176552764.777496</v>
+      </c>
+      <c r="AA7" s="76">
+        <v>145002366415.29999</v>
+      </c>
+      <c r="AB7" s="82">
+        <f t="shared" si="1"/>
+        <v>-45825813650.522491</v>
+      </c>
+      <c r="AC7" s="78">
         <v>102731000000</v>
       </c>
-      <c r="AF7" s="54">
+      <c r="AD7" s="76">
         <v>123854346911.62</v>
       </c>
-      <c r="AG7" s="66">
+      <c r="AE7" s="84">
         <v>-21123280725.437599</v>
       </c>
-      <c r="AI7" s="54">
+      <c r="AF7" s="76">
         <v>39312672599.650703</v>
       </c>
-      <c r="AK7" s="54">
+      <c r="AG7">
+        <f>AF7+AH17</f>
+        <v>66877708774.997902</v>
+      </c>
+      <c r="AH7" s="76">
         <v>-27565036175.347198</v>
       </c>
-      <c r="AM7" s="54">
+      <c r="AI7" s="77">
         <v>39720517927.696602</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1069020</v>
       </c>
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="47">
         <v>199531</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -1816,49 +2369,73 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="47">
         <v>195712</v>
       </c>
-      <c r="R8" s="30"/>
+      <c r="R8" s="48"/>
       <c r="S8">
         <v>2012</v>
       </c>
       <c r="V8">
         <v>2003</v>
       </c>
-      <c r="AE8" s="61">
+      <c r="W8" s="76">
+        <v>701377108385.77502</v>
+      </c>
+      <c r="X8" s="76">
+        <v>554374326023.97595</v>
+      </c>
+      <c r="Y8" s="82">
+        <f t="shared" si="0"/>
+        <v>147002782361.79907</v>
+      </c>
+      <c r="Z8" s="76">
+        <v>120193431021.70399</v>
+      </c>
+      <c r="AA8" s="76">
+        <v>172495369631.09601</v>
+      </c>
+      <c r="AB8" s="82">
+        <f t="shared" si="1"/>
+        <v>-52301938609.392014</v>
+      </c>
+      <c r="AC8" s="78">
         <v>126507000000</v>
       </c>
-      <c r="AF8" s="54">
+      <c r="AD8" s="76">
         <v>150232550446.35501</v>
       </c>
-      <c r="AG8" s="66">
+      <c r="AE8" s="84">
         <v>-23725947693.539001</v>
       </c>
-      <c r="AI8" s="54">
+      <c r="AF8" s="76">
         <v>56682895143.9338</v>
       </c>
-      <c r="AK8" s="54">
+      <c r="AG8">
+        <f>AF8+AH18</f>
+        <v>91674728356.789795</v>
+      </c>
+      <c r="AH8" s="76">
         <v>-34991833212.856003</v>
       </c>
-      <c r="AM8" s="54">
+      <c r="AI8" s="77">
         <v>35985324846.9412</v>
       </c>
-      <c r="AP8" s="65" t="s">
+      <c r="AK8" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1071458</v>
       </c>
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="47">
         <v>203802</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -1895,79 +2472,103 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="47">
         <v>184352</v>
       </c>
-      <c r="R9" s="30"/>
+      <c r="R9" s="48"/>
       <c r="S9">
         <v>2013</v>
       </c>
       <c r="V9">
         <v>2004</v>
       </c>
-      <c r="AE9" s="61">
+      <c r="W9" s="76">
+        <v>853216578347.979</v>
+      </c>
+      <c r="X9" s="76">
+        <v>663586775061.50806</v>
+      </c>
+      <c r="Y9" s="82">
+        <f t="shared" si="0"/>
+        <v>189629803286.47095</v>
+      </c>
+      <c r="Z9" s="76">
+        <v>151919691893.97501</v>
+      </c>
+      <c r="AA9" s="76">
+        <v>195376161460.57001</v>
+      </c>
+      <c r="AB9" s="82">
+        <f t="shared" si="1"/>
+        <v>-43456469566.595001</v>
+      </c>
+      <c r="AC9" s="78">
         <v>177066000000</v>
       </c>
-      <c r="AF9" s="54">
+      <c r="AD9" s="76">
         <v>158507231268.68701</v>
       </c>
-      <c r="AG9" s="66">
+      <c r="AE9" s="84">
         <v>18557264888.780899</v>
       </c>
-      <c r="AI9" s="54">
+      <c r="AF9" s="76">
         <v>48232770206.7099</v>
       </c>
-      <c r="AK9" s="54">
+      <c r="AG9">
+        <f>AF9+AH19</f>
+        <v>85458666399.783508</v>
+      </c>
+      <c r="AH9" s="76">
         <v>-37225896193.073601</v>
       </c>
-      <c r="AM9" s="54">
+      <c r="AI9" s="77">
         <v>127505924403.463</v>
       </c>
-      <c r="AP9" s="54">
+      <c r="AK9" s="24">
         <v>-33903966248.290001</v>
       </c>
-      <c r="AQ9" s="54">
+      <c r="AL9" s="24">
         <v>-7099486034.1670504</v>
       </c>
-      <c r="AR9" s="54">
+      <c r="AM9" s="24">
         <v>39720517927.696602</v>
       </c>
-      <c r="AS9" s="54">
+      <c r="AN9" s="24">
         <v>35985324846.9412</v>
       </c>
-      <c r="AT9" s="54">
+      <c r="AO9" s="24">
         <v>127505924403.463</v>
       </c>
-      <c r="AU9" s="54">
+      <c r="AP9" s="24">
         <v>133087243134.907</v>
       </c>
-      <c r="AV9" s="54">
+      <c r="AQ9" s="24">
         <v>173486477217.38501</v>
       </c>
-      <c r="AW9" s="54">
+      <c r="AR9" s="24">
         <v>235777197044.80099</v>
       </c>
-      <c r="AX9" s="54">
+      <c r="AS9" s="24">
         <v>213250033110.591</v>
       </c>
-      <c r="AY9" s="54">
+      <c r="AT9" s="24">
         <v>201134895341.823</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="AV9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1106923</v>
       </c>
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="47">
         <v>219629</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -2004,46 +2605,70 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="47">
         <v>211477</v>
       </c>
-      <c r="R10" s="30"/>
+      <c r="R10" s="48"/>
       <c r="S10">
         <v>2014</v>
       </c>
       <c r="V10">
         <v>2005</v>
       </c>
-      <c r="AE10" s="61">
+      <c r="W10" s="76">
+        <v>919536367261.396</v>
+      </c>
+      <c r="X10" s="76">
+        <v>724096710413.83496</v>
+      </c>
+      <c r="Y10" s="82">
+        <f t="shared" si="0"/>
+        <v>195439656847.56104</v>
+      </c>
+      <c r="Z10" s="76">
+        <v>162683447471.58899</v>
+      </c>
+      <c r="AA10" s="76">
+        <v>209354183114.064</v>
+      </c>
+      <c r="AB10" s="82">
+        <f t="shared" si="1"/>
+        <v>-46670735642.475006</v>
+      </c>
+      <c r="AC10" s="78">
         <v>207475000000</v>
       </c>
-      <c r="AF10" s="54">
+      <c r="AD10" s="76">
         <v>183863880742.689</v>
       </c>
-      <c r="AG10" s="66">
+      <c r="AE10" s="84">
         <v>23611400319.265999</v>
       </c>
-      <c r="AI10" s="54">
+      <c r="AF10" s="76">
         <v>52763835148.554901</v>
       </c>
-      <c r="AK10" s="54">
+      <c r="AG10">
+        <f>AF10+AH20</f>
+        <v>92056965464.005707</v>
+      </c>
+      <c r="AH10" s="76">
         <v>-39293130315.450798</v>
       </c>
-      <c r="AM10" s="54">
+      <c r="AI10" s="77">
         <v>133087243134.907</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1166594</v>
       </c>
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="47">
         <v>248394</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -2080,49 +2705,73 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="47">
         <v>259781</v>
       </c>
-      <c r="R11" s="30"/>
+      <c r="R11" s="48"/>
       <c r="S11">
         <v>2015</v>
       </c>
       <c r="V11">
         <v>2006</v>
       </c>
-      <c r="AE11" s="61">
+      <c r="W11" s="76">
+        <v>1057726166441.95</v>
+      </c>
+      <c r="X11" s="76">
+        <v>855367372577.823</v>
+      </c>
+      <c r="Y11" s="82">
+        <f t="shared" si="0"/>
+        <v>202358793864.12695</v>
+      </c>
+      <c r="Z11" s="76">
+        <v>184644939841.92599</v>
+      </c>
+      <c r="AA11" s="76">
+        <v>224518715358.83801</v>
+      </c>
+      <c r="AB11" s="82">
+        <f t="shared" si="1"/>
+        <v>-39873775516.912018</v>
+      </c>
+      <c r="AC11" s="78">
         <v>262287000000</v>
       </c>
-      <c r="AF11" s="54">
+      <c r="AD11" s="76">
         <v>211166865102.056</v>
       </c>
-      <c r="AG11" s="66">
+      <c r="AE11" s="84">
         <v>51120962615.648804</v>
       </c>
-      <c r="AI11" s="54">
+      <c r="AF11" s="76">
         <v>49766012958.167099</v>
       </c>
-      <c r="AK11" s="54">
+      <c r="AG11">
+        <f>AF11+AH21</f>
+        <v>89885619149.133896</v>
+      </c>
+      <c r="AH11" s="76">
         <v>-40119606190.966797</v>
       </c>
-      <c r="AM11" s="54">
+      <c r="AI11" s="77">
         <v>173486477217.38501</v>
       </c>
-      <c r="AP11" s="65" t="s">
+      <c r="AK11" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1179166</v>
       </c>
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="47">
         <v>252409</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -2159,82 +2808,106 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="47">
         <v>270200</v>
       </c>
-      <c r="R12" s="30"/>
+      <c r="R12" s="48"/>
       <c r="S12">
         <v>2016</v>
       </c>
       <c r="V12">
         <v>2007</v>
       </c>
-      <c r="AE12" s="61">
+      <c r="W12" s="76">
+        <v>1270699461748.2</v>
+      </c>
+      <c r="X12" s="76">
+        <v>994244363206.422</v>
+      </c>
+      <c r="Y12" s="82">
+        <f t="shared" si="0"/>
+        <v>276455098541.77795</v>
+      </c>
+      <c r="Z12" s="76">
+        <v>214440290365.17099</v>
+      </c>
+      <c r="AA12" s="76">
+        <v>258763042560.08099</v>
+      </c>
+      <c r="AB12" s="82">
+        <f t="shared" si="1"/>
+        <v>-44322752194.910004</v>
+      </c>
+      <c r="AC12" s="78">
         <v>336026000000</v>
       </c>
-      <c r="AF12" s="54">
+      <c r="AD12" s="76">
         <v>286626220721.87701</v>
       </c>
-      <c r="AG12" s="66">
+      <c r="AE12" s="84">
         <v>49401389352.730003</v>
       </c>
-      <c r="AI12" s="54">
+      <c r="AF12" s="76">
         <v>57873052235.311996</v>
       </c>
-      <c r="AK12" s="54">
+      <c r="AG12">
+        <f>AF12+AH22</f>
+        <v>103626805678.87711</v>
+      </c>
+      <c r="AH12" s="76">
         <v>-45753753443.565102</v>
       </c>
-      <c r="AM12" s="54">
+      <c r="AI12" s="77">
         <v>235777197044.80099</v>
       </c>
-      <c r="AP12" s="53" t="s">
+      <c r="AK12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AQ12" s="61">
+      <c r="AL12" s="30">
         <v>111592000000</v>
       </c>
-      <c r="AR12">
+      <c r="AM12">
         <v>95962727376</v>
       </c>
-      <c r="AS12" s="61">
+      <c r="AN12" s="30">
         <v>102731000000</v>
       </c>
-      <c r="AT12" s="61">
+      <c r="AO12" s="30">
         <v>126507000000</v>
       </c>
-      <c r="AU12" s="61">
+      <c r="AP12" s="30">
         <v>177066000000</v>
       </c>
-      <c r="AV12" s="61">
+      <c r="AQ12" s="30">
         <v>207475000000</v>
       </c>
-      <c r="AW12" s="61">
+      <c r="AR12" s="30">
         <v>262287000000</v>
       </c>
-      <c r="AX12" s="61">
+      <c r="AS12" s="30">
         <v>336026000000</v>
       </c>
-      <c r="AY12" s="61">
+      <c r="AT12" s="30">
         <v>290388000000</v>
       </c>
-      <c r="AZ12" s="61">
+      <c r="AU12" s="30">
         <v>256091000000</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="AV12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1256858</v>
       </c>
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="47">
         <v>255077</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -2271,82 +2944,106 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="47">
         <v>255964</v>
       </c>
-      <c r="R13" s="30"/>
+      <c r="R13" s="48"/>
       <c r="S13">
         <v>2017</v>
       </c>
       <c r="V13">
         <v>2008</v>
       </c>
-      <c r="AE13" s="61">
+      <c r="W13" s="76">
+        <v>1398512315698.76</v>
+      </c>
+      <c r="X13" s="76">
+        <v>1125196108496.8799</v>
+      </c>
+      <c r="Y13" s="81">
+        <f t="shared" si="0"/>
+        <v>273316207201.88013</v>
+      </c>
+      <c r="Z13" s="76">
+        <v>244341721902.19101</v>
+      </c>
+      <c r="AA13" s="76">
+        <v>288152905753.21301</v>
+      </c>
+      <c r="AB13" s="81">
+        <f t="shared" si="1"/>
+        <v>-43811183851.022003</v>
+      </c>
+      <c r="AC13" s="78">
         <v>290388000000</v>
       </c>
-      <c r="AF13" s="54">
+      <c r="AD13" s="76">
         <v>257190133797.85699</v>
       </c>
-      <c r="AG13" s="66">
+      <c r="AE13" s="84">
         <v>33196539491.124599</v>
       </c>
-      <c r="AI13" s="54">
+      <c r="AF13" s="76">
         <v>66309172358.963097</v>
       </c>
-      <c r="AK13" s="54">
+      <c r="AG13">
+        <f>AF13+AH23</f>
+        <v>115761955432.64841</v>
+      </c>
+      <c r="AH13" s="76">
         <v>-49452783073.685303</v>
       </c>
-      <c r="AM13" s="54">
+      <c r="AI13" s="77">
         <v>213250033110.591</v>
       </c>
-      <c r="AP13" s="60" t="s">
+      <c r="AK13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AQ13" s="54">
+      <c r="AL13" s="24">
         <v>121601974113.286</v>
       </c>
-      <c r="AR13" s="54">
+      <c r="AM13" s="24">
         <v>108600918650.31</v>
       </c>
-      <c r="AS13" s="54">
+      <c r="AN13" s="24">
         <v>123854346911.62</v>
       </c>
-      <c r="AT13" s="54">
+      <c r="AO13" s="24">
         <v>150232550446.35501</v>
       </c>
-      <c r="AU13" s="54">
+      <c r="AP13" s="24">
         <v>158507231268.68701</v>
       </c>
-      <c r="AV13" s="54">
+      <c r="AQ13" s="24">
         <v>183863880742.689</v>
       </c>
-      <c r="AW13" s="54">
+      <c r="AR13" s="24">
         <v>211166865102.056</v>
       </c>
-      <c r="AX13" s="54">
+      <c r="AS13" s="24">
         <v>286626220721.87701</v>
       </c>
-      <c r="AY13" s="54">
+      <c r="AT13" s="24">
         <v>257190133797.85699</v>
       </c>
-      <c r="AZ13" s="54">
+      <c r="AU13" s="24">
         <v>179098064332.97501</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="AV13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:53" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1290468</v>
       </c>
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="47">
         <v>221983</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -2365,10 +3062,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="47">
         <v>112389</v>
       </c>
-      <c r="L14" s="30"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -2381,33 +3078,38 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="47">
         <v>267609</v>
       </c>
-      <c r="R14" s="30"/>
+      <c r="R14" s="48"/>
       <c r="S14">
         <v>2018</v>
       </c>
-      <c r="W14" s="54"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="66"/>
-      <c r="AM14" s="54"/>
-      <c r="AP14" s="53" t="s">
+      <c r="W14" s="76"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="32"/>
+      <c r="AI14" s="24"/>
+      <c r="AK14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1309678</v>
       </c>
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="47">
         <v>219548</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -2426,10 +3128,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="47">
         <v>128602</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -2442,58 +3144,61 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="47">
         <v>283849</v>
       </c>
-      <c r="R15" s="30"/>
+      <c r="R15" s="48"/>
       <c r="S15">
         <v>2019</v>
       </c>
-      <c r="AQ15" s="66">
+      <c r="AH15" s="81">
+        <v>27754667103.983299</v>
+      </c>
+      <c r="AL15" s="32">
         <v>-10009150685.822599</v>
       </c>
-      <c r="AR15" s="66">
+      <c r="AM15" s="32">
         <v>-12637295394.5007</v>
       </c>
-      <c r="AS15" s="66">
+      <c r="AN15" s="32">
         <v>-21123280725.437599</v>
       </c>
-      <c r="AT15" s="66">
+      <c r="AO15" s="32">
         <v>-23725947693.539001</v>
       </c>
-      <c r="AU15" s="66">
+      <c r="AP15" s="32">
         <v>18557264888.780899</v>
       </c>
-      <c r="AV15" s="66">
+      <c r="AQ15" s="32">
         <v>23611400319.265999</v>
       </c>
-      <c r="AW15" s="66">
+      <c r="AR15" s="32">
         <v>51120962615.648804</v>
       </c>
-      <c r="AX15" s="66">
+      <c r="AS15" s="32">
         <v>49401389352.730003</v>
       </c>
-      <c r="AY15" s="66">
+      <c r="AT15" s="32">
         <v>33196539491.124599</v>
       </c>
-      <c r="AZ15" s="66">
+      <c r="AU15" s="32">
         <v>76991798049.827606</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="AV15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1188235</v>
       </c>
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="47">
         <v>182725</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -2530,25 +3235,28 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="47">
         <v>222507</v>
       </c>
-      <c r="R16" s="30"/>
+      <c r="R16" s="48"/>
       <c r="S16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH16" s="76">
+        <v>26150960553.785702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1375112</v>
       </c>
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="47">
         <v>196491</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -2567,10 +3275,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="47">
         <v>123181</v>
       </c>
-      <c r="L17" s="30"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -2583,26 +3291,32 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="47">
         <v>263454</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="53">
+      <c r="R17" s="48"/>
+      <c r="S17" s="23">
         <v>2021</v>
       </c>
-      <c r="AM17" s="53"/>
-    </row>
-    <row r="18" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH17" s="76">
+        <v>27565036175.347198</v>
+      </c>
+      <c r="AI17" s="23"/>
+      <c r="AK17" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1579998</v>
       </c>
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="47">
         <v>125916</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -2621,10 +3335,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="47">
         <v>142094</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -2637,25 +3351,61 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="47">
         <v>164630</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="48"/>
       <c r="S18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="76">
+        <v>34991833212.856003</v>
+      </c>
+      <c r="AK18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL18" s="24">
+        <v>517849235935.83197</v>
+      </c>
+      <c r="AM18" s="24">
+        <v>536597295079.27002</v>
+      </c>
+      <c r="AN18" s="24">
+        <v>578744070285.672</v>
+      </c>
+      <c r="AO18" s="24">
+        <v>701377108385.77502</v>
+      </c>
+      <c r="AP18" s="24">
+        <v>853216578347.979</v>
+      </c>
+      <c r="AQ18" s="24">
+        <v>919536367261.396</v>
+      </c>
+      <c r="AR18" s="24">
+        <v>1057726166441.95</v>
+      </c>
+      <c r="AS18" s="24">
+        <v>1270699461748.2</v>
+      </c>
+      <c r="AT18" s="24">
+        <v>1398512315698.76</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1539230</v>
       </c>
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="47">
         <v>226821</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -2674,10 +3424,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="47">
         <v>143901</v>
       </c>
-      <c r="L19" s="30"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -2690,18 +3440,55 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="47">
         <v>243112</v>
       </c>
-      <c r="R19" s="30"/>
+      <c r="R19" s="48"/>
       <c r="S19">
         <v>2023</v>
       </c>
-      <c r="T19" s="53" t="s">
+      <c r="T19" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB19" s="80"/>
+      <c r="AH19" s="76">
+        <v>37225896193.073601</v>
+      </c>
+      <c r="AK19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL19" s="24">
+        <v>458490174761.44</v>
+      </c>
+      <c r="AM19" s="24">
+        <v>445973015157.05603</v>
+      </c>
+      <c r="AN19" s="24">
+        <v>444511217220.90302</v>
+      </c>
+      <c r="AO19" s="24">
+        <v>554374326023.97595</v>
+      </c>
+      <c r="AP19" s="24">
+        <v>663586775061.50806</v>
+      </c>
+      <c r="AQ19" s="24">
+        <v>724096710413.83496</v>
+      </c>
+      <c r="AR19" s="24">
+        <v>855367372577.823</v>
+      </c>
+      <c r="AS19" s="24">
+        <v>994244363206.422</v>
+      </c>
+      <c r="AT19" s="24">
+        <v>1125196108496.8799</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>331607</v>
       </c>
@@ -2759,20 +3546,20 @@
       <c r="S20">
         <v>2021</v>
       </c>
-      <c r="T20" s="53" t="s">
+      <c r="T20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-    </row>
-    <row r="21" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AH20" s="76">
+        <v>39293130315.450798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>339209</v>
       </c>
@@ -2827,11 +3614,17 @@
       <c r="R21" s="10">
         <v>64457</v>
       </c>
-      <c r="T21" s="53" t="s">
+      <c r="T21" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH21" s="76">
+        <v>40119606190.966797</v>
+      </c>
+      <c r="AK21" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>337135</v>
       </c>
@@ -2886,11 +3679,47 @@
       <c r="R22" s="10">
         <v>61257</v>
       </c>
-      <c r="T22" s="53" t="s">
+      <c r="T22" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH22" s="76">
+        <v>45753753443.565102</v>
+      </c>
+      <c r="AK22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL22" s="24">
+        <v>81342926057.419006</v>
+      </c>
+      <c r="AM22" s="24">
+        <v>82875272450.070206</v>
+      </c>
+      <c r="AN22" s="24">
+        <v>99176552764.777496</v>
+      </c>
+      <c r="AO22" s="24">
+        <v>120193431021.70399</v>
+      </c>
+      <c r="AP22" s="24">
+        <v>151919691893.97501</v>
+      </c>
+      <c r="AQ22" s="24">
+        <v>162683447471.58899</v>
+      </c>
+      <c r="AR22" s="24">
+        <v>184644939841.92599</v>
+      </c>
+      <c r="AS22" s="24">
+        <v>214440290365.17099</v>
+      </c>
+      <c r="AT22" s="24">
+        <v>244341721902.19101</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>367161</v>
       </c>
@@ -2945,11 +3774,47 @@
       <c r="R23" s="10">
         <v>62145</v>
       </c>
-      <c r="T23" s="53" t="s">
+      <c r="T23" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH23" s="76">
+        <v>49452783073.685303</v>
+      </c>
+      <c r="AK23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL23" s="24">
+        <v>136841165555.034</v>
+      </c>
+      <c r="AM23" s="24">
+        <v>141810809794.42499</v>
+      </c>
+      <c r="AN23" s="24">
+        <v>145002366415.29999</v>
+      </c>
+      <c r="AO23" s="24">
+        <v>172495369631.09601</v>
+      </c>
+      <c r="AP23" s="24">
+        <v>195376161460.57001</v>
+      </c>
+      <c r="AQ23" s="24">
+        <v>209354183114.064</v>
+      </c>
+      <c r="AR23" s="24">
+        <v>224518715358.83801</v>
+      </c>
+      <c r="AS23" s="24">
+        <v>258763042560.08099</v>
+      </c>
+      <c r="AT23" s="24">
+        <v>288152905753.21301</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>374464</v>
       </c>
@@ -3007,21 +3872,18 @@
       <c r="S24">
         <v>2022</v>
       </c>
-      <c r="T24" s="53" t="s">
+      <c r="T24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AG24" s="54"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-    </row>
-    <row r="25" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+    </row>
+    <row r="25" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>393905</v>
       </c>
@@ -3076,11 +3938,20 @@
       <c r="R25" s="10">
         <v>27439</v>
       </c>
-      <c r="T25" s="53" t="s">
+      <c r="T25" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP25" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>404809</v>
       </c>
@@ -3135,11 +4006,24 @@
       <c r="R26" s="10">
         <v>22413</v>
       </c>
-      <c r="T26" s="53" t="s">
+      <c r="T26" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK26">
+        <v>2000</v>
+      </c>
+      <c r="AL26" s="80">
+        <v>0.92</v>
+      </c>
+      <c r="AN26">
+        <f>1/AL26</f>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>406820</v>
       </c>
@@ -3194,11 +4078,24 @@
       <c r="R27" s="10">
         <v>56291</v>
       </c>
-      <c r="T27" s="53" t="s">
+      <c r="T27" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK27">
+        <v>2001</v>
+      </c>
+      <c r="AL27" s="80">
+        <v>0.9</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" ref="AN27:AN49" si="2">1/AL27</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>400692</v>
       </c>
@@ -3256,8 +4153,18 @@
       <c r="S28">
         <v>2023</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK28">
+        <v>2002</v>
+      </c>
+      <c r="AL28" s="80">
+        <v>0.95</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="2"/>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>387808</v>
       </c>
@@ -3312,8 +4219,18 @@
       <c r="R29" s="10">
         <v>45198</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK29">
+        <v>2003</v>
+      </c>
+      <c r="AL29" s="80">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="2"/>
+        <v>0.88495575221238942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>378816</v>
       </c>
@@ -3368,8 +4285,18 @@
       <c r="R30" s="10">
         <v>65507</v>
       </c>
-    </row>
-    <row r="31" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK30">
+        <v>2004</v>
+      </c>
+      <c r="AL30" s="80">
+        <v>1.24</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="2"/>
+        <v>0.80645161290322587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>371914</v>
       </c>
@@ -3424,8 +4351,18 @@
       <c r="R31" s="10">
         <v>68695</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK31">
+        <v>2005</v>
+      </c>
+      <c r="AL31" s="80">
+        <v>1.24</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="2"/>
+        <v>0.80645161290322587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>104185</v>
       </c>
@@ -3480,8 +4417,18 @@
       <c r="R32" s="10">
         <v>17046</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK32">
+        <v>2006</v>
+      </c>
+      <c r="AL32" s="80">
+        <v>1.26</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>118912</v>
       </c>
@@ -3536,8 +4483,18 @@
       <c r="R33" s="10">
         <v>24100</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK33">
+        <v>2007</v>
+      </c>
+      <c r="AL33" s="80">
+        <v>1.37</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="2"/>
+        <v>0.72992700729927007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>121528</v>
       </c>
@@ -3592,8 +4549,18 @@
       <c r="R34" s="10">
         <v>16534</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK34">
+        <v>2008</v>
+      </c>
+      <c r="AL34" s="80">
+        <v>1.47</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="2"/>
+        <v>0.68027210884353739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>127385</v>
       </c>
@@ -3648,8 +4615,18 @@
       <c r="R35" s="10">
         <v>20513</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK35">
+        <v>2009</v>
+      </c>
+      <c r="AL35" s="80">
+        <v>1.39</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="2"/>
+        <v>0.71942446043165476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>118248</v>
       </c>
@@ -3704,8 +4681,18 @@
       <c r="R36" s="10">
         <v>25098</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK36">
+        <v>2010</v>
+      </c>
+      <c r="AL36" s="80">
+        <v>1.33</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="2"/>
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>111023</v>
       </c>
@@ -3760,8 +4747,18 @@
       <c r="R37" s="10">
         <v>15642</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK37">
+        <v>2011</v>
+      </c>
+      <c r="AL37" s="80">
+        <v>1.39</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="2"/>
+        <v>0.71942446043165476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>124445</v>
       </c>
@@ -3816,8 +4813,18 @@
       <c r="R38" s="10">
         <v>22460</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK38">
+        <v>2012</v>
+      </c>
+      <c r="AL38" s="80">
+        <v>1.29</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="2"/>
+        <v>0.77519379844961234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>138996</v>
       </c>
@@ -3872,8 +4879,18 @@
       <c r="R39" s="10">
         <v>20385</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK39">
+        <v>2013</v>
+      </c>
+      <c r="AL39" s="80">
+        <v>1.33</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="2"/>
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>122654</v>
       </c>
@@ -3928,8 +4945,18 @@
       <c r="R40" s="10">
         <v>11194</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK40">
+        <v>2014</v>
+      </c>
+      <c r="AL40" s="80">
+        <v>1.33</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="2"/>
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>135506</v>
       </c>
@@ -3984,8 +5011,18 @@
       <c r="R41" s="10">
         <v>4457</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK41">
+        <v>2015</v>
+      </c>
+      <c r="AL41" s="80">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="2"/>
+        <v>0.9009009009009008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>135746</v>
       </c>
@@ -4040,8 +5077,18 @@
       <c r="R42" s="10">
         <v>11788</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK42">
+        <v>2016</v>
+      </c>
+      <c r="AL42" s="80">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="2"/>
+        <v>0.9009009009009008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>130109</v>
       </c>
@@ -4096,8 +5143,18 @@
       <c r="R43" s="10">
         <v>8077</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK43">
+        <v>2017</v>
+      </c>
+      <c r="AL43" s="80">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="2"/>
+        <v>0.88495575221238942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>130859</v>
       </c>
@@ -4152,8 +5209,18 @@
       <c r="R44" s="10">
         <v>1341</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK44">
+        <v>2018</v>
+      </c>
+      <c r="AL44" s="80">
+        <v>1.18</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="2"/>
+        <v>0.84745762711864414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>143841</v>
       </c>
@@ -4208,8 +5275,18 @@
       <c r="R45" s="10">
         <v>12995</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK45">
+        <v>2019</v>
+      </c>
+      <c r="AL45" s="80">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="2"/>
+        <v>0.89285714285714279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>135300</v>
       </c>
@@ -4264,8 +5341,18 @@
       <c r="R46" s="10">
         <v>8848</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK46">
+        <v>2020</v>
+      </c>
+      <c r="AL46" s="80">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="2"/>
+        <v>0.87719298245614041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>145283</v>
       </c>
@@ -4320,8 +5407,18 @@
       <c r="R47" s="10">
         <v>20907</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK47">
+        <v>2021</v>
+      </c>
+      <c r="AL47" s="80">
+        <v>1.18</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="2"/>
+        <v>0.84745762711864414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>126237</v>
       </c>
@@ -4376,8 +5473,18 @@
       <c r="R48" s="10">
         <v>26536</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK48">
+        <v>2022</v>
+      </c>
+      <c r="AL48" s="80">
+        <v>1.05</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="2"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>124653</v>
       </c>
@@ -4432,8 +5539,18 @@
       <c r="R49" s="10">
         <v>17083</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK49">
+        <v>2023</v>
+      </c>
+      <c r="AL49" s="80">
+        <v>1.08</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="2"/>
+        <v>0.92592592592592582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>130454</v>
       </c>
@@ -4489,7 +5606,7 @@
         <v>20836</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>145585</v>
       </c>
@@ -4545,7 +5662,7 @@
         <v>25792</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>121266</v>
       </c>
@@ -4601,7 +5718,7 @@
         <v>18591</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>129194</v>
       </c>
@@ -4657,7 +5774,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>137348</v>
       </c>
@@ -4713,7 +5830,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>125610</v>
       </c>
@@ -4769,7 +5886,7 @@
         <v>18479</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>123289</v>
       </c>
@@ -4825,7 +5942,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>129916</v>
       </c>
@@ -4881,7 +5998,7 @@
         <v>26231</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>121959</v>
       </c>
@@ -4937,7 +6054,7 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>138457</v>
       </c>
@@ -4993,7 +6110,7 @@
         <v>28073</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>111499</v>
       </c>
@@ -5049,7 +6166,7 @@
         <v>31620</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>129414</v>
       </c>
@@ -5106,63 +6223,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="W1:AN1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AN3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
+  <mergeCells count="57">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -5173,258 +6234,305 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="W1:AI1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AK4:AN4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K5" r:id="rId2" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="O5" r:id="rId3" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G6" r:id="rId4" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G7" r:id="rId7" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K7" r:id="rId8" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O7" r:id="rId9" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G8" r:id="rId10" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K8" r:id="rId11" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O8" r:id="rId12" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G9" r:id="rId13" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K9" r:id="rId14" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId15" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G10" r:id="rId16" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K10" r:id="rId17" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="O10" r:id="rId18" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K11" r:id="rId20" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O11" r:id="rId21" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G12" r:id="rId22" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K12" r:id="rId23" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="O12" r:id="rId24" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G13" r:id="rId25" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K13" r:id="rId26" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="O13" r:id="rId27" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G14" r:id="rId28" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O14" r:id="rId29" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G15" r:id="rId30" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O15" r:id="rId31" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G16" r:id="rId32" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K16" r:id="rId33" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O16" r:id="rId34" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G17" r:id="rId35" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O17" r:id="rId36" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G18" r:id="rId37" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="O18" r:id="rId38" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G19" r:id="rId39" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O19" r:id="rId40" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C20" r:id="rId41" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G20" r:id="rId42" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K20" r:id="rId43" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O20" r:id="rId44" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Q20" r:id="rId45" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C21" r:id="rId46" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G21" r:id="rId47" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K21" r:id="rId48" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="O21" r:id="rId49" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q21" r:id="rId50" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C22" r:id="rId51" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G22" r:id="rId52" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K22" r:id="rId53" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O22" r:id="rId54" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Q22" r:id="rId55" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C23" r:id="rId56" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G23" r:id="rId57" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K23" r:id="rId58" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O23" r:id="rId59" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q23" r:id="rId60" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C24" r:id="rId61" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G24" r:id="rId62" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K24" r:id="rId63" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="O24" r:id="rId64" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="Q24" r:id="rId65" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C25" r:id="rId66" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G25" r:id="rId67" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K25" r:id="rId68" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O25" r:id="rId69" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Q25" r:id="rId70" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C26" r:id="rId71" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G26" r:id="rId72" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K26" r:id="rId73" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="O26" r:id="rId74" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="Q26" r:id="rId75" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C27" r:id="rId76" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G27" r:id="rId77" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K27" r:id="rId78" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O27" r:id="rId79" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="Q27" r:id="rId80" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C28" r:id="rId81" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G28" r:id="rId82" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K28" r:id="rId83" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="O28" r:id="rId84" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="Q28" r:id="rId85" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C29" r:id="rId86" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G29" r:id="rId87" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K29" r:id="rId88" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="O29" r:id="rId89" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="Q29" r:id="rId90" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C30" r:id="rId91" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="G30" r:id="rId92" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K30" r:id="rId93" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="O30" r:id="rId94" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="Q30" r:id="rId95" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C31" r:id="rId96" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="G31" r:id="rId97" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="K31" r:id="rId98" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="O31" r:id="rId99" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="Q31" r:id="rId100" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C32" r:id="rId101" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="G32" r:id="rId102" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K32" r:id="rId103" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="O32" r:id="rId104" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="Q32" r:id="rId105" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C33" r:id="rId106" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="G33" r:id="rId107" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="K33" r:id="rId108" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="O33" r:id="rId109" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="Q33" r:id="rId110" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C34" r:id="rId111" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="G34" r:id="rId112" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="K34" r:id="rId113" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="O34" r:id="rId114" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="Q34" r:id="rId115" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C35" r:id="rId116" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="G35" r:id="rId117" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="K35" r:id="rId118" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="O35" r:id="rId119" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="Q35" r:id="rId120" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C36" r:id="rId121" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="G36" r:id="rId122" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="K36" r:id="rId123" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="O36" r:id="rId124" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="Q36" r:id="rId125" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C37" r:id="rId126" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G37" r:id="rId127" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="K37" r:id="rId128" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="O37" r:id="rId129" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="Q37" r:id="rId130" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C38" r:id="rId131" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G38" r:id="rId132" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="K38" r:id="rId133" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="O38" r:id="rId134" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="Q38" r:id="rId135" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C39" r:id="rId136" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="G39" r:id="rId137" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="K39" r:id="rId138" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="O39" r:id="rId139" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="Q39" r:id="rId140" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C40" r:id="rId141" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G40" r:id="rId142" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="K40" r:id="rId143" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="O40" r:id="rId144" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="Q40" r:id="rId145" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C41" r:id="rId146" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G41" r:id="rId147" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="K41" r:id="rId148" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="O41" r:id="rId149" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="Q41" r:id="rId150" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C42" r:id="rId151" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="G42" r:id="rId152" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="K42" r:id="rId153" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="O42" r:id="rId154" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="Q42" r:id="rId155" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C43" r:id="rId156" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="G43" r:id="rId157" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="K43" r:id="rId158" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="O43" r:id="rId159" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="Q43" r:id="rId160" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C44" r:id="rId161" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="G44" r:id="rId162" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="K44" r:id="rId163" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="O44" r:id="rId164" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="Q44" r:id="rId165" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C45" r:id="rId166" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="G45" r:id="rId167" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="K45" r:id="rId168" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="O45" r:id="rId169" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="Q45" r:id="rId170" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C46" r:id="rId171" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="G46" r:id="rId172" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="K46" r:id="rId173" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="O46" r:id="rId174" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="Q46" r:id="rId175" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C47" r:id="rId176" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="G47" r:id="rId177" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="K47" r:id="rId178" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="O47" r:id="rId179" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="Q47" r:id="rId180" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C48" r:id="rId181" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="G48" r:id="rId182" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="K48" r:id="rId183" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="O48" r:id="rId184" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="Q48" r:id="rId185" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C49" r:id="rId186" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="G49" r:id="rId187" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="K49" r:id="rId188" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="O49" r:id="rId189" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="Q49" r:id="rId190" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C50" r:id="rId191" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G50" r:id="rId192" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="K50" r:id="rId193" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="O50" r:id="rId194" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="Q50" r:id="rId195" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C51" r:id="rId196" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G51" r:id="rId197" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="K51" r:id="rId198" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="O51" r:id="rId199" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="Q51" r:id="rId200" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C52" r:id="rId201" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="G52" r:id="rId202" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="K52" r:id="rId203" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="O52" r:id="rId204" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="Q52" r:id="rId205" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C53" r:id="rId206" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="G53" r:id="rId207" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="K53" r:id="rId208" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="O53" r:id="rId209" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="Q53" r:id="rId210" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C54" r:id="rId211" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="G54" r:id="rId212" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="K54" r:id="rId213" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="O54" r:id="rId214" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="Q54" r:id="rId215" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C55" r:id="rId216" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="G55" r:id="rId217" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="K55" r:id="rId218" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="O55" r:id="rId219" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="Q55" r:id="rId220" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C56" r:id="rId221" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="G56" r:id="rId222" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="K56" r:id="rId223" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="O56" r:id="rId224" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="Q56" r:id="rId225" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C57" r:id="rId226" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="G57" r:id="rId227" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="K57" r:id="rId228" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="O57" r:id="rId229" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="Q57" r:id="rId230" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C58" r:id="rId231" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="G58" r:id="rId232" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="K58" r:id="rId233" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="O58" r:id="rId234" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="Q58" r:id="rId235" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C59" r:id="rId236" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="G59" r:id="rId237" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="K59" r:id="rId238" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="O59" r:id="rId239" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="Q59" r:id="rId240" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C60" r:id="rId241" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="G60" r:id="rId242" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="K60" r:id="rId243" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="O60" r:id="rId244" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="Q60" r:id="rId245" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C61" r:id="rId246" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="G61" r:id="rId247" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="K61" r:id="rId248" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="O61" r:id="rId249" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="Q61" r:id="rId250" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K7" r:id="rId5" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O7" r:id="rId6" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K8" r:id="rId8" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O8" r:id="rId9" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G9" r:id="rId10" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K9" r:id="rId11" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O9" r:id="rId12" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G10" r:id="rId13" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K10" r:id="rId14" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O10" r:id="rId15" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId16" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K11" r:id="rId17" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O11" r:id="rId18" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G12" r:id="rId19" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K12" r:id="rId20" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O12" r:id="rId21" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G13" r:id="rId22" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K13" r:id="rId23" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O13" r:id="rId24" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G14" r:id="rId25" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O14" r:id="rId26" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G15" r:id="rId27" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O15" r:id="rId28" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G16" r:id="rId29" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K16" r:id="rId30" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O16" r:id="rId31" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G17" r:id="rId32" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O17" r:id="rId33" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G18" r:id="rId34" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O18" r:id="rId35" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G19" r:id="rId36" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O19" r:id="rId37" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C20" r:id="rId38" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G20" r:id="rId39" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K20" r:id="rId40" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O20" r:id="rId41" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q20" r:id="rId42" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C21" r:id="rId43" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G21" r:id="rId44" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K21" r:id="rId45" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O21" r:id="rId46" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q21" r:id="rId47" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C22" r:id="rId48" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G22" r:id="rId49" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K22" r:id="rId50" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O22" r:id="rId51" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q22" r:id="rId52" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C23" r:id="rId53" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G23" r:id="rId54" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K23" r:id="rId55" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O23" r:id="rId56" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q23" r:id="rId57" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C24" r:id="rId58" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G24" r:id="rId59" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K24" r:id="rId60" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="O24" r:id="rId61" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="Q24" r:id="rId62" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C25" r:id="rId63" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G25" r:id="rId64" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K25" r:id="rId65" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O25" r:id="rId66" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q25" r:id="rId67" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C26" r:id="rId68" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G26" r:id="rId69" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K26" r:id="rId70" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="O26" r:id="rId71" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="Q26" r:id="rId72" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C27" r:id="rId73" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G27" r:id="rId74" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K27" r:id="rId75" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O27" r:id="rId76" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q27" r:id="rId77" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C28" r:id="rId78" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G28" r:id="rId79" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K28" r:id="rId80" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="O28" r:id="rId81" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="Q28" r:id="rId82" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C29" r:id="rId83" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G29" r:id="rId84" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K29" r:id="rId85" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="O29" r:id="rId86" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="Q29" r:id="rId87" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C30" r:id="rId88" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G30" r:id="rId89" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K30" r:id="rId90" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="O30" r:id="rId91" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="Q30" r:id="rId92" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C31" r:id="rId93" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G31" r:id="rId94" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="K31" r:id="rId95" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="O31" r:id="rId96" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="Q31" r:id="rId97" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C32" r:id="rId98" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G32" r:id="rId99" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="K32" r:id="rId100" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="O32" r:id="rId101" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="Q32" r:id="rId102" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C33" r:id="rId103" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G33" r:id="rId104" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="K33" r:id="rId105" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="O33" r:id="rId106" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="Q33" r:id="rId107" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C34" r:id="rId108" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G34" r:id="rId109" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="K34" r:id="rId110" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="O34" r:id="rId111" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="Q34" r:id="rId112" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C35" r:id="rId113" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G35" r:id="rId114" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="K35" r:id="rId115" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="O35" r:id="rId116" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="Q35" r:id="rId117" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C36" r:id="rId118" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G36" r:id="rId119" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="K36" r:id="rId120" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="O36" r:id="rId121" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="Q36" r:id="rId122" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C37" r:id="rId123" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G37" r:id="rId124" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="K37" r:id="rId125" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="O37" r:id="rId126" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="Q37" r:id="rId127" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C38" r:id="rId128" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G38" r:id="rId129" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="K38" r:id="rId130" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="O38" r:id="rId131" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="Q38" r:id="rId132" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C39" r:id="rId133" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G39" r:id="rId134" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="K39" r:id="rId135" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="O39" r:id="rId136" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="Q39" r:id="rId137" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C40" r:id="rId138" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G40" r:id="rId139" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="K40" r:id="rId140" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="O40" r:id="rId141" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="Q40" r:id="rId142" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C41" r:id="rId143" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G41" r:id="rId144" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="K41" r:id="rId145" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="O41" r:id="rId146" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="Q41" r:id="rId147" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C42" r:id="rId148" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G42" r:id="rId149" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="K42" r:id="rId150" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="O42" r:id="rId151" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="Q42" r:id="rId152" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C43" r:id="rId153" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G43" r:id="rId154" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="K43" r:id="rId155" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="O43" r:id="rId156" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="Q43" r:id="rId157" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C44" r:id="rId158" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G44" r:id="rId159" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="K44" r:id="rId160" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="O44" r:id="rId161" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="Q44" r:id="rId162" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C45" r:id="rId163" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G45" r:id="rId164" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="K45" r:id="rId165" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="O45" r:id="rId166" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="Q45" r:id="rId167" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C46" r:id="rId168" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G46" r:id="rId169" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="K46" r:id="rId170" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="O46" r:id="rId171" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="Q46" r:id="rId172" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C47" r:id="rId173" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G47" r:id="rId174" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="K47" r:id="rId175" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="O47" r:id="rId176" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="Q47" r:id="rId177" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C48" r:id="rId178" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G48" r:id="rId179" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="K48" r:id="rId180" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="O48" r:id="rId181" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="Q48" r:id="rId182" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C49" r:id="rId183" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="G49" r:id="rId184" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="K49" r:id="rId185" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="O49" r:id="rId186" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="Q49" r:id="rId187" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C50" r:id="rId188" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G50" r:id="rId189" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="K50" r:id="rId190" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="O50" r:id="rId191" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="Q50" r:id="rId192" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C51" r:id="rId193" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G51" r:id="rId194" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="K51" r:id="rId195" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="O51" r:id="rId196" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="Q51" r:id="rId197" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C52" r:id="rId198" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="G52" r:id="rId199" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="K52" r:id="rId200" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="O52" r:id="rId201" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="Q52" r:id="rId202" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C53" r:id="rId203" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G53" r:id="rId204" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="K53" r:id="rId205" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="O53" r:id="rId206" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="Q53" r:id="rId207" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C54" r:id="rId208" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="G54" r:id="rId209" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="K54" r:id="rId210" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="O54" r:id="rId211" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="Q54" r:id="rId212" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C55" r:id="rId213" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="G55" r:id="rId214" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="K55" r:id="rId215" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="O55" r:id="rId216" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="Q55" r:id="rId217" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C56" r:id="rId218" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="G56" r:id="rId219" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="K56" r:id="rId220" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="O56" r:id="rId221" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="Q56" r:id="rId222" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C57" r:id="rId223" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="G57" r:id="rId224" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="K57" r:id="rId225" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="O57" r:id="rId226" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="Q57" r:id="rId227" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C58" r:id="rId228" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="G58" r:id="rId229" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="K58" r:id="rId230" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="O58" r:id="rId231" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="Q58" r:id="rId232" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C59" r:id="rId233" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="G59" r:id="rId234" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="K59" r:id="rId235" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="O59" r:id="rId236" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="Q59" r:id="rId237" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C60" r:id="rId238" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="G60" r:id="rId239" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="K60" r:id="rId240" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="O60" r:id="rId241" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="Q60" r:id="rId242" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C61" r:id="rId243" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.G._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="G61" r:id="rId244" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="K61" r:id="rId245" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="O61" r:id="rId246" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="Q61" r:id="rId247" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.CA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="O6" r:id="rId248" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K6" r:id="rId249" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId250" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5432,10 +6540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5464,331 +6572,280 @@
     <col min="22" max="22" width="6.6640625" customWidth="1"/>
     <col min="23" max="23" width="2.6640625" customWidth="1"/>
     <col min="24" max="24" width="6.6640625" customWidth="1"/>
-    <col min="29" max="29" width="12.1640625" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.1640625" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.6640625" customWidth="1"/>
-    <col min="54" max="54" width="11" customWidth="1"/>
-    <col min="55" max="56" width="12.1640625" customWidth="1"/>
-    <col min="57" max="57" width="12.6640625" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" customWidth="1"/>
-    <col min="59" max="59" width="12.1640625" customWidth="1"/>
-    <col min="60" max="61" width="11" customWidth="1"/>
-    <col min="62" max="62" width="11.5" customWidth="1"/>
+    <col min="32" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" customWidth="1"/>
+    <col min="42" max="42" width="11" customWidth="1"/>
+    <col min="43" max="44" width="12.1640625" customWidth="1"/>
+    <col min="45" max="45" width="12.6640625" customWidth="1"/>
+    <col min="46" max="46" width="12.33203125" customWidth="1"/>
+    <col min="47" max="47" width="12.1640625" customWidth="1"/>
+    <col min="48" max="49" width="11" customWidth="1"/>
+    <col min="50" max="50" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="31" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="AB1" s="31" t="s">
+      <c r="X1" s="52"/>
+      <c r="AB1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AC1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="31" t="s">
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="32"/>
-    </row>
-    <row r="2" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="37" t="s">
+    </row>
+    <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="45" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="19" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="37" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="54"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="19" t="s">
+      <c r="AD2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="41" t="s">
+      <c r="AE2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="16" t="s">
+      <c r="AF2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="45" t="s">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="19" t="s">
+      <c r="AL2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="34"/>
-    </row>
-    <row r="3" spans="1:63" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="23" t="s">
+      <c r="AM2" s="53"/>
+    </row>
+    <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="23" t="s">
+      <c r="P3" s="72"/>
+      <c r="Q3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="36"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="23" t="s">
+      <c r="R3" s="46"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="49" t="s">
+      <c r="AG3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="49" t="s">
+      <c r="AH3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="51" t="s">
+      <c r="AI3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="23" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="36"/>
-      <c r="BK3" s="53" t="s">
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="55"/>
+      <c r="AY3" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+    <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
         <v>14</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="36">
         <v>15</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25">
+      <c r="D4" s="37"/>
+      <c r="E4" s="36">
         <v>16</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36">
         <v>17</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25">
+      <c r="H4" s="37"/>
+      <c r="I4" s="36">
         <v>18</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25">
+      <c r="J4" s="37"/>
+      <c r="K4" s="36">
         <v>19</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="25">
+      <c r="L4" s="37"/>
+      <c r="M4" s="36">
         <v>20</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25">
+      <c r="N4" s="37"/>
+      <c r="O4" s="36">
         <v>21</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="36">
         <v>22</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="25">
+      <c r="R4" s="37"/>
+      <c r="S4" s="36">
         <v>23</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="25">
+      <c r="T4" s="37"/>
+      <c r="U4" s="36">
         <v>24</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="25">
+      <c r="V4" s="37"/>
+      <c r="W4" s="36">
         <v>25</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="AB4" s="25">
+      <c r="X4" s="37"/>
+      <c r="AB4" s="18">
         <v>14</v>
       </c>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="25">
+      <c r="AC4" s="18">
         <v>15</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="25">
+      <c r="AD4" s="18">
         <v>16</v>
       </c>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="25">
+      <c r="AE4" s="18">
         <v>17</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="25">
+      <c r="AF4" s="18">
         <v>18</v>
       </c>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="25">
+      <c r="AG4" s="18">
         <v>19</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="25">
+      <c r="AH4" s="18">
         <v>20</v>
       </c>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="25">
+      <c r="AI4" s="18">
         <v>21</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="25">
+      <c r="AJ4" s="18">
         <v>22</v>
       </c>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="25">
+      <c r="AK4" s="18">
         <v>23</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="25">
+      <c r="AL4" s="18">
         <v>24</v>
       </c>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="25">
+      <c r="AM4" s="18">
         <v>25</v>
       </c>
-      <c r="AY4" s="26"/>
-    </row>
-    <row r="5" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5867,14 +6924,33 @@
       <c r="AA5">
         <v>2000</v>
       </c>
-      <c r="AC5" s="59">
+      <c r="AB5" s="85">
         <v>4659840536.6381798</v>
       </c>
-      <c r="BA5" s="53" t="s">
+      <c r="AC5" s="86">
+        <v>-149835377773.513</v>
+      </c>
+      <c r="AD5" s="86">
+        <v>150965170813.80499</v>
+      </c>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="86">
+        <v>-40349990002.638199</v>
+      </c>
+      <c r="AM5" s="86">
+        <v>-11105864290.9863</v>
+      </c>
+      <c r="AO5" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -5953,44 +7029,56 @@
       <c r="AA6">
         <v>2001</v>
       </c>
-      <c r="AC6" s="59">
+      <c r="AB6" s="28">
         <v>-2880447378.1082602</v>
       </c>
-      <c r="BA6" s="55">
+      <c r="AC6" s="24">
+        <v>13294434782.6287</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>-26672414993.4202</v>
+      </c>
+      <c r="AL6" s="24">
+        <v>978949113.63696301</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>10957096375.778</v>
+      </c>
+      <c r="AO6" s="25">
         <v>4659840536.6381798</v>
       </c>
-      <c r="BB6" s="55">
+      <c r="AP6" s="25">
         <v>-2880447378.1082602</v>
       </c>
-      <c r="BC6" s="55">
+      <c r="AQ6" s="25">
         <v>-3964977928.8617902</v>
       </c>
-      <c r="BD6" s="55">
+      <c r="AR6" s="25">
         <v>7040955192.3926001</v>
       </c>
-      <c r="BE6" s="55">
+      <c r="AS6" s="25">
         <v>-186180959.74026299</v>
       </c>
-      <c r="BF6" s="55">
+      <c r="AT6" s="25">
         <v>-2993023965.5292501</v>
       </c>
-      <c r="BG6" s="55">
+      <c r="AU6" s="25">
         <v>-1714537854.9198899</v>
       </c>
-      <c r="BH6" s="55">
+      <c r="AV6" s="25">
         <v>-2314920943.3025799</v>
       </c>
-      <c r="BI6" s="55">
+      <c r="AW6" s="25">
         <v>-1216764111.40026</v>
       </c>
-      <c r="BJ6" s="55">
+      <c r="AX6" s="25">
         <v>-2597448679.9067101</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="AY6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -6069,11 +7157,26 @@
       <c r="AA7">
         <v>2002</v>
       </c>
-      <c r="AC7" s="59">
+      <c r="AB7" s="28">
         <v>-3964977928.8617902</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="24">
+        <v>-34067396991.499298</v>
+      </c>
+      <c r="AD7" s="24">
+        <v>-63525963564.9366</v>
+      </c>
+      <c r="AL7" s="24">
+        <v>9566981856.6299992</v>
+      </c>
+      <c r="AM7" s="24">
+        <v>-26188558142.2048</v>
+      </c>
+      <c r="AO7" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -6152,11 +7255,53 @@
       <c r="AA8">
         <v>2003</v>
       </c>
-      <c r="AC8" s="59">
+      <c r="AB8" s="28">
         <v>7040955192.3926001</v>
       </c>
-    </row>
-    <row r="9" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="24">
+        <v>-26100676287.232201</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>-60618870480.958801</v>
+      </c>
+      <c r="AL8" s="24">
+        <v>54866847627.849503</v>
+      </c>
+      <c r="AM8" s="24">
+        <v>11840631690.743</v>
+      </c>
+      <c r="AO8" s="24">
+        <v>-149835377773.513</v>
+      </c>
+      <c r="AP8" s="24">
+        <v>13294434782.6287</v>
+      </c>
+      <c r="AQ8" s="24">
+        <v>-34067396991.499298</v>
+      </c>
+      <c r="AR8" s="24">
+        <v>-26100676287.232201</v>
+      </c>
+      <c r="AS8" s="24">
+        <v>29478097771.3563</v>
+      </c>
+      <c r="AT8" s="24">
+        <v>29088956904.378201</v>
+      </c>
+      <c r="AU8" s="24">
+        <v>60529918995.147797</v>
+      </c>
+      <c r="AV8" s="24">
+        <v>89805058431.674896</v>
+      </c>
+      <c r="AW8" s="24">
+        <v>67071495031.356796</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -6235,11 +7380,26 @@
       <c r="AA9">
         <v>2004</v>
       </c>
-      <c r="AC9" s="59">
+      <c r="AB9" s="28">
         <v>-186180959.74026299</v>
       </c>
-    </row>
-    <row r="10" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="24">
+        <v>29478097771.3563</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>-19230789981.350899</v>
+      </c>
+      <c r="AL9" s="24">
+        <v>138642130944.80399</v>
+      </c>
+      <c r="AM9" s="24">
+        <v>11323516418.1084</v>
+      </c>
+      <c r="AO9" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -6318,11 +7478,53 @@
       <c r="AA10">
         <v>2005</v>
       </c>
-      <c r="AC10" s="59">
+      <c r="AB10" s="28">
         <v>-2993023965.5292501</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC10" s="24">
+        <v>29088956904.378201</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>35609482481.168999</v>
+      </c>
+      <c r="AL10" s="24">
+        <v>120408012952.85001</v>
+      </c>
+      <c r="AM10" s="24">
+        <v>-9684894919.7530899</v>
+      </c>
+      <c r="AO10" s="24">
+        <v>150965170813.80499</v>
+      </c>
+      <c r="AP10" s="24">
+        <v>-26672414993.4202</v>
+      </c>
+      <c r="AQ10" s="24">
+        <v>-63525963564.9366</v>
+      </c>
+      <c r="AR10" s="24">
+        <v>-60618870480.958801</v>
+      </c>
+      <c r="AS10" s="24">
+        <v>-19230789981.350899</v>
+      </c>
+      <c r="AT10" s="24">
+        <v>35609482481.168999</v>
+      </c>
+      <c r="AU10" s="24">
+        <v>22428588179.077099</v>
+      </c>
+      <c r="AV10" s="24">
+        <v>-215291612737.58499</v>
+      </c>
+      <c r="AW10" s="24">
+        <v>-44626567876.180496</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -6401,11 +7603,23 @@
       <c r="AA11">
         <v>2006</v>
       </c>
-      <c r="AC11" s="59">
+      <c r="AB11" s="28">
         <v>-1714537854.9198899</v>
       </c>
-    </row>
-    <row r="12" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="24">
+        <v>60529918995.147797</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>22428588179.077099</v>
+      </c>
+      <c r="AL11" s="24">
+        <v>196774657010.78601</v>
+      </c>
+      <c r="AM11" s="24">
+        <v>25003975891.869999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -6484,11 +7698,23 @@
       <c r="AA12">
         <v>2007</v>
       </c>
-      <c r="AC12" s="59">
+      <c r="AB12" s="28">
         <v>-2314920943.3025799</v>
       </c>
-    </row>
-    <row r="13" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="24">
+        <v>89805058431.674896</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>-215291612737.58499</v>
+      </c>
+      <c r="AL12" s="24">
+        <v>253350700964.82501</v>
+      </c>
+      <c r="AM12" s="24">
+        <v>19885766138.678902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -6567,11 +7793,23 @@
       <c r="AA13">
         <v>2008</v>
       </c>
-      <c r="AC13" s="59">
+      <c r="AB13" s="28">
         <v>-1216764111.40026</v>
       </c>
-    </row>
-    <row r="14" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="24">
+        <v>67071495031.356796</v>
+      </c>
+      <c r="AD13" s="24">
+        <v>-44626567876.180496</v>
+      </c>
+      <c r="AL13" s="24">
+        <v>179790818739.19299</v>
+      </c>
+      <c r="AM13" s="24">
+        <v>-32240945237.269798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -6647,10 +7885,9 @@
       <c r="Y14">
         <v>2018</v>
       </c>
-      <c r="AC14" s="59"/>
-      <c r="AF14" s="57"/>
-    </row>
-    <row r="15" spans="1:63" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD14" s="26"/>
+    </row>
+    <row r="15" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
@@ -6727,7 +7964,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
@@ -6803,10 +8040,20 @@
       <c r="Y16">
         <v>2020</v>
       </c>
-      <c r="AA16" s="58"/>
-      <c r="AF16" s="56"/>
-    </row>
-    <row r="17" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="27"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="95">
+        <f>AD13/1000000*AE16</f>
+        <v>-30346.066155802739</v>
+      </c>
+      <c r="AE16">
+        <v>0.68</v>
+      </c>
+      <c r="AO16" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
@@ -6879,11 +8126,44 @@
       <c r="X17" s="11">
         <v>51883</v>
       </c>
-      <c r="Y17" s="53">
+      <c r="Y17" s="23">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO17" s="24">
+        <v>-40349990002.638199</v>
+      </c>
+      <c r="AP17" s="24">
+        <v>978949113.63696301</v>
+      </c>
+      <c r="AQ17" s="24">
+        <v>9566981856.6299992</v>
+      </c>
+      <c r="AR17" s="24">
+        <v>54866847627.849503</v>
+      </c>
+      <c r="AS17" s="24">
+        <v>138642130944.80399</v>
+      </c>
+      <c r="AT17" s="24">
+        <v>120408012952.85001</v>
+      </c>
+      <c r="AU17" s="24">
+        <v>196774657010.78601</v>
+      </c>
+      <c r="AV17" s="24">
+        <v>253350700964.82501</v>
+      </c>
+      <c r="AW17" s="24">
+        <v>179790818739.19299</v>
+      </c>
+      <c r="AX17" s="24">
+        <v>184648762253.237</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -6959,8 +8239,11 @@
       <c r="Y18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO18" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
@@ -7036,11 +8319,41 @@
       <c r="Y19">
         <v>2023</v>
       </c>
-      <c r="Z19" s="53" t="s">
+      <c r="Z19" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO19" s="24">
+        <v>-11105864290.9863</v>
+      </c>
+      <c r="AP19" s="24">
+        <v>10957096375.778</v>
+      </c>
+      <c r="AQ19" s="24">
+        <v>-26188558142.2048</v>
+      </c>
+      <c r="AR19" s="24">
+        <v>11840631690.743</v>
+      </c>
+      <c r="AS19" s="24">
+        <v>11323516418.1084</v>
+      </c>
+      <c r="AT19" s="24">
+        <v>-9684894919.7530899</v>
+      </c>
+      <c r="AU19" s="24">
+        <v>25003975891.869999</v>
+      </c>
+      <c r="AV19" s="24">
+        <v>19885766138.678902</v>
+      </c>
+      <c r="AW19" s="24">
+        <v>-32240945237.269798</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -7116,11 +8429,11 @@
       <c r="Y20">
         <v>2021</v>
       </c>
-      <c r="Z20" s="53" t="s">
+      <c r="Z20" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -7193,11 +8506,11 @@
       <c r="X21" s="11">
         <v>10691</v>
       </c>
-      <c r="Z21" s="53" t="s">
+      <c r="Z21" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -7270,11 +8583,11 @@
       <c r="X22" s="11">
         <v>46973</v>
       </c>
-      <c r="Z22" s="53" t="s">
+      <c r="Z22" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
@@ -7347,11 +8660,11 @@
       <c r="X23" s="11">
         <v>8825</v>
       </c>
-      <c r="Z23" s="53" t="s">
+      <c r="Z23" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
@@ -7427,11 +8740,11 @@
       <c r="Y24">
         <v>2022</v>
       </c>
-      <c r="Z24" s="53" t="s">
+      <c r="Z24" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
@@ -7504,11 +8817,11 @@
       <c r="X25" s="11">
         <v>37672</v>
       </c>
-      <c r="Z25" s="53" t="s">
+      <c r="Z25" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
@@ -7581,41 +8894,11 @@
       <c r="X26" s="11">
         <v>35567</v>
       </c>
-      <c r="Z26" s="53" t="s">
+      <c r="Z26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AE26" s="55">
-        <v>4659840536.6381798</v>
-      </c>
-      <c r="AF26" s="55">
-        <v>-2880447378.1082602</v>
-      </c>
-      <c r="AG26" s="55">
-        <v>-3964977928.8617902</v>
-      </c>
-      <c r="AH26" s="55">
-        <v>7040955192.3926001</v>
-      </c>
-      <c r="AI26" s="55">
-        <v>-186180959.74026299</v>
-      </c>
-      <c r="AJ26" s="55">
-        <v>-2993023965.5292501</v>
-      </c>
-      <c r="AK26" s="55">
-        <v>-1714537854.9198899</v>
-      </c>
-      <c r="AL26" s="55">
-        <v>-2314920943.3025799</v>
-      </c>
-      <c r="AM26" s="55">
-        <v>-1216764111.40026</v>
-      </c>
-      <c r="AN26" s="55">
-        <v>-2597448679.9067101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>9</v>
       </c>
@@ -7688,11 +8971,11 @@
       <c r="X27" s="11">
         <v>36070</v>
       </c>
-      <c r="Z27" s="53" t="s">
+      <c r="Z27" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -7769,7 +9052,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>9</v>
       </c>
@@ -7843,7 +9126,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
@@ -7917,7 +9200,7 @@
         <v>34092</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
@@ -7991,7 +9274,7 @@
         <v>29261</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
@@ -10212,45 +11495,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB1:AC3"/>
-    <mergeCell ref="AD1:AW1"/>
-    <mergeCell ref="AX1:AY3"/>
-    <mergeCell ref="AD2:AE3"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AH2:AI3"/>
-    <mergeCell ref="AJ2:AS2"/>
-    <mergeCell ref="AT2:AU3"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+  <mergeCells count="35">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W1:X3"/>
@@ -10265,6 +11510,27 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
@@ -10954,4 +12220,2369 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1215FD3-43C2-4A46-86F2-13091B45B0E6}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="43"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11</v>
+      </c>
+      <c r="M4" s="19">
+        <v>12</v>
+      </c>
+      <c r="N4" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="105" cm="1">
+        <f t="array" ref="B5:N5">('Table 1'!W5:AI5/1000000)*'Table 1'!AN26</f>
+        <v>562879.60427807819</v>
+      </c>
+      <c r="C5" s="105">
+        <v>498358.88561026088</v>
+      </c>
+      <c r="D5" s="105">
+        <v>64520.718667817353</v>
+      </c>
+      <c r="E5" s="105">
+        <v>88416.223975455447</v>
+      </c>
+      <c r="F5" s="105">
+        <v>148740.39734242827</v>
+      </c>
+      <c r="G5" s="105">
+        <v>-60324.173366972813</v>
+      </c>
+      <c r="H5" s="105">
+        <v>121295.65217391304</v>
+      </c>
+      <c r="I5" s="105">
+        <v>132176.05881878911</v>
+      </c>
+      <c r="J5" s="105">
+        <v>-10879.511615024565</v>
+      </c>
+      <c r="K5" s="105">
+        <v>31548.457153457606</v>
+      </c>
+      <c r="L5" s="105">
+        <v>61716.573570830755</v>
+      </c>
+      <c r="M5" s="105">
+        <v>-30168.116417373149</v>
+      </c>
+      <c r="N5" s="106">
+        <v>-36852.137226402177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="107" cm="1">
+        <f t="array" ref="B6:N6">'Table 1'!W6:AI6/1000000*'Table 1'!AN27</f>
+        <v>596219.21675474453</v>
+      </c>
+      <c r="C6" s="107">
+        <v>495525.57239672897</v>
+      </c>
+      <c r="D6" s="107">
+        <v>100693.64435801555</v>
+      </c>
+      <c r="E6" s="107">
+        <v>92083.636055633557</v>
+      </c>
+      <c r="F6" s="107">
+        <v>157567.56643824998</v>
+      </c>
+      <c r="G6" s="107">
+        <v>-65483.930382616425</v>
+      </c>
+      <c r="H6" s="107">
+        <v>106625.25264000001</v>
+      </c>
+      <c r="I6" s="107">
+        <v>120667.68738923332</v>
+      </c>
+      <c r="J6" s="107">
+        <v>-14041.439327222999</v>
+      </c>
+      <c r="K6" s="107">
+        <v>40648.452423551891</v>
+      </c>
+      <c r="L6" s="107">
+        <v>69705.075261091566</v>
+      </c>
+      <c r="M6" s="107">
+        <v>-29056.622837539671</v>
+      </c>
+      <c r="N6" s="108">
+        <v>-7888.3178157411667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="107" cm="1">
+        <f t="array" ref="B7:N7">'Table 1'!W7:AI7/1000000*'Table 1'!AN28</f>
+        <v>609204.28451123356</v>
+      </c>
+      <c r="C7" s="107">
+        <v>467906.54444305581</v>
+      </c>
+      <c r="D7" s="107">
+        <v>141297.74006817787</v>
+      </c>
+      <c r="E7" s="107">
+        <v>104396.37133134474</v>
+      </c>
+      <c r="F7" s="107">
+        <v>152634.06991084208</v>
+      </c>
+      <c r="G7" s="107">
+        <v>-48237.698579497359</v>
+      </c>
+      <c r="H7" s="107">
+        <v>108137.89473684209</v>
+      </c>
+      <c r="I7" s="107">
+        <v>130372.99674907367</v>
+      </c>
+      <c r="J7" s="107">
+        <v>-22235.032342565893</v>
+      </c>
+      <c r="K7" s="107">
+        <v>41381.760631211262</v>
+      </c>
+      <c r="L7" s="107">
+        <v>70397.588184208304</v>
+      </c>
+      <c r="M7" s="107">
+        <v>-29015.827552997049</v>
+      </c>
+      <c r="N7" s="108">
+        <v>41811.071502838524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="107" cm="1">
+        <f t="array" ref="B8:N8">('Table 1'!W8:AI8/1000000)*'Table 1'!AN29</f>
+        <v>620687.70653608406</v>
+      </c>
+      <c r="C8" s="107">
+        <v>490596.74869378406</v>
+      </c>
+      <c r="D8" s="107">
+        <v>130090.95784230006</v>
+      </c>
+      <c r="E8" s="107">
+        <v>106365.86816079999</v>
+      </c>
+      <c r="F8" s="107">
+        <v>152650.76958504075</v>
+      </c>
+      <c r="G8" s="107">
+        <v>-46284.901424240721</v>
+      </c>
+      <c r="H8" s="107">
+        <v>111953.09734513274</v>
+      </c>
+      <c r="I8" s="107">
+        <v>132949.15968703985</v>
+      </c>
+      <c r="J8" s="107">
+        <v>-20996.413888087613</v>
+      </c>
+      <c r="K8" s="107">
+        <v>50161.854109675929</v>
+      </c>
+      <c r="L8" s="107">
+        <v>81128.078191849389</v>
+      </c>
+      <c r="M8" s="107">
+        <v>-30966.224082173452</v>
+      </c>
+      <c r="N8" s="108">
+        <v>31845.420218532036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="107" cm="1">
+        <f t="array" ref="B9:N9">'Table 1'!W9:AI9/1000000*'Table 1'!AN30</f>
+        <v>688077.88576449919</v>
+      </c>
+      <c r="C9" s="107">
+        <v>535150.62504960329</v>
+      </c>
+      <c r="D9" s="107">
+        <v>152927.26071489594</v>
+      </c>
+      <c r="E9" s="107">
+        <v>122515.88055965728</v>
+      </c>
+      <c r="F9" s="107">
+        <v>157561.42053271775</v>
+      </c>
+      <c r="G9" s="107">
+        <v>-35045.539973060484</v>
+      </c>
+      <c r="H9" s="107">
+        <v>142795.16129032261</v>
+      </c>
+      <c r="I9" s="107">
+        <v>127828.41231345727</v>
+      </c>
+      <c r="J9" s="107">
+        <v>14965.536200629756</v>
+      </c>
+      <c r="K9" s="107">
+        <v>38897.395327991857</v>
+      </c>
+      <c r="L9" s="107">
+        <v>68918.279354664133</v>
+      </c>
+      <c r="M9" s="107">
+        <v>-30020.884026672262</v>
+      </c>
+      <c r="N9" s="108">
+        <v>102827.35838988952</v>
+      </c>
+      <c r="Q9" s="74"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="107" cm="1">
+        <f t="array" ref="B10:N10">'Table 1'!W10:AI10/1000000*'Table 1'!AN31</f>
+        <v>741561.58650112583</v>
+      </c>
+      <c r="C10" s="107">
+        <v>583948.96001115732</v>
+      </c>
+      <c r="D10" s="107">
+        <v>157612.62648996859</v>
+      </c>
+      <c r="E10" s="107">
+        <v>131196.32860612017</v>
+      </c>
+      <c r="F10" s="107">
+        <v>168834.01864037418</v>
+      </c>
+      <c r="G10" s="107">
+        <v>-37637.690034254039</v>
+      </c>
+      <c r="H10" s="107">
+        <v>167318.54838709679</v>
+      </c>
+      <c r="I10" s="107">
+        <v>148277.3231795879</v>
+      </c>
+      <c r="J10" s="107">
+        <v>19041.451870375808</v>
+      </c>
+      <c r="K10" s="107">
+        <v>42551.47995851202</v>
+      </c>
+      <c r="L10" s="107">
+        <v>74239.488277423967</v>
+      </c>
+      <c r="M10" s="107">
+        <v>-31688.008318911936</v>
+      </c>
+      <c r="N10" s="108">
+        <v>107328.42188298953</v>
+      </c>
+      <c r="Q10" s="74"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="107" cm="1">
+        <f t="array" ref="B11:N11">('Table 1'!W11:AI11/1000000)*'Table 1'!AN32</f>
+        <v>839465.21146186499</v>
+      </c>
+      <c r="C11" s="107">
+        <v>678862.99410938332</v>
+      </c>
+      <c r="D11" s="107">
+        <v>160602.2173524817</v>
+      </c>
+      <c r="E11" s="107">
+        <v>146543.60304914758</v>
+      </c>
+      <c r="F11" s="107">
+        <v>178189.4566339984</v>
+      </c>
+      <c r="G11" s="107">
+        <v>-31645.853584850807</v>
+      </c>
+      <c r="H11" s="107">
+        <v>208164.28571428571</v>
+      </c>
+      <c r="I11" s="107">
+        <v>167592.75008099683</v>
+      </c>
+      <c r="J11" s="107">
+        <v>40572.19255210222</v>
+      </c>
+      <c r="K11" s="107">
+        <v>39496.835681084995</v>
+      </c>
+      <c r="L11" s="107">
+        <v>71337.792975503093</v>
+      </c>
+      <c r="M11" s="107">
+        <v>-31840.957294418091</v>
+      </c>
+      <c r="N11" s="108">
+        <v>137687.68033125796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="107" cm="1">
+        <f t="array" ref="B12:N12">'Table 1'!W12:AI12/1000000*'Table 1'!AN33</f>
+        <v>927517.85529065691</v>
+      </c>
+      <c r="C12" s="107">
+        <v>725725.81255943212</v>
+      </c>
+      <c r="D12" s="107">
+        <v>201792.04273122476</v>
+      </c>
+      <c r="E12" s="107">
+        <v>156525.75939063574</v>
+      </c>
+      <c r="F12" s="107">
+        <v>188878.13325553358</v>
+      </c>
+      <c r="G12" s="107">
+        <v>-32352.373864897814</v>
+      </c>
+      <c r="H12" s="107">
+        <v>245274.45255474452</v>
+      </c>
+      <c r="I12" s="107">
+        <v>209216.21950501972</v>
+      </c>
+      <c r="J12" s="107">
+        <v>36059.408286664235</v>
+      </c>
+      <c r="K12" s="107">
+        <v>42243.10382139562</v>
+      </c>
+      <c r="L12" s="107">
+        <v>75640.004145165774</v>
+      </c>
+      <c r="M12" s="107">
+        <v>-33396.900323770147</v>
+      </c>
+      <c r="N12" s="108">
+        <v>172100.14382832189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="107" cm="1">
+        <f t="array" ref="B13:N13">'Table 1'!W13:AI13/1000000*'Table 1'!AN34</f>
+        <v>951368.9222440545</v>
+      </c>
+      <c r="C13" s="107">
+        <v>765439.52958971425</v>
+      </c>
+      <c r="D13" s="107">
+        <v>185929.39265434022</v>
+      </c>
+      <c r="E13" s="107">
+        <v>166218.85843686463</v>
+      </c>
+      <c r="F13" s="107">
+        <v>196022.38486613132</v>
+      </c>
+      <c r="G13" s="107">
+        <v>-29803.526429266669</v>
+      </c>
+      <c r="H13" s="107">
+        <v>197542.85714285713</v>
+      </c>
+      <c r="I13" s="107">
+        <v>174959.27469241974</v>
+      </c>
+      <c r="J13" s="107">
+        <v>22582.679925935099</v>
+      </c>
+      <c r="K13" s="107">
+        <v>45108.280516301427</v>
+      </c>
+      <c r="L13" s="107">
+        <v>78749.629546019321</v>
+      </c>
+      <c r="M13" s="107">
+        <v>-33641.349029717887</v>
+      </c>
+      <c r="N13" s="108">
+        <v>145068.0497350959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="109">
+        <v>769982</v>
+      </c>
+      <c r="C14" s="109">
+        <v>629356</v>
+      </c>
+      <c r="D14" s="109">
+        <v>140626</v>
+      </c>
+      <c r="E14" s="109">
+        <v>162329</v>
+      </c>
+      <c r="F14" s="109">
+        <v>179971</v>
+      </c>
+      <c r="G14" s="109">
+        <v>-17642</v>
+      </c>
+      <c r="H14" s="109">
+        <v>183515</v>
+      </c>
+      <c r="I14" s="109">
+        <v>128991</v>
+      </c>
+      <c r="J14" s="109">
+        <v>54524</v>
+      </c>
+      <c r="K14" s="109">
+        <v>41478</v>
+      </c>
+      <c r="L14" s="109">
+        <v>76242</v>
+      </c>
+      <c r="M14" s="109">
+        <v>34764</v>
+      </c>
+      <c r="N14" s="110">
+        <v>142744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="109">
+        <v>915035</v>
+      </c>
+      <c r="C15" s="109">
+        <v>754206</v>
+      </c>
+      <c r="D15" s="111">
+        <v>160829</v>
+      </c>
+      <c r="E15" s="109">
+        <v>174306</v>
+      </c>
+      <c r="F15" s="109">
+        <v>199560</v>
+      </c>
+      <c r="G15" s="112">
+        <v>-25255</v>
+      </c>
+      <c r="H15" s="109">
+        <v>200815</v>
+      </c>
+      <c r="I15" s="109">
+        <v>149508</v>
+      </c>
+      <c r="J15" s="112">
+        <v>51306</v>
+      </c>
+      <c r="K15" s="109">
+        <v>42627</v>
+      </c>
+      <c r="L15" s="109">
+        <v>82209</v>
+      </c>
+      <c r="M15" s="112">
+        <v>39582</v>
+      </c>
+      <c r="N15" s="110">
+        <v>147298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="109">
+        <v>1027494</v>
+      </c>
+      <c r="C16" s="109">
+        <v>864524</v>
+      </c>
+      <c r="D16" s="111">
+        <v>162970</v>
+      </c>
+      <c r="E16" s="109">
+        <v>183949</v>
+      </c>
+      <c r="F16" s="109">
+        <v>213879</v>
+      </c>
+      <c r="G16" s="112">
+        <v>-29930</v>
+      </c>
+      <c r="H16" s="109">
+        <v>220396</v>
+      </c>
+      <c r="I16" s="109">
+        <v>151309</v>
+      </c>
+      <c r="J16" s="112">
+        <v>69087</v>
+      </c>
+      <c r="K16" s="109">
+        <v>51001</v>
+      </c>
+      <c r="L16" s="109">
+        <v>85788</v>
+      </c>
+      <c r="M16" s="112">
+        <v>34787</v>
+      </c>
+      <c r="N16" s="110">
+        <v>167340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="109">
+        <v>1069020</v>
+      </c>
+      <c r="C17" s="109">
+        <v>869489</v>
+      </c>
+      <c r="D17" s="111">
+        <v>199531</v>
+      </c>
+      <c r="E17" s="109">
+        <v>199251</v>
+      </c>
+      <c r="F17" s="109">
+        <v>230025</v>
+      </c>
+      <c r="G17" s="112">
+        <v>-30774</v>
+      </c>
+      <c r="H17" s="109">
+        <v>204835</v>
+      </c>
+      <c r="I17" s="109">
+        <v>139177</v>
+      </c>
+      <c r="J17" s="112">
+        <v>65658</v>
+      </c>
+      <c r="K17" s="109">
+        <v>52938</v>
+      </c>
+      <c r="L17" s="109">
+        <v>91641</v>
+      </c>
+      <c r="M17" s="112">
+        <v>38703</v>
+      </c>
+      <c r="N17" s="110">
+        <v>195712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="109">
+        <v>1071458</v>
+      </c>
+      <c r="C18" s="109">
+        <v>867656</v>
+      </c>
+      <c r="D18" s="111">
+        <v>203802</v>
+      </c>
+      <c r="E18" s="109">
+        <v>208257</v>
+      </c>
+      <c r="F18" s="109">
+        <v>247578</v>
+      </c>
+      <c r="G18" s="112">
+        <v>-39321</v>
+      </c>
+      <c r="H18" s="109">
+        <v>192273</v>
+      </c>
+      <c r="I18" s="109">
+        <v>128988</v>
+      </c>
+      <c r="J18" s="112">
+        <v>63284</v>
+      </c>
+      <c r="K18" s="109">
+        <v>60321</v>
+      </c>
+      <c r="L18" s="109">
+        <v>103734</v>
+      </c>
+      <c r="M18" s="112">
+        <v>43413</v>
+      </c>
+      <c r="N18" s="110">
+        <v>184352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="109">
+        <v>1106923</v>
+      </c>
+      <c r="C19" s="109">
+        <v>887294</v>
+      </c>
+      <c r="D19" s="111">
+        <v>219629</v>
+      </c>
+      <c r="E19" s="109">
+        <v>228840</v>
+      </c>
+      <c r="F19" s="109">
+        <v>254143</v>
+      </c>
+      <c r="G19" s="112">
+        <v>-25303</v>
+      </c>
+      <c r="H19" s="109">
+        <v>191498</v>
+      </c>
+      <c r="I19" s="109">
+        <v>132852</v>
+      </c>
+      <c r="J19" s="112">
+        <v>58646</v>
+      </c>
+      <c r="K19" s="109">
+        <v>62475</v>
+      </c>
+      <c r="L19" s="109">
+        <v>103970</v>
+      </c>
+      <c r="M19" s="112">
+        <v>41495</v>
+      </c>
+      <c r="N19" s="110">
+        <v>211477</v>
+      </c>
+      <c r="P19" s="74"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="109">
+        <v>1166594</v>
+      </c>
+      <c r="C20" s="109">
+        <v>918200</v>
+      </c>
+      <c r="D20" s="111">
+        <v>248394</v>
+      </c>
+      <c r="E20" s="109">
+        <v>253318</v>
+      </c>
+      <c r="F20" s="109">
+        <v>271834</v>
+      </c>
+      <c r="G20" s="112">
+        <v>-18516</v>
+      </c>
+      <c r="H20" s="109">
+        <v>202782</v>
+      </c>
+      <c r="I20" s="109">
+        <v>133458</v>
+      </c>
+      <c r="J20" s="112">
+        <v>69324</v>
+      </c>
+      <c r="K20" s="109">
+        <v>71769</v>
+      </c>
+      <c r="L20" s="109">
+        <v>111189</v>
+      </c>
+      <c r="M20" s="112">
+        <v>39420</v>
+      </c>
+      <c r="N20" s="110">
+        <v>259781</v>
+      </c>
+      <c r="P20" s="97"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="109">
+        <v>1179166</v>
+      </c>
+      <c r="C21" s="109">
+        <v>926757</v>
+      </c>
+      <c r="D21" s="111">
+        <v>252409</v>
+      </c>
+      <c r="E21" s="109">
+        <v>265105</v>
+      </c>
+      <c r="F21" s="109">
+        <v>286092</v>
+      </c>
+      <c r="G21" s="112">
+        <v>-20987</v>
+      </c>
+      <c r="H21" s="109">
+        <v>213177</v>
+      </c>
+      <c r="I21" s="109">
+        <v>135919</v>
+      </c>
+      <c r="J21" s="112">
+        <v>77258</v>
+      </c>
+      <c r="K21" s="109">
+        <v>65415</v>
+      </c>
+      <c r="L21" s="109">
+        <v>103894</v>
+      </c>
+      <c r="M21" s="112">
+        <v>38480</v>
+      </c>
+      <c r="N21" s="110">
+        <v>270200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="109">
+        <v>1256858</v>
+      </c>
+      <c r="C22" s="109">
+        <v>1001782</v>
+      </c>
+      <c r="D22" s="111">
+        <v>255077</v>
+      </c>
+      <c r="E22" s="109">
+        <v>284032</v>
+      </c>
+      <c r="F22" s="109">
+        <v>308026</v>
+      </c>
+      <c r="G22" s="112">
+        <v>-23994</v>
+      </c>
+      <c r="H22" s="109">
+        <v>209623</v>
+      </c>
+      <c r="I22" s="109">
+        <v>132577</v>
+      </c>
+      <c r="J22" s="112">
+        <v>77046</v>
+      </c>
+      <c r="K22" s="109">
+        <v>66827</v>
+      </c>
+      <c r="L22" s="109">
+        <v>118992</v>
+      </c>
+      <c r="M22" s="112">
+        <v>52165</v>
+      </c>
+      <c r="N22" s="110">
+        <v>255964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="109">
+        <v>1290468</v>
+      </c>
+      <c r="C23" s="109">
+        <v>1068485</v>
+      </c>
+      <c r="D23" s="111">
+        <v>221983</v>
+      </c>
+      <c r="E23" s="109">
+        <v>302691</v>
+      </c>
+      <c r="F23" s="109">
+        <v>318497</v>
+      </c>
+      <c r="G23" s="112">
+        <v>-15806</v>
+      </c>
+      <c r="H23" s="109">
+        <v>241703</v>
+      </c>
+      <c r="I23" s="109">
+        <v>129314</v>
+      </c>
+      <c r="J23" s="111">
+        <v>112389</v>
+      </c>
+      <c r="K23" s="109">
+        <v>69522</v>
+      </c>
+      <c r="L23" s="109">
+        <v>120479</v>
+      </c>
+      <c r="M23" s="112">
+        <v>50958</v>
+      </c>
+      <c r="N23" s="110">
+        <v>267609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="109">
+        <v>1309678</v>
+      </c>
+      <c r="C24" s="109">
+        <v>1090130</v>
+      </c>
+      <c r="D24" s="111">
+        <v>219548</v>
+      </c>
+      <c r="E24" s="109">
+        <v>327594</v>
+      </c>
+      <c r="F24" s="109">
+        <v>341148</v>
+      </c>
+      <c r="G24" s="112">
+        <v>-13553</v>
+      </c>
+      <c r="H24" s="109">
+        <v>251148</v>
+      </c>
+      <c r="I24" s="109">
+        <v>122547</v>
+      </c>
+      <c r="J24" s="111">
+        <v>128602</v>
+      </c>
+      <c r="K24" s="109">
+        <v>80366</v>
+      </c>
+      <c r="L24" s="109">
+        <v>131112</v>
+      </c>
+      <c r="M24" s="112">
+        <v>50747</v>
+      </c>
+      <c r="N24" s="110">
+        <v>283849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="109">
+        <v>1188235</v>
+      </c>
+      <c r="C25" s="109">
+        <v>1005510</v>
+      </c>
+      <c r="D25" s="111">
+        <v>182725</v>
+      </c>
+      <c r="E25" s="109">
+        <v>292007</v>
+      </c>
+      <c r="F25" s="109">
+        <v>285373</v>
+      </c>
+      <c r="G25" s="112">
+        <v>6634</v>
+      </c>
+      <c r="H25" s="109">
+        <v>188409</v>
+      </c>
+      <c r="I25" s="109">
+        <v>102372</v>
+      </c>
+      <c r="J25" s="112">
+        <v>86037</v>
+      </c>
+      <c r="K25" s="109">
+        <v>84416</v>
+      </c>
+      <c r="L25" s="109">
+        <v>137304</v>
+      </c>
+      <c r="M25" s="112">
+        <v>52889</v>
+      </c>
+      <c r="N25" s="110">
+        <v>222507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="109">
+        <v>1375112</v>
+      </c>
+      <c r="C26" s="109">
+        <v>1178621</v>
+      </c>
+      <c r="D26" s="111">
+        <v>196491</v>
+      </c>
+      <c r="E26" s="109">
+        <v>345547</v>
+      </c>
+      <c r="F26" s="109">
+        <v>343932</v>
+      </c>
+      <c r="G26" s="112">
+        <v>1615</v>
+      </c>
+      <c r="H26" s="109">
+        <v>240492</v>
+      </c>
+      <c r="I26" s="109">
+        <v>117311</v>
+      </c>
+      <c r="J26" s="111">
+        <v>123181</v>
+      </c>
+      <c r="K26" s="109">
+        <v>100009</v>
+      </c>
+      <c r="L26" s="109">
+        <v>157841</v>
+      </c>
+      <c r="M26" s="112">
+        <v>57832</v>
+      </c>
+      <c r="N26" s="110">
+        <v>263454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="109">
+        <v>1579998</v>
+      </c>
+      <c r="C27" s="109">
+        <v>1454082</v>
+      </c>
+      <c r="D27" s="111">
+        <v>125916</v>
+      </c>
+      <c r="E27" s="109">
+        <v>409171</v>
+      </c>
+      <c r="F27" s="109">
+        <v>446460</v>
+      </c>
+      <c r="G27" s="112">
+        <v>-37289</v>
+      </c>
+      <c r="H27" s="109">
+        <v>313856</v>
+      </c>
+      <c r="I27" s="109">
+        <v>171762</v>
+      </c>
+      <c r="J27" s="111">
+        <v>142094</v>
+      </c>
+      <c r="K27" s="109">
+        <v>102436</v>
+      </c>
+      <c r="L27" s="109">
+        <v>168526</v>
+      </c>
+      <c r="M27" s="112">
+        <v>66091</v>
+      </c>
+      <c r="N27" s="110">
+        <v>164630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="96">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="113">
+        <v>1539230</v>
+      </c>
+      <c r="C28" s="113">
+        <v>1312409</v>
+      </c>
+      <c r="D28" s="114">
+        <v>226821</v>
+      </c>
+      <c r="E28" s="113">
+        <v>406931</v>
+      </c>
+      <c r="F28" s="113">
+        <v>469925</v>
+      </c>
+      <c r="G28" s="115">
+        <v>-62994</v>
+      </c>
+      <c r="H28" s="113">
+        <v>399945</v>
+      </c>
+      <c r="I28" s="113">
+        <v>256044</v>
+      </c>
+      <c r="J28" s="114">
+        <v>143901</v>
+      </c>
+      <c r="K28" s="113">
+        <v>108997</v>
+      </c>
+      <c r="L28" s="113">
+        <v>173614</v>
+      </c>
+      <c r="M28" s="115">
+        <v>64616</v>
+      </c>
+      <c r="N28" s="116">
+        <v>243112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895DD7F4-37A4-4B44-8724-4E9B7066EDE4}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="99"/>
+      <c r="C2" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="100"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="68"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="101">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19">
+        <v>18</v>
+      </c>
+      <c r="G4" s="19">
+        <v>19</v>
+      </c>
+      <c r="H4" s="19">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19">
+        <v>21</v>
+      </c>
+      <c r="J4" s="19">
+        <v>22</v>
+      </c>
+      <c r="K4" s="19">
+        <v>23</v>
+      </c>
+      <c r="L4" s="19">
+        <v>24</v>
+      </c>
+      <c r="M4" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="117" cm="1">
+        <f t="array" ref="B5:M5">'Table 2'!AB5:AM5/1000000*'Table 1'!AN26</f>
+        <v>5065.0440615632378</v>
+      </c>
+      <c r="C5" s="117">
+        <v>-162864.5410581663</v>
+      </c>
+      <c r="D5" s="117">
+        <v>164092.57697152716</v>
+      </c>
+      <c r="E5" s="117">
+        <v>0</v>
+      </c>
+      <c r="F5" s="117">
+        <v>0</v>
+      </c>
+      <c r="G5" s="117">
+        <v>0</v>
+      </c>
+      <c r="H5" s="117">
+        <v>0</v>
+      </c>
+      <c r="I5" s="117">
+        <v>0</v>
+      </c>
+      <c r="J5" s="117">
+        <v>0</v>
+      </c>
+      <c r="K5" s="117">
+        <v>0</v>
+      </c>
+      <c r="L5" s="118">
+        <v>-43858.684785476304</v>
+      </c>
+      <c r="M5" s="119">
+        <v>-12071.59162063728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="120" cm="1">
+        <f t="array" ref="B6:M6">'Table 2'!AB6:AM6/1000000*'Table 1'!AN27</f>
+        <v>-3200.4970867869561</v>
+      </c>
+      <c r="C6" s="120">
+        <v>14771.594202920778</v>
+      </c>
+      <c r="D6" s="120">
+        <v>-29636.016659355777</v>
+      </c>
+      <c r="E6" s="120">
+        <v>0</v>
+      </c>
+      <c r="F6" s="120">
+        <v>0</v>
+      </c>
+      <c r="G6" s="120">
+        <v>0</v>
+      </c>
+      <c r="H6" s="120">
+        <v>0</v>
+      </c>
+      <c r="I6" s="120">
+        <v>0</v>
+      </c>
+      <c r="J6" s="120">
+        <v>0</v>
+      </c>
+      <c r="K6" s="120">
+        <v>0</v>
+      </c>
+      <c r="L6" s="121">
+        <v>1087.7212373744035</v>
+      </c>
+      <c r="M6" s="102">
+        <v>12174.551528642221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="120" cm="1">
+        <f t="array" ref="B7:M7">'Table 2'!AB7:AM7/1000000*'Table 1'!AN28</f>
+        <v>-4173.6609777492522</v>
+      </c>
+      <c r="C7" s="120">
+        <v>-35860.417885788731</v>
+      </c>
+      <c r="D7" s="120">
+        <v>-66869.435331512213</v>
+      </c>
+      <c r="E7" s="120">
+        <v>0</v>
+      </c>
+      <c r="F7" s="120">
+        <v>0</v>
+      </c>
+      <c r="G7" s="120">
+        <v>0</v>
+      </c>
+      <c r="H7" s="120">
+        <v>0</v>
+      </c>
+      <c r="I7" s="120">
+        <v>0</v>
+      </c>
+      <c r="J7" s="120">
+        <v>0</v>
+      </c>
+      <c r="K7" s="120">
+        <v>0</v>
+      </c>
+      <c r="L7" s="121">
+        <v>10070.507217505263</v>
+      </c>
+      <c r="M7" s="102">
+        <v>-27566.903307583998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="120" cm="1">
+        <f t="array" ref="B8:M8">'Table 2'!AB8:AM8/1000000*'Table 1'!AN29</f>
+        <v>6230.9337985775228</v>
+      </c>
+      <c r="C8" s="120">
+        <v>-23097.943617019646</v>
+      </c>
+      <c r="D8" s="120">
+        <v>-53645.018124742302</v>
+      </c>
+      <c r="E8" s="120">
+        <v>0</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0</v>
+      </c>
+      <c r="G8" s="120">
+        <v>0</v>
+      </c>
+      <c r="H8" s="120">
+        <v>0</v>
+      </c>
+      <c r="I8" s="120">
+        <v>0</v>
+      </c>
+      <c r="J8" s="120">
+        <v>0</v>
+      </c>
+      <c r="K8" s="120">
+        <v>0</v>
+      </c>
+      <c r="L8" s="121">
+        <v>48554.732414026112</v>
+      </c>
+      <c r="M8" s="102">
+        <v>10478.435124551328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="120" cm="1">
+        <f t="array" ref="B9:M9">'Table 2'!AB9:AM9/1000000*'Table 1'!AN30</f>
+        <v>-150.14593527440564</v>
+      </c>
+      <c r="C9" s="120">
+        <v>23772.659493029278</v>
+      </c>
+      <c r="D9" s="120">
+        <v>-15508.70159786363</v>
+      </c>
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0</v>
+      </c>
+      <c r="G9" s="120">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
+        <v>0</v>
+      </c>
+      <c r="J9" s="120">
+        <v>0</v>
+      </c>
+      <c r="K9" s="120">
+        <v>0</v>
+      </c>
+      <c r="L9" s="121">
+        <v>111808.17011677743</v>
+      </c>
+      <c r="M9" s="102">
+        <v>9131.8680791196784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="120" cm="1">
+        <f t="array" ref="B10:M10">'Table 2'!AB10:AM10/1000000*'Table 1'!AN31</f>
+        <v>-2413.7290044590732</v>
+      </c>
+      <c r="C10" s="120">
+        <v>23458.836213208226</v>
+      </c>
+      <c r="D10" s="120">
+        <v>28717.324581587902</v>
+      </c>
+      <c r="E10" s="120">
+        <v>0</v>
+      </c>
+      <c r="F10" s="120">
+        <v>0</v>
+      </c>
+      <c r="G10" s="120">
+        <v>0</v>
+      </c>
+      <c r="H10" s="120">
+        <v>0</v>
+      </c>
+      <c r="I10" s="120">
+        <v>0</v>
+      </c>
+      <c r="J10" s="120">
+        <v>0</v>
+      </c>
+      <c r="K10" s="120">
+        <v>0</v>
+      </c>
+      <c r="L10" s="121">
+        <v>97103.236252298404</v>
+      </c>
+      <c r="M10" s="102">
+        <v>-7810.3991288331372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="120" cm="1">
+        <f t="array" ref="B11:M11">'Table 2'!AB11:AM11/1000000*'Table 1'!AN32</f>
+        <v>-1360.7443293014999</v>
+      </c>
+      <c r="C11" s="120">
+        <v>48039.618250117295</v>
+      </c>
+      <c r="D11" s="120">
+        <v>17800.466808791345</v>
+      </c>
+      <c r="E11" s="120">
+        <v>0</v>
+      </c>
+      <c r="F11" s="120">
+        <v>0</v>
+      </c>
+      <c r="G11" s="120">
+        <v>0</v>
+      </c>
+      <c r="H11" s="120">
+        <v>0</v>
+      </c>
+      <c r="I11" s="120">
+        <v>0</v>
+      </c>
+      <c r="J11" s="120">
+        <v>0</v>
+      </c>
+      <c r="K11" s="120">
+        <v>0</v>
+      </c>
+      <c r="L11" s="121">
+        <v>156170.36270697301</v>
+      </c>
+      <c r="M11" s="102">
+        <v>19844.425311007933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="120" cm="1">
+        <f t="array" ref="B12:M12">'Table 2'!AB12:AM12/1000000*'Table 1'!AN33</f>
+        <v>-1689.7233162792554</v>
+      </c>
+      <c r="C12" s="120">
+        <v>65551.137541368545</v>
+      </c>
+      <c r="D12" s="120">
+        <v>-157147.16258217883</v>
+      </c>
+      <c r="E12" s="120">
+        <v>0</v>
+      </c>
+      <c r="F12" s="120">
+        <v>0</v>
+      </c>
+      <c r="G12" s="120">
+        <v>0</v>
+      </c>
+      <c r="H12" s="120">
+        <v>0</v>
+      </c>
+      <c r="I12" s="120">
+        <v>0</v>
+      </c>
+      <c r="J12" s="120">
+        <v>0</v>
+      </c>
+      <c r="K12" s="120">
+        <v>0</v>
+      </c>
+      <c r="L12" s="121">
+        <v>184927.51895242702</v>
+      </c>
+      <c r="M12" s="102">
+        <v>14515.157765459051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="120" cm="1">
+        <f t="array" ref="B13:M13">'Table 2'!AB13:AM13/1000000*'Table 1'!AN34</f>
+        <v>-827.73068802738771</v>
+      </c>
+      <c r="C13" s="120">
+        <v>45626.86736826993</v>
+      </c>
+      <c r="D13" s="120">
+        <v>-30358.209439578568</v>
+      </c>
+      <c r="E13" s="120">
+        <v>0</v>
+      </c>
+      <c r="F13" s="120">
+        <v>0</v>
+      </c>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="120">
+        <v>0</v>
+      </c>
+      <c r="I13" s="120">
+        <v>0</v>
+      </c>
+      <c r="J13" s="120">
+        <v>0</v>
+      </c>
+      <c r="K13" s="120">
+        <v>0</v>
+      </c>
+      <c r="L13" s="121">
+        <v>122306.679414417</v>
+      </c>
+      <c r="M13" s="102">
+        <v>-21932.615807666531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="122">
+        <v>-1858</v>
+      </c>
+      <c r="C14" s="103">
+        <v>32203</v>
+      </c>
+      <c r="D14" s="103">
+        <v>85437</v>
+      </c>
+      <c r="E14" s="103">
+        <v>-6843</v>
+      </c>
+      <c r="F14" s="103">
+        <v>10248</v>
+      </c>
+      <c r="G14" s="103">
+        <v>-62956</v>
+      </c>
+      <c r="H14" s="104">
+        <v>15723</v>
+      </c>
+      <c r="I14" s="104">
+        <v>5285</v>
+      </c>
+      <c r="J14" s="104">
+        <v>52195</v>
+      </c>
+      <c r="K14" s="104">
+        <v>8648</v>
+      </c>
+      <c r="L14" s="104">
+        <v>129693</v>
+      </c>
+      <c r="M14" s="103">
+        <v>-11194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="122">
+        <v>1219</v>
+      </c>
+      <c r="C15" s="104">
+        <v>45158</v>
+      </c>
+      <c r="D15" s="104">
+        <v>112835</v>
+      </c>
+      <c r="E15" s="104">
+        <v>13539</v>
+      </c>
+      <c r="F15" s="104">
+        <v>80388</v>
+      </c>
+      <c r="G15" s="104">
+        <v>-217132</v>
+      </c>
+      <c r="H15" s="104">
+        <v>50241</v>
+      </c>
+      <c r="I15" s="104">
+        <v>-36338</v>
+      </c>
+      <c r="J15" s="104">
+        <v>122841</v>
+      </c>
+      <c r="K15" s="104">
+        <v>1613</v>
+      </c>
+      <c r="L15" s="104">
+        <v>92757</v>
+      </c>
+      <c r="M15" s="104">
+        <v>-55760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="122">
+        <v>419</v>
+      </c>
+      <c r="C16" s="104">
+        <v>7492</v>
+      </c>
+      <c r="D16" s="104">
+        <v>-34315</v>
+      </c>
+      <c r="E16" s="104">
+        <v>28591</v>
+      </c>
+      <c r="F16" s="104">
+        <v>116254</v>
+      </c>
+      <c r="G16" s="104">
+        <v>46433</v>
+      </c>
+      <c r="H16" s="104">
+        <v>-10544</v>
+      </c>
+      <c r="I16" s="104">
+        <v>2442</v>
+      </c>
+      <c r="J16" s="104">
+        <v>77924</v>
+      </c>
+      <c r="K16" s="104">
+        <v>2836</v>
+      </c>
+      <c r="L16" s="104">
+        <v>120857</v>
+      </c>
+      <c r="M16" s="104">
+        <v>-46902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="122">
+        <v>-413</v>
+      </c>
+      <c r="C17" s="104">
+        <v>26449</v>
+      </c>
+      <c r="D17" s="104">
+        <v>51786</v>
+      </c>
+      <c r="E17" s="104">
+        <v>24138</v>
+      </c>
+      <c r="F17" s="104">
+        <v>47748</v>
+      </c>
+      <c r="G17" s="104">
+        <v>-117589</v>
+      </c>
+      <c r="H17" s="104">
+        <v>-16326</v>
+      </c>
+      <c r="I17" s="104">
+        <v>80501</v>
+      </c>
+      <c r="J17" s="104">
+        <v>101161</v>
+      </c>
+      <c r="K17" s="104">
+        <v>1297</v>
+      </c>
+      <c r="L17" s="104">
+        <v>151417</v>
+      </c>
+      <c r="M17" s="104">
+        <v>-43882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="122">
+        <v>-563</v>
+      </c>
+      <c r="C18" s="104">
+        <v>20144</v>
+      </c>
+      <c r="D18" s="104">
+        <v>158100</v>
+      </c>
+      <c r="E18" s="104">
+        <v>23894</v>
+      </c>
+      <c r="F18" s="104">
+        <v>23038</v>
+      </c>
+      <c r="G18" s="104">
+        <v>101589</v>
+      </c>
+      <c r="H18" s="104">
+        <v>34051</v>
+      </c>
+      <c r="I18" s="104">
+        <v>10022</v>
+      </c>
+      <c r="J18" s="104">
+        <v>-122624</v>
+      </c>
+      <c r="K18" s="104">
+        <v>838</v>
+      </c>
+      <c r="L18" s="104">
+        <v>226014</v>
+      </c>
+      <c r="M18" s="104">
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="122">
+        <v>3255</v>
+      </c>
+      <c r="C19" s="104">
+        <v>65628</v>
+      </c>
+      <c r="D19" s="104">
+        <v>126365</v>
+      </c>
+      <c r="E19" s="104">
+        <v>38547</v>
+      </c>
+      <c r="F19" s="104">
+        <v>2956</v>
+      </c>
+      <c r="G19" s="104">
+        <v>43725</v>
+      </c>
+      <c r="H19" s="104">
+        <v>-20149</v>
+      </c>
+      <c r="I19" s="104">
+        <v>22987</v>
+      </c>
+      <c r="J19" s="104">
+        <v>-43606</v>
+      </c>
+      <c r="K19" s="104">
+        <v>-2564</v>
+      </c>
+      <c r="L19" s="104">
+        <v>230931</v>
+      </c>
+      <c r="M19" s="104">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="122">
+        <v>265</v>
+      </c>
+      <c r="C20" s="104">
+        <v>61685</v>
+      </c>
+      <c r="D20" s="104">
+        <v>192659</v>
+      </c>
+      <c r="E20" s="104">
+        <v>30388</v>
+      </c>
+      <c r="F20" s="104">
+        <v>44787</v>
+      </c>
+      <c r="G20" s="104">
+        <v>-48935</v>
+      </c>
+      <c r="H20" s="104">
+        <v>-34094</v>
+      </c>
+      <c r="I20" s="104">
+        <v>-751</v>
+      </c>
+      <c r="J20" s="104">
+        <v>38994</v>
+      </c>
+      <c r="K20" s="104">
+        <v>-2213</v>
+      </c>
+      <c r="L20" s="104">
+        <v>237733</v>
+      </c>
+      <c r="M20" s="104">
+        <v>-22313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="122">
+        <v>2451</v>
+      </c>
+      <c r="C21" s="104">
+        <v>43462</v>
+      </c>
+      <c r="D21" s="104">
+        <v>196931</v>
+      </c>
+      <c r="E21" s="104">
+        <v>28605</v>
+      </c>
+      <c r="F21" s="104">
+        <v>11777</v>
+      </c>
+      <c r="G21" s="104">
+        <v>-68228</v>
+      </c>
+      <c r="H21" s="104">
+        <v>-7300</v>
+      </c>
+      <c r="I21" s="104">
+        <v>4109</v>
+      </c>
+      <c r="J21" s="104">
+        <v>59642</v>
+      </c>
+      <c r="K21" s="104">
+        <v>1686</v>
+      </c>
+      <c r="L21" s="104">
+        <v>258906</v>
+      </c>
+      <c r="M21" s="104">
+        <v>-13744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="122">
+        <v>-2653</v>
+      </c>
+      <c r="C22" s="104">
+        <v>33362</v>
+      </c>
+      <c r="D22" s="104">
+        <v>195393</v>
+      </c>
+      <c r="E22" s="104">
+        <v>11122</v>
+      </c>
+      <c r="F22" s="104">
+        <v>29699</v>
+      </c>
+      <c r="G22" s="104">
+        <v>-38656</v>
+      </c>
+      <c r="H22" s="104">
+        <v>-15993</v>
+      </c>
+      <c r="I22" s="104">
+        <v>4721</v>
+      </c>
+      <c r="J22" s="104">
+        <v>79626</v>
+      </c>
+      <c r="K22" s="104">
+        <v>-1269</v>
+      </c>
+      <c r="L22" s="104">
+        <v>268306</v>
+      </c>
+      <c r="M22" s="104">
+        <v>14996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="122">
+        <v>914</v>
+      </c>
+      <c r="C23" s="104">
+        <v>21249</v>
+      </c>
+      <c r="D23" s="104">
+        <v>150181</v>
+      </c>
+      <c r="E23" s="104">
+        <v>22668</v>
+      </c>
+      <c r="F23" s="104">
+        <v>48399</v>
+      </c>
+      <c r="G23" s="104">
+        <v>85552</v>
+      </c>
+      <c r="H23" s="104">
+        <v>19852</v>
+      </c>
+      <c r="I23" s="104">
+        <v>-12176</v>
+      </c>
+      <c r="J23" s="104">
+        <v>-44828</v>
+      </c>
+      <c r="K23" s="104">
+        <v>392</v>
+      </c>
+      <c r="L23" s="104">
+        <v>242889</v>
+      </c>
+      <c r="M23" s="104">
+        <v>-25634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="122">
+        <v>-3705</v>
+      </c>
+      <c r="C24" s="104">
+        <v>87894</v>
+      </c>
+      <c r="D24" s="104">
+        <v>74008</v>
+      </c>
+      <c r="E24" s="104">
+        <v>20553</v>
+      </c>
+      <c r="F24" s="104">
+        <v>18401</v>
+      </c>
+      <c r="G24" s="104">
+        <v>19920</v>
+      </c>
+      <c r="H24" s="104">
+        <v>-28796</v>
+      </c>
+      <c r="I24" s="104">
+        <v>-1429</v>
+      </c>
+      <c r="J24" s="104">
+        <v>28706</v>
+      </c>
+      <c r="K24" s="104">
+        <v>-544</v>
+      </c>
+      <c r="L24" s="104">
+        <v>200312</v>
+      </c>
+      <c r="M24" s="104">
+        <v>-79832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="122">
+        <v>-10345</v>
+      </c>
+      <c r="C25" s="104">
+        <v>-27363</v>
+      </c>
+      <c r="D25" s="104">
+        <v>17245</v>
+      </c>
+      <c r="E25" s="104">
+        <v>93177</v>
+      </c>
+      <c r="F25" s="104">
+        <v>85760</v>
+      </c>
+      <c r="G25" s="104">
+        <v>-112738</v>
+      </c>
+      <c r="H25" s="104">
+        <v>56271</v>
+      </c>
+      <c r="I25" s="104">
+        <v>10057</v>
+      </c>
+      <c r="J25" s="104">
+        <v>132170</v>
+      </c>
+      <c r="K25" s="104">
+        <v>-51</v>
+      </c>
+      <c r="L25" s="104">
+        <v>168767</v>
+      </c>
+      <c r="M25" s="104">
+        <v>-43395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="122">
+        <v>-2593</v>
+      </c>
+      <c r="C26" s="104">
+        <v>81494</v>
+      </c>
+      <c r="D26" s="104">
+        <v>197193</v>
+      </c>
+      <c r="E26" s="104">
+        <v>47880</v>
+      </c>
+      <c r="F26" s="104">
+        <v>149480</v>
+      </c>
+      <c r="G26" s="104">
+        <v>-48383</v>
+      </c>
+      <c r="H26" s="104">
+        <v>6085</v>
+      </c>
+      <c r="I26" s="104">
+        <v>-3780</v>
+      </c>
+      <c r="J26" s="104">
+        <v>-103402</v>
+      </c>
+      <c r="K26" s="104">
+        <v>31892</v>
+      </c>
+      <c r="L26" s="104">
+        <v>208978</v>
+      </c>
+      <c r="M26" s="104">
+        <v>-51883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="122">
+        <v>-21644</v>
+      </c>
+      <c r="C27" s="104">
+        <v>112166</v>
+      </c>
+      <c r="D27" s="104">
+        <v>10732</v>
+      </c>
+      <c r="E27" s="104">
+        <v>41519</v>
+      </c>
+      <c r="F27" s="104">
+        <v>29346</v>
+      </c>
+      <c r="G27" s="104">
+        <v>-93531</v>
+      </c>
+      <c r="H27" s="104">
+        <v>37389</v>
+      </c>
+      <c r="I27" s="104">
+        <v>-19396</v>
+      </c>
+      <c r="J27" s="104">
+        <v>104884</v>
+      </c>
+      <c r="K27" s="104">
+        <v>4426</v>
+      </c>
+      <c r="L27" s="104">
+        <v>198190</v>
+      </c>
+      <c r="M27" s="104">
+        <v>55204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="123">
+        <v>-27252</v>
+      </c>
+      <c r="C28" s="124">
+        <v>59704</v>
+      </c>
+      <c r="D28" s="124">
+        <v>1152</v>
+      </c>
+      <c r="E28" s="124">
+        <v>39966</v>
+      </c>
+      <c r="F28" s="124">
+        <v>130880</v>
+      </c>
+      <c r="G28" s="124">
+        <v>97432</v>
+      </c>
+      <c r="H28" s="124">
+        <v>60193</v>
+      </c>
+      <c r="I28" s="124">
+        <v>7346</v>
+      </c>
+      <c r="J28" s="124">
+        <v>-34090</v>
+      </c>
+      <c r="K28" s="124">
+        <v>884</v>
+      </c>
+      <c r="L28" s="124">
+        <v>232587</v>
+      </c>
+      <c r="M28" s="124">
+        <v>16727</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB9124-C022-4EFB-AF37-7844C9D2D729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E72612E-CD37-460C-8D9C-C6F40BBFAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -572,7 +572,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="#.##0..&quot;M&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1088,19 +1088,33 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,17 +1144,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1208,62 +1237,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1274,77 +1255,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1654,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView topLeftCell="Z3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1689,92 +1682,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="W1" s="38" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="W1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="38" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="W2" s="38" t="s">
+      <c r="R2" s="50"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="38" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="38" t="s">
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="38" t="s">
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="41" t="s">
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="49" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1785,42 +1778,42 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="46"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1850,7 @@
       <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="43"/>
+      <c r="AI3" s="51"/>
       <c r="AK3" t="s">
         <v>32</v>
       </c>
@@ -1872,44 +1865,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="55">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="55">
         <v>6</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="36">
-        <v>9</v>
-      </c>
-      <c r="L4" s="37"/>
+      <c r="K4" s="55">
+        <v>9</v>
+      </c>
+      <c r="L4" s="56"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="55">
         <v>12</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="36">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="55">
         <v>13</v>
       </c>
-      <c r="R4" s="37"/>
+      <c r="R4" s="56"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
@@ -1949,12 +1942,12 @@
       <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AK4" s="33" t="s">
+      <c r="AK4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="35"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="63"/>
     </row>
     <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1963,10 +1956,10 @@
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="57">
         <v>140626</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -2003,56 +1996,56 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="57">
         <v>142744</v>
       </c>
-      <c r="R5" s="50"/>
+      <c r="R5" s="58"/>
       <c r="S5">
         <v>2009</v>
       </c>
       <c r="V5">
         <v>2000</v>
       </c>
-      <c r="W5" s="76">
+      <c r="W5" s="24">
         <v>517849235935.83197</v>
       </c>
-      <c r="X5" s="76">
+      <c r="X5" s="24">
         <v>458490174761.44</v>
       </c>
-      <c r="Y5" s="82">
+      <c r="Y5" s="40">
         <f>W5-X5</f>
         <v>59359061174.391968</v>
       </c>
-      <c r="Z5" s="76">
+      <c r="Z5" s="24">
         <v>81342926057.419006</v>
       </c>
-      <c r="AA5" s="76">
+      <c r="AA5" s="24">
         <v>136841165555.034</v>
       </c>
-      <c r="AB5" s="82">
+      <c r="AB5" s="40">
         <f>Z5-AA5</f>
         <v>-55498239497.61499</v>
       </c>
-      <c r="AC5" s="78">
+      <c r="AC5" s="36">
         <v>111592000000</v>
       </c>
-      <c r="AD5" s="76">
+      <c r="AD5" s="24">
         <v>121601974113.286</v>
       </c>
-      <c r="AE5" s="83">
+      <c r="AE5" s="41">
         <v>-10009150685.822599</v>
       </c>
-      <c r="AF5" s="76">
+      <c r="AF5" s="24">
         <v>29024580581.181</v>
       </c>
       <c r="AG5">
-        <f>AF5+AH15</f>
+        <f t="shared" ref="AG5:AG13" si="0">AF5+AH15</f>
         <v>56779247685.164299</v>
       </c>
-      <c r="AH5" s="81">
+      <c r="AH5" s="39">
         <v>-27754667103.983299</v>
       </c>
-      <c r="AI5" s="77">
+      <c r="AI5" s="35">
         <v>-33903966248.290001</v>
       </c>
       <c r="AK5" t="s">
@@ -2096,10 +2089,10 @@
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="59">
         <v>160829</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -2136,56 +2129,56 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="59">
         <v>147298</v>
       </c>
-      <c r="R6" s="48"/>
+      <c r="R6" s="60"/>
       <c r="S6">
         <v>2010</v>
       </c>
       <c r="V6">
         <v>2001</v>
       </c>
-      <c r="W6" s="76">
+      <c r="W6" s="24">
         <v>536597295079.27002</v>
       </c>
-      <c r="X6" s="76">
+      <c r="X6" s="24">
         <v>445973015157.05603</v>
       </c>
-      <c r="Y6" s="82">
-        <f t="shared" ref="Y6:Y13" si="0">W6-X6</f>
+      <c r="Y6" s="40">
+        <f t="shared" ref="Y6:Y13" si="1">W6-X6</f>
         <v>90624279922.213989</v>
       </c>
-      <c r="Z6" s="76">
+      <c r="Z6" s="24">
         <v>82875272450.070206</v>
       </c>
-      <c r="AA6" s="76">
+      <c r="AA6" s="24">
         <v>141810809794.42499</v>
       </c>
-      <c r="AB6" s="82">
-        <f t="shared" ref="AB6:AB13" si="1">Z6-AA6</f>
+      <c r="AB6" s="40">
+        <f t="shared" ref="AB6:AB13" si="2">Z6-AA6</f>
         <v>-58935537344.354782</v>
       </c>
-      <c r="AC6" s="76">
+      <c r="AC6" s="24">
         <v>95962727376</v>
       </c>
-      <c r="AD6" s="76">
+      <c r="AD6" s="24">
         <v>108600918650.31</v>
       </c>
-      <c r="AE6" s="84">
+      <c r="AE6" s="32">
         <v>-12637295394.5007</v>
       </c>
-      <c r="AF6" s="76">
+      <c r="AF6" s="24">
         <v>36583607181.196701</v>
       </c>
       <c r="AG6">
-        <f>AF6+AH16</f>
+        <f t="shared" si="0"/>
         <v>62734567734.982407</v>
       </c>
-      <c r="AH6" s="76">
+      <c r="AH6" s="24">
         <v>-26150960553.785702</v>
       </c>
-      <c r="AI6" s="77">
+      <c r="AI6" s="35">
         <v>-7099486034.1670504</v>
       </c>
       <c r="AK6" t="s">
@@ -2229,10 +2222,10 @@
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="59">
         <v>162970</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -2269,56 +2262,56 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="59">
         <v>167340</v>
       </c>
-      <c r="R7" s="48"/>
+      <c r="R7" s="60"/>
       <c r="S7">
         <v>2011</v>
       </c>
       <c r="V7">
         <v>2002</v>
       </c>
-      <c r="W7" s="76">
+      <c r="W7" s="24">
         <v>578744070285.672</v>
       </c>
-      <c r="X7" s="76">
+      <c r="X7" s="24">
         <v>444511217220.90302</v>
       </c>
-      <c r="Y7" s="82">
+      <c r="Y7" s="40">
+        <f t="shared" si="1"/>
+        <v>134232853064.76898</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>99176552764.777496</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>145002366415.29999</v>
+      </c>
+      <c r="AB7" s="40">
+        <f t="shared" si="2"/>
+        <v>-45825813650.522491</v>
+      </c>
+      <c r="AC7" s="36">
+        <v>102731000000</v>
+      </c>
+      <c r="AD7" s="24">
+        <v>123854346911.62</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>-21123280725.437599</v>
+      </c>
+      <c r="AF7" s="24">
+        <v>39312672599.650703</v>
+      </c>
+      <c r="AG7">
         <f t="shared" si="0"/>
-        <v>134232853064.76898</v>
-      </c>
-      <c r="Z7" s="76">
-        <v>99176552764.777496</v>
-      </c>
-      <c r="AA7" s="76">
-        <v>145002366415.29999</v>
-      </c>
-      <c r="AB7" s="82">
-        <f t="shared" si="1"/>
-        <v>-45825813650.522491</v>
-      </c>
-      <c r="AC7" s="78">
-        <v>102731000000</v>
-      </c>
-      <c r="AD7" s="76">
-        <v>123854346911.62</v>
-      </c>
-      <c r="AE7" s="84">
-        <v>-21123280725.437599</v>
-      </c>
-      <c r="AF7" s="76">
-        <v>39312672599.650703</v>
-      </c>
-      <c r="AG7">
-        <f>AF7+AH17</f>
         <v>66877708774.997902</v>
       </c>
-      <c r="AH7" s="76">
+      <c r="AH7" s="24">
         <v>-27565036175.347198</v>
       </c>
-      <c r="AI7" s="77">
+      <c r="AI7" s="35">
         <v>39720517927.696602</v>
       </c>
     </row>
@@ -2329,10 +2322,10 @@
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="59">
         <v>199531</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -2369,56 +2362,56 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="59">
         <v>195712</v>
       </c>
-      <c r="R8" s="48"/>
+      <c r="R8" s="60"/>
       <c r="S8">
         <v>2012</v>
       </c>
       <c r="V8">
         <v>2003</v>
       </c>
-      <c r="W8" s="76">
+      <c r="W8" s="24">
         <v>701377108385.77502</v>
       </c>
-      <c r="X8" s="76">
+      <c r="X8" s="24">
         <v>554374326023.97595</v>
       </c>
-      <c r="Y8" s="82">
+      <c r="Y8" s="40">
+        <f t="shared" si="1"/>
+        <v>147002782361.79907</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>120193431021.70399</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>172495369631.09601</v>
+      </c>
+      <c r="AB8" s="40">
+        <f t="shared" si="2"/>
+        <v>-52301938609.392014</v>
+      </c>
+      <c r="AC8" s="36">
+        <v>126507000000</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>150232550446.35501</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>-23725947693.539001</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>56682895143.9338</v>
+      </c>
+      <c r="AG8">
         <f t="shared" si="0"/>
-        <v>147002782361.79907</v>
-      </c>
-      <c r="Z8" s="76">
-        <v>120193431021.70399</v>
-      </c>
-      <c r="AA8" s="76">
-        <v>172495369631.09601</v>
-      </c>
-      <c r="AB8" s="82">
-        <f t="shared" si="1"/>
-        <v>-52301938609.392014</v>
-      </c>
-      <c r="AC8" s="78">
-        <v>126507000000</v>
-      </c>
-      <c r="AD8" s="76">
-        <v>150232550446.35501</v>
-      </c>
-      <c r="AE8" s="84">
-        <v>-23725947693.539001</v>
-      </c>
-      <c r="AF8" s="76">
-        <v>56682895143.9338</v>
-      </c>
-      <c r="AG8">
-        <f>AF8+AH18</f>
         <v>91674728356.789795</v>
       </c>
-      <c r="AH8" s="76">
+      <c r="AH8" s="24">
         <v>-34991833212.856003</v>
       </c>
-      <c r="AI8" s="77">
+      <c r="AI8" s="35">
         <v>35985324846.9412</v>
       </c>
       <c r="AK8" s="31" t="s">
@@ -2432,10 +2425,10 @@
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="59">
         <v>203802</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -2472,56 +2465,56 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="59">
         <v>184352</v>
       </c>
-      <c r="R9" s="48"/>
+      <c r="R9" s="60"/>
       <c r="S9">
         <v>2013</v>
       </c>
       <c r="V9">
         <v>2004</v>
       </c>
-      <c r="W9" s="76">
+      <c r="W9" s="24">
         <v>853216578347.979</v>
       </c>
-      <c r="X9" s="76">
+      <c r="X9" s="24">
         <v>663586775061.50806</v>
       </c>
-      <c r="Y9" s="82">
+      <c r="Y9" s="40">
+        <f t="shared" si="1"/>
+        <v>189629803286.47095</v>
+      </c>
+      <c r="Z9" s="24">
+        <v>151919691893.97501</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>195376161460.57001</v>
+      </c>
+      <c r="AB9" s="40">
+        <f t="shared" si="2"/>
+        <v>-43456469566.595001</v>
+      </c>
+      <c r="AC9" s="36">
+        <v>177066000000</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>158507231268.68701</v>
+      </c>
+      <c r="AE9" s="32">
+        <v>18557264888.780899</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>48232770206.7099</v>
+      </c>
+      <c r="AG9">
         <f t="shared" si="0"/>
-        <v>189629803286.47095</v>
-      </c>
-      <c r="Z9" s="76">
-        <v>151919691893.97501</v>
-      </c>
-      <c r="AA9" s="76">
-        <v>195376161460.57001</v>
-      </c>
-      <c r="AB9" s="82">
-        <f t="shared" si="1"/>
-        <v>-43456469566.595001</v>
-      </c>
-      <c r="AC9" s="78">
-        <v>177066000000</v>
-      </c>
-      <c r="AD9" s="76">
-        <v>158507231268.68701</v>
-      </c>
-      <c r="AE9" s="84">
-        <v>18557264888.780899</v>
-      </c>
-      <c r="AF9" s="76">
-        <v>48232770206.7099</v>
-      </c>
-      <c r="AG9">
-        <f>AF9+AH19</f>
         <v>85458666399.783508</v>
       </c>
-      <c r="AH9" s="76">
+      <c r="AH9" s="24">
         <v>-37225896193.073601</v>
       </c>
-      <c r="AI9" s="77">
+      <c r="AI9" s="35">
         <v>127505924403.463</v>
       </c>
       <c r="AK9" s="24">
@@ -2565,10 +2558,10 @@
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="59">
         <v>219629</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -2605,56 +2598,56 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="59">
         <v>211477</v>
       </c>
-      <c r="R10" s="48"/>
+      <c r="R10" s="60"/>
       <c r="S10">
         <v>2014</v>
       </c>
       <c r="V10">
         <v>2005</v>
       </c>
-      <c r="W10" s="76">
+      <c r="W10" s="24">
         <v>919536367261.396</v>
       </c>
-      <c r="X10" s="76">
+      <c r="X10" s="24">
         <v>724096710413.83496</v>
       </c>
-      <c r="Y10" s="82">
+      <c r="Y10" s="40">
+        <f t="shared" si="1"/>
+        <v>195439656847.56104</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>162683447471.58899</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>209354183114.064</v>
+      </c>
+      <c r="AB10" s="40">
+        <f t="shared" si="2"/>
+        <v>-46670735642.475006</v>
+      </c>
+      <c r="AC10" s="36">
+        <v>207475000000</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>183863880742.689</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>23611400319.265999</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>52763835148.554901</v>
+      </c>
+      <c r="AG10">
         <f t="shared" si="0"/>
-        <v>195439656847.56104</v>
-      </c>
-      <c r="Z10" s="76">
-        <v>162683447471.58899</v>
-      </c>
-      <c r="AA10" s="76">
-        <v>209354183114.064</v>
-      </c>
-      <c r="AB10" s="82">
-        <f t="shared" si="1"/>
-        <v>-46670735642.475006</v>
-      </c>
-      <c r="AC10" s="78">
-        <v>207475000000</v>
-      </c>
-      <c r="AD10" s="76">
-        <v>183863880742.689</v>
-      </c>
-      <c r="AE10" s="84">
-        <v>23611400319.265999</v>
-      </c>
-      <c r="AF10" s="76">
-        <v>52763835148.554901</v>
-      </c>
-      <c r="AG10">
-        <f>AF10+AH20</f>
         <v>92056965464.005707</v>
       </c>
-      <c r="AH10" s="76">
+      <c r="AH10" s="24">
         <v>-39293130315.450798</v>
       </c>
-      <c r="AI10" s="77">
+      <c r="AI10" s="35">
         <v>133087243134.907</v>
       </c>
     </row>
@@ -2665,10 +2658,10 @@
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="59">
         <v>248394</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -2705,56 +2698,56 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="59">
         <v>259781</v>
       </c>
-      <c r="R11" s="48"/>
+      <c r="R11" s="60"/>
       <c r="S11">
         <v>2015</v>
       </c>
       <c r="V11">
         <v>2006</v>
       </c>
-      <c r="W11" s="76">
+      <c r="W11" s="24">
         <v>1057726166441.95</v>
       </c>
-      <c r="X11" s="76">
+      <c r="X11" s="24">
         <v>855367372577.823</v>
       </c>
-      <c r="Y11" s="82">
+      <c r="Y11" s="40">
+        <f t="shared" si="1"/>
+        <v>202358793864.12695</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>184644939841.92599</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>224518715358.83801</v>
+      </c>
+      <c r="AB11" s="40">
+        <f t="shared" si="2"/>
+        <v>-39873775516.912018</v>
+      </c>
+      <c r="AC11" s="36">
+        <v>262287000000</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>211166865102.056</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>51120962615.648804</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>49766012958.167099</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="0"/>
-        <v>202358793864.12695</v>
-      </c>
-      <c r="Z11" s="76">
-        <v>184644939841.92599</v>
-      </c>
-      <c r="AA11" s="76">
-        <v>224518715358.83801</v>
-      </c>
-      <c r="AB11" s="82">
-        <f t="shared" si="1"/>
-        <v>-39873775516.912018</v>
-      </c>
-      <c r="AC11" s="78">
-        <v>262287000000</v>
-      </c>
-      <c r="AD11" s="76">
-        <v>211166865102.056</v>
-      </c>
-      <c r="AE11" s="84">
-        <v>51120962615.648804</v>
-      </c>
-      <c r="AF11" s="76">
-        <v>49766012958.167099</v>
-      </c>
-      <c r="AG11">
-        <f>AF11+AH21</f>
         <v>89885619149.133896</v>
       </c>
-      <c r="AH11" s="76">
+      <c r="AH11" s="24">
         <v>-40119606190.966797</v>
       </c>
-      <c r="AI11" s="77">
+      <c r="AI11" s="35">
         <v>173486477217.38501</v>
       </c>
       <c r="AK11" s="31" t="s">
@@ -2768,10 +2761,10 @@
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="59">
         <v>252409</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -2808,56 +2801,56 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="59">
         <v>270200</v>
       </c>
-      <c r="R12" s="48"/>
+      <c r="R12" s="60"/>
       <c r="S12">
         <v>2016</v>
       </c>
       <c r="V12">
         <v>2007</v>
       </c>
-      <c r="W12" s="76">
+      <c r="W12" s="24">
         <v>1270699461748.2</v>
       </c>
-      <c r="X12" s="76">
+      <c r="X12" s="24">
         <v>994244363206.422</v>
       </c>
-      <c r="Y12" s="82">
+      <c r="Y12" s="40">
+        <f t="shared" si="1"/>
+        <v>276455098541.77795</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>214440290365.17099</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>258763042560.08099</v>
+      </c>
+      <c r="AB12" s="40">
+        <f t="shared" si="2"/>
+        <v>-44322752194.910004</v>
+      </c>
+      <c r="AC12" s="36">
+        <v>336026000000</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>286626220721.87701</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>49401389352.730003</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>57873052235.311996</v>
+      </c>
+      <c r="AG12">
         <f t="shared" si="0"/>
-        <v>276455098541.77795</v>
-      </c>
-      <c r="Z12" s="76">
-        <v>214440290365.17099</v>
-      </c>
-      <c r="AA12" s="76">
-        <v>258763042560.08099</v>
-      </c>
-      <c r="AB12" s="82">
-        <f t="shared" si="1"/>
-        <v>-44322752194.910004</v>
-      </c>
-      <c r="AC12" s="78">
-        <v>336026000000</v>
-      </c>
-      <c r="AD12" s="76">
-        <v>286626220721.87701</v>
-      </c>
-      <c r="AE12" s="84">
-        <v>49401389352.730003</v>
-      </c>
-      <c r="AF12" s="76">
-        <v>57873052235.311996</v>
-      </c>
-      <c r="AG12">
-        <f>AF12+AH22</f>
         <v>103626805678.87711</v>
       </c>
-      <c r="AH12" s="76">
+      <c r="AH12" s="24">
         <v>-45753753443.565102</v>
       </c>
-      <c r="AI12" s="77">
+      <c r="AI12" s="35">
         <v>235777197044.80099</v>
       </c>
       <c r="AK12" s="23" t="s">
@@ -2904,10 +2897,10 @@
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="59">
         <v>255077</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -2944,56 +2937,56 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="59">
         <v>255964</v>
       </c>
-      <c r="R13" s="48"/>
+      <c r="R13" s="60"/>
       <c r="S13">
         <v>2017</v>
       </c>
       <c r="V13">
         <v>2008</v>
       </c>
-      <c r="W13" s="76">
+      <c r="W13" s="24">
         <v>1398512315698.76</v>
       </c>
-      <c r="X13" s="76">
+      <c r="X13" s="24">
         <v>1125196108496.8799</v>
       </c>
-      <c r="Y13" s="81">
+      <c r="Y13" s="39">
+        <f t="shared" si="1"/>
+        <v>273316207201.88013</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>244341721902.19101</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>288152905753.21301</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="2"/>
+        <v>-43811183851.022003</v>
+      </c>
+      <c r="AC13" s="36">
+        <v>290388000000</v>
+      </c>
+      <c r="AD13" s="24">
+        <v>257190133797.85699</v>
+      </c>
+      <c r="AE13" s="32">
+        <v>33196539491.124599</v>
+      </c>
+      <c r="AF13" s="24">
+        <v>66309172358.963097</v>
+      </c>
+      <c r="AG13">
         <f t="shared" si="0"/>
-        <v>273316207201.88013</v>
-      </c>
-      <c r="Z13" s="76">
-        <v>244341721902.19101</v>
-      </c>
-      <c r="AA13" s="76">
-        <v>288152905753.21301</v>
-      </c>
-      <c r="AB13" s="81">
-        <f t="shared" si="1"/>
-        <v>-43811183851.022003</v>
-      </c>
-      <c r="AC13" s="78">
-        <v>290388000000</v>
-      </c>
-      <c r="AD13" s="76">
-        <v>257190133797.85699</v>
-      </c>
-      <c r="AE13" s="84">
-        <v>33196539491.124599</v>
-      </c>
-      <c r="AF13" s="76">
-        <v>66309172358.963097</v>
-      </c>
-      <c r="AG13">
-        <f>AF13+AH23</f>
         <v>115761955432.64841</v>
       </c>
-      <c r="AH13" s="76">
+      <c r="AH13" s="24">
         <v>-49452783073.685303</v>
       </c>
-      <c r="AI13" s="77">
+      <c r="AI13" s="35">
         <v>213250033110.591</v>
       </c>
       <c r="AK13" s="29" t="s">
@@ -3040,10 +3033,10 @@
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="59">
         <v>221983</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -3062,10 +3055,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="59">
         <v>112389</v>
       </c>
-      <c r="L14" s="48"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -3078,21 +3071,21 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="59">
         <v>267609</v>
       </c>
-      <c r="R14" s="48"/>
+      <c r="R14" s="60"/>
       <c r="S14">
         <v>2018</v>
       </c>
-      <c r="W14" s="76"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="76"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="24"/>
       <c r="AE14" s="32"/>
       <c r="AI14" s="24"/>
       <c r="AK14" s="23" t="s">
@@ -3106,10 +3099,10 @@
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="59">
         <v>219548</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -3128,10 +3121,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="59">
         <v>128602</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -3144,14 +3137,14 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="59">
         <v>283849</v>
       </c>
-      <c r="R15" s="48"/>
+      <c r="R15" s="60"/>
       <c r="S15">
         <v>2019</v>
       </c>
-      <c r="AH15" s="81">
+      <c r="AH15" s="39">
         <v>27754667103.983299</v>
       </c>
       <c r="AL15" s="32">
@@ -3195,10 +3188,10 @@
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="59">
         <v>182725</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -3235,14 +3228,14 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="59">
         <v>222507</v>
       </c>
-      <c r="R16" s="48"/>
+      <c r="R16" s="60"/>
       <c r="S16">
         <v>2020</v>
       </c>
-      <c r="AH16" s="76">
+      <c r="AH16" s="24">
         <v>26150960553.785702</v>
       </c>
     </row>
@@ -3253,10 +3246,10 @@
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="59">
         <v>196491</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -3275,10 +3268,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="59">
         <v>123181</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="60"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -3291,14 +3284,14 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="59">
         <v>263454</v>
       </c>
-      <c r="R17" s="48"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="23">
         <v>2021</v>
       </c>
-      <c r="AH17" s="76">
+      <c r="AH17" s="24">
         <v>27565036175.347198</v>
       </c>
       <c r="AI17" s="23"/>
@@ -3313,10 +3306,10 @@
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="59">
         <v>125916</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -3335,10 +3328,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="59">
         <v>142094</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="60"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -3351,14 +3344,14 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="59">
         <v>164630</v>
       </c>
-      <c r="R18" s="48"/>
+      <c r="R18" s="60"/>
       <c r="S18">
         <v>2022</v>
       </c>
-      <c r="AH18" s="76">
+      <c r="AH18" s="24">
         <v>34991833212.856003</v>
       </c>
       <c r="AK18" s="23" t="s">
@@ -3402,10 +3395,10 @@
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="59">
         <v>226821</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -3424,10 +3417,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="59">
         <v>143901</v>
       </c>
-      <c r="L19" s="48"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -3440,18 +3433,18 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="59">
         <v>243112</v>
       </c>
-      <c r="R19" s="48"/>
+      <c r="R19" s="60"/>
       <c r="S19">
         <v>2023</v>
       </c>
       <c r="T19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="80"/>
-      <c r="AH19" s="76">
+      <c r="AB19" s="38"/>
+      <c r="AH19" s="24">
         <v>37225896193.073601</v>
       </c>
       <c r="AK19" s="23" t="s">
@@ -3555,7 +3548,7 @@
       <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
-      <c r="AH20" s="76">
+      <c r="AH20" s="24">
         <v>39293130315.450798</v>
       </c>
     </row>
@@ -3617,7 +3610,7 @@
       <c r="T21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AH21" s="76">
+      <c r="AH21" s="24">
         <v>40119606190.966797</v>
       </c>
       <c r="AK21" s="31" t="s">
@@ -3682,7 +3675,7 @@
       <c r="T22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH22" s="76">
+      <c r="AH22" s="24">
         <v>45753753443.565102</v>
       </c>
       <c r="AK22" s="23" t="s">
@@ -3777,7 +3770,7 @@
       <c r="T23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AH23" s="76">
+      <c r="AH23" s="24">
         <v>49452783073.685303</v>
       </c>
       <c r="AK23" s="23" t="s">
@@ -4012,7 +4005,7 @@
       <c r="AK26">
         <v>2000</v>
       </c>
-      <c r="AL26" s="80">
+      <c r="AL26" s="38">
         <v>0.92</v>
       </c>
       <c r="AN26">
@@ -4084,11 +4077,11 @@
       <c r="AK27">
         <v>2001</v>
       </c>
-      <c r="AL27" s="80">
+      <c r="AL27" s="38">
         <v>0.9</v>
       </c>
       <c r="AN27">
-        <f t="shared" ref="AN27:AN49" si="2">1/AL27</f>
+        <f t="shared" ref="AN27:AN49" si="3">1/AL27</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="AP27" t="s">
@@ -4156,11 +4149,11 @@
       <c r="AK28">
         <v>2002</v>
       </c>
-      <c r="AL28" s="80">
+      <c r="AL28" s="38">
         <v>0.95</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -4222,11 +4215,11 @@
       <c r="AK29">
         <v>2003</v>
       </c>
-      <c r="AL29" s="80">
+      <c r="AL29" s="38">
         <v>1.1299999999999999</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88495575221238942</v>
       </c>
     </row>
@@ -4288,11 +4281,11 @@
       <c r="AK30">
         <v>2004</v>
       </c>
-      <c r="AL30" s="80">
+      <c r="AL30" s="38">
         <v>1.24</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80645161290322587</v>
       </c>
     </row>
@@ -4354,11 +4347,11 @@
       <c r="AK31">
         <v>2005</v>
       </c>
-      <c r="AL31" s="80">
+      <c r="AL31" s="38">
         <v>1.24</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80645161290322587</v>
       </c>
     </row>
@@ -4420,11 +4413,11 @@
       <c r="AK32">
         <v>2006</v>
       </c>
-      <c r="AL32" s="80">
+      <c r="AL32" s="38">
         <v>1.26</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79365079365079361</v>
       </c>
     </row>
@@ -4486,11 +4479,11 @@
       <c r="AK33">
         <v>2007</v>
       </c>
-      <c r="AL33" s="80">
+      <c r="AL33" s="38">
         <v>1.37</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72992700729927007</v>
       </c>
     </row>
@@ -4552,11 +4545,11 @@
       <c r="AK34">
         <v>2008</v>
       </c>
-      <c r="AL34" s="80">
+      <c r="AL34" s="38">
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68027210884353739</v>
       </c>
     </row>
@@ -4618,11 +4611,11 @@
       <c r="AK35">
         <v>2009</v>
       </c>
-      <c r="AL35" s="80">
+      <c r="AL35" s="38">
         <v>1.39</v>
       </c>
       <c r="AN35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71942446043165476</v>
       </c>
     </row>
@@ -4684,11 +4677,11 @@
       <c r="AK36">
         <v>2010</v>
       </c>
-      <c r="AL36" s="80">
+      <c r="AL36" s="38">
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75187969924812026</v>
       </c>
     </row>
@@ -4750,11 +4743,11 @@
       <c r="AK37">
         <v>2011</v>
       </c>
-      <c r="AL37" s="80">
+      <c r="AL37" s="38">
         <v>1.39</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71942446043165476</v>
       </c>
     </row>
@@ -4816,11 +4809,11 @@
       <c r="AK38">
         <v>2012</v>
       </c>
-      <c r="AL38" s="80">
+      <c r="AL38" s="38">
         <v>1.29</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77519379844961234</v>
       </c>
     </row>
@@ -4882,11 +4875,11 @@
       <c r="AK39">
         <v>2013</v>
       </c>
-      <c r="AL39" s="80">
+      <c r="AL39" s="38">
         <v>1.33</v>
       </c>
       <c r="AN39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75187969924812026</v>
       </c>
     </row>
@@ -4948,11 +4941,11 @@
       <c r="AK40">
         <v>2014</v>
       </c>
-      <c r="AL40" s="80">
+      <c r="AL40" s="38">
         <v>1.33</v>
       </c>
       <c r="AN40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75187969924812026</v>
       </c>
     </row>
@@ -5014,11 +5007,11 @@
       <c r="AK41">
         <v>2015</v>
       </c>
-      <c r="AL41" s="80">
+      <c r="AL41" s="38">
         <v>1.1100000000000001</v>
       </c>
       <c r="AN41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9009009009009008</v>
       </c>
     </row>
@@ -5080,11 +5073,11 @@
       <c r="AK42">
         <v>2016</v>
       </c>
-      <c r="AL42" s="80">
+      <c r="AL42" s="38">
         <v>1.1100000000000001</v>
       </c>
       <c r="AN42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9009009009009008</v>
       </c>
     </row>
@@ -5146,11 +5139,11 @@
       <c r="AK43">
         <v>2017</v>
       </c>
-      <c r="AL43" s="80">
+      <c r="AL43" s="38">
         <v>1.1299999999999999</v>
       </c>
       <c r="AN43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88495575221238942</v>
       </c>
     </row>
@@ -5212,11 +5205,11 @@
       <c r="AK44">
         <v>2018</v>
       </c>
-      <c r="AL44" s="80">
+      <c r="AL44" s="38">
         <v>1.18</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84745762711864414</v>
       </c>
     </row>
@@ -5278,11 +5271,11 @@
       <c r="AK45">
         <v>2019</v>
       </c>
-      <c r="AL45" s="80">
+      <c r="AL45" s="38">
         <v>1.1200000000000001</v>
       </c>
       <c r="AN45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89285714285714279</v>
       </c>
     </row>
@@ -5344,11 +5337,11 @@
       <c r="AK46">
         <v>2020</v>
       </c>
-      <c r="AL46" s="80">
+      <c r="AL46" s="38">
         <v>1.1399999999999999</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87719298245614041</v>
       </c>
     </row>
@@ -5410,11 +5403,11 @@
       <c r="AK47">
         <v>2021</v>
       </c>
-      <c r="AL47" s="80">
+      <c r="AL47" s="38">
         <v>1.18</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84745762711864414</v>
       </c>
     </row>
@@ -5476,11 +5469,11 @@
       <c r="AK48">
         <v>2022</v>
       </c>
-      <c r="AL48" s="80">
+      <c r="AL48" s="38">
         <v>1.05</v>
       </c>
       <c r="AN48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95238095238095233</v>
       </c>
     </row>
@@ -5542,11 +5535,11 @@
       <c r="AK49">
         <v>2023</v>
       </c>
-      <c r="AL49" s="80">
+      <c r="AL49" s="38">
         <v>1.08</v>
       </c>
       <c r="AN49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92592592592592582</v>
       </c>
     </row>
@@ -6224,6 +6217,53 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="W1:AI1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6234,53 +6274,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="W1:AI1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK4:AN4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6587,156 +6580,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="51" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="AB1" s="51" t="s">
+      <c r="X1" s="65"/>
+      <c r="AB1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="51" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="65" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="41" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="57" t="s">
+      <c r="V2" s="50"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="61" t="s">
+      <c r="AE2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="65" t="s">
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="53"/>
+      <c r="AM2" s="66"/>
     </row>
     <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="45" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="69" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="69" t="s">
+      <c r="L3" s="83"/>
+      <c r="M3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71" t="s">
+      <c r="N3" s="83"/>
+      <c r="O3" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="45" t="s">
+      <c r="P3" s="85"/>
+      <c r="Q3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="63"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="69"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="76"/>
       <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
@@ -6752,62 +6745,62 @@
       <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="55"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="68"/>
       <c r="AY3" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="55">
         <v>14</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="36">
+      <c r="B4" s="56"/>
+      <c r="C4" s="55">
         <v>15</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36">
+      <c r="D4" s="56"/>
+      <c r="E4" s="55">
         <v>16</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36">
+      <c r="F4" s="56"/>
+      <c r="G4" s="55">
         <v>17</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36">
+      <c r="H4" s="56"/>
+      <c r="I4" s="55">
         <v>18</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36">
+      <c r="J4" s="56"/>
+      <c r="K4" s="55">
         <v>19</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36">
+      <c r="L4" s="56"/>
+      <c r="M4" s="55">
         <v>20</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="36">
+      <c r="N4" s="56"/>
+      <c r="O4" s="55">
         <v>21</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="36">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="55">
         <v>22</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="36">
+      <c r="R4" s="56"/>
+      <c r="S4" s="55">
         <v>23</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="36">
+      <c r="T4" s="56"/>
+      <c r="U4" s="55">
         <v>24</v>
       </c>
-      <c r="V4" s="37"/>
-      <c r="W4" s="36">
+      <c r="V4" s="56"/>
+      <c r="W4" s="55">
         <v>25</v>
       </c>
-      <c r="X4" s="37"/>
+      <c r="X4" s="56"/>
       <c r="AB4" s="18">
         <v>14</v>
       </c>
@@ -6924,26 +6917,26 @@
       <c r="AA5">
         <v>2000</v>
       </c>
-      <c r="AB5" s="85">
+      <c r="AB5" s="42">
         <v>4659840536.6381798</v>
       </c>
-      <c r="AC5" s="86">
+      <c r="AC5" s="39">
         <v>-149835377773.513</v>
       </c>
-      <c r="AD5" s="86">
+      <c r="AD5" s="39">
         <v>150965170813.80499</v>
       </c>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="86">
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="39">
         <v>-40349990002.638199</v>
       </c>
-      <c r="AM5" s="86">
+      <c r="AM5" s="39">
         <v>-11105864290.9863</v>
       </c>
       <c r="AO5" s="23" t="s">
@@ -8042,7 +8035,7 @@
       </c>
       <c r="AA16" s="27"/>
       <c r="AC16" s="24"/>
-      <c r="AD16" s="95">
+      <c r="AD16" s="28">
         <f>AD13/1000000*AE16</f>
         <v>-30346.066155802739</v>
       </c>
@@ -11496,6 +11489,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W1:X3"/>
@@ -11510,27 +11524,6 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
@@ -12227,7 +12220,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12243,44 +12236,44 @@
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="23" t="s">
@@ -12324,7 +12317,7 @@
       <c r="M3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
@@ -12372,1070 +12365,1091 @@
       <c r="A5">
         <v>2000</v>
       </c>
-      <c r="B5" s="105" cm="1">
+      <c r="B5" s="108" cm="1">
         <f t="array" ref="B5:N5">('Table 1'!W5:AI5/1000000)*'Table 1'!AN26</f>
         <v>562879.60427807819</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="108">
         <v>498358.88561026088</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="108">
         <v>64520.718667817353</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="108">
         <v>88416.223975455447</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="108">
         <v>148740.39734242827</v>
       </c>
-      <c r="G5" s="105">
+      <c r="G5" s="108">
         <v>-60324.173366972813</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="108">
         <v>121295.65217391304</v>
       </c>
-      <c r="I5" s="105">
+      <c r="I5" s="108">
         <v>132176.05881878911</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="108">
         <v>-10879.511615024565</v>
       </c>
-      <c r="K5" s="105">
+      <c r="K5" s="108">
         <v>31548.457153457606</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="108">
         <v>61716.573570830755</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="108">
         <v>-30168.116417373149</v>
       </c>
-      <c r="N5" s="106">
+      <c r="N5" s="109">
         <v>-36852.137226402177</v>
       </c>
+      <c r="O5" s="99"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
-      <c r="B6" s="107" cm="1">
+      <c r="B6" s="110" cm="1">
         <f t="array" ref="B6:N6">'Table 1'!W6:AI6/1000000*'Table 1'!AN27</f>
         <v>596219.21675474453</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="110">
         <v>495525.57239672897</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="110">
         <v>100693.64435801555</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="110">
         <v>92083.636055633557</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="110">
         <v>157567.56643824998</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="110">
         <v>-65483.930382616425</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="110">
         <v>106625.25264000001</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="110">
         <v>120667.68738923332</v>
       </c>
-      <c r="J6" s="107">
+      <c r="J6" s="110">
         <v>-14041.439327222999</v>
       </c>
-      <c r="K6" s="107">
+      <c r="K6" s="110">
         <v>40648.452423551891</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="110">
         <v>69705.075261091566</v>
       </c>
-      <c r="M6" s="107">
+      <c r="M6" s="110">
         <v>-29056.622837539671</v>
       </c>
-      <c r="N6" s="108">
+      <c r="N6" s="111">
         <v>-7888.3178157411667</v>
       </c>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
-      <c r="B7" s="107" cm="1">
+      <c r="B7" s="110" cm="1">
         <f t="array" ref="B7:N7">'Table 1'!W7:AI7/1000000*'Table 1'!AN28</f>
         <v>609204.28451123356</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="110">
         <v>467906.54444305581</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="110">
         <v>141297.74006817787</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="110">
         <v>104396.37133134474</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="110">
         <v>152634.06991084208</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="110">
         <v>-48237.698579497359</v>
       </c>
-      <c r="H7" s="107">
+      <c r="H7" s="110">
         <v>108137.89473684209</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="110">
         <v>130372.99674907367</v>
       </c>
-      <c r="J7" s="107">
+      <c r="J7" s="110">
         <v>-22235.032342565893</v>
       </c>
-      <c r="K7" s="107">
+      <c r="K7" s="110">
         <v>41381.760631211262</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="110">
         <v>70397.588184208304</v>
       </c>
-      <c r="M7" s="107">
+      <c r="M7" s="110">
         <v>-29015.827552997049</v>
       </c>
-      <c r="N7" s="108">
+      <c r="N7" s="111">
         <v>41811.071502838524</v>
       </c>
+      <c r="O7" s="99"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
-      <c r="B8" s="107" cm="1">
+      <c r="B8" s="110" cm="1">
         <f t="array" ref="B8:N8">('Table 1'!W8:AI8/1000000)*'Table 1'!AN29</f>
         <v>620687.70653608406</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="110">
         <v>490596.74869378406</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="110">
         <v>130090.95784230006</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="110">
         <v>106365.86816079999</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="110">
         <v>152650.76958504075</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="110">
         <v>-46284.901424240721</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="110">
         <v>111953.09734513274</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="110">
         <v>132949.15968703985</v>
       </c>
-      <c r="J8" s="107">
+      <c r="J8" s="110">
         <v>-20996.413888087613</v>
       </c>
-      <c r="K8" s="107">
+      <c r="K8" s="110">
         <v>50161.854109675929</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="110">
         <v>81128.078191849389</v>
       </c>
-      <c r="M8" s="107">
+      <c r="M8" s="110">
         <v>-30966.224082173452</v>
       </c>
-      <c r="N8" s="108">
+      <c r="N8" s="111">
         <v>31845.420218532036</v>
       </c>
+      <c r="O8" s="99"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
-      <c r="B9" s="107" cm="1">
+      <c r="B9" s="110" cm="1">
         <f t="array" ref="B9:N9">'Table 1'!W9:AI9/1000000*'Table 1'!AN30</f>
         <v>688077.88576449919</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="110">
         <v>535150.62504960329</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="110">
         <v>152927.26071489594</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="110">
         <v>122515.88055965728</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="110">
         <v>157561.42053271775</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="110">
         <v>-35045.539973060484</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="110">
         <v>142795.16129032261</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="110">
         <v>127828.41231345727</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="110">
         <v>14965.536200629756</v>
       </c>
-      <c r="K9" s="107">
+      <c r="K9" s="110">
         <v>38897.395327991857</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="110">
         <v>68918.279354664133</v>
       </c>
-      <c r="M9" s="107">
+      <c r="M9" s="110">
         <v>-30020.884026672262</v>
       </c>
-      <c r="N9" s="108">
+      <c r="N9" s="111">
         <v>102827.35838988952</v>
       </c>
-      <c r="Q9" s="74"/>
+      <c r="O9" s="99"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
-      <c r="B10" s="107" cm="1">
+      <c r="B10" s="110" cm="1">
         <f t="array" ref="B10:N10">'Table 1'!W10:AI10/1000000*'Table 1'!AN31</f>
         <v>741561.58650112583</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="110">
         <v>583948.96001115732</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="110">
         <v>157612.62648996859</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="110">
         <v>131196.32860612017</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="110">
         <v>168834.01864037418</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="110">
         <v>-37637.690034254039</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="110">
         <v>167318.54838709679</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="110">
         <v>148277.3231795879</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="110">
         <v>19041.451870375808</v>
       </c>
-      <c r="K10" s="107">
+      <c r="K10" s="110">
         <v>42551.47995851202</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="110">
         <v>74239.488277423967</v>
       </c>
-      <c r="M10" s="107">
+      <c r="M10" s="110">
         <v>-31688.008318911936</v>
       </c>
-      <c r="N10" s="108">
+      <c r="N10" s="111">
         <v>107328.42188298953</v>
       </c>
-      <c r="Q10" s="74"/>
+      <c r="O10" s="99"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
-      <c r="B11" s="107" cm="1">
+      <c r="B11" s="110" cm="1">
         <f t="array" ref="B11:N11">('Table 1'!W11:AI11/1000000)*'Table 1'!AN32</f>
         <v>839465.21146186499</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="110">
         <v>678862.99410938332</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="110">
         <v>160602.2173524817</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="110">
         <v>146543.60304914758</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="110">
         <v>178189.4566339984</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="110">
         <v>-31645.853584850807</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="110">
         <v>208164.28571428571</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I11" s="110">
         <v>167592.75008099683</v>
       </c>
-      <c r="J11" s="107">
+      <c r="J11" s="110">
         <v>40572.19255210222</v>
       </c>
-      <c r="K11" s="107">
+      <c r="K11" s="110">
         <v>39496.835681084995</v>
       </c>
-      <c r="L11" s="107">
+      <c r="L11" s="110">
         <v>71337.792975503093</v>
       </c>
-      <c r="M11" s="107">
+      <c r="M11" s="110">
         <v>-31840.957294418091</v>
       </c>
-      <c r="N11" s="108">
+      <c r="N11" s="111">
         <v>137687.68033125796</v>
       </c>
+      <c r="O11" s="99"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2007</v>
       </c>
-      <c r="B12" s="107" cm="1">
+      <c r="B12" s="110" cm="1">
         <f t="array" ref="B12:N12">'Table 1'!W12:AI12/1000000*'Table 1'!AN33</f>
         <v>927517.85529065691</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="110">
         <v>725725.81255943212</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="110">
         <v>201792.04273122476</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="110">
         <v>156525.75939063574</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="110">
         <v>188878.13325553358</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="110">
         <v>-32352.373864897814</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="110">
         <v>245274.45255474452</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="110">
         <v>209216.21950501972</v>
       </c>
-      <c r="J12" s="107">
+      <c r="J12" s="110">
         <v>36059.408286664235</v>
       </c>
-      <c r="K12" s="107">
+      <c r="K12" s="110">
         <v>42243.10382139562</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="110">
         <v>75640.004145165774</v>
       </c>
-      <c r="M12" s="107">
+      <c r="M12" s="110">
         <v>-33396.900323770147</v>
       </c>
-      <c r="N12" s="108">
+      <c r="N12" s="111">
         <v>172100.14382832189</v>
       </c>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="107" cm="1">
+      <c r="B13" s="110" cm="1">
         <f t="array" ref="B13:N13">'Table 1'!W13:AI13/1000000*'Table 1'!AN34</f>
         <v>951368.9222440545</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="110">
         <v>765439.52958971425</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="110">
         <v>185929.39265434022</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="110">
         <v>166218.85843686463</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="110">
         <v>196022.38486613132</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="110">
         <v>-29803.526429266669</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="110">
         <v>197542.85714285713</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="110">
         <v>174959.27469241974</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="110">
         <v>22582.679925935099</v>
       </c>
-      <c r="K13" s="107">
+      <c r="K13" s="110">
         <v>45108.280516301427</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="110">
         <v>78749.629546019321</v>
       </c>
-      <c r="M13" s="107">
+      <c r="M13" s="110">
         <v>-33641.349029717887</v>
       </c>
-      <c r="N13" s="108">
+      <c r="N13" s="111">
         <v>145068.0497350959</v>
       </c>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="109">
+      <c r="B14" s="112">
         <v>769982</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="112">
         <v>629356</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="112">
         <v>140626</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="112">
         <v>162329</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="112">
         <v>179971</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="112">
         <v>-17642</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="112">
         <v>183515</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="112">
         <v>128991</v>
       </c>
-      <c r="J14" s="109">
+      <c r="J14" s="112">
         <v>54524</v>
       </c>
-      <c r="K14" s="109">
+      <c r="K14" s="112">
         <v>41478</v>
       </c>
-      <c r="L14" s="109">
+      <c r="L14" s="112">
         <v>76242</v>
       </c>
-      <c r="M14" s="109">
+      <c r="M14" s="112">
         <v>34764</v>
       </c>
-      <c r="N14" s="110">
+      <c r="N14" s="113">
         <v>142744</v>
       </c>
+      <c r="O14" s="99"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2010</v>
       </c>
-      <c r="B15" s="109">
+      <c r="B15" s="112">
         <v>915035</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="112">
         <v>754206</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="114">
         <v>160829</v>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="112">
         <v>174306</v>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="112">
         <v>199560</v>
       </c>
-      <c r="G15" s="112">
+      <c r="G15" s="115">
         <v>-25255</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="112">
         <v>200815</v>
       </c>
-      <c r="I15" s="109">
+      <c r="I15" s="112">
         <v>149508</v>
       </c>
-      <c r="J15" s="112">
+      <c r="J15" s="115">
         <v>51306</v>
       </c>
-      <c r="K15" s="109">
+      <c r="K15" s="112">
         <v>42627</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="112">
         <v>82209</v>
       </c>
-      <c r="M15" s="112">
+      <c r="M15" s="115">
         <v>39582</v>
       </c>
-      <c r="N15" s="110">
+      <c r="N15" s="113">
         <v>147298</v>
       </c>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2011</v>
       </c>
-      <c r="B16" s="109">
+      <c r="B16" s="112">
         <v>1027494</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="112">
         <v>864524</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="114">
         <v>162970</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="112">
         <v>183949</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="112">
         <v>213879</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="115">
         <v>-29930</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="112">
         <v>220396</v>
       </c>
-      <c r="I16" s="109">
+      <c r="I16" s="112">
         <v>151309</v>
       </c>
-      <c r="J16" s="112">
+      <c r="J16" s="115">
         <v>69087</v>
       </c>
-      <c r="K16" s="109">
+      <c r="K16" s="112">
         <v>51001</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="112">
         <v>85788</v>
       </c>
-      <c r="M16" s="112">
+      <c r="M16" s="115">
         <v>34787</v>
       </c>
-      <c r="N16" s="110">
+      <c r="N16" s="113">
         <v>167340</v>
       </c>
+      <c r="O16" s="99"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2012</v>
       </c>
-      <c r="B17" s="109">
+      <c r="B17" s="112">
         <v>1069020</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="112">
         <v>869489</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D17" s="114">
         <v>199531</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="112">
         <v>199251</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="112">
         <v>230025</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="115">
         <v>-30774</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="112">
         <v>204835</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I17" s="112">
         <v>139177</v>
       </c>
-      <c r="J17" s="112">
+      <c r="J17" s="115">
         <v>65658</v>
       </c>
-      <c r="K17" s="109">
+      <c r="K17" s="112">
         <v>52938</v>
       </c>
-      <c r="L17" s="109">
+      <c r="L17" s="112">
         <v>91641</v>
       </c>
-      <c r="M17" s="112">
+      <c r="M17" s="115">
         <v>38703</v>
       </c>
-      <c r="N17" s="110">
+      <c r="N17" s="113">
         <v>195712</v>
       </c>
+      <c r="O17" s="99"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
-      <c r="B18" s="109">
+      <c r="B18" s="112">
         <v>1071458</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="112">
         <v>867656</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D18" s="114">
         <v>203802</v>
       </c>
-      <c r="E18" s="109">
+      <c r="E18" s="112">
         <v>208257</v>
       </c>
-      <c r="F18" s="109">
+      <c r="F18" s="112">
         <v>247578</v>
       </c>
-      <c r="G18" s="112">
+      <c r="G18" s="115">
         <v>-39321</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="112">
         <v>192273</v>
       </c>
-      <c r="I18" s="109">
+      <c r="I18" s="112">
         <v>128988</v>
       </c>
-      <c r="J18" s="112">
+      <c r="J18" s="115">
         <v>63284</v>
       </c>
-      <c r="K18" s="109">
+      <c r="K18" s="112">
         <v>60321</v>
       </c>
-      <c r="L18" s="109">
+      <c r="L18" s="112">
         <v>103734</v>
       </c>
-      <c r="M18" s="112">
+      <c r="M18" s="115">
         <v>43413</v>
       </c>
-      <c r="N18" s="110">
+      <c r="N18" s="113">
         <v>184352</v>
       </c>
+      <c r="O18" s="99"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B19" s="109">
+      <c r="B19" s="112">
         <v>1106923</v>
       </c>
-      <c r="C19" s="109">
+      <c r="C19" s="112">
         <v>887294</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="114">
         <v>219629</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="112">
         <v>228840</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="112">
         <v>254143</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="115">
         <v>-25303</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="112">
         <v>191498</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="112">
         <v>132852</v>
       </c>
-      <c r="J19" s="112">
+      <c r="J19" s="115">
         <v>58646</v>
       </c>
-      <c r="K19" s="109">
+      <c r="K19" s="112">
         <v>62475</v>
       </c>
-      <c r="L19" s="109">
+      <c r="L19" s="112">
         <v>103970</v>
       </c>
-      <c r="M19" s="112">
+      <c r="M19" s="115">
         <v>41495</v>
       </c>
-      <c r="N19" s="110">
+      <c r="N19" s="113">
         <v>211477</v>
       </c>
-      <c r="P19" s="74"/>
+      <c r="O19" s="99"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2015</v>
       </c>
-      <c r="B20" s="109">
+      <c r="B20" s="112">
         <v>1166594</v>
       </c>
-      <c r="C20" s="109">
+      <c r="C20" s="112">
         <v>918200</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="114">
         <v>248394</v>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="112">
         <v>253318</v>
       </c>
-      <c r="F20" s="109">
+      <c r="F20" s="112">
         <v>271834</v>
       </c>
-      <c r="G20" s="112">
+      <c r="G20" s="115">
         <v>-18516</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="112">
         <v>202782</v>
       </c>
-      <c r="I20" s="109">
+      <c r="I20" s="112">
         <v>133458</v>
       </c>
-      <c r="J20" s="112">
+      <c r="J20" s="115">
         <v>69324</v>
       </c>
-      <c r="K20" s="109">
+      <c r="K20" s="112">
         <v>71769</v>
       </c>
-      <c r="L20" s="109">
+      <c r="L20" s="112">
         <v>111189</v>
       </c>
-      <c r="M20" s="112">
+      <c r="M20" s="115">
         <v>39420</v>
       </c>
-      <c r="N20" s="110">
+      <c r="N20" s="113">
         <v>259781</v>
       </c>
-      <c r="P20" s="97"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2016</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="112">
         <v>1179166</v>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="112">
         <v>926757</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="114">
         <v>252409</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="112">
         <v>265105</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="112">
         <v>286092</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="115">
         <v>-20987</v>
       </c>
-      <c r="H21" s="109">
+      <c r="H21" s="112">
         <v>213177</v>
       </c>
-      <c r="I21" s="109">
+      <c r="I21" s="112">
         <v>135919</v>
       </c>
-      <c r="J21" s="112">
+      <c r="J21" s="115">
         <v>77258</v>
       </c>
-      <c r="K21" s="109">
+      <c r="K21" s="112">
         <v>65415</v>
       </c>
-      <c r="L21" s="109">
+      <c r="L21" s="112">
         <v>103894</v>
       </c>
-      <c r="M21" s="112">
+      <c r="M21" s="115">
         <v>38480</v>
       </c>
-      <c r="N21" s="110">
+      <c r="N21" s="113">
         <v>270200</v>
       </c>
+      <c r="O21" s="99"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2017</v>
       </c>
-      <c r="B22" s="109">
+      <c r="B22" s="112">
         <v>1256858</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="112">
         <v>1001782</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="114">
         <v>255077</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="112">
         <v>284032</v>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="112">
         <v>308026</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="115">
         <v>-23994</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="112">
         <v>209623</v>
       </c>
-      <c r="I22" s="109">
+      <c r="I22" s="112">
         <v>132577</v>
       </c>
-      <c r="J22" s="112">
+      <c r="J22" s="115">
         <v>77046</v>
       </c>
-      <c r="K22" s="109">
+      <c r="K22" s="112">
         <v>66827</v>
       </c>
-      <c r="L22" s="109">
+      <c r="L22" s="112">
         <v>118992</v>
       </c>
-      <c r="M22" s="112">
+      <c r="M22" s="115">
         <v>52165</v>
       </c>
-      <c r="N22" s="110">
+      <c r="N22" s="113">
         <v>255964</v>
       </c>
+      <c r="O22" s="99"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B23" s="109">
+      <c r="B23" s="112">
         <v>1290468</v>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="112">
         <v>1068485</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="114">
         <v>221983</v>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="112">
         <v>302691</v>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="112">
         <v>318497</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="115">
         <v>-15806</v>
       </c>
-      <c r="H23" s="109">
+      <c r="H23" s="112">
         <v>241703</v>
       </c>
-      <c r="I23" s="109">
+      <c r="I23" s="112">
         <v>129314</v>
       </c>
-      <c r="J23" s="111">
+      <c r="J23" s="114">
         <v>112389</v>
       </c>
-      <c r="K23" s="109">
+      <c r="K23" s="112">
         <v>69522</v>
       </c>
-      <c r="L23" s="109">
+      <c r="L23" s="112">
         <v>120479</v>
       </c>
-      <c r="M23" s="112">
+      <c r="M23" s="115">
         <v>50958</v>
       </c>
-      <c r="N23" s="110">
+      <c r="N23" s="113">
         <v>267609</v>
       </c>
+      <c r="O23" s="99"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2019</v>
       </c>
-      <c r="B24" s="109">
+      <c r="B24" s="112">
         <v>1309678</v>
       </c>
-      <c r="C24" s="109">
+      <c r="C24" s="112">
         <v>1090130</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="114">
         <v>219548</v>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="112">
         <v>327594</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="112">
         <v>341148</v>
       </c>
-      <c r="G24" s="112">
+      <c r="G24" s="115">
         <v>-13553</v>
       </c>
-      <c r="H24" s="109">
+      <c r="H24" s="112">
         <v>251148</v>
       </c>
-      <c r="I24" s="109">
+      <c r="I24" s="112">
         <v>122547</v>
       </c>
-      <c r="J24" s="111">
+      <c r="J24" s="114">
         <v>128602</v>
       </c>
-      <c r="K24" s="109">
+      <c r="K24" s="112">
         <v>80366</v>
       </c>
-      <c r="L24" s="109">
+      <c r="L24" s="112">
         <v>131112</v>
       </c>
-      <c r="M24" s="112">
+      <c r="M24" s="115">
         <v>50747</v>
       </c>
-      <c r="N24" s="110">
+      <c r="N24" s="113">
         <v>283849</v>
       </c>
+      <c r="O24" s="99"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="112">
         <v>1188235</v>
       </c>
-      <c r="C25" s="109">
+      <c r="C25" s="112">
         <v>1005510</v>
       </c>
-      <c r="D25" s="111">
+      <c r="D25" s="114">
         <v>182725</v>
       </c>
-      <c r="E25" s="109">
+      <c r="E25" s="112">
         <v>292007</v>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="112">
         <v>285373</v>
       </c>
-      <c r="G25" s="112">
+      <c r="G25" s="115">
         <v>6634</v>
       </c>
-      <c r="H25" s="109">
+      <c r="H25" s="112">
         <v>188409</v>
       </c>
-      <c r="I25" s="109">
+      <c r="I25" s="112">
         <v>102372</v>
       </c>
-      <c r="J25" s="112">
+      <c r="J25" s="115">
         <v>86037</v>
       </c>
-      <c r="K25" s="109">
+      <c r="K25" s="112">
         <v>84416</v>
       </c>
-      <c r="L25" s="109">
+      <c r="L25" s="112">
         <v>137304</v>
       </c>
-      <c r="M25" s="112">
+      <c r="M25" s="115">
         <v>52889</v>
       </c>
-      <c r="N25" s="110">
+      <c r="N25" s="113">
         <v>222507</v>
       </c>
+      <c r="O25" s="99"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2021</v>
       </c>
-      <c r="B26" s="109">
+      <c r="B26" s="112">
         <v>1375112</v>
       </c>
-      <c r="C26" s="109">
+      <c r="C26" s="112">
         <v>1178621</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="114">
         <v>196491</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="112">
         <v>345547</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="112">
         <v>343932</v>
       </c>
-      <c r="G26" s="112">
+      <c r="G26" s="115">
         <v>1615</v>
       </c>
-      <c r="H26" s="109">
+      <c r="H26" s="112">
         <v>240492</v>
       </c>
-      <c r="I26" s="109">
+      <c r="I26" s="112">
         <v>117311</v>
       </c>
-      <c r="J26" s="111">
+      <c r="J26" s="114">
         <v>123181</v>
       </c>
-      <c r="K26" s="109">
+      <c r="K26" s="112">
         <v>100009</v>
       </c>
-      <c r="L26" s="109">
+      <c r="L26" s="112">
         <v>157841</v>
       </c>
-      <c r="M26" s="112">
+      <c r="M26" s="115">
         <v>57832</v>
       </c>
-      <c r="N26" s="110">
+      <c r="N26" s="113">
         <v>263454</v>
       </c>
+      <c r="O26" s="99"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2022</v>
       </c>
-      <c r="B27" s="109">
+      <c r="B27" s="112">
         <v>1579998</v>
       </c>
-      <c r="C27" s="109">
+      <c r="C27" s="112">
         <v>1454082</v>
       </c>
-      <c r="D27" s="111">
+      <c r="D27" s="114">
         <v>125916</v>
       </c>
-      <c r="E27" s="109">
+      <c r="E27" s="112">
         <v>409171</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="112">
         <v>446460</v>
       </c>
-      <c r="G27" s="112">
+      <c r="G27" s="115">
         <v>-37289</v>
       </c>
-      <c r="H27" s="109">
+      <c r="H27" s="112">
         <v>313856</v>
       </c>
-      <c r="I27" s="109">
+      <c r="I27" s="112">
         <v>171762</v>
       </c>
-      <c r="J27" s="111">
+      <c r="J27" s="114">
         <v>142094</v>
       </c>
-      <c r="K27" s="109">
+      <c r="K27" s="112">
         <v>102436</v>
       </c>
-      <c r="L27" s="109">
+      <c r="L27" s="112">
         <v>168526</v>
       </c>
-      <c r="M27" s="112">
+      <c r="M27" s="115">
         <v>66091</v>
       </c>
-      <c r="N27" s="110">
+      <c r="N27" s="113">
         <v>164630</v>
       </c>
+      <c r="O27" s="99"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="96">
+      <c r="A28" s="44">
         <v>2023</v>
       </c>
-      <c r="B28" s="113">
+      <c r="B28" s="116">
         <v>1539230</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="116">
         <v>1312409</v>
       </c>
-      <c r="D28" s="114">
+      <c r="D28" s="117">
         <v>226821</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="116">
         <v>406931</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="116">
         <v>469925</v>
       </c>
-      <c r="G28" s="115">
+      <c r="G28" s="118">
         <v>-62994</v>
       </c>
-      <c r="H28" s="113">
+      <c r="H28" s="116">
         <v>399945</v>
       </c>
-      <c r="I28" s="113">
+      <c r="I28" s="116">
         <v>256044</v>
       </c>
-      <c r="J28" s="114">
+      <c r="J28" s="117">
         <v>143901</v>
       </c>
-      <c r="K28" s="113">
+      <c r="K28" s="116">
         <v>108997</v>
       </c>
-      <c r="L28" s="113">
+      <c r="L28" s="116">
         <v>173614</v>
       </c>
-      <c r="M28" s="115">
+      <c r="M28" s="118">
         <v>64616</v>
       </c>
-      <c r="N28" s="116">
+      <c r="N28" s="119">
         <v>243112</v>
       </c>
+      <c r="O28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13452,10 +13466,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895DD7F4-37A4-4B44-8724-4E9B7066EDE4}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13464,67 +13478,67 @@
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="89" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="99"/>
-      <c r="C2" s="87" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="90"/>
+      <c r="C2" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="66" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="100"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="92"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="91"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="43" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -13533,15 +13547,15 @@
       <c r="J3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="94"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="81"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="101">
+      <c r="B4" s="45">
         <v>14</v>
       </c>
       <c r="C4" s="19">
@@ -13578,998 +13592,1022 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2000</v>
       </c>
-      <c r="B5" s="117" cm="1">
+      <c r="B5" s="96" cm="1">
         <f t="array" ref="B5:M5">'Table 2'!AB5:AM5/1000000*'Table 1'!AN26</f>
         <v>5065.0440615632378</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="96">
         <v>-162864.5410581663</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="96">
         <v>164092.57697152716</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="96">
         <v>0</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="96">
         <v>0</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="96">
         <v>0</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="96">
         <v>0</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="96">
         <v>0</v>
       </c>
-      <c r="J5" s="117">
+      <c r="J5" s="96">
         <v>0</v>
       </c>
-      <c r="K5" s="117">
+      <c r="K5" s="96">
         <v>0</v>
       </c>
-      <c r="L5" s="118">
+      <c r="L5" s="97">
         <v>-43858.684785476304</v>
       </c>
-      <c r="M5" s="119">
+      <c r="M5" s="98">
         <v>-12071.59162063728</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="99"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
-      <c r="B6" s="120" cm="1">
+      <c r="B6" s="100" cm="1">
         <f t="array" ref="B6:M6">'Table 2'!AB6:AM6/1000000*'Table 1'!AN27</f>
         <v>-3200.4970867869561</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="100">
         <v>14771.594202920778</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="100">
         <v>-29636.016659355777</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="100">
         <v>0</v>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="100">
         <v>0</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="100">
         <v>0</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="100">
         <v>0</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="100">
         <v>0</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="100">
         <v>0</v>
       </c>
-      <c r="K6" s="120">
+      <c r="K6" s="100">
         <v>0</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="101">
         <v>1087.7212373744035</v>
       </c>
       <c r="M6" s="102">
         <v>12174.551528642221</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="99"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
-      <c r="B7" s="120" cm="1">
+      <c r="B7" s="100" cm="1">
         <f t="array" ref="B7:M7">'Table 2'!AB7:AM7/1000000*'Table 1'!AN28</f>
         <v>-4173.6609777492522</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="100">
         <v>-35860.417885788731</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="100">
         <v>-66869.435331512213</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="100">
         <v>0</v>
       </c>
-      <c r="F7" s="120">
+      <c r="F7" s="100">
         <v>0</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="100">
         <v>0</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="100">
         <v>0</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="100">
         <v>0</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="100">
         <v>0</v>
       </c>
-      <c r="K7" s="120">
+      <c r="K7" s="100">
         <v>0</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="101">
         <v>10070.507217505263</v>
       </c>
       <c r="M7" s="102">
         <v>-27566.903307583998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="99"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
-      <c r="B8" s="120" cm="1">
+      <c r="B8" s="100" cm="1">
         <f t="array" ref="B8:M8">'Table 2'!AB8:AM8/1000000*'Table 1'!AN29</f>
         <v>6230.9337985775228</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="100">
         <v>-23097.943617019646</v>
       </c>
-      <c r="D8" s="120">
+      <c r="D8" s="100">
         <v>-53645.018124742302</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="100">
         <v>0</v>
       </c>
-      <c r="F8" s="120">
+      <c r="F8" s="100">
         <v>0</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="100">
         <v>0</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="100">
         <v>0</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="100">
         <v>0</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="100">
         <v>0</v>
       </c>
-      <c r="K8" s="120">
+      <c r="K8" s="100">
         <v>0</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="101">
         <v>48554.732414026112</v>
       </c>
       <c r="M8" s="102">
         <v>10478.435124551328</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="99"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
-      <c r="B9" s="120" cm="1">
+      <c r="B9" s="100" cm="1">
         <f t="array" ref="B9:M9">'Table 2'!AB9:AM9/1000000*'Table 1'!AN30</f>
         <v>-150.14593527440564</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="100">
         <v>23772.659493029278</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="100">
         <v>-15508.70159786363</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="100">
         <v>0</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="100">
         <v>0</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="100">
         <v>0</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="100">
         <v>0</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="100">
         <v>0</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="100">
         <v>0</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="100">
         <v>0</v>
       </c>
-      <c r="L9" s="121">
+      <c r="L9" s="101">
         <v>111808.17011677743</v>
       </c>
       <c r="M9" s="102">
         <v>9131.8680791196784</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="99"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
-      <c r="B10" s="120" cm="1">
+      <c r="B10" s="100" cm="1">
         <f t="array" ref="B10:M10">'Table 2'!AB10:AM10/1000000*'Table 1'!AN31</f>
         <v>-2413.7290044590732</v>
       </c>
-      <c r="C10" s="120">
+      <c r="C10" s="100">
         <v>23458.836213208226</v>
       </c>
-      <c r="D10" s="120">
+      <c r="D10" s="100">
         <v>28717.324581587902</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="100">
         <v>0</v>
       </c>
-      <c r="F10" s="120">
+      <c r="F10" s="100">
         <v>0</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="100">
         <v>0</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="100">
         <v>0</v>
       </c>
-      <c r="I10" s="120">
+      <c r="I10" s="100">
         <v>0</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="100">
         <v>0</v>
       </c>
-      <c r="K10" s="120">
+      <c r="K10" s="100">
         <v>0</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="101">
         <v>97103.236252298404</v>
       </c>
       <c r="M10" s="102">
         <v>-7810.3991288331372</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="99"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
-      <c r="B11" s="120" cm="1">
+      <c r="B11" s="100" cm="1">
         <f t="array" ref="B11:M11">'Table 2'!AB11:AM11/1000000*'Table 1'!AN32</f>
         <v>-1360.7443293014999</v>
       </c>
-      <c r="C11" s="120">
+      <c r="C11" s="100">
         <v>48039.618250117295</v>
       </c>
-      <c r="D11" s="120">
+      <c r="D11" s="100">
         <v>17800.466808791345</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="100">
         <v>0</v>
       </c>
-      <c r="F11" s="120">
+      <c r="F11" s="100">
         <v>0</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="100">
         <v>0</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="100">
         <v>0</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="100">
         <v>0</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="100">
         <v>0</v>
       </c>
-      <c r="K11" s="120">
+      <c r="K11" s="100">
         <v>0</v>
       </c>
-      <c r="L11" s="121">
+      <c r="L11" s="101">
         <v>156170.36270697301</v>
       </c>
       <c r="M11" s="102">
         <v>19844.425311007933</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="99"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2007</v>
       </c>
-      <c r="B12" s="120" cm="1">
+      <c r="B12" s="100" cm="1">
         <f t="array" ref="B12:M12">'Table 2'!AB12:AM12/1000000*'Table 1'!AN33</f>
         <v>-1689.7233162792554</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="100">
         <v>65551.137541368545</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="100">
         <v>-157147.16258217883</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="100">
         <v>0</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="100">
         <v>0</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="100">
         <v>0</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="100">
         <v>0</v>
       </c>
-      <c r="I12" s="120">
+      <c r="I12" s="100">
         <v>0</v>
       </c>
-      <c r="J12" s="120">
+      <c r="J12" s="100">
         <v>0</v>
       </c>
-      <c r="K12" s="120">
+      <c r="K12" s="100">
         <v>0</v>
       </c>
-      <c r="L12" s="121">
+      <c r="L12" s="101">
         <v>184927.51895242702</v>
       </c>
       <c r="M12" s="102">
         <v>14515.157765459051</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="99"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="120" cm="1">
+      <c r="B13" s="100" cm="1">
         <f t="array" ref="B13:M13">'Table 2'!AB13:AM13/1000000*'Table 1'!AN34</f>
         <v>-827.73068802738771</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="100">
         <v>45626.86736826993</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="100">
         <v>-30358.209439578568</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="100">
         <v>0</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="100">
         <v>0</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="100">
         <v>0</v>
       </c>
-      <c r="H13" s="120">
+      <c r="H13" s="100">
         <v>0</v>
       </c>
-      <c r="I13" s="120">
+      <c r="I13" s="100">
         <v>0</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="100">
         <v>0</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="100">
         <v>0</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="101">
         <v>122306.679414417</v>
       </c>
       <c r="M13" s="102">
         <v>-21932.615807666531</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="99"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="103">
         <v>-1858</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="104">
         <v>32203</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="104">
         <v>85437</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="104">
         <v>-6843</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="104">
         <v>10248</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="104">
         <v>-62956</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="105">
         <v>15723</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="105">
         <v>5285</v>
       </c>
-      <c r="J14" s="104">
+      <c r="J14" s="105">
         <v>52195</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="105">
         <v>8648</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="105">
         <v>129693</v>
       </c>
-      <c r="M14" s="103">
+      <c r="M14" s="104">
         <v>-11194</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="99"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2010</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="103">
         <v>1219</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="105">
         <v>45158</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="105">
         <v>112835</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="105">
         <v>13539</v>
       </c>
-      <c r="F15" s="104">
+      <c r="F15" s="105">
         <v>80388</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="105">
         <v>-217132</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="105">
         <v>50241</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="105">
         <v>-36338</v>
       </c>
-      <c r="J15" s="104">
+      <c r="J15" s="105">
         <v>122841</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="105">
         <v>1613</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="105">
         <v>92757</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="105">
         <v>-55760</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="99"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2011</v>
       </c>
-      <c r="B16" s="122">
+      <c r="B16" s="103">
         <v>419</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="105">
         <v>7492</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="105">
         <v>-34315</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="105">
         <v>28591</v>
       </c>
-      <c r="F16" s="104">
+      <c r="F16" s="105">
         <v>116254</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="105">
         <v>46433</v>
       </c>
-      <c r="H16" s="104">
+      <c r="H16" s="105">
         <v>-10544</v>
       </c>
-      <c r="I16" s="104">
+      <c r="I16" s="105">
         <v>2442</v>
       </c>
-      <c r="J16" s="104">
+      <c r="J16" s="105">
         <v>77924</v>
       </c>
-      <c r="K16" s="104">
+      <c r="K16" s="105">
         <v>2836</v>
       </c>
-      <c r="L16" s="104">
+      <c r="L16" s="105">
         <v>120857</v>
       </c>
-      <c r="M16" s="104">
+      <c r="M16" s="105">
         <v>-46902</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="99"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2012</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="103">
         <v>-413</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="105">
         <v>26449</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="105">
         <v>51786</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="105">
         <v>24138</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="105">
         <v>47748</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="105">
         <v>-117589</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="105">
         <v>-16326</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="105">
         <v>80501</v>
       </c>
-      <c r="J17" s="104">
+      <c r="J17" s="105">
         <v>101161</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="105">
         <v>1297</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="105">
         <v>151417</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="105">
         <v>-43882</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="99"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
-      <c r="B18" s="122">
+      <c r="B18" s="103">
         <v>-563</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="105">
         <v>20144</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="105">
         <v>158100</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="105">
         <v>23894</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="105">
         <v>23038</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="105">
         <v>101589</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="105">
         <v>34051</v>
       </c>
-      <c r="I18" s="104">
+      <c r="I18" s="105">
         <v>10022</v>
       </c>
-      <c r="J18" s="104">
+      <c r="J18" s="105">
         <v>-122624</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="105">
         <v>838</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="105">
         <v>226014</v>
       </c>
-      <c r="M18" s="104">
+      <c r="M18" s="105">
         <v>42224</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="99"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B19" s="122">
+      <c r="B19" s="103">
         <v>3255</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="105">
         <v>65628</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="105">
         <v>126365</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="105">
         <v>38547</v>
       </c>
-      <c r="F19" s="104">
+      <c r="F19" s="105">
         <v>2956</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="105">
         <v>43725</v>
       </c>
-      <c r="H19" s="104">
+      <c r="H19" s="105">
         <v>-20149</v>
       </c>
-      <c r="I19" s="104">
+      <c r="I19" s="105">
         <v>22987</v>
       </c>
-      <c r="J19" s="104">
+      <c r="J19" s="105">
         <v>-43606</v>
       </c>
-      <c r="K19" s="104">
+      <c r="K19" s="105">
         <v>-2564</v>
       </c>
-      <c r="L19" s="104">
+      <c r="L19" s="105">
         <v>230931</v>
       </c>
-      <c r="M19" s="104">
+      <c r="M19" s="105">
         <v>16200</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="99"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2015</v>
       </c>
-      <c r="B20" s="122">
+      <c r="B20" s="103">
         <v>265</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="105">
         <v>61685</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="105">
         <v>192659</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="105">
         <v>30388</v>
       </c>
-      <c r="F20" s="104">
+      <c r="F20" s="105">
         <v>44787</v>
       </c>
-      <c r="G20" s="104">
+      <c r="G20" s="105">
         <v>-48935</v>
       </c>
-      <c r="H20" s="104">
+      <c r="H20" s="105">
         <v>-34094</v>
       </c>
-      <c r="I20" s="104">
+      <c r="I20" s="105">
         <v>-751</v>
       </c>
-      <c r="J20" s="104">
+      <c r="J20" s="105">
         <v>38994</v>
       </c>
-      <c r="K20" s="104">
+      <c r="K20" s="105">
         <v>-2213</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="105">
         <v>237733</v>
       </c>
-      <c r="M20" s="104">
+      <c r="M20" s="105">
         <v>-22313</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="99"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2016</v>
       </c>
-      <c r="B21" s="122">
+      <c r="B21" s="103">
         <v>2451</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="105">
         <v>43462</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="105">
         <v>196931</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="105">
         <v>28605</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="105">
         <v>11777</v>
       </c>
-      <c r="G21" s="104">
+      <c r="G21" s="105">
         <v>-68228</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="105">
         <v>-7300</v>
       </c>
-      <c r="I21" s="104">
+      <c r="I21" s="105">
         <v>4109</v>
       </c>
-      <c r="J21" s="104">
+      <c r="J21" s="105">
         <v>59642</v>
       </c>
-      <c r="K21" s="104">
+      <c r="K21" s="105">
         <v>1686</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="105">
         <v>258906</v>
       </c>
-      <c r="M21" s="104">
+      <c r="M21" s="105">
         <v>-13744</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="99"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2017</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="103">
         <v>-2653</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="105">
         <v>33362</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="105">
         <v>195393</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="105">
         <v>11122</v>
       </c>
-      <c r="F22" s="104">
+      <c r="F22" s="105">
         <v>29699</v>
       </c>
-      <c r="G22" s="104">
+      <c r="G22" s="105">
         <v>-38656</v>
       </c>
-      <c r="H22" s="104">
+      <c r="H22" s="105">
         <v>-15993</v>
       </c>
-      <c r="I22" s="104">
+      <c r="I22" s="105">
         <v>4721</v>
       </c>
-      <c r="J22" s="104">
+      <c r="J22" s="105">
         <v>79626</v>
       </c>
-      <c r="K22" s="104">
+      <c r="K22" s="105">
         <v>-1269</v>
       </c>
-      <c r="L22" s="104">
+      <c r="L22" s="105">
         <v>268306</v>
       </c>
-      <c r="M22" s="104">
+      <c r="M22" s="105">
         <v>14996</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="99"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B23" s="122">
+      <c r="B23" s="103">
         <v>914</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="105">
         <v>21249</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="105">
         <v>150181</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="105">
         <v>22668</v>
       </c>
-      <c r="F23" s="104">
+      <c r="F23" s="105">
         <v>48399</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="105">
         <v>85552</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="105">
         <v>19852</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="105">
         <v>-12176</v>
       </c>
-      <c r="J23" s="104">
+      <c r="J23" s="105">
         <v>-44828</v>
       </c>
-      <c r="K23" s="104">
+      <c r="K23" s="105">
         <v>392</v>
       </c>
-      <c r="L23" s="104">
+      <c r="L23" s="105">
         <v>242889</v>
       </c>
-      <c r="M23" s="104">
+      <c r="M23" s="105">
         <v>-25634</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="99"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2019</v>
       </c>
-      <c r="B24" s="122">
+      <c r="B24" s="103">
         <v>-3705</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="105">
         <v>87894</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="105">
         <v>74008</v>
       </c>
-      <c r="E24" s="104">
+      <c r="E24" s="105">
         <v>20553</v>
       </c>
-      <c r="F24" s="104">
+      <c r="F24" s="105">
         <v>18401</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="105">
         <v>19920</v>
       </c>
-      <c r="H24" s="104">
+      <c r="H24" s="105">
         <v>-28796</v>
       </c>
-      <c r="I24" s="104">
+      <c r="I24" s="105">
         <v>-1429</v>
       </c>
-      <c r="J24" s="104">
+      <c r="J24" s="105">
         <v>28706</v>
       </c>
-      <c r="K24" s="104">
+      <c r="K24" s="105">
         <v>-544</v>
       </c>
-      <c r="L24" s="104">
+      <c r="L24" s="105">
         <v>200312</v>
       </c>
-      <c r="M24" s="104">
+      <c r="M24" s="105">
         <v>-79832</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="99"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B25" s="122">
+      <c r="B25" s="103">
         <v>-10345</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="105">
         <v>-27363</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="105">
         <v>17245</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="105">
         <v>93177</v>
       </c>
-      <c r="F25" s="104">
+      <c r="F25" s="105">
         <v>85760</v>
       </c>
-      <c r="G25" s="104">
+      <c r="G25" s="105">
         <v>-112738</v>
       </c>
-      <c r="H25" s="104">
+      <c r="H25" s="105">
         <v>56271</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="105">
         <v>10057</v>
       </c>
-      <c r="J25" s="104">
+      <c r="J25" s="105">
         <v>132170</v>
       </c>
-      <c r="K25" s="104">
+      <c r="K25" s="105">
         <v>-51</v>
       </c>
-      <c r="L25" s="104">
+      <c r="L25" s="105">
         <v>168767</v>
       </c>
-      <c r="M25" s="104">
+      <c r="M25" s="105">
         <v>-43395</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="99"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2021</v>
       </c>
-      <c r="B26" s="122">
+      <c r="B26" s="103">
         <v>-2593</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="105">
         <v>81494</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="105">
         <v>197193</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="105">
         <v>47880</v>
       </c>
-      <c r="F26" s="104">
+      <c r="F26" s="105">
         <v>149480</v>
       </c>
-      <c r="G26" s="104">
+      <c r="G26" s="105">
         <v>-48383</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="105">
         <v>6085</v>
       </c>
-      <c r="I26" s="104">
+      <c r="I26" s="105">
         <v>-3780</v>
       </c>
-      <c r="J26" s="104">
+      <c r="J26" s="105">
         <v>-103402</v>
       </c>
-      <c r="K26" s="104">
+      <c r="K26" s="105">
         <v>31892</v>
       </c>
-      <c r="L26" s="104">
+      <c r="L26" s="105">
         <v>208978</v>
       </c>
-      <c r="M26" s="104">
+      <c r="M26" s="105">
         <v>-51883</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="99"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2022</v>
       </c>
-      <c r="B27" s="122">
+      <c r="B27" s="103">
         <v>-21644</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="105">
         <v>112166</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="105">
         <v>10732</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="105">
         <v>41519</v>
       </c>
-      <c r="F27" s="104">
+      <c r="F27" s="105">
         <v>29346</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="105">
         <v>-93531</v>
       </c>
-      <c r="H27" s="104">
+      <c r="H27" s="105">
         <v>37389</v>
       </c>
-      <c r="I27" s="104">
+      <c r="I27" s="105">
         <v>-19396</v>
       </c>
-      <c r="J27" s="104">
+      <c r="J27" s="105">
         <v>104884</v>
       </c>
-      <c r="K27" s="104">
+      <c r="K27" s="105">
         <v>4426</v>
       </c>
-      <c r="L27" s="104">
+      <c r="L27" s="105">
         <v>198190</v>
       </c>
-      <c r="M27" s="104">
+      <c r="M27" s="105">
         <v>55204</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="99"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2023</v>
       </c>
-      <c r="B28" s="123">
+      <c r="B28" s="106">
         <v>-27252</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="107">
         <v>59704</v>
       </c>
-      <c r="D28" s="124">
+      <c r="D28" s="107">
         <v>1152</v>
       </c>
-      <c r="E28" s="124">
+      <c r="E28" s="107">
         <v>39966</v>
       </c>
-      <c r="F28" s="124">
+      <c r="F28" s="107">
         <v>130880</v>
       </c>
-      <c r="G28" s="124">
+      <c r="G28" s="107">
         <v>97432</v>
       </c>
-      <c r="H28" s="124">
+      <c r="H28" s="107">
         <v>60193</v>
       </c>
-      <c r="I28" s="124">
+      <c r="I28" s="107">
         <v>7346</v>
       </c>
-      <c r="J28" s="124">
+      <c r="J28" s="107">
         <v>-34090</v>
       </c>
-      <c r="K28" s="124">
+      <c r="K28" s="107">
         <v>884</v>
       </c>
-      <c r="L28" s="124">
+      <c r="L28" s="107">
         <v>232587</v>
       </c>
-      <c r="M28" s="124">
+      <c r="M28" s="107">
         <v>16727</v>
       </c>
+      <c r="N28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E72612E-CD37-460C-8D9C-C6F40BBFAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B9EA5B-74B7-4DE8-9D0B-DB4341AE7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -500,9 +500,6 @@
     <t>https://data.worldbank.org/indicator/BN.KLT.DINV.CD?end=2022&amp;locations=DE&amp;start=1971&amp;view=chart</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -519,9 +516,6 @@
   </si>
   <si>
     <t>€ million</t>
-  </si>
-  <si>
-    <t>Balance</t>
   </si>
   <si>
     <t>USDEUR</t>
@@ -564,6 +558,39 @@
     <t>Net
 errors and omissions 3</t>
   </si>
+  <si>
+    <t>Goods Receipts</t>
+  </si>
+  <si>
+    <t>Goods Expenditure</t>
+  </si>
+  <si>
+    <t>Goods Balance</t>
+  </si>
+  <si>
+    <t>Services Receipts</t>
+  </si>
+  <si>
+    <t>Services Expenditure</t>
+  </si>
+  <si>
+    <t>Services Balance</t>
+  </si>
+  <si>
+    <t>Primary income Receipts</t>
+  </si>
+  <si>
+    <t>Primary income Expenditure</t>
+  </si>
+  <si>
+    <t>Secondary income Receipts</t>
+  </si>
+  <si>
+    <t>Secondary income Expenditure</t>
+  </si>
+  <si>
+    <t>Secondary income Balance</t>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +599,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="#.##0..&quot;M&quot;"/>
-    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -998,7 +1025,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1117,22 +1144,124 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1144,82 +1273,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,78 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1682,92 +1712,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
-      <c r="W1" s="46" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="84"/>
+      <c r="W1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="46" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="46" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="W2" s="46" t="s">
+      <c r="R2" s="85"/>
+      <c r="W2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="46" t="s">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="46" t="s">
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="76" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1778,42 +1808,42 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="54"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="86"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1880,7 @@
       <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="51"/>
+      <c r="AI3" s="77"/>
       <c r="AK3" t="s">
         <v>32</v>
       </c>
@@ -1865,44 +1895,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="82">
         <v>3</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="82">
         <v>6</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="55">
-        <v>9</v>
-      </c>
-      <c r="L4" s="56"/>
+      <c r="K4" s="82">
+        <v>9</v>
+      </c>
+      <c r="L4" s="83"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="82">
         <v>12</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="55">
+      <c r="P4" s="83"/>
+      <c r="Q4" s="82">
         <v>13</v>
       </c>
-      <c r="R4" s="56"/>
+      <c r="R4" s="83"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
@@ -1942,12 +1972,12 @@
       <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AK4" s="61" t="s">
+      <c r="AK4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="63"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1956,10 +1986,10 @@
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="80">
         <v>140626</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -1996,10 +2026,10 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="80">
         <v>142744</v>
       </c>
-      <c r="R5" s="58"/>
+      <c r="R5" s="81"/>
       <c r="S5">
         <v>2009</v>
       </c>
@@ -2089,10 +2119,10 @@
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="78">
         <v>160829</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -2129,10 +2159,10 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="Q6" s="78">
         <v>147298</v>
       </c>
-      <c r="R6" s="60"/>
+      <c r="R6" s="79"/>
       <c r="S6">
         <v>2010</v>
       </c>
@@ -2222,10 +2252,10 @@
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="78">
         <v>162970</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -2262,10 +2292,10 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="59">
+      <c r="Q7" s="78">
         <v>167340</v>
       </c>
-      <c r="R7" s="60"/>
+      <c r="R7" s="79"/>
       <c r="S7">
         <v>2011</v>
       </c>
@@ -2322,10 +2352,10 @@
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="78">
         <v>199531</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -2362,10 +2392,10 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="59">
+      <c r="Q8" s="78">
         <v>195712</v>
       </c>
-      <c r="R8" s="60"/>
+      <c r="R8" s="79"/>
       <c r="S8">
         <v>2012</v>
       </c>
@@ -2425,10 +2455,10 @@
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="78">
         <v>203802</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -2465,10 +2495,10 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="78">
         <v>184352</v>
       </c>
-      <c r="R9" s="60"/>
+      <c r="R9" s="79"/>
       <c r="S9">
         <v>2013</v>
       </c>
@@ -2558,10 +2588,10 @@
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="78">
         <v>219629</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -2598,10 +2628,10 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="59">
+      <c r="Q10" s="78">
         <v>211477</v>
       </c>
-      <c r="R10" s="60"/>
+      <c r="R10" s="79"/>
       <c r="S10">
         <v>2014</v>
       </c>
@@ -2658,10 +2688,10 @@
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="78">
         <v>248394</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -2698,10 +2728,10 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="Q11" s="78">
         <v>259781</v>
       </c>
-      <c r="R11" s="60"/>
+      <c r="R11" s="79"/>
       <c r="S11">
         <v>2015</v>
       </c>
@@ -2761,10 +2791,10 @@
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="78">
         <v>252409</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -2801,10 +2831,10 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="78">
         <v>270200</v>
       </c>
-      <c r="R12" s="60"/>
+      <c r="R12" s="79"/>
       <c r="S12">
         <v>2016</v>
       </c>
@@ -2897,10 +2927,10 @@
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="78">
         <v>255077</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -2937,10 +2967,10 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="78">
         <v>255964</v>
       </c>
-      <c r="R13" s="60"/>
+      <c r="R13" s="79"/>
       <c r="S13">
         <v>2017</v>
       </c>
@@ -3033,10 +3063,10 @@
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="78">
         <v>221983</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -3055,10 +3085,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="78">
         <v>112389</v>
       </c>
-      <c r="L14" s="60"/>
+      <c r="L14" s="79"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -3071,10 +3101,10 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="59">
+      <c r="Q14" s="78">
         <v>267609</v>
       </c>
-      <c r="R14" s="60"/>
+      <c r="R14" s="79"/>
       <c r="S14">
         <v>2018</v>
       </c>
@@ -3099,10 +3129,10 @@
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="78">
         <v>219548</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -3121,10 +3151,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="78">
         <v>128602</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="79"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -3137,10 +3167,10 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="59">
+      <c r="Q15" s="78">
         <v>283849</v>
       </c>
-      <c r="R15" s="60"/>
+      <c r="R15" s="79"/>
       <c r="S15">
         <v>2019</v>
       </c>
@@ -3188,10 +3218,10 @@
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="78">
         <v>182725</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -3228,10 +3258,10 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="78">
         <v>222507</v>
       </c>
-      <c r="R16" s="60"/>
+      <c r="R16" s="79"/>
       <c r="S16">
         <v>2020</v>
       </c>
@@ -3246,10 +3276,10 @@
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="78">
         <v>196491</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -3268,10 +3298,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="78">
         <v>123181</v>
       </c>
-      <c r="L17" s="60"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -3284,10 +3314,10 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="78">
         <v>263454</v>
       </c>
-      <c r="R17" s="60"/>
+      <c r="R17" s="79"/>
       <c r="S17" s="23">
         <v>2021</v>
       </c>
@@ -3306,10 +3336,10 @@
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="78">
         <v>125916</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -3328,10 +3358,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="78">
         <v>142094</v>
       </c>
-      <c r="L18" s="60"/>
+      <c r="L18" s="79"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -3344,10 +3374,10 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="78">
         <v>164630</v>
       </c>
-      <c r="R18" s="60"/>
+      <c r="R18" s="79"/>
       <c r="S18">
         <v>2022</v>
       </c>
@@ -3395,10 +3425,10 @@
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="78">
         <v>226821</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -3417,10 +3447,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="78">
         <v>143901</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="79"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -3433,10 +3463,10 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="78">
         <v>243112</v>
       </c>
-      <c r="R19" s="60"/>
+      <c r="R19" s="79"/>
       <c r="S19">
         <v>2023</v>
       </c>
@@ -3935,13 +3965,13 @@
         <v>26</v>
       </c>
       <c r="AK25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN25" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP25" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="AN25" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP25" s="23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4013,7 +4043,7 @@
         <v>1.0869565217391304</v>
       </c>
       <c r="AP26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4085,7 +4115,7 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="AP27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6217,53 +6247,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="W1:AI1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6274,6 +6257,53 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="W1:AI1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6580,156 +6610,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="64" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="AB1" s="64" t="s">
+      <c r="X1" s="98"/>
+      <c r="AB1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="64" t="s">
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="89" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="70" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="74" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="46" t="s">
+      <c r="H2" s="103"/>
+      <c r="I2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="78" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="79"/>
-      <c r="U2" s="49" t="s">
+      <c r="T2" s="105"/>
+      <c r="U2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="70" t="s">
+      <c r="V2" s="85"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="99"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="74" t="s">
+      <c r="AE2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AF2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="78" t="s">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="66"/>
+      <c r="AM2" s="90"/>
     </row>
     <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="82" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="83"/>
-      <c r="M3" s="82" t="s">
+      <c r="L3" s="108"/>
+      <c r="M3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84" t="s">
+      <c r="N3" s="108"/>
+      <c r="O3" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="53" t="s">
+      <c r="P3" s="110"/>
+      <c r="Q3" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="69"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="76"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="100"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="95"/>
       <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
@@ -6745,62 +6775,62 @@
       <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="68"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="91"/>
       <c r="AY3" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55">
+      <c r="A4" s="82">
         <v>14</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="55">
+      <c r="B4" s="83"/>
+      <c r="C4" s="82">
         <v>15</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="55">
+      <c r="D4" s="83"/>
+      <c r="E4" s="82">
         <v>16</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55">
+      <c r="F4" s="83"/>
+      <c r="G4" s="82">
         <v>17</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="55">
+      <c r="H4" s="83"/>
+      <c r="I4" s="82">
         <v>18</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55">
+      <c r="J4" s="83"/>
+      <c r="K4" s="82">
         <v>19</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="55">
+      <c r="L4" s="83"/>
+      <c r="M4" s="82">
         <v>20</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="55">
+      <c r="N4" s="83"/>
+      <c r="O4" s="82">
         <v>21</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="55">
+      <c r="P4" s="83"/>
+      <c r="Q4" s="82">
         <v>22</v>
       </c>
-      <c r="R4" s="56"/>
-      <c r="S4" s="55">
+      <c r="R4" s="83"/>
+      <c r="S4" s="82">
         <v>23</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="55">
+      <c r="T4" s="83"/>
+      <c r="U4" s="82">
         <v>24</v>
       </c>
-      <c r="V4" s="56"/>
-      <c r="W4" s="55">
+      <c r="V4" s="83"/>
+      <c r="W4" s="82">
         <v>25</v>
       </c>
-      <c r="X4" s="56"/>
+      <c r="X4" s="83"/>
       <c r="AB4" s="18">
         <v>14</v>
       </c>
@@ -11489,27 +11519,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W1:X3"/>
@@ -11524,6 +11533,27 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
@@ -12217,10 +12247,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1215FD3-43C2-4A46-86F2-13091B45B0E6}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12232,1233 +12262,1202 @@
     <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+    </row>
+    <row r="2" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46" t="s">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46" t="s">
+      <c r="D3" s="18">
         <v>3</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46" t="s">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49" t="s">
+      <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="19">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="I3" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3">
-        <v>8</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="J3" s="19"/>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
         <v>11</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M3" s="19">
         <v>12</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N3" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="59" cm="1">
+        <f t="array" ref="B4:N4">('Table 1'!W5:AI5/1000000)*'Table 1'!AN26</f>
+        <v>562879.60427807819</v>
+      </c>
+      <c r="C4" s="59">
+        <v>498358.88561026088</v>
+      </c>
+      <c r="D4" s="59">
+        <v>64520.718667817353</v>
+      </c>
+      <c r="E4" s="59">
+        <v>88416.223975455447</v>
+      </c>
+      <c r="F4" s="59">
+        <v>148740.39734242827</v>
+      </c>
+      <c r="G4" s="59">
+        <v>-60324.173366972813</v>
+      </c>
+      <c r="H4" s="59">
+        <v>121295.65217391304</v>
+      </c>
+      <c r="I4" s="59">
+        <v>132176.05881878911</v>
+      </c>
+      <c r="J4" s="59">
+        <v>-10879.511615024565</v>
+      </c>
+      <c r="K4" s="59">
+        <v>31548.457153457606</v>
+      </c>
+      <c r="L4" s="59">
+        <v>61716.573570830755</v>
+      </c>
+      <c r="M4" s="59">
+        <v>-30168.116417373149</v>
+      </c>
+      <c r="N4" s="60">
+        <v>-36852.137226402177</v>
+      </c>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="108" cm="1">
-        <f t="array" ref="B5:N5">('Table 1'!W5:AI5/1000000)*'Table 1'!AN26</f>
-        <v>562879.60427807819</v>
-      </c>
-      <c r="C5" s="108">
-        <v>498358.88561026088</v>
-      </c>
-      <c r="D5" s="108">
-        <v>64520.718667817353</v>
-      </c>
-      <c r="E5" s="108">
-        <v>88416.223975455447</v>
-      </c>
-      <c r="F5" s="108">
-        <v>148740.39734242827</v>
-      </c>
-      <c r="G5" s="108">
-        <v>-60324.173366972813</v>
-      </c>
-      <c r="H5" s="108">
-        <v>121295.65217391304</v>
-      </c>
-      <c r="I5" s="108">
-        <v>132176.05881878911</v>
-      </c>
-      <c r="J5" s="108">
-        <v>-10879.511615024565</v>
-      </c>
-      <c r="K5" s="108">
-        <v>31548.457153457606</v>
-      </c>
-      <c r="L5" s="108">
-        <v>61716.573570830755</v>
-      </c>
-      <c r="M5" s="108">
-        <v>-30168.116417373149</v>
-      </c>
-      <c r="N5" s="109">
-        <v>-36852.137226402177</v>
-      </c>
-      <c r="O5" s="99"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="61" cm="1">
+        <f t="array" ref="B5:N5">'Table 1'!W6:AI6/1000000*'Table 1'!AN27</f>
+        <v>596219.21675474453</v>
+      </c>
+      <c r="C5" s="61">
+        <v>495525.57239672897</v>
+      </c>
+      <c r="D5" s="61">
+        <v>100693.64435801555</v>
+      </c>
+      <c r="E5" s="61">
+        <v>92083.636055633557</v>
+      </c>
+      <c r="F5" s="61">
+        <v>157567.56643824998</v>
+      </c>
+      <c r="G5" s="61">
+        <v>-65483.930382616425</v>
+      </c>
+      <c r="H5" s="61">
+        <v>106625.25264000001</v>
+      </c>
+      <c r="I5" s="61">
+        <v>120667.68738923332</v>
+      </c>
+      <c r="J5" s="61">
+        <v>-14041.439327222999</v>
+      </c>
+      <c r="K5" s="61">
+        <v>40648.452423551891</v>
+      </c>
+      <c r="L5" s="61">
+        <v>69705.075261091566</v>
+      </c>
+      <c r="M5" s="61">
+        <v>-29056.622837539671</v>
+      </c>
+      <c r="N5" s="62">
+        <v>-7888.3178157411667</v>
+      </c>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2001</v>
-      </c>
-      <c r="B6" s="110" cm="1">
-        <f t="array" ref="B6:N6">'Table 1'!W6:AI6/1000000*'Table 1'!AN27</f>
-        <v>596219.21675474453</v>
-      </c>
-      <c r="C6" s="110">
-        <v>495525.57239672897</v>
-      </c>
-      <c r="D6" s="110">
-        <v>100693.64435801555</v>
-      </c>
-      <c r="E6" s="110">
-        <v>92083.636055633557</v>
-      </c>
-      <c r="F6" s="110">
-        <v>157567.56643824998</v>
-      </c>
-      <c r="G6" s="110">
-        <v>-65483.930382616425</v>
-      </c>
-      <c r="H6" s="110">
-        <v>106625.25264000001</v>
-      </c>
-      <c r="I6" s="110">
-        <v>120667.68738923332</v>
-      </c>
-      <c r="J6" s="110">
-        <v>-14041.439327222999</v>
-      </c>
-      <c r="K6" s="110">
-        <v>40648.452423551891</v>
-      </c>
-      <c r="L6" s="110">
-        <v>69705.075261091566</v>
-      </c>
-      <c r="M6" s="110">
-        <v>-29056.622837539671</v>
-      </c>
-      <c r="N6" s="111">
-        <v>-7888.3178157411667</v>
-      </c>
-      <c r="O6" s="99"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="61" cm="1">
+        <f t="array" ref="B6:N6">'Table 1'!W7:AI7/1000000*'Table 1'!AN28</f>
+        <v>609204.28451123356</v>
+      </c>
+      <c r="C6" s="61">
+        <v>467906.54444305581</v>
+      </c>
+      <c r="D6" s="61">
+        <v>141297.74006817787</v>
+      </c>
+      <c r="E6" s="61">
+        <v>104396.37133134474</v>
+      </c>
+      <c r="F6" s="61">
+        <v>152634.06991084208</v>
+      </c>
+      <c r="G6" s="61">
+        <v>-48237.698579497359</v>
+      </c>
+      <c r="H6" s="61">
+        <v>108137.89473684209</v>
+      </c>
+      <c r="I6" s="61">
+        <v>130372.99674907367</v>
+      </c>
+      <c r="J6" s="61">
+        <v>-22235.032342565893</v>
+      </c>
+      <c r="K6" s="61">
+        <v>41381.760631211262</v>
+      </c>
+      <c r="L6" s="61">
+        <v>70397.588184208304</v>
+      </c>
+      <c r="M6" s="61">
+        <v>-29015.827552997049</v>
+      </c>
+      <c r="N6" s="62">
+        <v>41811.071502838524</v>
+      </c>
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2002</v>
-      </c>
-      <c r="B7" s="110" cm="1">
-        <f t="array" ref="B7:N7">'Table 1'!W7:AI7/1000000*'Table 1'!AN28</f>
-        <v>609204.28451123356</v>
-      </c>
-      <c r="C7" s="110">
-        <v>467906.54444305581</v>
-      </c>
-      <c r="D7" s="110">
-        <v>141297.74006817787</v>
-      </c>
-      <c r="E7" s="110">
-        <v>104396.37133134474</v>
-      </c>
-      <c r="F7" s="110">
-        <v>152634.06991084208</v>
-      </c>
-      <c r="G7" s="110">
-        <v>-48237.698579497359</v>
-      </c>
-      <c r="H7" s="110">
-        <v>108137.89473684209</v>
-      </c>
-      <c r="I7" s="110">
-        <v>130372.99674907367</v>
-      </c>
-      <c r="J7" s="110">
-        <v>-22235.032342565893</v>
-      </c>
-      <c r="K7" s="110">
-        <v>41381.760631211262</v>
-      </c>
-      <c r="L7" s="110">
-        <v>70397.588184208304</v>
-      </c>
-      <c r="M7" s="110">
-        <v>-29015.827552997049</v>
-      </c>
-      <c r="N7" s="111">
-        <v>41811.071502838524</v>
-      </c>
-      <c r="O7" s="99"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="61" cm="1">
+        <f t="array" ref="B7:N7">('Table 1'!W8:AI8/1000000)*'Table 1'!AN29</f>
+        <v>620687.70653608406</v>
+      </c>
+      <c r="C7" s="61">
+        <v>490596.74869378406</v>
+      </c>
+      <c r="D7" s="61">
+        <v>130090.95784230006</v>
+      </c>
+      <c r="E7" s="61">
+        <v>106365.86816079999</v>
+      </c>
+      <c r="F7" s="61">
+        <v>152650.76958504075</v>
+      </c>
+      <c r="G7" s="61">
+        <v>-46284.901424240721</v>
+      </c>
+      <c r="H7" s="61">
+        <v>111953.09734513274</v>
+      </c>
+      <c r="I7" s="61">
+        <v>132949.15968703985</v>
+      </c>
+      <c r="J7" s="61">
+        <v>-20996.413888087613</v>
+      </c>
+      <c r="K7" s="61">
+        <v>50161.854109675929</v>
+      </c>
+      <c r="L7" s="61">
+        <v>81128.078191849389</v>
+      </c>
+      <c r="M7" s="61">
+        <v>-30966.224082173452</v>
+      </c>
+      <c r="N7" s="62">
+        <v>31845.420218532036</v>
+      </c>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2003</v>
-      </c>
-      <c r="B8" s="110" cm="1">
-        <f t="array" ref="B8:N8">('Table 1'!W8:AI8/1000000)*'Table 1'!AN29</f>
-        <v>620687.70653608406</v>
-      </c>
-      <c r="C8" s="110">
-        <v>490596.74869378406</v>
-      </c>
-      <c r="D8" s="110">
-        <v>130090.95784230006</v>
-      </c>
-      <c r="E8" s="110">
-        <v>106365.86816079999</v>
-      </c>
-      <c r="F8" s="110">
-        <v>152650.76958504075</v>
-      </c>
-      <c r="G8" s="110">
-        <v>-46284.901424240721</v>
-      </c>
-      <c r="H8" s="110">
-        <v>111953.09734513274</v>
-      </c>
-      <c r="I8" s="110">
-        <v>132949.15968703985</v>
-      </c>
-      <c r="J8" s="110">
-        <v>-20996.413888087613</v>
-      </c>
-      <c r="K8" s="110">
-        <v>50161.854109675929</v>
-      </c>
-      <c r="L8" s="110">
-        <v>81128.078191849389</v>
-      </c>
-      <c r="M8" s="110">
-        <v>-30966.224082173452</v>
-      </c>
-      <c r="N8" s="111">
-        <v>31845.420218532036</v>
-      </c>
-      <c r="O8" s="99"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="61" cm="1">
+        <f t="array" ref="B8:N8">'Table 1'!W9:AI9/1000000*'Table 1'!AN30</f>
+        <v>688077.88576449919</v>
+      </c>
+      <c r="C8" s="61">
+        <v>535150.62504960329</v>
+      </c>
+      <c r="D8" s="61">
+        <v>152927.26071489594</v>
+      </c>
+      <c r="E8" s="61">
+        <v>122515.88055965728</v>
+      </c>
+      <c r="F8" s="61">
+        <v>157561.42053271775</v>
+      </c>
+      <c r="G8" s="61">
+        <v>-35045.539973060484</v>
+      </c>
+      <c r="H8" s="61">
+        <v>142795.16129032261</v>
+      </c>
+      <c r="I8" s="61">
+        <v>127828.41231345727</v>
+      </c>
+      <c r="J8" s="61">
+        <v>14965.536200629756</v>
+      </c>
+      <c r="K8" s="61">
+        <v>38897.395327991857</v>
+      </c>
+      <c r="L8" s="61">
+        <v>68918.279354664133</v>
+      </c>
+      <c r="M8" s="61">
+        <v>-30020.884026672262</v>
+      </c>
+      <c r="N8" s="62">
+        <v>102827.35838988952</v>
+      </c>
+      <c r="O8" s="50"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2004</v>
-      </c>
-      <c r="B9" s="110" cm="1">
-        <f t="array" ref="B9:N9">'Table 1'!W9:AI9/1000000*'Table 1'!AN30</f>
-        <v>688077.88576449919</v>
-      </c>
-      <c r="C9" s="110">
-        <v>535150.62504960329</v>
-      </c>
-      <c r="D9" s="110">
-        <v>152927.26071489594</v>
-      </c>
-      <c r="E9" s="110">
-        <v>122515.88055965728</v>
-      </c>
-      <c r="F9" s="110">
-        <v>157561.42053271775</v>
-      </c>
-      <c r="G9" s="110">
-        <v>-35045.539973060484</v>
-      </c>
-      <c r="H9" s="110">
-        <v>142795.16129032261</v>
-      </c>
-      <c r="I9" s="110">
-        <v>127828.41231345727</v>
-      </c>
-      <c r="J9" s="110">
-        <v>14965.536200629756</v>
-      </c>
-      <c r="K9" s="110">
-        <v>38897.395327991857</v>
-      </c>
-      <c r="L9" s="110">
-        <v>68918.279354664133</v>
-      </c>
-      <c r="M9" s="110">
-        <v>-30020.884026672262</v>
-      </c>
-      <c r="N9" s="111">
-        <v>102827.35838988952</v>
-      </c>
-      <c r="O9" s="99"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="61" cm="1">
+        <f t="array" ref="B9:N9">'Table 1'!W10:AI10/1000000*'Table 1'!AN31</f>
+        <v>741561.58650112583</v>
+      </c>
+      <c r="C9" s="61">
+        <v>583948.96001115732</v>
+      </c>
+      <c r="D9" s="61">
+        <v>157612.62648996859</v>
+      </c>
+      <c r="E9" s="61">
+        <v>131196.32860612017</v>
+      </c>
+      <c r="F9" s="61">
+        <v>168834.01864037418</v>
+      </c>
+      <c r="G9" s="61">
+        <v>-37637.690034254039</v>
+      </c>
+      <c r="H9" s="61">
+        <v>167318.54838709679</v>
+      </c>
+      <c r="I9" s="61">
+        <v>148277.3231795879</v>
+      </c>
+      <c r="J9" s="61">
+        <v>19041.451870375808</v>
+      </c>
+      <c r="K9" s="61">
+        <v>42551.47995851202</v>
+      </c>
+      <c r="L9" s="61">
+        <v>74239.488277423967</v>
+      </c>
+      <c r="M9" s="61">
+        <v>-31688.008318911936</v>
+      </c>
+      <c r="N9" s="62">
+        <v>107328.42188298953</v>
+      </c>
+      <c r="O9" s="50"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2005</v>
-      </c>
-      <c r="B10" s="110" cm="1">
-        <f t="array" ref="B10:N10">'Table 1'!W10:AI10/1000000*'Table 1'!AN31</f>
-        <v>741561.58650112583</v>
-      </c>
-      <c r="C10" s="110">
-        <v>583948.96001115732</v>
-      </c>
-      <c r="D10" s="110">
-        <v>157612.62648996859</v>
-      </c>
-      <c r="E10" s="110">
-        <v>131196.32860612017</v>
-      </c>
-      <c r="F10" s="110">
-        <v>168834.01864037418</v>
-      </c>
-      <c r="G10" s="110">
-        <v>-37637.690034254039</v>
-      </c>
-      <c r="H10" s="110">
-        <v>167318.54838709679</v>
-      </c>
-      <c r="I10" s="110">
-        <v>148277.3231795879</v>
-      </c>
-      <c r="J10" s="110">
-        <v>19041.451870375808</v>
-      </c>
-      <c r="K10" s="110">
-        <v>42551.47995851202</v>
-      </c>
-      <c r="L10" s="110">
-        <v>74239.488277423967</v>
-      </c>
-      <c r="M10" s="110">
-        <v>-31688.008318911936</v>
-      </c>
-      <c r="N10" s="111">
-        <v>107328.42188298953</v>
-      </c>
-      <c r="O10" s="99"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="61" cm="1">
+        <f t="array" ref="B10:N10">('Table 1'!W11:AI11/1000000)*'Table 1'!AN32</f>
+        <v>839465.21146186499</v>
+      </c>
+      <c r="C10" s="61">
+        <v>678862.99410938332</v>
+      </c>
+      <c r="D10" s="61">
+        <v>160602.2173524817</v>
+      </c>
+      <c r="E10" s="61">
+        <v>146543.60304914758</v>
+      </c>
+      <c r="F10" s="61">
+        <v>178189.4566339984</v>
+      </c>
+      <c r="G10" s="61">
+        <v>-31645.853584850807</v>
+      </c>
+      <c r="H10" s="61">
+        <v>208164.28571428571</v>
+      </c>
+      <c r="I10" s="61">
+        <v>167592.75008099683</v>
+      </c>
+      <c r="J10" s="61">
+        <v>40572.19255210222</v>
+      </c>
+      <c r="K10" s="61">
+        <v>39496.835681084995</v>
+      </c>
+      <c r="L10" s="61">
+        <v>71337.792975503093</v>
+      </c>
+      <c r="M10" s="61">
+        <v>-31840.957294418091</v>
+      </c>
+      <c r="N10" s="62">
+        <v>137687.68033125796</v>
+      </c>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" s="110" cm="1">
-        <f t="array" ref="B11:N11">('Table 1'!W11:AI11/1000000)*'Table 1'!AN32</f>
-        <v>839465.21146186499</v>
-      </c>
-      <c r="C11" s="110">
-        <v>678862.99410938332</v>
-      </c>
-      <c r="D11" s="110">
-        <v>160602.2173524817</v>
-      </c>
-      <c r="E11" s="110">
-        <v>146543.60304914758</v>
-      </c>
-      <c r="F11" s="110">
-        <v>178189.4566339984</v>
-      </c>
-      <c r="G11" s="110">
-        <v>-31645.853584850807</v>
-      </c>
-      <c r="H11" s="110">
-        <v>208164.28571428571</v>
-      </c>
-      <c r="I11" s="110">
-        <v>167592.75008099683</v>
-      </c>
-      <c r="J11" s="110">
-        <v>40572.19255210222</v>
-      </c>
-      <c r="K11" s="110">
-        <v>39496.835681084995</v>
-      </c>
-      <c r="L11" s="110">
-        <v>71337.792975503093</v>
-      </c>
-      <c r="M11" s="110">
-        <v>-31840.957294418091</v>
-      </c>
-      <c r="N11" s="111">
-        <v>137687.68033125796</v>
-      </c>
-      <c r="O11" s="99"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="61" cm="1">
+        <f t="array" ref="B11:N11">'Table 1'!W12:AI12/1000000*'Table 1'!AN33</f>
+        <v>927517.85529065691</v>
+      </c>
+      <c r="C11" s="61">
+        <v>725725.81255943212</v>
+      </c>
+      <c r="D11" s="61">
+        <v>201792.04273122476</v>
+      </c>
+      <c r="E11" s="61">
+        <v>156525.75939063574</v>
+      </c>
+      <c r="F11" s="61">
+        <v>188878.13325553358</v>
+      </c>
+      <c r="G11" s="61">
+        <v>-32352.373864897814</v>
+      </c>
+      <c r="H11" s="61">
+        <v>245274.45255474452</v>
+      </c>
+      <c r="I11" s="61">
+        <v>209216.21950501972</v>
+      </c>
+      <c r="J11" s="61">
+        <v>36059.408286664235</v>
+      </c>
+      <c r="K11" s="61">
+        <v>42243.10382139562</v>
+      </c>
+      <c r="L11" s="61">
+        <v>75640.004145165774</v>
+      </c>
+      <c r="M11" s="61">
+        <v>-33396.900323770147</v>
+      </c>
+      <c r="N11" s="62">
+        <v>172100.14382832189</v>
+      </c>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2007</v>
-      </c>
-      <c r="B12" s="110" cm="1">
-        <f t="array" ref="B12:N12">'Table 1'!W12:AI12/1000000*'Table 1'!AN33</f>
-        <v>927517.85529065691</v>
-      </c>
-      <c r="C12" s="110">
-        <v>725725.81255943212</v>
-      </c>
-      <c r="D12" s="110">
-        <v>201792.04273122476</v>
-      </c>
-      <c r="E12" s="110">
-        <v>156525.75939063574</v>
-      </c>
-      <c r="F12" s="110">
-        <v>188878.13325553358</v>
-      </c>
-      <c r="G12" s="110">
-        <v>-32352.373864897814</v>
-      </c>
-      <c r="H12" s="110">
-        <v>245274.45255474452</v>
-      </c>
-      <c r="I12" s="110">
-        <v>209216.21950501972</v>
-      </c>
-      <c r="J12" s="110">
-        <v>36059.408286664235</v>
-      </c>
-      <c r="K12" s="110">
-        <v>42243.10382139562</v>
-      </c>
-      <c r="L12" s="110">
-        <v>75640.004145165774</v>
-      </c>
-      <c r="M12" s="110">
-        <v>-33396.900323770147</v>
-      </c>
-      <c r="N12" s="111">
-        <v>172100.14382832189</v>
-      </c>
-      <c r="O12" s="99"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="61" cm="1">
+        <f t="array" ref="B12:N12">'Table 1'!W13:AI13/1000000*'Table 1'!AN34</f>
+        <v>951368.9222440545</v>
+      </c>
+      <c r="C12" s="61">
+        <v>765439.52958971425</v>
+      </c>
+      <c r="D12" s="61">
+        <v>185929.39265434022</v>
+      </c>
+      <c r="E12" s="61">
+        <v>166218.85843686463</v>
+      </c>
+      <c r="F12" s="61">
+        <v>196022.38486613132</v>
+      </c>
+      <c r="G12" s="61">
+        <v>-29803.526429266669</v>
+      </c>
+      <c r="H12" s="61">
+        <v>197542.85714285713</v>
+      </c>
+      <c r="I12" s="61">
+        <v>174959.27469241974</v>
+      </c>
+      <c r="J12" s="61">
+        <v>22582.679925935099</v>
+      </c>
+      <c r="K12" s="61">
+        <v>45108.280516301427</v>
+      </c>
+      <c r="L12" s="61">
+        <v>78749.629546019321</v>
+      </c>
+      <c r="M12" s="61">
+        <v>-33641.349029717887</v>
+      </c>
+      <c r="N12" s="62">
+        <v>145068.0497350959</v>
+      </c>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="110" cm="1">
-        <f t="array" ref="B13:N13">'Table 1'!W13:AI13/1000000*'Table 1'!AN34</f>
-        <v>951368.9222440545</v>
-      </c>
-      <c r="C13" s="110">
-        <v>765439.52958971425</v>
-      </c>
-      <c r="D13" s="110">
-        <v>185929.39265434022</v>
-      </c>
-      <c r="E13" s="110">
-        <v>166218.85843686463</v>
-      </c>
-      <c r="F13" s="110">
-        <v>196022.38486613132</v>
-      </c>
-      <c r="G13" s="110">
-        <v>-29803.526429266669</v>
-      </c>
-      <c r="H13" s="110">
-        <v>197542.85714285713</v>
-      </c>
-      <c r="I13" s="110">
-        <v>174959.27469241974</v>
-      </c>
-      <c r="J13" s="110">
-        <v>22582.679925935099</v>
-      </c>
-      <c r="K13" s="110">
-        <v>45108.280516301427</v>
-      </c>
-      <c r="L13" s="110">
-        <v>78749.629546019321</v>
-      </c>
-      <c r="M13" s="110">
-        <v>-33641.349029717887</v>
-      </c>
-      <c r="N13" s="111">
-        <v>145068.0497350959</v>
-      </c>
-      <c r="O13" s="99"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="63">
+        <v>769982</v>
+      </c>
+      <c r="C13" s="63">
+        <v>629356</v>
+      </c>
+      <c r="D13" s="63">
+        <v>140626</v>
+      </c>
+      <c r="E13" s="63">
+        <v>162329</v>
+      </c>
+      <c r="F13" s="63">
+        <v>179971</v>
+      </c>
+      <c r="G13" s="63">
+        <v>-17642</v>
+      </c>
+      <c r="H13" s="63">
+        <v>183515</v>
+      </c>
+      <c r="I13" s="63">
+        <v>128991</v>
+      </c>
+      <c r="J13" s="63">
+        <v>54524</v>
+      </c>
+      <c r="K13" s="63">
+        <v>41478</v>
+      </c>
+      <c r="L13" s="63">
+        <v>76242</v>
+      </c>
+      <c r="M13" s="63">
+        <v>34764</v>
+      </c>
+      <c r="N13" s="64">
+        <v>142744</v>
+      </c>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2009</v>
-      </c>
-      <c r="B14" s="112">
-        <v>769982</v>
-      </c>
-      <c r="C14" s="112">
-        <v>629356</v>
-      </c>
-      <c r="D14" s="112">
-        <v>140626</v>
-      </c>
-      <c r="E14" s="112">
-        <v>162329</v>
-      </c>
-      <c r="F14" s="112">
-        <v>179971</v>
-      </c>
-      <c r="G14" s="112">
-        <v>-17642</v>
-      </c>
-      <c r="H14" s="112">
-        <v>183515</v>
-      </c>
-      <c r="I14" s="112">
-        <v>128991</v>
-      </c>
-      <c r="J14" s="112">
-        <v>54524</v>
-      </c>
-      <c r="K14" s="112">
-        <v>41478</v>
-      </c>
-      <c r="L14" s="112">
-        <v>76242</v>
-      </c>
-      <c r="M14" s="112">
-        <v>34764</v>
-      </c>
-      <c r="N14" s="113">
-        <v>142744</v>
-      </c>
-      <c r="O14" s="99"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="63">
+        <v>915035</v>
+      </c>
+      <c r="C14" s="63">
+        <v>754206</v>
+      </c>
+      <c r="D14" s="65">
+        <v>160829</v>
+      </c>
+      <c r="E14" s="63">
+        <v>174306</v>
+      </c>
+      <c r="F14" s="63">
+        <v>199560</v>
+      </c>
+      <c r="G14" s="66">
+        <v>-25255</v>
+      </c>
+      <c r="H14" s="63">
+        <v>200815</v>
+      </c>
+      <c r="I14" s="63">
+        <v>149508</v>
+      </c>
+      <c r="J14" s="66">
+        <v>51306</v>
+      </c>
+      <c r="K14" s="63">
+        <v>42627</v>
+      </c>
+      <c r="L14" s="63">
+        <v>82209</v>
+      </c>
+      <c r="M14" s="66">
+        <v>39582</v>
+      </c>
+      <c r="N14" s="64">
+        <v>147298</v>
+      </c>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
-      </c>
-      <c r="B15" s="112">
-        <v>915035</v>
-      </c>
-      <c r="C15" s="112">
-        <v>754206</v>
-      </c>
-      <c r="D15" s="114">
-        <v>160829</v>
-      </c>
-      <c r="E15" s="112">
-        <v>174306</v>
-      </c>
-      <c r="F15" s="112">
-        <v>199560</v>
-      </c>
-      <c r="G15" s="115">
-        <v>-25255</v>
-      </c>
-      <c r="H15" s="112">
-        <v>200815</v>
-      </c>
-      <c r="I15" s="112">
-        <v>149508</v>
-      </c>
-      <c r="J15" s="115">
-        <v>51306</v>
-      </c>
-      <c r="K15" s="112">
-        <v>42627</v>
-      </c>
-      <c r="L15" s="112">
-        <v>82209</v>
-      </c>
-      <c r="M15" s="115">
-        <v>39582</v>
-      </c>
-      <c r="N15" s="113">
-        <v>147298</v>
-      </c>
-      <c r="O15" s="99"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="63">
+        <v>1027494</v>
+      </c>
+      <c r="C15" s="63">
+        <v>864524</v>
+      </c>
+      <c r="D15" s="65">
+        <v>162970</v>
+      </c>
+      <c r="E15" s="63">
+        <v>183949</v>
+      </c>
+      <c r="F15" s="63">
+        <v>213879</v>
+      </c>
+      <c r="G15" s="66">
+        <v>-29930</v>
+      </c>
+      <c r="H15" s="63">
+        <v>220396</v>
+      </c>
+      <c r="I15" s="63">
+        <v>151309</v>
+      </c>
+      <c r="J15" s="66">
+        <v>69087</v>
+      </c>
+      <c r="K15" s="63">
+        <v>51001</v>
+      </c>
+      <c r="L15" s="63">
+        <v>85788</v>
+      </c>
+      <c r="M15" s="66">
+        <v>34787</v>
+      </c>
+      <c r="N15" s="64">
+        <v>167340</v>
+      </c>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2011</v>
-      </c>
-      <c r="B16" s="112">
-        <v>1027494</v>
-      </c>
-      <c r="C16" s="112">
-        <v>864524</v>
-      </c>
-      <c r="D16" s="114">
-        <v>162970</v>
-      </c>
-      <c r="E16" s="112">
-        <v>183949</v>
-      </c>
-      <c r="F16" s="112">
-        <v>213879</v>
-      </c>
-      <c r="G16" s="115">
-        <v>-29930</v>
-      </c>
-      <c r="H16" s="112">
-        <v>220396</v>
-      </c>
-      <c r="I16" s="112">
-        <v>151309</v>
-      </c>
-      <c r="J16" s="115">
-        <v>69087</v>
-      </c>
-      <c r="K16" s="112">
-        <v>51001</v>
-      </c>
-      <c r="L16" s="112">
-        <v>85788</v>
-      </c>
-      <c r="M16" s="115">
-        <v>34787</v>
-      </c>
-      <c r="N16" s="113">
-        <v>167340</v>
-      </c>
-      <c r="O16" s="99"/>
+        <v>2012</v>
+      </c>
+      <c r="B16" s="63">
+        <v>1069020</v>
+      </c>
+      <c r="C16" s="63">
+        <v>869489</v>
+      </c>
+      <c r="D16" s="65">
+        <v>199531</v>
+      </c>
+      <c r="E16" s="63">
+        <v>199251</v>
+      </c>
+      <c r="F16" s="63">
+        <v>230025</v>
+      </c>
+      <c r="G16" s="66">
+        <v>-30774</v>
+      </c>
+      <c r="H16" s="63">
+        <v>204835</v>
+      </c>
+      <c r="I16" s="63">
+        <v>139177</v>
+      </c>
+      <c r="J16" s="66">
+        <v>65658</v>
+      </c>
+      <c r="K16" s="63">
+        <v>52938</v>
+      </c>
+      <c r="L16" s="63">
+        <v>91641</v>
+      </c>
+      <c r="M16" s="66">
+        <v>38703</v>
+      </c>
+      <c r="N16" s="64">
+        <v>195712</v>
+      </c>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2012</v>
-      </c>
-      <c r="B17" s="112">
-        <v>1069020</v>
-      </c>
-      <c r="C17" s="112">
-        <v>869489</v>
-      </c>
-      <c r="D17" s="114">
-        <v>199531</v>
-      </c>
-      <c r="E17" s="112">
-        <v>199251</v>
-      </c>
-      <c r="F17" s="112">
-        <v>230025</v>
-      </c>
-      <c r="G17" s="115">
-        <v>-30774</v>
-      </c>
-      <c r="H17" s="112">
-        <v>204835</v>
-      </c>
-      <c r="I17" s="112">
-        <v>139177</v>
-      </c>
-      <c r="J17" s="115">
-        <v>65658</v>
-      </c>
-      <c r="K17" s="112">
-        <v>52938</v>
-      </c>
-      <c r="L17" s="112">
-        <v>91641</v>
-      </c>
-      <c r="M17" s="115">
-        <v>38703</v>
-      </c>
-      <c r="N17" s="113">
-        <v>195712</v>
-      </c>
-      <c r="O17" s="99"/>
+        <v>2013</v>
+      </c>
+      <c r="B17" s="63">
+        <v>1071458</v>
+      </c>
+      <c r="C17" s="63">
+        <v>867656</v>
+      </c>
+      <c r="D17" s="65">
+        <v>203802</v>
+      </c>
+      <c r="E17" s="63">
+        <v>208257</v>
+      </c>
+      <c r="F17" s="63">
+        <v>247578</v>
+      </c>
+      <c r="G17" s="66">
+        <v>-39321</v>
+      </c>
+      <c r="H17" s="63">
+        <v>192273</v>
+      </c>
+      <c r="I17" s="63">
+        <v>128988</v>
+      </c>
+      <c r="J17" s="66">
+        <v>63284</v>
+      </c>
+      <c r="K17" s="63">
+        <v>60321</v>
+      </c>
+      <c r="L17" s="63">
+        <v>103734</v>
+      </c>
+      <c r="M17" s="66">
+        <v>43413</v>
+      </c>
+      <c r="N17" s="64">
+        <v>184352</v>
+      </c>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="112">
-        <v>1071458</v>
-      </c>
-      <c r="C18" s="112">
-        <v>867656</v>
-      </c>
-      <c r="D18" s="114">
-        <v>203802</v>
-      </c>
-      <c r="E18" s="112">
-        <v>208257</v>
-      </c>
-      <c r="F18" s="112">
-        <v>247578</v>
-      </c>
-      <c r="G18" s="115">
-        <v>-39321</v>
-      </c>
-      <c r="H18" s="112">
-        <v>192273</v>
-      </c>
-      <c r="I18" s="112">
-        <v>128988</v>
-      </c>
-      <c r="J18" s="115">
-        <v>63284</v>
-      </c>
-      <c r="K18" s="112">
-        <v>60321</v>
-      </c>
-      <c r="L18" s="112">
-        <v>103734</v>
-      </c>
-      <c r="M18" s="115">
-        <v>43413</v>
-      </c>
-      <c r="N18" s="113">
-        <v>184352</v>
-      </c>
-      <c r="O18" s="99"/>
+        <v>2014</v>
+      </c>
+      <c r="B18" s="63">
+        <v>1106923</v>
+      </c>
+      <c r="C18" s="63">
+        <v>887294</v>
+      </c>
+      <c r="D18" s="65">
+        <v>219629</v>
+      </c>
+      <c r="E18" s="63">
+        <v>228840</v>
+      </c>
+      <c r="F18" s="63">
+        <v>254143</v>
+      </c>
+      <c r="G18" s="66">
+        <v>-25303</v>
+      </c>
+      <c r="H18" s="63">
+        <v>191498</v>
+      </c>
+      <c r="I18" s="63">
+        <v>132852</v>
+      </c>
+      <c r="J18" s="66">
+        <v>58646</v>
+      </c>
+      <c r="K18" s="63">
+        <v>62475</v>
+      </c>
+      <c r="L18" s="63">
+        <v>103970</v>
+      </c>
+      <c r="M18" s="66">
+        <v>41495</v>
+      </c>
+      <c r="N18" s="64">
+        <v>211477</v>
+      </c>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2014</v>
-      </c>
-      <c r="B19" s="112">
-        <v>1106923</v>
-      </c>
-      <c r="C19" s="112">
-        <v>887294</v>
-      </c>
-      <c r="D19" s="114">
-        <v>219629</v>
-      </c>
-      <c r="E19" s="112">
-        <v>228840</v>
-      </c>
-      <c r="F19" s="112">
-        <v>254143</v>
-      </c>
-      <c r="G19" s="115">
-        <v>-25303</v>
-      </c>
-      <c r="H19" s="112">
-        <v>191498</v>
-      </c>
-      <c r="I19" s="112">
-        <v>132852</v>
-      </c>
-      <c r="J19" s="115">
-        <v>58646</v>
-      </c>
-      <c r="K19" s="112">
-        <v>62475</v>
-      </c>
-      <c r="L19" s="112">
-        <v>103970</v>
-      </c>
-      <c r="M19" s="115">
-        <v>41495</v>
-      </c>
-      <c r="N19" s="113">
-        <v>211477</v>
-      </c>
-      <c r="O19" s="99"/>
+        <v>2015</v>
+      </c>
+      <c r="B19" s="63">
+        <v>1166594</v>
+      </c>
+      <c r="C19" s="63">
+        <v>918200</v>
+      </c>
+      <c r="D19" s="65">
+        <v>248394</v>
+      </c>
+      <c r="E19" s="63">
+        <v>253318</v>
+      </c>
+      <c r="F19" s="63">
+        <v>271834</v>
+      </c>
+      <c r="G19" s="66">
+        <v>-18516</v>
+      </c>
+      <c r="H19" s="63">
+        <v>202782</v>
+      </c>
+      <c r="I19" s="63">
+        <v>133458</v>
+      </c>
+      <c r="J19" s="66">
+        <v>69324</v>
+      </c>
+      <c r="K19" s="63">
+        <v>71769</v>
+      </c>
+      <c r="L19" s="63">
+        <v>111189</v>
+      </c>
+      <c r="M19" s="66">
+        <v>39420</v>
+      </c>
+      <c r="N19" s="64">
+        <v>259781</v>
+      </c>
+      <c r="O19" s="50"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="112">
-        <v>1166594</v>
-      </c>
-      <c r="C20" s="112">
-        <v>918200</v>
-      </c>
-      <c r="D20" s="114">
-        <v>248394</v>
-      </c>
-      <c r="E20" s="112">
-        <v>253318</v>
-      </c>
-      <c r="F20" s="112">
-        <v>271834</v>
-      </c>
-      <c r="G20" s="115">
-        <v>-18516</v>
-      </c>
-      <c r="H20" s="112">
-        <v>202782</v>
-      </c>
-      <c r="I20" s="112">
-        <v>133458</v>
-      </c>
-      <c r="J20" s="115">
-        <v>69324</v>
-      </c>
-      <c r="K20" s="112">
-        <v>71769</v>
-      </c>
-      <c r="L20" s="112">
-        <v>111189</v>
-      </c>
-      <c r="M20" s="115">
-        <v>39420</v>
-      </c>
-      <c r="N20" s="113">
-        <v>259781</v>
-      </c>
-      <c r="O20" s="99"/>
-      <c r="P20" s="31"/>
+        <v>2016</v>
+      </c>
+      <c r="B20" s="63">
+        <v>1179166</v>
+      </c>
+      <c r="C20" s="63">
+        <v>926757</v>
+      </c>
+      <c r="D20" s="65">
+        <v>252409</v>
+      </c>
+      <c r="E20" s="63">
+        <v>265105</v>
+      </c>
+      <c r="F20" s="63">
+        <v>286092</v>
+      </c>
+      <c r="G20" s="66">
+        <v>-20987</v>
+      </c>
+      <c r="H20" s="63">
+        <v>213177</v>
+      </c>
+      <c r="I20" s="63">
+        <v>135919</v>
+      </c>
+      <c r="J20" s="66">
+        <v>77258</v>
+      </c>
+      <c r="K20" s="63">
+        <v>65415</v>
+      </c>
+      <c r="L20" s="63">
+        <v>103894</v>
+      </c>
+      <c r="M20" s="66">
+        <v>38480</v>
+      </c>
+      <c r="N20" s="64">
+        <v>270200</v>
+      </c>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="112">
-        <v>1179166</v>
-      </c>
-      <c r="C21" s="112">
-        <v>926757</v>
-      </c>
-      <c r="D21" s="114">
-        <v>252409</v>
-      </c>
-      <c r="E21" s="112">
-        <v>265105</v>
-      </c>
-      <c r="F21" s="112">
-        <v>286092</v>
-      </c>
-      <c r="G21" s="115">
-        <v>-20987</v>
-      </c>
-      <c r="H21" s="112">
-        <v>213177</v>
-      </c>
-      <c r="I21" s="112">
-        <v>135919</v>
-      </c>
-      <c r="J21" s="115">
-        <v>77258</v>
-      </c>
-      <c r="K21" s="112">
-        <v>65415</v>
-      </c>
-      <c r="L21" s="112">
-        <v>103894</v>
-      </c>
-      <c r="M21" s="115">
-        <v>38480</v>
-      </c>
-      <c r="N21" s="113">
-        <v>270200</v>
-      </c>
-      <c r="O21" s="99"/>
+        <v>2017</v>
+      </c>
+      <c r="B21" s="63">
+        <v>1256858</v>
+      </c>
+      <c r="C21" s="63">
+        <v>1001782</v>
+      </c>
+      <c r="D21" s="65">
+        <v>255077</v>
+      </c>
+      <c r="E21" s="63">
+        <v>284032</v>
+      </c>
+      <c r="F21" s="63">
+        <v>308026</v>
+      </c>
+      <c r="G21" s="66">
+        <v>-23994</v>
+      </c>
+      <c r="H21" s="63">
+        <v>209623</v>
+      </c>
+      <c r="I21" s="63">
+        <v>132577</v>
+      </c>
+      <c r="J21" s="66">
+        <v>77046</v>
+      </c>
+      <c r="K21" s="63">
+        <v>66827</v>
+      </c>
+      <c r="L21" s="63">
+        <v>118992</v>
+      </c>
+      <c r="M21" s="66">
+        <v>52165</v>
+      </c>
+      <c r="N21" s="64">
+        <v>255964</v>
+      </c>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="112">
-        <v>1256858</v>
-      </c>
-      <c r="C22" s="112">
-        <v>1001782</v>
-      </c>
-      <c r="D22" s="114">
-        <v>255077</v>
-      </c>
-      <c r="E22" s="112">
-        <v>284032</v>
-      </c>
-      <c r="F22" s="112">
-        <v>308026</v>
-      </c>
-      <c r="G22" s="115">
-        <v>-23994</v>
-      </c>
-      <c r="H22" s="112">
-        <v>209623</v>
-      </c>
-      <c r="I22" s="112">
-        <v>132577</v>
-      </c>
-      <c r="J22" s="115">
-        <v>77046</v>
-      </c>
-      <c r="K22" s="112">
-        <v>66827</v>
-      </c>
-      <c r="L22" s="112">
-        <v>118992</v>
-      </c>
-      <c r="M22" s="115">
-        <v>52165</v>
-      </c>
-      <c r="N22" s="113">
-        <v>255964</v>
-      </c>
-      <c r="O22" s="99"/>
+        <v>2018</v>
+      </c>
+      <c r="B22" s="63">
+        <v>1290468</v>
+      </c>
+      <c r="C22" s="63">
+        <v>1068485</v>
+      </c>
+      <c r="D22" s="65">
+        <v>221983</v>
+      </c>
+      <c r="E22" s="63">
+        <v>302691</v>
+      </c>
+      <c r="F22" s="63">
+        <v>318497</v>
+      </c>
+      <c r="G22" s="66">
+        <v>-15806</v>
+      </c>
+      <c r="H22" s="63">
+        <v>241703</v>
+      </c>
+      <c r="I22" s="63">
+        <v>129314</v>
+      </c>
+      <c r="J22" s="65">
+        <v>112389</v>
+      </c>
+      <c r="K22" s="63">
+        <v>69522</v>
+      </c>
+      <c r="L22" s="63">
+        <v>120479</v>
+      </c>
+      <c r="M22" s="66">
+        <v>50958</v>
+      </c>
+      <c r="N22" s="64">
+        <v>267609</v>
+      </c>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="112">
-        <v>1290468</v>
-      </c>
-      <c r="C23" s="112">
-        <v>1068485</v>
-      </c>
-      <c r="D23" s="114">
-        <v>221983</v>
-      </c>
-      <c r="E23" s="112">
-        <v>302691</v>
-      </c>
-      <c r="F23" s="112">
-        <v>318497</v>
-      </c>
-      <c r="G23" s="115">
-        <v>-15806</v>
-      </c>
-      <c r="H23" s="112">
-        <v>241703</v>
-      </c>
-      <c r="I23" s="112">
-        <v>129314</v>
-      </c>
-      <c r="J23" s="114">
-        <v>112389</v>
-      </c>
-      <c r="K23" s="112">
-        <v>69522</v>
-      </c>
-      <c r="L23" s="112">
-        <v>120479</v>
-      </c>
-      <c r="M23" s="115">
-        <v>50958</v>
-      </c>
-      <c r="N23" s="113">
-        <v>267609</v>
-      </c>
-      <c r="O23" s="99"/>
+        <v>2019</v>
+      </c>
+      <c r="B23" s="63">
+        <v>1309678</v>
+      </c>
+      <c r="C23" s="63">
+        <v>1090130</v>
+      </c>
+      <c r="D23" s="65">
+        <v>219548</v>
+      </c>
+      <c r="E23" s="63">
+        <v>327594</v>
+      </c>
+      <c r="F23" s="63">
+        <v>341148</v>
+      </c>
+      <c r="G23" s="66">
+        <v>-13553</v>
+      </c>
+      <c r="H23" s="63">
+        <v>251148</v>
+      </c>
+      <c r="I23" s="63">
+        <v>122547</v>
+      </c>
+      <c r="J23" s="65">
+        <v>128602</v>
+      </c>
+      <c r="K23" s="63">
+        <v>80366</v>
+      </c>
+      <c r="L23" s="63">
+        <v>131112</v>
+      </c>
+      <c r="M23" s="66">
+        <v>50747</v>
+      </c>
+      <c r="N23" s="64">
+        <v>283849</v>
+      </c>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="112">
-        <v>1309678</v>
-      </c>
-      <c r="C24" s="112">
-        <v>1090130</v>
-      </c>
-      <c r="D24" s="114">
-        <v>219548</v>
-      </c>
-      <c r="E24" s="112">
-        <v>327594</v>
-      </c>
-      <c r="F24" s="112">
-        <v>341148</v>
-      </c>
-      <c r="G24" s="115">
-        <v>-13553</v>
-      </c>
-      <c r="H24" s="112">
-        <v>251148</v>
-      </c>
-      <c r="I24" s="112">
-        <v>122547</v>
-      </c>
-      <c r="J24" s="114">
-        <v>128602</v>
-      </c>
-      <c r="K24" s="112">
-        <v>80366</v>
-      </c>
-      <c r="L24" s="112">
-        <v>131112</v>
-      </c>
-      <c r="M24" s="115">
-        <v>50747</v>
-      </c>
-      <c r="N24" s="113">
-        <v>283849</v>
-      </c>
-      <c r="O24" s="99"/>
+        <v>2020</v>
+      </c>
+      <c r="B24" s="63">
+        <v>1188235</v>
+      </c>
+      <c r="C24" s="63">
+        <v>1005510</v>
+      </c>
+      <c r="D24" s="65">
+        <v>182725</v>
+      </c>
+      <c r="E24" s="63">
+        <v>292007</v>
+      </c>
+      <c r="F24" s="63">
+        <v>285373</v>
+      </c>
+      <c r="G24" s="66">
+        <v>6634</v>
+      </c>
+      <c r="H24" s="63">
+        <v>188409</v>
+      </c>
+      <c r="I24" s="63">
+        <v>102372</v>
+      </c>
+      <c r="J24" s="66">
+        <v>86037</v>
+      </c>
+      <c r="K24" s="63">
+        <v>84416</v>
+      </c>
+      <c r="L24" s="63">
+        <v>137304</v>
+      </c>
+      <c r="M24" s="66">
+        <v>52889</v>
+      </c>
+      <c r="N24" s="64">
+        <v>222507</v>
+      </c>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="112">
-        <v>1188235</v>
-      </c>
-      <c r="C25" s="112">
-        <v>1005510</v>
-      </c>
-      <c r="D25" s="114">
-        <v>182725</v>
-      </c>
-      <c r="E25" s="112">
-        <v>292007</v>
-      </c>
-      <c r="F25" s="112">
-        <v>285373</v>
-      </c>
-      <c r="G25" s="115">
-        <v>6634</v>
-      </c>
-      <c r="H25" s="112">
-        <v>188409</v>
-      </c>
-      <c r="I25" s="112">
-        <v>102372</v>
-      </c>
-      <c r="J25" s="115">
-        <v>86037</v>
-      </c>
-      <c r="K25" s="112">
-        <v>84416</v>
-      </c>
-      <c r="L25" s="112">
-        <v>137304</v>
-      </c>
-      <c r="M25" s="115">
-        <v>52889</v>
-      </c>
-      <c r="N25" s="113">
-        <v>222507</v>
-      </c>
-      <c r="O25" s="99"/>
+        <v>2021</v>
+      </c>
+      <c r="B25" s="63">
+        <v>1375112</v>
+      </c>
+      <c r="C25" s="63">
+        <v>1178621</v>
+      </c>
+      <c r="D25" s="65">
+        <v>196491</v>
+      </c>
+      <c r="E25" s="63">
+        <v>345547</v>
+      </c>
+      <c r="F25" s="63">
+        <v>343932</v>
+      </c>
+      <c r="G25" s="66">
+        <v>1615</v>
+      </c>
+      <c r="H25" s="63">
+        <v>240492</v>
+      </c>
+      <c r="I25" s="63">
+        <v>117311</v>
+      </c>
+      <c r="J25" s="65">
+        <v>123181</v>
+      </c>
+      <c r="K25" s="63">
+        <v>100009</v>
+      </c>
+      <c r="L25" s="63">
+        <v>157841</v>
+      </c>
+      <c r="M25" s="66">
+        <v>57832</v>
+      </c>
+      <c r="N25" s="64">
+        <v>263454</v>
+      </c>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="112">
-        <v>1375112</v>
-      </c>
-      <c r="C26" s="112">
-        <v>1178621</v>
-      </c>
-      <c r="D26" s="114">
-        <v>196491</v>
-      </c>
-      <c r="E26" s="112">
-        <v>345547</v>
-      </c>
-      <c r="F26" s="112">
-        <v>343932</v>
-      </c>
-      <c r="G26" s="115">
-        <v>1615</v>
-      </c>
-      <c r="H26" s="112">
-        <v>240492</v>
-      </c>
-      <c r="I26" s="112">
-        <v>117311</v>
-      </c>
-      <c r="J26" s="114">
-        <v>123181</v>
-      </c>
-      <c r="K26" s="112">
-        <v>100009</v>
-      </c>
-      <c r="L26" s="112">
-        <v>157841</v>
-      </c>
-      <c r="M26" s="115">
-        <v>57832</v>
-      </c>
-      <c r="N26" s="113">
-        <v>263454</v>
-      </c>
-      <c r="O26" s="99"/>
+        <v>2022</v>
+      </c>
+      <c r="B26" s="63">
+        <v>1579998</v>
+      </c>
+      <c r="C26" s="63">
+        <v>1454082</v>
+      </c>
+      <c r="D26" s="65">
+        <v>125916</v>
+      </c>
+      <c r="E26" s="63">
+        <v>409171</v>
+      </c>
+      <c r="F26" s="63">
+        <v>446460</v>
+      </c>
+      <c r="G26" s="66">
+        <v>-37289</v>
+      </c>
+      <c r="H26" s="63">
+        <v>313856</v>
+      </c>
+      <c r="I26" s="63">
+        <v>171762</v>
+      </c>
+      <c r="J26" s="65">
+        <v>142094</v>
+      </c>
+      <c r="K26" s="63">
+        <v>102436</v>
+      </c>
+      <c r="L26" s="63">
+        <v>168526</v>
+      </c>
+      <c r="M26" s="66">
+        <v>66091</v>
+      </c>
+      <c r="N26" s="64">
+        <v>164630</v>
+      </c>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="112">
-        <v>1579998</v>
-      </c>
-      <c r="C27" s="112">
-        <v>1454082</v>
-      </c>
-      <c r="D27" s="114">
-        <v>125916</v>
-      </c>
-      <c r="E27" s="112">
-        <v>409171</v>
-      </c>
-      <c r="F27" s="112">
-        <v>446460</v>
-      </c>
-      <c r="G27" s="115">
-        <v>-37289</v>
-      </c>
-      <c r="H27" s="112">
-        <v>313856</v>
-      </c>
-      <c r="I27" s="112">
-        <v>171762</v>
-      </c>
-      <c r="J27" s="114">
-        <v>142094</v>
-      </c>
-      <c r="K27" s="112">
-        <v>102436</v>
-      </c>
-      <c r="L27" s="112">
-        <v>168526</v>
-      </c>
-      <c r="M27" s="115">
-        <v>66091</v>
-      </c>
-      <c r="N27" s="113">
-        <v>164630</v>
-      </c>
-      <c r="O27" s="99"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="44">
+      <c r="A27" s="44">
         <v>2023</v>
       </c>
-      <c r="B28" s="116">
+      <c r="B27" s="67">
         <v>1539230</v>
       </c>
-      <c r="C28" s="116">
+      <c r="C27" s="67">
         <v>1312409</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D27" s="68">
         <v>226821</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E27" s="67">
         <v>406931</v>
       </c>
-      <c r="F28" s="116">
+      <c r="F27" s="67">
         <v>469925</v>
       </c>
-      <c r="G28" s="118">
+      <c r="G27" s="69">
         <v>-62994</v>
       </c>
-      <c r="H28" s="116">
+      <c r="H27" s="67">
         <v>399945</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I27" s="67">
         <v>256044</v>
       </c>
-      <c r="J28" s="117">
+      <c r="J27" s="68">
         <v>143901</v>
       </c>
-      <c r="K28" s="116">
+      <c r="K27" s="67">
         <v>108997</v>
       </c>
-      <c r="L28" s="116">
+      <c r="L27" s="67">
         <v>173614</v>
       </c>
-      <c r="M28" s="118">
+      <c r="M27" s="69">
         <v>64616</v>
       </c>
-      <c r="N28" s="119">
+      <c r="N27" s="70">
         <v>243112</v>
       </c>
-      <c r="O28" s="99"/>
+      <c r="O27" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="N2:N3"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13469,7 +13468,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13480,80 +13479,80 @@
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="115"/>
+      <c r="C2" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="90"/>
-      <c r="C2" s="92" t="s">
+      <c r="F2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="94" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="112"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="116"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G3" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="91"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="17" t="s">
+      <c r="H3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="I3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="J3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="88"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="45">
         <v>14</v>
@@ -13596,1018 +13595,1018 @@
       <c r="A5">
         <v>2000</v>
       </c>
-      <c r="B5" s="96" cm="1">
+      <c r="B5" s="47" cm="1">
         <f t="array" ref="B5:M5">'Table 2'!AB5:AM5/1000000*'Table 1'!AN26</f>
         <v>5065.0440615632378</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="47">
         <v>-162864.5410581663</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="47">
         <v>164092.57697152716</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="47">
         <v>0</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="47">
         <v>0</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="47">
         <v>0</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="47">
         <v>0</v>
       </c>
-      <c r="I5" s="96">
+      <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="96">
+      <c r="J5" s="47">
         <v>0</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="47">
         <v>0</v>
       </c>
-      <c r="L5" s="97">
+      <c r="L5" s="48">
         <v>-43858.684785476304</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="49">
         <v>-12071.59162063728</v>
       </c>
-      <c r="N5" s="99"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
-      <c r="B6" s="100" cm="1">
+      <c r="B6" s="51" cm="1">
         <f t="array" ref="B6:M6">'Table 2'!AB6:AM6/1000000*'Table 1'!AN27</f>
         <v>-3200.4970867869561</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="51">
         <v>14771.594202920778</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="51">
         <v>-29636.016659355777</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="51">
         <v>0</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="51">
         <v>0</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="51">
         <v>0</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="51">
         <v>0</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="51">
         <v>0</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="51">
         <v>0</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="52">
         <v>1087.7212373744035</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="53">
         <v>12174.551528642221</v>
       </c>
-      <c r="N6" s="99"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
-      <c r="B7" s="100" cm="1">
+      <c r="B7" s="51" cm="1">
         <f t="array" ref="B7:M7">'Table 2'!AB7:AM7/1000000*'Table 1'!AN28</f>
         <v>-4173.6609777492522</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="51">
         <v>-35860.417885788731</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="51">
         <v>-66869.435331512213</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="51">
         <v>0</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="51">
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="51">
         <v>0</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="51">
         <v>0</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="51">
         <v>0</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="51">
         <v>0</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="51">
         <v>0</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="52">
         <v>10070.507217505263</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="53">
         <v>-27566.903307583998</v>
       </c>
-      <c r="N7" s="99"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
-      <c r="B8" s="100" cm="1">
+      <c r="B8" s="51" cm="1">
         <f t="array" ref="B8:M8">'Table 2'!AB8:AM8/1000000*'Table 1'!AN29</f>
         <v>6230.9337985775228</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="51">
         <v>-23097.943617019646</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="51">
         <v>-53645.018124742302</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="51">
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="51">
         <v>0</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="51">
         <v>0</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="51">
         <v>0</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="51">
         <v>0</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="51">
         <v>0</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="52">
         <v>48554.732414026112</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="53">
         <v>10478.435124551328</v>
       </c>
-      <c r="N8" s="99"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
-      <c r="B9" s="100" cm="1">
+      <c r="B9" s="51" cm="1">
         <f t="array" ref="B9:M9">'Table 2'!AB9:AM9/1000000*'Table 1'!AN30</f>
         <v>-150.14593527440564</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="51">
         <v>23772.659493029278</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="51">
         <v>-15508.70159786363</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="51">
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="51">
         <v>0</v>
       </c>
-      <c r="H9" s="100">
+      <c r="H9" s="51">
         <v>0</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="51">
         <v>0</v>
       </c>
-      <c r="J9" s="100">
+      <c r="J9" s="51">
         <v>0</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="51">
         <v>0</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="52">
         <v>111808.17011677743</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="53">
         <v>9131.8680791196784</v>
       </c>
-      <c r="N9" s="99"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
-      <c r="B10" s="100" cm="1">
+      <c r="B10" s="51" cm="1">
         <f t="array" ref="B10:M10">'Table 2'!AB10:AM10/1000000*'Table 1'!AN31</f>
         <v>-2413.7290044590732</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="51">
         <v>23458.836213208226</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="51">
         <v>28717.324581587902</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="51">
         <v>0</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="51">
         <v>0</v>
       </c>
-      <c r="G10" s="100">
+      <c r="G10" s="51">
         <v>0</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="51">
         <v>0</v>
       </c>
-      <c r="I10" s="100">
+      <c r="I10" s="51">
         <v>0</v>
       </c>
-      <c r="J10" s="100">
+      <c r="J10" s="51">
         <v>0</v>
       </c>
-      <c r="K10" s="100">
+      <c r="K10" s="51">
         <v>0</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="52">
         <v>97103.236252298404</v>
       </c>
-      <c r="M10" s="102">
+      <c r="M10" s="53">
         <v>-7810.3991288331372</v>
       </c>
-      <c r="N10" s="99"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
-      <c r="B11" s="100" cm="1">
+      <c r="B11" s="51" cm="1">
         <f t="array" ref="B11:M11">'Table 2'!AB11:AM11/1000000*'Table 1'!AN32</f>
         <v>-1360.7443293014999</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="51">
         <v>48039.618250117295</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="51">
         <v>17800.466808791345</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="51">
         <v>0</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="51">
         <v>0</v>
       </c>
-      <c r="G11" s="100">
+      <c r="G11" s="51">
         <v>0</v>
       </c>
-      <c r="H11" s="100">
+      <c r="H11" s="51">
         <v>0</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="51">
         <v>0</v>
       </c>
-      <c r="J11" s="100">
+      <c r="J11" s="51">
         <v>0</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="51">
         <v>0</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="52">
         <v>156170.36270697301</v>
       </c>
-      <c r="M11" s="102">
+      <c r="M11" s="53">
         <v>19844.425311007933</v>
       </c>
-      <c r="N11" s="99"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2007</v>
       </c>
-      <c r="B12" s="100" cm="1">
+      <c r="B12" s="51" cm="1">
         <f t="array" ref="B12:M12">'Table 2'!AB12:AM12/1000000*'Table 1'!AN33</f>
         <v>-1689.7233162792554</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="51">
         <v>65551.137541368545</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="51">
         <v>-157147.16258217883</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="51">
         <v>0</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="51">
         <v>0</v>
       </c>
-      <c r="G12" s="100">
+      <c r="G12" s="51">
         <v>0</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="51">
         <v>0</v>
       </c>
-      <c r="I12" s="100">
+      <c r="I12" s="51">
         <v>0</v>
       </c>
-      <c r="J12" s="100">
+      <c r="J12" s="51">
         <v>0</v>
       </c>
-      <c r="K12" s="100">
+      <c r="K12" s="51">
         <v>0</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="52">
         <v>184927.51895242702</v>
       </c>
-      <c r="M12" s="102">
+      <c r="M12" s="53">
         <v>14515.157765459051</v>
       </c>
-      <c r="N12" s="99"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="100" cm="1">
+      <c r="B13" s="51" cm="1">
         <f t="array" ref="B13:M13">'Table 2'!AB13:AM13/1000000*'Table 1'!AN34</f>
         <v>-827.73068802738771</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="51">
         <v>45626.86736826993</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="51">
         <v>-30358.209439578568</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="51">
         <v>0</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="51">
         <v>0</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G13" s="51">
         <v>0</v>
       </c>
-      <c r="H13" s="100">
+      <c r="H13" s="51">
         <v>0</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="51">
         <v>0</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="51">
         <v>0</v>
       </c>
-      <c r="K13" s="100">
+      <c r="K13" s="51">
         <v>0</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="52">
         <v>122306.679414417</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="53">
         <v>-21932.615807666531</v>
       </c>
-      <c r="N13" s="99"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="54">
         <v>-1858</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="55">
         <v>32203</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="55">
         <v>85437</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="55">
         <v>-6843</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="55">
         <v>10248</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="55">
         <v>-62956</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="56">
         <v>15723</v>
       </c>
-      <c r="I14" s="105">
+      <c r="I14" s="56">
         <v>5285</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="56">
         <v>52195</v>
       </c>
-      <c r="K14" s="105">
+      <c r="K14" s="56">
         <v>8648</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="56">
         <v>129693</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="55">
         <v>-11194</v>
       </c>
-      <c r="N14" s="99"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2010</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="54">
         <v>1219</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="56">
         <v>45158</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="56">
         <v>112835</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="56">
         <v>13539</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="56">
         <v>80388</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="56">
         <v>-217132</v>
       </c>
-      <c r="H15" s="105">
+      <c r="H15" s="56">
         <v>50241</v>
       </c>
-      <c r="I15" s="105">
+      <c r="I15" s="56">
         <v>-36338</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="56">
         <v>122841</v>
       </c>
-      <c r="K15" s="105">
+      <c r="K15" s="56">
         <v>1613</v>
       </c>
-      <c r="L15" s="105">
+      <c r="L15" s="56">
         <v>92757</v>
       </c>
-      <c r="M15" s="105">
+      <c r="M15" s="56">
         <v>-55760</v>
       </c>
-      <c r="N15" s="99"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2011</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="54">
         <v>419</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="56">
         <v>7492</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="56">
         <v>-34315</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="56">
         <v>28591</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="56">
         <v>116254</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="56">
         <v>46433</v>
       </c>
-      <c r="H16" s="105">
+      <c r="H16" s="56">
         <v>-10544</v>
       </c>
-      <c r="I16" s="105">
+      <c r="I16" s="56">
         <v>2442</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="56">
         <v>77924</v>
       </c>
-      <c r="K16" s="105">
+      <c r="K16" s="56">
         <v>2836</v>
       </c>
-      <c r="L16" s="105">
+      <c r="L16" s="56">
         <v>120857</v>
       </c>
-      <c r="M16" s="105">
+      <c r="M16" s="56">
         <v>-46902</v>
       </c>
-      <c r="N16" s="99"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2012</v>
       </c>
-      <c r="B17" s="103">
+      <c r="B17" s="54">
         <v>-413</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="56">
         <v>26449</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="56">
         <v>51786</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="56">
         <v>24138</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="56">
         <v>47748</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="56">
         <v>-117589</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="56">
         <v>-16326</v>
       </c>
-      <c r="I17" s="105">
+      <c r="I17" s="56">
         <v>80501</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="56">
         <v>101161</v>
       </c>
-      <c r="K17" s="105">
+      <c r="K17" s="56">
         <v>1297</v>
       </c>
-      <c r="L17" s="105">
+      <c r="L17" s="56">
         <v>151417</v>
       </c>
-      <c r="M17" s="105">
+      <c r="M17" s="56">
         <v>-43882</v>
       </c>
-      <c r="N17" s="99"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
-      <c r="B18" s="103">
+      <c r="B18" s="54">
         <v>-563</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="56">
         <v>20144</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="56">
         <v>158100</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="56">
         <v>23894</v>
       </c>
-      <c r="F18" s="105">
+      <c r="F18" s="56">
         <v>23038</v>
       </c>
-      <c r="G18" s="105">
+      <c r="G18" s="56">
         <v>101589</v>
       </c>
-      <c r="H18" s="105">
+      <c r="H18" s="56">
         <v>34051</v>
       </c>
-      <c r="I18" s="105">
+      <c r="I18" s="56">
         <v>10022</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="56">
         <v>-122624</v>
       </c>
-      <c r="K18" s="105">
+      <c r="K18" s="56">
         <v>838</v>
       </c>
-      <c r="L18" s="105">
+      <c r="L18" s="56">
         <v>226014</v>
       </c>
-      <c r="M18" s="105">
+      <c r="M18" s="56">
         <v>42224</v>
       </c>
-      <c r="N18" s="99"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2014</v>
       </c>
-      <c r="B19" s="103">
+      <c r="B19" s="54">
         <v>3255</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="56">
         <v>65628</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="56">
         <v>126365</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="56">
         <v>38547</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="56">
         <v>2956</v>
       </c>
-      <c r="G19" s="105">
+      <c r="G19" s="56">
         <v>43725</v>
       </c>
-      <c r="H19" s="105">
+      <c r="H19" s="56">
         <v>-20149</v>
       </c>
-      <c r="I19" s="105">
+      <c r="I19" s="56">
         <v>22987</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="56">
         <v>-43606</v>
       </c>
-      <c r="K19" s="105">
+      <c r="K19" s="56">
         <v>-2564</v>
       </c>
-      <c r="L19" s="105">
+      <c r="L19" s="56">
         <v>230931</v>
       </c>
-      <c r="M19" s="105">
+      <c r="M19" s="56">
         <v>16200</v>
       </c>
-      <c r="N19" s="99"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2015</v>
       </c>
-      <c r="B20" s="103">
+      <c r="B20" s="54">
         <v>265</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="56">
         <v>61685</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="56">
         <v>192659</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="56">
         <v>30388</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="56">
         <v>44787</v>
       </c>
-      <c r="G20" s="105">
+      <c r="G20" s="56">
         <v>-48935</v>
       </c>
-      <c r="H20" s="105">
+      <c r="H20" s="56">
         <v>-34094</v>
       </c>
-      <c r="I20" s="105">
+      <c r="I20" s="56">
         <v>-751</v>
       </c>
-      <c r="J20" s="105">
+      <c r="J20" s="56">
         <v>38994</v>
       </c>
-      <c r="K20" s="105">
+      <c r="K20" s="56">
         <v>-2213</v>
       </c>
-      <c r="L20" s="105">
+      <c r="L20" s="56">
         <v>237733</v>
       </c>
-      <c r="M20" s="105">
+      <c r="M20" s="56">
         <v>-22313</v>
       </c>
-      <c r="N20" s="99"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2016</v>
       </c>
-      <c r="B21" s="103">
+      <c r="B21" s="54">
         <v>2451</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="56">
         <v>43462</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="56">
         <v>196931</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="56">
         <v>28605</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="56">
         <v>11777</v>
       </c>
-      <c r="G21" s="105">
+      <c r="G21" s="56">
         <v>-68228</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H21" s="56">
         <v>-7300</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="56">
         <v>4109</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="56">
         <v>59642</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="56">
         <v>1686</v>
       </c>
-      <c r="L21" s="105">
+      <c r="L21" s="56">
         <v>258906</v>
       </c>
-      <c r="M21" s="105">
+      <c r="M21" s="56">
         <v>-13744</v>
       </c>
-      <c r="N21" s="99"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2017</v>
       </c>
-      <c r="B22" s="103">
+      <c r="B22" s="54">
         <v>-2653</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="56">
         <v>33362</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="56">
         <v>195393</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="56">
         <v>11122</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="56">
         <v>29699</v>
       </c>
-      <c r="G22" s="105">
+      <c r="G22" s="56">
         <v>-38656</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="56">
         <v>-15993</v>
       </c>
-      <c r="I22" s="105">
+      <c r="I22" s="56">
         <v>4721</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="56">
         <v>79626</v>
       </c>
-      <c r="K22" s="105">
+      <c r="K22" s="56">
         <v>-1269</v>
       </c>
-      <c r="L22" s="105">
+      <c r="L22" s="56">
         <v>268306</v>
       </c>
-      <c r="M22" s="105">
+      <c r="M22" s="56">
         <v>14996</v>
       </c>
-      <c r="N22" s="99"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B23" s="103">
+      <c r="B23" s="54">
         <v>914</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="56">
         <v>21249</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="56">
         <v>150181</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="56">
         <v>22668</v>
       </c>
-      <c r="F23" s="105">
+      <c r="F23" s="56">
         <v>48399</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="56">
         <v>85552</v>
       </c>
-      <c r="H23" s="105">
+      <c r="H23" s="56">
         <v>19852</v>
       </c>
-      <c r="I23" s="105">
+      <c r="I23" s="56">
         <v>-12176</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="56">
         <v>-44828</v>
       </c>
-      <c r="K23" s="105">
+      <c r="K23" s="56">
         <v>392</v>
       </c>
-      <c r="L23" s="105">
+      <c r="L23" s="56">
         <v>242889</v>
       </c>
-      <c r="M23" s="105">
+      <c r="M23" s="56">
         <v>-25634</v>
       </c>
-      <c r="N23" s="99"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2019</v>
       </c>
-      <c r="B24" s="103">
+      <c r="B24" s="54">
         <v>-3705</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="56">
         <v>87894</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="56">
         <v>74008</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="56">
         <v>20553</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="56">
         <v>18401</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="56">
         <v>19920</v>
       </c>
-      <c r="H24" s="105">
+      <c r="H24" s="56">
         <v>-28796</v>
       </c>
-      <c r="I24" s="105">
+      <c r="I24" s="56">
         <v>-1429</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="56">
         <v>28706</v>
       </c>
-      <c r="K24" s="105">
+      <c r="K24" s="56">
         <v>-544</v>
       </c>
-      <c r="L24" s="105">
+      <c r="L24" s="56">
         <v>200312</v>
       </c>
-      <c r="M24" s="105">
+      <c r="M24" s="56">
         <v>-79832</v>
       </c>
-      <c r="N24" s="99"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B25" s="103">
+      <c r="B25" s="54">
         <v>-10345</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="56">
         <v>-27363</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="56">
         <v>17245</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="56">
         <v>93177</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="56">
         <v>85760</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="56">
         <v>-112738</v>
       </c>
-      <c r="H25" s="105">
+      <c r="H25" s="56">
         <v>56271</v>
       </c>
-      <c r="I25" s="105">
+      <c r="I25" s="56">
         <v>10057</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="56">
         <v>132170</v>
       </c>
-      <c r="K25" s="105">
+      <c r="K25" s="56">
         <v>-51</v>
       </c>
-      <c r="L25" s="105">
+      <c r="L25" s="56">
         <v>168767</v>
       </c>
-      <c r="M25" s="105">
+      <c r="M25" s="56">
         <v>-43395</v>
       </c>
-      <c r="N25" s="99"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2021</v>
       </c>
-      <c r="B26" s="103">
+      <c r="B26" s="54">
         <v>-2593</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="56">
         <v>81494</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="56">
         <v>197193</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="56">
         <v>47880</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="56">
         <v>149480</v>
       </c>
-      <c r="G26" s="105">
+      <c r="G26" s="56">
         <v>-48383</v>
       </c>
-      <c r="H26" s="105">
+      <c r="H26" s="56">
         <v>6085</v>
       </c>
-      <c r="I26" s="105">
+      <c r="I26" s="56">
         <v>-3780</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="56">
         <v>-103402</v>
       </c>
-      <c r="K26" s="105">
+      <c r="K26" s="56">
         <v>31892</v>
       </c>
-      <c r="L26" s="105">
+      <c r="L26" s="56">
         <v>208978</v>
       </c>
-      <c r="M26" s="105">
+      <c r="M26" s="56">
         <v>-51883</v>
       </c>
-      <c r="N26" s="99"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2022</v>
       </c>
-      <c r="B27" s="103">
+      <c r="B27" s="54">
         <v>-21644</v>
       </c>
-      <c r="C27" s="105">
+      <c r="C27" s="56">
         <v>112166</v>
       </c>
-      <c r="D27" s="105">
+      <c r="D27" s="56">
         <v>10732</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="56">
         <v>41519</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="56">
         <v>29346</v>
       </c>
-      <c r="G27" s="105">
+      <c r="G27" s="56">
         <v>-93531</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27" s="56">
         <v>37389</v>
       </c>
-      <c r="I27" s="105">
+      <c r="I27" s="56">
         <v>-19396</v>
       </c>
-      <c r="J27" s="105">
+      <c r="J27" s="56">
         <v>104884</v>
       </c>
-      <c r="K27" s="105">
+      <c r="K27" s="56">
         <v>4426</v>
       </c>
-      <c r="L27" s="105">
+      <c r="L27" s="56">
         <v>198190</v>
       </c>
-      <c r="M27" s="105">
+      <c r="M27" s="56">
         <v>55204</v>
       </c>
-      <c r="N27" s="99"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2023</v>
       </c>
-      <c r="B28" s="106">
+      <c r="B28" s="57">
         <v>-27252</v>
       </c>
-      <c r="C28" s="107">
+      <c r="C28" s="58">
         <v>59704</v>
       </c>
-      <c r="D28" s="107">
+      <c r="D28" s="58">
         <v>1152</v>
       </c>
-      <c r="E28" s="107">
+      <c r="E28" s="58">
         <v>39966</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="58">
         <v>130880</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="58">
         <v>97432</v>
       </c>
-      <c r="H28" s="107">
+      <c r="H28" s="58">
         <v>60193</v>
       </c>
-      <c r="I28" s="107">
+      <c r="I28" s="58">
         <v>7346</v>
       </c>
-      <c r="J28" s="107">
+      <c r="J28" s="58">
         <v>-34090</v>
       </c>
-      <c r="K28" s="107">
+      <c r="K28" s="58">
         <v>884</v>
       </c>
-      <c r="L28" s="107">
+      <c r="L28" s="58">
         <v>232587</v>
       </c>
-      <c r="M28" s="107">
+      <c r="M28" s="58">
         <v>16727</v>
       </c>
-      <c r="N28" s="99"/>
+      <c r="N28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B9EA5B-74B7-4DE8-9D0B-DB4341AE7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EDB33-C033-48FC-8F2A-D53BE596AD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Current Account" sheetId="3" r:id="rId3"/>
-    <sheet name="Financiel acc and Capital acc" sheetId="4" r:id="rId4"/>
+    <sheet name="Financial acc and Capital acc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -521,42 +521,7 @@
     <t>USDEUR</t>
   </si>
   <si>
-    <t>Financial account (increase in net foreign assets: + / decrease in net foreign assets: -)</t>
-  </si>
-  <si>
-    <t>Net direct Investment</t>
-  </si>
-  <si>
-    <t>financial deri- vatives and employee stock options</t>
-  </si>
-  <si>
-    <t>Net other investment</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Monetary financial institutions 2</t>
-  </si>
-  <si>
-    <t>Enter- prises and
-households 2</t>
-  </si>
-  <si>
-    <t>General government</t>
-  </si>
-  <si>
-    <t>Bundesbank</t>
-  </si>
-  <si>
-    <t>Reserve assets</t>
-  </si>
-  <si>
     <t>Net financial account</t>
-  </si>
-  <si>
-    <t>Net
-errors and omissions 3</t>
   </si>
   <si>
     <t>Goods Receipts</t>
@@ -590,6 +555,44 @@
   </si>
   <si>
     <t>Secondary income Balance</t>
+  </si>
+  <si>
+    <t>(Financial account) (increase in net foreign assets: + / decrease in net foreign assets: -)</t>
+  </si>
+  <si>
+    <t>Net direct Investment (Financial account)</t>
+  </si>
+  <si>
+    <t>Net portfolio investment (Financial account)</t>
+  </si>
+  <si>
+    <t>Net other investment Total (Financial account)</t>
+  </si>
+  <si>
+    <t>Net other investment Enter- prises and (Financial account)
+households 2</t>
+  </si>
+  <si>
+    <t>Net other investment General government (Financial account)</t>
+  </si>
+  <si>
+    <t>Net other investment Bundesbank (Financial account)</t>
+  </si>
+  <si>
+    <t>Reserve assets (Financial account)</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net
+errors and omissions </t>
+  </si>
+  <si>
+    <t>Net other investment Monetary financial institutions  (Financial account)</t>
+  </si>
+  <si>
+    <t>Financial derivatives and employee stock options (Financial account)</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -961,19 +964,6 @@
       <right style="thin">
         <color rgb="FF727272"/>
       </right>
-      <top style="thin">
-        <color rgb="FF727272"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF727272"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -998,24 +988,24 @@
       <right style="thin">
         <color rgb="FF727272"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF727272"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color rgb="FF727272"/>
       </top>
       <bottom style="thin">
         <color rgb="FF727272"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF727272"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,7 +1015,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1083,9 +1073,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,12 +1128,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1168,7 +1149,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,7 +1158,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,6 +1199,27 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1338,36 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1677,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV61"/>
   <sheetViews>
-    <sheetView topLeftCell="Z3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1712,92 +1684,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="84"/>
-      <c r="W1" s="74" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="88"/>
+      <c r="W1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="74" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="74" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="76" t="s">
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="W2" s="74" t="s">
+      <c r="R2" s="89"/>
+      <c r="V2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="74" t="s">
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="74" t="s">
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="74" t="s">
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="76" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="80" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1808,42 +1783,42 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="88"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="88"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="86"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="90"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1880,11 +1855,11 @@
       <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="77"/>
+      <c r="AI3" s="81"/>
       <c r="AK3" t="s">
         <v>32</v>
       </c>
-      <c r="AV3" s="23" t="s">
+      <c r="AV3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1895,44 +1870,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="86">
         <v>3</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="86">
         <v>6</v>
       </c>
-      <c r="H4" s="83"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="82">
-        <v>9</v>
-      </c>
-      <c r="L4" s="83"/>
+      <c r="K4" s="86">
+        <v>9</v>
+      </c>
+      <c r="L4" s="87"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="82">
+      <c r="O4" s="86">
         <v>12</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="82">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="86">
         <v>13</v>
       </c>
-      <c r="R4" s="83"/>
+      <c r="R4" s="87"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
@@ -1972,12 +1947,12 @@
       <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AK4" s="71" t="s">
+      <c r="AK4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="77"/>
     </row>
     <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1986,10 +1961,10 @@
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="84">
         <v>140626</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -2026,86 +2001,86 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="84">
         <v>142744</v>
       </c>
-      <c r="R5" s="81"/>
+      <c r="R5" s="85"/>
       <c r="S5">
         <v>2009</v>
       </c>
       <c r="V5">
         <v>2000</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="23">
         <v>517849235935.83197</v>
       </c>
-      <c r="X5" s="24">
+      <c r="X5" s="23">
         <v>458490174761.44</v>
       </c>
-      <c r="Y5" s="40">
+      <c r="Y5" s="39">
         <f>W5-X5</f>
         <v>59359061174.391968</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="23">
         <v>81342926057.419006</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="23">
         <v>136841165555.034</v>
       </c>
-      <c r="AB5" s="40">
+      <c r="AB5" s="39">
         <f>Z5-AA5</f>
         <v>-55498239497.61499</v>
       </c>
-      <c r="AC5" s="36">
+      <c r="AC5" s="35">
         <v>111592000000</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="23">
         <v>121601974113.286</v>
       </c>
-      <c r="AE5" s="41">
+      <c r="AE5" s="40">
         <v>-10009150685.822599</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="23">
         <v>29024580581.181</v>
       </c>
       <c r="AG5">
         <f t="shared" ref="AG5:AG13" si="0">AF5+AH15</f>
         <v>56779247685.164299</v>
       </c>
-      <c r="AH5" s="39">
+      <c r="AH5" s="38">
         <v>-27754667103.983299</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AI5" s="34">
         <v>-33903966248.290001</v>
       </c>
       <c r="AK5" t="s">
         <v>30</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="23">
         <v>-27754667103.983299</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5" s="23">
         <v>-26150960553.785702</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5" s="23">
         <v>-27565036175.347198</v>
       </c>
-      <c r="AO5" s="24">
+      <c r="AO5" s="23">
         <v>-34991833212.856003</v>
       </c>
-      <c r="AP5" s="24">
+      <c r="AP5" s="23">
         <v>-37225896193.073601</v>
       </c>
-      <c r="AQ5" s="24">
+      <c r="AQ5" s="23">
         <v>-39293130315.450798</v>
       </c>
-      <c r="AR5" s="24">
+      <c r="AR5" s="23">
         <v>-40119606190.966797</v>
       </c>
-      <c r="AS5" s="24">
+      <c r="AS5" s="23">
         <v>-45753753443.565102</v>
       </c>
-      <c r="AT5" s="24">
+      <c r="AT5" s="23">
         <v>-49452783073.685303</v>
       </c>
       <c r="AV5" t="s">
@@ -2119,10 +2094,10 @@
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="82">
         <v>160829</v>
       </c>
-      <c r="D6" s="79"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -2159,86 +2134,86 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="82">
         <v>147298</v>
       </c>
-      <c r="R6" s="79"/>
+      <c r="R6" s="83"/>
       <c r="S6">
         <v>2010</v>
       </c>
       <c r="V6">
         <v>2001</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="23">
         <v>536597295079.27002</v>
       </c>
-      <c r="X6" s="24">
+      <c r="X6" s="23">
         <v>445973015157.05603</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="39">
         <f t="shared" ref="Y6:Y13" si="1">W6-X6</f>
         <v>90624279922.213989</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="23">
         <v>82875272450.070206</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="23">
         <v>141810809794.42499</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AB6" s="39">
         <f t="shared" ref="AB6:AB13" si="2">Z6-AA6</f>
         <v>-58935537344.354782</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="23">
         <v>95962727376</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="23">
         <v>108600918650.31</v>
       </c>
-      <c r="AE6" s="32">
+      <c r="AE6" s="31">
         <v>-12637295394.5007</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="23">
         <v>36583607181.196701</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
         <v>62734567734.982407</v>
       </c>
-      <c r="AH6" s="24">
+      <c r="AH6" s="23">
         <v>-26150960553.785702</v>
       </c>
-      <c r="AI6" s="35">
+      <c r="AI6" s="34">
         <v>-7099486034.1670504</v>
       </c>
       <c r="AK6" t="s">
         <v>31</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="23">
         <v>29024580581.181</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AM6" s="23">
         <v>36583607181.196701</v>
       </c>
-      <c r="AN6" s="24">
+      <c r="AN6" s="23">
         <v>39312672599.650703</v>
       </c>
-      <c r="AO6" s="24">
+      <c r="AO6" s="23">
         <v>56682895143.9338</v>
       </c>
-      <c r="AP6" s="24">
+      <c r="AP6" s="23">
         <v>48232770206.7099</v>
       </c>
-      <c r="AQ6" s="24">
+      <c r="AQ6" s="23">
         <v>52763835148.554901</v>
       </c>
-      <c r="AR6" s="24">
+      <c r="AR6" s="23">
         <v>49766012958.167099</v>
       </c>
-      <c r="AS6" s="24">
+      <c r="AS6" s="23">
         <v>57873052235.311996</v>
       </c>
-      <c r="AT6" s="24">
+      <c r="AT6" s="23">
         <v>66309172358.963097</v>
       </c>
       <c r="AV6" t="s">
@@ -2252,10 +2227,10 @@
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="82">
         <v>162970</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -2292,56 +2267,56 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="82">
         <v>167340</v>
       </c>
-      <c r="R7" s="79"/>
+      <c r="R7" s="83"/>
       <c r="S7">
         <v>2011</v>
       </c>
       <c r="V7">
         <v>2002</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="23">
         <v>578744070285.672</v>
       </c>
-      <c r="X7" s="24">
+      <c r="X7" s="23">
         <v>444511217220.90302</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="39">
         <f t="shared" si="1"/>
         <v>134232853064.76898</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="23">
         <v>99176552764.777496</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="23">
         <v>145002366415.29999</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="39">
         <f t="shared" si="2"/>
         <v>-45825813650.522491</v>
       </c>
-      <c r="AC7" s="36">
+      <c r="AC7" s="35">
         <v>102731000000</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="23">
         <v>123854346911.62</v>
       </c>
-      <c r="AE7" s="32">
+      <c r="AE7" s="31">
         <v>-21123280725.437599</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="23">
         <v>39312672599.650703</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
         <v>66877708774.997902</v>
       </c>
-      <c r="AH7" s="24">
+      <c r="AH7" s="23">
         <v>-27565036175.347198</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AI7" s="34">
         <v>39720517927.696602</v>
       </c>
     </row>
@@ -2352,10 +2327,10 @@
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="82">
         <v>199531</v>
       </c>
-      <c r="D8" s="79"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -2392,59 +2367,59 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="82">
         <v>195712</v>
       </c>
-      <c r="R8" s="79"/>
+      <c r="R8" s="83"/>
       <c r="S8">
         <v>2012</v>
       </c>
       <c r="V8">
         <v>2003</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="23">
         <v>701377108385.77502</v>
       </c>
-      <c r="X8" s="24">
+      <c r="X8" s="23">
         <v>554374326023.97595</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="39">
         <f t="shared" si="1"/>
         <v>147002782361.79907</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="Z8" s="23">
         <v>120193431021.70399</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AA8" s="23">
         <v>172495369631.09601</v>
       </c>
-      <c r="AB8" s="40">
+      <c r="AB8" s="39">
         <f t="shared" si="2"/>
         <v>-52301938609.392014</v>
       </c>
-      <c r="AC8" s="36">
+      <c r="AC8" s="35">
         <v>126507000000</v>
       </c>
-      <c r="AD8" s="24">
+      <c r="AD8" s="23">
         <v>150232550446.35501</v>
       </c>
-      <c r="AE8" s="32">
+      <c r="AE8" s="31">
         <v>-23725947693.539001</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8" s="23">
         <v>56682895143.9338</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>91674728356.789795</v>
       </c>
-      <c r="AH8" s="24">
+      <c r="AH8" s="23">
         <v>-34991833212.856003</v>
       </c>
-      <c r="AI8" s="35">
+      <c r="AI8" s="34">
         <v>35985324846.9412</v>
       </c>
-      <c r="AK8" s="31" t="s">
+      <c r="AK8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2455,10 +2430,10 @@
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="82">
         <v>203802</v>
       </c>
-      <c r="D9" s="79"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -2495,86 +2470,86 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="Q9" s="82">
         <v>184352</v>
       </c>
-      <c r="R9" s="79"/>
+      <c r="R9" s="83"/>
       <c r="S9">
         <v>2013</v>
       </c>
       <c r="V9">
         <v>2004</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="23">
         <v>853216578347.979</v>
       </c>
-      <c r="X9" s="24">
+      <c r="X9" s="23">
         <v>663586775061.50806</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="39">
         <f t="shared" si="1"/>
         <v>189629803286.47095</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="23">
         <v>151919691893.97501</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="23">
         <v>195376161460.57001</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AB9" s="39">
         <f t="shared" si="2"/>
         <v>-43456469566.595001</v>
       </c>
-      <c r="AC9" s="36">
+      <c r="AC9" s="35">
         <v>177066000000</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="23">
         <v>158507231268.68701</v>
       </c>
-      <c r="AE9" s="32">
+      <c r="AE9" s="31">
         <v>18557264888.780899</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="23">
         <v>48232770206.7099</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
         <v>85458666399.783508</v>
       </c>
-      <c r="AH9" s="24">
+      <c r="AH9" s="23">
         <v>-37225896193.073601</v>
       </c>
-      <c r="AI9" s="35">
+      <c r="AI9" s="34">
         <v>127505924403.463</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="23">
         <v>-33903966248.290001</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="23">
         <v>-7099486034.1670504</v>
       </c>
-      <c r="AM9" s="24">
+      <c r="AM9" s="23">
         <v>39720517927.696602</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AN9" s="23">
         <v>35985324846.9412</v>
       </c>
-      <c r="AO9" s="24">
+      <c r="AO9" s="23">
         <v>127505924403.463</v>
       </c>
-      <c r="AP9" s="24">
+      <c r="AP9" s="23">
         <v>133087243134.907</v>
       </c>
-      <c r="AQ9" s="24">
+      <c r="AQ9" s="23">
         <v>173486477217.38501</v>
       </c>
-      <c r="AR9" s="24">
+      <c r="AR9" s="23">
         <v>235777197044.80099</v>
       </c>
-      <c r="AS9" s="24">
+      <c r="AS9" s="23">
         <v>213250033110.591</v>
       </c>
-      <c r="AT9" s="24">
+      <c r="AT9" s="23">
         <v>201134895341.823</v>
       </c>
       <c r="AV9" t="s">
@@ -2588,10 +2563,10 @@
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="82">
         <v>219629</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -2628,56 +2603,56 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="78">
+      <c r="Q10" s="82">
         <v>211477</v>
       </c>
-      <c r="R10" s="79"/>
+      <c r="R10" s="83"/>
       <c r="S10">
         <v>2014</v>
       </c>
       <c r="V10">
         <v>2005</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="23">
         <v>919536367261.396</v>
       </c>
-      <c r="X10" s="24">
+      <c r="X10" s="23">
         <v>724096710413.83496</v>
       </c>
-      <c r="Y10" s="40">
+      <c r="Y10" s="39">
         <f t="shared" si="1"/>
         <v>195439656847.56104</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="Z10" s="23">
         <v>162683447471.58899</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="23">
         <v>209354183114.064</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AB10" s="39">
         <f t="shared" si="2"/>
         <v>-46670735642.475006</v>
       </c>
-      <c r="AC10" s="36">
+      <c r="AC10" s="35">
         <v>207475000000</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="23">
         <v>183863880742.689</v>
       </c>
-      <c r="AE10" s="32">
+      <c r="AE10" s="31">
         <v>23611400319.265999</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="23">
         <v>52763835148.554901</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>92056965464.005707</v>
       </c>
-      <c r="AH10" s="24">
+      <c r="AH10" s="23">
         <v>-39293130315.450798</v>
       </c>
-      <c r="AI10" s="35">
+      <c r="AI10" s="34">
         <v>133087243134.907</v>
       </c>
     </row>
@@ -2688,10 +2663,10 @@
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="82">
         <v>248394</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -2728,59 +2703,59 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="82">
         <v>259781</v>
       </c>
-      <c r="R11" s="79"/>
+      <c r="R11" s="83"/>
       <c r="S11">
         <v>2015</v>
       </c>
       <c r="V11">
         <v>2006</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="23">
         <v>1057726166441.95</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="23">
         <v>855367372577.823</v>
       </c>
-      <c r="Y11" s="40">
+      <c r="Y11" s="39">
         <f t="shared" si="1"/>
         <v>202358793864.12695</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="23">
         <v>184644939841.92599</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="23">
         <v>224518715358.83801</v>
       </c>
-      <c r="AB11" s="40">
+      <c r="AB11" s="39">
         <f t="shared" si="2"/>
         <v>-39873775516.912018</v>
       </c>
-      <c r="AC11" s="36">
+      <c r="AC11" s="35">
         <v>262287000000</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="23">
         <v>211166865102.056</v>
       </c>
-      <c r="AE11" s="32">
+      <c r="AE11" s="31">
         <v>51120962615.648804</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="23">
         <v>49766012958.167099</v>
       </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>89885619149.133896</v>
       </c>
-      <c r="AH11" s="24">
+      <c r="AH11" s="23">
         <v>-40119606190.966797</v>
       </c>
-      <c r="AI11" s="35">
+      <c r="AI11" s="34">
         <v>173486477217.38501</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2791,10 +2766,10 @@
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="82">
         <v>252409</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -2831,89 +2806,89 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="82">
         <v>270200</v>
       </c>
-      <c r="R12" s="79"/>
+      <c r="R12" s="83"/>
       <c r="S12">
         <v>2016</v>
       </c>
       <c r="V12">
         <v>2007</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="23">
         <v>1270699461748.2</v>
       </c>
-      <c r="X12" s="24">
+      <c r="X12" s="23">
         <v>994244363206.422</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="39">
         <f t="shared" si="1"/>
         <v>276455098541.77795</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="23">
         <v>214440290365.17099</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="23">
         <v>258763042560.08099</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AB12" s="39">
         <f t="shared" si="2"/>
         <v>-44322752194.910004</v>
       </c>
-      <c r="AC12" s="36">
+      <c r="AC12" s="35">
         <v>336026000000</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="23">
         <v>286626220721.87701</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="31">
         <v>49401389352.730003</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="23">
         <v>57873052235.311996</v>
       </c>
       <c r="AG12">
         <f t="shared" si="0"/>
         <v>103626805678.87711</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AH12" s="23">
         <v>-45753753443.565102</v>
       </c>
-      <c r="AI12" s="35">
+      <c r="AI12" s="34">
         <v>235777197044.80099</v>
       </c>
-      <c r="AK12" s="23" t="s">
+      <c r="AK12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AL12" s="30">
+      <c r="AL12" s="29">
         <v>111592000000</v>
       </c>
       <c r="AM12">
         <v>95962727376</v>
       </c>
-      <c r="AN12" s="30">
+      <c r="AN12" s="29">
         <v>102731000000</v>
       </c>
-      <c r="AO12" s="30">
+      <c r="AO12" s="29">
         <v>126507000000</v>
       </c>
-      <c r="AP12" s="30">
+      <c r="AP12" s="29">
         <v>177066000000</v>
       </c>
-      <c r="AQ12" s="30">
+      <c r="AQ12" s="29">
         <v>207475000000</v>
       </c>
-      <c r="AR12" s="30">
+      <c r="AR12" s="29">
         <v>262287000000</v>
       </c>
-      <c r="AS12" s="30">
+      <c r="AS12" s="29">
         <v>336026000000</v>
       </c>
-      <c r="AT12" s="30">
+      <c r="AT12" s="29">
         <v>290388000000</v>
       </c>
-      <c r="AU12" s="30">
+      <c r="AU12" s="29">
         <v>256091000000</v>
       </c>
       <c r="AV12" t="s">
@@ -2927,10 +2902,10 @@
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="82">
         <v>255077</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -2967,89 +2942,89 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="82">
         <v>255964</v>
       </c>
-      <c r="R13" s="79"/>
+      <c r="R13" s="83"/>
       <c r="S13">
         <v>2017</v>
       </c>
       <c r="V13">
         <v>2008</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W13" s="23">
         <v>1398512315698.76</v>
       </c>
-      <c r="X13" s="24">
+      <c r="X13" s="23">
         <v>1125196108496.8799</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="38">
         <f t="shared" si="1"/>
         <v>273316207201.88013</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="Z13" s="23">
         <v>244341721902.19101</v>
       </c>
-      <c r="AA13" s="24">
+      <c r="AA13" s="23">
         <v>288152905753.21301</v>
       </c>
-      <c r="AB13" s="39">
+      <c r="AB13" s="38">
         <f t="shared" si="2"/>
         <v>-43811183851.022003</v>
       </c>
-      <c r="AC13" s="36">
+      <c r="AC13" s="35">
         <v>290388000000</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="23">
         <v>257190133797.85699</v>
       </c>
-      <c r="AE13" s="32">
+      <c r="AE13" s="31">
         <v>33196539491.124599</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13" s="23">
         <v>66309172358.963097</v>
       </c>
       <c r="AG13">
         <f t="shared" si="0"/>
         <v>115761955432.64841</v>
       </c>
-      <c r="AH13" s="24">
+      <c r="AH13" s="23">
         <v>-49452783073.685303</v>
       </c>
-      <c r="AI13" s="35">
+      <c r="AI13" s="34">
         <v>213250033110.591</v>
       </c>
-      <c r="AK13" s="29" t="s">
+      <c r="AK13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AL13" s="24">
+      <c r="AL13" s="23">
         <v>121601974113.286</v>
       </c>
-      <c r="AM13" s="24">
+      <c r="AM13" s="23">
         <v>108600918650.31</v>
       </c>
-      <c r="AN13" s="24">
+      <c r="AN13" s="23">
         <v>123854346911.62</v>
       </c>
-      <c r="AO13" s="24">
+      <c r="AO13" s="23">
         <v>150232550446.35501</v>
       </c>
-      <c r="AP13" s="24">
+      <c r="AP13" s="23">
         <v>158507231268.68701</v>
       </c>
-      <c r="AQ13" s="24">
+      <c r="AQ13" s="23">
         <v>183863880742.689</v>
       </c>
-      <c r="AR13" s="24">
+      <c r="AR13" s="23">
         <v>211166865102.056</v>
       </c>
-      <c r="AS13" s="24">
+      <c r="AS13" s="23">
         <v>286626220721.87701</v>
       </c>
-      <c r="AT13" s="24">
+      <c r="AT13" s="23">
         <v>257190133797.85699</v>
       </c>
-      <c r="AU13" s="24">
+      <c r="AU13" s="23">
         <v>179098064332.97501</v>
       </c>
       <c r="AV13" t="s">
@@ -3063,10 +3038,10 @@
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="82">
         <v>221983</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -3085,10 +3060,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="78">
+      <c r="K14" s="82">
         <v>112389</v>
       </c>
-      <c r="L14" s="79"/>
+      <c r="L14" s="83"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -3101,24 +3076,24 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="82">
         <v>267609</v>
       </c>
-      <c r="R14" s="79"/>
+      <c r="R14" s="83"/>
       <c r="S14">
         <v>2018</v>
       </c>
-      <c r="W14" s="24"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="32"/>
-      <c r="AI14" s="24"/>
-      <c r="AK14" s="23" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="31"/>
+      <c r="AI14" s="23"/>
+      <c r="AK14" s="22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3129,10 +3104,10 @@
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="82">
         <v>219548</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -3151,10 +3126,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="82">
         <v>128602</v>
       </c>
-      <c r="L15" s="79"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -3167,44 +3142,44 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="82">
         <v>283849</v>
       </c>
-      <c r="R15" s="79"/>
+      <c r="R15" s="83"/>
       <c r="S15">
         <v>2019</v>
       </c>
-      <c r="AH15" s="39">
+      <c r="AH15" s="38">
         <v>27754667103.983299</v>
       </c>
-      <c r="AL15" s="32">
+      <c r="AL15" s="31">
         <v>-10009150685.822599</v>
       </c>
-      <c r="AM15" s="32">
+      <c r="AM15" s="31">
         <v>-12637295394.5007</v>
       </c>
-      <c r="AN15" s="32">
+      <c r="AN15" s="31">
         <v>-21123280725.437599</v>
       </c>
-      <c r="AO15" s="32">
+      <c r="AO15" s="31">
         <v>-23725947693.539001</v>
       </c>
-      <c r="AP15" s="32">
+      <c r="AP15" s="31">
         <v>18557264888.780899</v>
       </c>
-      <c r="AQ15" s="32">
+      <c r="AQ15" s="31">
         <v>23611400319.265999</v>
       </c>
-      <c r="AR15" s="32">
+      <c r="AR15" s="31">
         <v>51120962615.648804</v>
       </c>
-      <c r="AS15" s="32">
+      <c r="AS15" s="31">
         <v>49401389352.730003</v>
       </c>
-      <c r="AT15" s="32">
+      <c r="AT15" s="31">
         <v>33196539491.124599</v>
       </c>
-      <c r="AU15" s="32">
+      <c r="AU15" s="31">
         <v>76991798049.827606</v>
       </c>
       <c r="AV15" t="s">
@@ -3218,10 +3193,10 @@
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="82">
         <v>182725</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -3258,14 +3233,14 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="78">
+      <c r="Q16" s="82">
         <v>222507</v>
       </c>
-      <c r="R16" s="79"/>
+      <c r="R16" s="83"/>
       <c r="S16">
         <v>2020</v>
       </c>
-      <c r="AH16" s="24">
+      <c r="AH16" s="23">
         <v>26150960553.785702</v>
       </c>
     </row>
@@ -3276,10 +3251,10 @@
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="82">
         <v>196491</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -3298,10 +3273,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="78">
+      <c r="K17" s="82">
         <v>123181</v>
       </c>
-      <c r="L17" s="79"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -3314,18 +3289,18 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="78">
+      <c r="Q17" s="82">
         <v>263454</v>
       </c>
-      <c r="R17" s="79"/>
-      <c r="S17" s="23">
+      <c r="R17" s="83"/>
+      <c r="S17" s="22">
         <v>2021</v>
       </c>
-      <c r="AH17" s="24">
+      <c r="AH17" s="23">
         <v>27565036175.347198</v>
       </c>
-      <c r="AI17" s="23"/>
-      <c r="AK17" s="31" t="s">
+      <c r="AI17" s="22"/>
+      <c r="AK17" s="30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3336,10 +3311,10 @@
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="82">
         <v>125916</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -3358,10 +3333,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="78">
+      <c r="K18" s="82">
         <v>142094</v>
       </c>
-      <c r="L18" s="79"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -3374,44 +3349,44 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="78">
+      <c r="Q18" s="82">
         <v>164630</v>
       </c>
-      <c r="R18" s="79"/>
+      <c r="R18" s="83"/>
       <c r="S18">
         <v>2022</v>
       </c>
-      <c r="AH18" s="24">
+      <c r="AH18" s="23">
         <v>34991833212.856003</v>
       </c>
-      <c r="AK18" s="23" t="s">
+      <c r="AK18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AL18" s="24">
+      <c r="AL18" s="23">
         <v>517849235935.83197</v>
       </c>
-      <c r="AM18" s="24">
+      <c r="AM18" s="23">
         <v>536597295079.27002</v>
       </c>
-      <c r="AN18" s="24">
+      <c r="AN18" s="23">
         <v>578744070285.672</v>
       </c>
-      <c r="AO18" s="24">
+      <c r="AO18" s="23">
         <v>701377108385.77502</v>
       </c>
-      <c r="AP18" s="24">
+      <c r="AP18" s="23">
         <v>853216578347.979</v>
       </c>
-      <c r="AQ18" s="24">
+      <c r="AQ18" s="23">
         <v>919536367261.396</v>
       </c>
-      <c r="AR18" s="24">
+      <c r="AR18" s="23">
         <v>1057726166441.95</v>
       </c>
-      <c r="AS18" s="24">
+      <c r="AS18" s="23">
         <v>1270699461748.2</v>
       </c>
-      <c r="AT18" s="24">
+      <c r="AT18" s="23">
         <v>1398512315698.76</v>
       </c>
       <c r="AV18" t="s">
@@ -3425,10 +3400,10 @@
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="82">
         <v>226821</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -3447,10 +3422,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="78">
+      <c r="K19" s="82">
         <v>143901</v>
       </c>
-      <c r="L19" s="79"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -3463,48 +3438,48 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="78">
+      <c r="Q19" s="82">
         <v>243112</v>
       </c>
-      <c r="R19" s="79"/>
+      <c r="R19" s="83"/>
       <c r="S19">
         <v>2023</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="38"/>
-      <c r="AH19" s="24">
+      <c r="AB19" s="37"/>
+      <c r="AH19" s="23">
         <v>37225896193.073601</v>
       </c>
-      <c r="AK19" s="23" t="s">
+      <c r="AK19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AL19" s="24">
+      <c r="AL19" s="23">
         <v>458490174761.44</v>
       </c>
-      <c r="AM19" s="24">
+      <c r="AM19" s="23">
         <v>445973015157.05603</v>
       </c>
-      <c r="AN19" s="24">
+      <c r="AN19" s="23">
         <v>444511217220.90302</v>
       </c>
-      <c r="AO19" s="24">
+      <c r="AO19" s="23">
         <v>554374326023.97595</v>
       </c>
-      <c r="AP19" s="24">
+      <c r="AP19" s="23">
         <v>663586775061.50806</v>
       </c>
-      <c r="AQ19" s="24">
+      <c r="AQ19" s="23">
         <v>724096710413.83496</v>
       </c>
-      <c r="AR19" s="24">
+      <c r="AR19" s="23">
         <v>855367372577.823</v>
       </c>
-      <c r="AS19" s="24">
+      <c r="AS19" s="23">
         <v>994244363206.422</v>
       </c>
-      <c r="AT19" s="24">
+      <c r="AT19" s="23">
         <v>1125196108496.8799</v>
       </c>
       <c r="AV19" t="s">
@@ -3569,16 +3544,16 @@
       <c r="S20">
         <v>2021</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AH20" s="24">
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AH20" s="23">
         <v>39293130315.450798</v>
       </c>
     </row>
@@ -3637,13 +3612,13 @@
       <c r="R21" s="10">
         <v>64457</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AH21" s="24">
+      <c r="AH21" s="23">
         <v>40119606190.966797</v>
       </c>
-      <c r="AK21" s="31" t="s">
+      <c r="AK21" s="30" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3702,40 +3677,40 @@
       <c r="R22" s="10">
         <v>61257</v>
       </c>
-      <c r="T22" s="23" t="s">
+      <c r="T22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AH22" s="24">
+      <c r="AH22" s="23">
         <v>45753753443.565102</v>
       </c>
-      <c r="AK22" s="23" t="s">
+      <c r="AK22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AL22" s="24">
+      <c r="AL22" s="23">
         <v>81342926057.419006</v>
       </c>
-      <c r="AM22" s="24">
+      <c r="AM22" s="23">
         <v>82875272450.070206</v>
       </c>
-      <c r="AN22" s="24">
+      <c r="AN22" s="23">
         <v>99176552764.777496</v>
       </c>
-      <c r="AO22" s="24">
+      <c r="AO22" s="23">
         <v>120193431021.70399</v>
       </c>
-      <c r="AP22" s="24">
+      <c r="AP22" s="23">
         <v>151919691893.97501</v>
       </c>
-      <c r="AQ22" s="24">
+      <c r="AQ22" s="23">
         <v>162683447471.58899</v>
       </c>
-      <c r="AR22" s="24">
+      <c r="AR22" s="23">
         <v>184644939841.92599</v>
       </c>
-      <c r="AS22" s="24">
+      <c r="AS22" s="23">
         <v>214440290365.17099</v>
       </c>
-      <c r="AT22" s="24">
+      <c r="AT22" s="23">
         <v>244341721902.19101</v>
       </c>
       <c r="AV22" t="s">
@@ -3797,40 +3772,40 @@
       <c r="R23" s="10">
         <v>62145</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AH23" s="24">
+      <c r="AH23" s="23">
         <v>49452783073.685303</v>
       </c>
-      <c r="AK23" s="23" t="s">
+      <c r="AK23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AL23" s="24">
+      <c r="AL23" s="23">
         <v>136841165555.034</v>
       </c>
-      <c r="AM23" s="24">
+      <c r="AM23" s="23">
         <v>141810809794.42499</v>
       </c>
-      <c r="AN23" s="24">
+      <c r="AN23" s="23">
         <v>145002366415.29999</v>
       </c>
-      <c r="AO23" s="24">
+      <c r="AO23" s="23">
         <v>172495369631.09601</v>
       </c>
-      <c r="AP23" s="24">
+      <c r="AP23" s="23">
         <v>195376161460.57001</v>
       </c>
-      <c r="AQ23" s="24">
+      <c r="AQ23" s="23">
         <v>209354183114.064</v>
       </c>
-      <c r="AR23" s="24">
+      <c r="AR23" s="23">
         <v>224518715358.83801</v>
       </c>
-      <c r="AS23" s="24">
+      <c r="AS23" s="23">
         <v>258763042560.08099</v>
       </c>
-      <c r="AT23" s="24">
+      <c r="AT23" s="23">
         <v>288152905753.21301</v>
       </c>
       <c r="AV23" t="s">
@@ -3895,16 +3870,16 @@
       <c r="S24">
         <v>2022</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="T24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
     </row>
     <row r="25" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
@@ -3961,16 +3936,16 @@
       <c r="R25" s="10">
         <v>27439</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AK25" s="23" t="s">
+      <c r="AK25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AN25" s="23" t="s">
+      <c r="AN25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AP25" s="23" t="s">
+      <c r="AP25" s="22" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4029,13 +4004,13 @@
       <c r="R26" s="10">
         <v>22413</v>
       </c>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="22" t="s">
         <v>27</v>
       </c>
       <c r="AK26">
         <v>2000</v>
       </c>
-      <c r="AL26" s="38">
+      <c r="AL26" s="37">
         <v>0.92</v>
       </c>
       <c r="AN26">
@@ -4101,13 +4076,13 @@
       <c r="R27" s="10">
         <v>56291</v>
       </c>
-      <c r="T27" s="23" t="s">
+      <c r="T27" s="22" t="s">
         <v>28</v>
       </c>
       <c r="AK27">
         <v>2001</v>
       </c>
-      <c r="AL27" s="38">
+      <c r="AL27" s="37">
         <v>0.9</v>
       </c>
       <c r="AN27">
@@ -4179,7 +4154,7 @@
       <c r="AK28">
         <v>2002</v>
       </c>
-      <c r="AL28" s="38">
+      <c r="AL28" s="37">
         <v>0.95</v>
       </c>
       <c r="AN28">
@@ -4245,7 +4220,7 @@
       <c r="AK29">
         <v>2003</v>
       </c>
-      <c r="AL29" s="38">
+      <c r="AL29" s="37">
         <v>1.1299999999999999</v>
       </c>
       <c r="AN29">
@@ -4311,7 +4286,7 @@
       <c r="AK30">
         <v>2004</v>
       </c>
-      <c r="AL30" s="38">
+      <c r="AL30" s="37">
         <v>1.24</v>
       </c>
       <c r="AN30">
@@ -4377,7 +4352,7 @@
       <c r="AK31">
         <v>2005</v>
       </c>
-      <c r="AL31" s="38">
+      <c r="AL31" s="37">
         <v>1.24</v>
       </c>
       <c r="AN31">
@@ -4443,7 +4418,7 @@
       <c r="AK32">
         <v>2006</v>
       </c>
-      <c r="AL32" s="38">
+      <c r="AL32" s="37">
         <v>1.26</v>
       </c>
       <c r="AN32">
@@ -4509,7 +4484,7 @@
       <c r="AK33">
         <v>2007</v>
       </c>
-      <c r="AL33" s="38">
+      <c r="AL33" s="37">
         <v>1.37</v>
       </c>
       <c r="AN33">
@@ -4575,7 +4550,7 @@
       <c r="AK34">
         <v>2008</v>
       </c>
-      <c r="AL34" s="38">
+      <c r="AL34" s="37">
         <v>1.47</v>
       </c>
       <c r="AN34">
@@ -4641,7 +4616,7 @@
       <c r="AK35">
         <v>2009</v>
       </c>
-      <c r="AL35" s="38">
+      <c r="AL35" s="37">
         <v>1.39</v>
       </c>
       <c r="AN35">
@@ -4707,7 +4682,7 @@
       <c r="AK36">
         <v>2010</v>
       </c>
-      <c r="AL36" s="38">
+      <c r="AL36" s="37">
         <v>1.33</v>
       </c>
       <c r="AN36">
@@ -4773,7 +4748,7 @@
       <c r="AK37">
         <v>2011</v>
       </c>
-      <c r="AL37" s="38">
+      <c r="AL37" s="37">
         <v>1.39</v>
       </c>
       <c r="AN37">
@@ -4839,7 +4814,7 @@
       <c r="AK38">
         <v>2012</v>
       </c>
-      <c r="AL38" s="38">
+      <c r="AL38" s="37">
         <v>1.29</v>
       </c>
       <c r="AN38">
@@ -4905,7 +4880,7 @@
       <c r="AK39">
         <v>2013</v>
       </c>
-      <c r="AL39" s="38">
+      <c r="AL39" s="37">
         <v>1.33</v>
       </c>
       <c r="AN39">
@@ -4971,7 +4946,7 @@
       <c r="AK40">
         <v>2014</v>
       </c>
-      <c r="AL40" s="38">
+      <c r="AL40" s="37">
         <v>1.33</v>
       </c>
       <c r="AN40">
@@ -5037,7 +5012,7 @@
       <c r="AK41">
         <v>2015</v>
       </c>
-      <c r="AL41" s="38">
+      <c r="AL41" s="37">
         <v>1.1100000000000001</v>
       </c>
       <c r="AN41">
@@ -5103,7 +5078,7 @@
       <c r="AK42">
         <v>2016</v>
       </c>
-      <c r="AL42" s="38">
+      <c r="AL42" s="37">
         <v>1.1100000000000001</v>
       </c>
       <c r="AN42">
@@ -5169,7 +5144,7 @@
       <c r="AK43">
         <v>2017</v>
       </c>
-      <c r="AL43" s="38">
+      <c r="AL43" s="37">
         <v>1.1299999999999999</v>
       </c>
       <c r="AN43">
@@ -5235,7 +5210,7 @@
       <c r="AK44">
         <v>2018</v>
       </c>
-      <c r="AL44" s="38">
+      <c r="AL44" s="37">
         <v>1.18</v>
       </c>
       <c r="AN44">
@@ -5301,7 +5276,7 @@
       <c r="AK45">
         <v>2019</v>
       </c>
-      <c r="AL45" s="38">
+      <c r="AL45" s="37">
         <v>1.1200000000000001</v>
       </c>
       <c r="AN45">
@@ -5367,7 +5342,7 @@
       <c r="AK46">
         <v>2020</v>
       </c>
-      <c r="AL46" s="38">
+      <c r="AL46" s="37">
         <v>1.1399999999999999</v>
       </c>
       <c r="AN46">
@@ -5433,7 +5408,7 @@
       <c r="AK47">
         <v>2021</v>
       </c>
-      <c r="AL47" s="38">
+      <c r="AL47" s="37">
         <v>1.18</v>
       </c>
       <c r="AN47">
@@ -5499,7 +5474,7 @@
       <c r="AK48">
         <v>2022</v>
       </c>
-      <c r="AL48" s="38">
+      <c r="AL48" s="37">
         <v>1.05</v>
       </c>
       <c r="AN48">
@@ -5565,7 +5540,7 @@
       <c r="AK49">
         <v>2023</v>
       </c>
-      <c r="AL49" s="38">
+      <c r="AL49" s="37">
         <v>1.08</v>
       </c>
       <c r="AN49">
@@ -6565,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView topLeftCell="S4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6610,227 +6585,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="89" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="98"/>
-      <c r="AB1" s="89" t="s">
+      <c r="X1" s="102"/>
+      <c r="AB1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="74" t="s">
+      <c r="AC1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="89" t="s">
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="93" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="92" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="76" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="94" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="74" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="96" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="105"/>
-      <c r="U2" s="76" t="s">
+      <c r="T2" s="109"/>
+      <c r="U2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="85"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="99"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="92" t="s">
+      <c r="V2" s="89"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="103"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="94" t="s">
+      <c r="AE2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="74" t="s">
+      <c r="AF2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="96" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="76" t="s">
+      <c r="AL2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="90"/>
+      <c r="AM2" s="94"/>
     </row>
     <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="91"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="87" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="107" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="108"/>
-      <c r="M3" s="107" t="s">
+      <c r="L3" s="112"/>
+      <c r="M3" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="87" t="s">
+      <c r="P3" s="114"/>
+      <c r="Q3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="100"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="95"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="104"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="99"/>
       <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AI3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="91"/>
-      <c r="AY3" s="23" t="s">
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="95"/>
+      <c r="AY3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82">
+      <c r="A4" s="86">
         <v>14</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="82">
+      <c r="B4" s="87"/>
+      <c r="C4" s="86">
         <v>15</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="82">
+      <c r="D4" s="87"/>
+      <c r="E4" s="86">
         <v>16</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="82">
+      <c r="F4" s="87"/>
+      <c r="G4" s="86">
         <v>17</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="82">
+      <c r="H4" s="87"/>
+      <c r="I4" s="86">
         <v>18</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="82">
+      <c r="J4" s="87"/>
+      <c r="K4" s="86">
         <v>19</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="82">
+      <c r="L4" s="87"/>
+      <c r="M4" s="86">
         <v>20</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="82">
+      <c r="N4" s="87"/>
+      <c r="O4" s="86">
         <v>21</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="82">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="86">
         <v>22</v>
       </c>
-      <c r="R4" s="83"/>
-      <c r="S4" s="82">
+      <c r="R4" s="87"/>
+      <c r="S4" s="86">
         <v>23</v>
       </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="82">
+      <c r="T4" s="87"/>
+      <c r="U4" s="86">
         <v>24</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="82">
+      <c r="V4" s="87"/>
+      <c r="W4" s="86">
         <v>25</v>
       </c>
-      <c r="X4" s="83"/>
+      <c r="X4" s="87"/>
       <c r="AB4" s="18">
         <v>14</v>
       </c>
@@ -6947,29 +6922,29 @@
       <c r="AA5">
         <v>2000</v>
       </c>
-      <c r="AB5" s="42">
+      <c r="AB5" s="41">
         <v>4659840536.6381798</v>
       </c>
-      <c r="AC5" s="39">
+      <c r="AC5" s="38">
         <v>-149835377773.513</v>
       </c>
-      <c r="AD5" s="39">
+      <c r="AD5" s="38">
         <v>150965170813.80499</v>
       </c>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="39">
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="38">
         <v>-40349990002.638199</v>
       </c>
-      <c r="AM5" s="39">
+      <c r="AM5" s="38">
         <v>-11105864290.9863</v>
       </c>
-      <c r="AO5" s="23" t="s">
+      <c r="AO5" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7052,49 +7027,49 @@
       <c r="AA6">
         <v>2001</v>
       </c>
-      <c r="AB6" s="28">
+      <c r="AB6" s="27">
         <v>-2880447378.1082602</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="23">
         <v>13294434782.6287</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="23">
         <v>-26672414993.4202</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="23">
         <v>978949113.63696301</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AM6" s="23">
         <v>10957096375.778</v>
       </c>
-      <c r="AO6" s="25">
+      <c r="AO6" s="24">
         <v>4659840536.6381798</v>
       </c>
-      <c r="AP6" s="25">
+      <c r="AP6" s="24">
         <v>-2880447378.1082602</v>
       </c>
-      <c r="AQ6" s="25">
+      <c r="AQ6" s="24">
         <v>-3964977928.8617902</v>
       </c>
-      <c r="AR6" s="25">
+      <c r="AR6" s="24">
         <v>7040955192.3926001</v>
       </c>
-      <c r="AS6" s="25">
+      <c r="AS6" s="24">
         <v>-186180959.74026299</v>
       </c>
-      <c r="AT6" s="25">
+      <c r="AT6" s="24">
         <v>-2993023965.5292501</v>
       </c>
-      <c r="AU6" s="25">
+      <c r="AU6" s="24">
         <v>-1714537854.9198899</v>
       </c>
-      <c r="AV6" s="25">
+      <c r="AV6" s="24">
         <v>-2314920943.3025799</v>
       </c>
-      <c r="AW6" s="25">
+      <c r="AW6" s="24">
         <v>-1216764111.40026</v>
       </c>
-      <c r="AX6" s="25">
+      <c r="AX6" s="24">
         <v>-2597448679.9067101</v>
       </c>
       <c r="AY6" t="s">
@@ -7180,22 +7155,22 @@
       <c r="AA7">
         <v>2002</v>
       </c>
-      <c r="AB7" s="28">
+      <c r="AB7" s="27">
         <v>-3964977928.8617902</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AC7" s="23">
         <v>-34067396991.499298</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="23">
         <v>-63525963564.9366</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="23">
         <v>9566981856.6299992</v>
       </c>
-      <c r="AM7" s="24">
+      <c r="AM7" s="23">
         <v>-26188558142.2048</v>
       </c>
-      <c r="AO7" s="23" t="s">
+      <c r="AO7" s="22" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7278,46 +7253,46 @@
       <c r="AA8">
         <v>2003</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="27">
         <v>7040955192.3926001</v>
       </c>
-      <c r="AC8" s="24">
+      <c r="AC8" s="23">
         <v>-26100676287.232201</v>
       </c>
-      <c r="AD8" s="24">
+      <c r="AD8" s="23">
         <v>-60618870480.958801</v>
       </c>
-      <c r="AL8" s="24">
+      <c r="AL8" s="23">
         <v>54866847627.849503</v>
       </c>
-      <c r="AM8" s="24">
+      <c r="AM8" s="23">
         <v>11840631690.743</v>
       </c>
-      <c r="AO8" s="24">
+      <c r="AO8" s="23">
         <v>-149835377773.513</v>
       </c>
-      <c r="AP8" s="24">
+      <c r="AP8" s="23">
         <v>13294434782.6287</v>
       </c>
-      <c r="AQ8" s="24">
+      <c r="AQ8" s="23">
         <v>-34067396991.499298</v>
       </c>
-      <c r="AR8" s="24">
+      <c r="AR8" s="23">
         <v>-26100676287.232201</v>
       </c>
-      <c r="AS8" s="24">
+      <c r="AS8" s="23">
         <v>29478097771.3563</v>
       </c>
-      <c r="AT8" s="24">
+      <c r="AT8" s="23">
         <v>29088956904.378201</v>
       </c>
-      <c r="AU8" s="24">
+      <c r="AU8" s="23">
         <v>60529918995.147797</v>
       </c>
-      <c r="AV8" s="24">
+      <c r="AV8" s="23">
         <v>89805058431.674896</v>
       </c>
-      <c r="AW8" s="24">
+      <c r="AW8" s="23">
         <v>67071495031.356796</v>
       </c>
       <c r="AY8" t="s">
@@ -7403,22 +7378,22 @@
       <c r="AA9">
         <v>2004</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="27">
         <v>-186180959.74026299</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="23">
         <v>29478097771.3563</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="23">
         <v>-19230789981.350899</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="23">
         <v>138642130944.80399</v>
       </c>
-      <c r="AM9" s="24">
+      <c r="AM9" s="23">
         <v>11323516418.1084</v>
       </c>
-      <c r="AO9" s="23" t="s">
+      <c r="AO9" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7501,46 +7476,46 @@
       <c r="AA10">
         <v>2005</v>
       </c>
-      <c r="AB10" s="28">
+      <c r="AB10" s="27">
         <v>-2993023965.5292501</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="23">
         <v>29088956904.378201</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="23">
         <v>35609482481.168999</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AL10" s="23">
         <v>120408012952.85001</v>
       </c>
-      <c r="AM10" s="24">
+      <c r="AM10" s="23">
         <v>-9684894919.7530899</v>
       </c>
-      <c r="AO10" s="24">
+      <c r="AO10" s="23">
         <v>150965170813.80499</v>
       </c>
-      <c r="AP10" s="24">
+      <c r="AP10" s="23">
         <v>-26672414993.4202</v>
       </c>
-      <c r="AQ10" s="24">
+      <c r="AQ10" s="23">
         <v>-63525963564.9366</v>
       </c>
-      <c r="AR10" s="24">
+      <c r="AR10" s="23">
         <v>-60618870480.958801</v>
       </c>
-      <c r="AS10" s="24">
+      <c r="AS10" s="23">
         <v>-19230789981.350899</v>
       </c>
-      <c r="AT10" s="24">
+      <c r="AT10" s="23">
         <v>35609482481.168999</v>
       </c>
-      <c r="AU10" s="24">
+      <c r="AU10" s="23">
         <v>22428588179.077099</v>
       </c>
-      <c r="AV10" s="24">
+      <c r="AV10" s="23">
         <v>-215291612737.58499</v>
       </c>
-      <c r="AW10" s="24">
+      <c r="AW10" s="23">
         <v>-44626567876.180496</v>
       </c>
       <c r="AY10" t="s">
@@ -7626,19 +7601,19 @@
       <c r="AA11">
         <v>2006</v>
       </c>
-      <c r="AB11" s="28">
+      <c r="AB11" s="27">
         <v>-1714537854.9198899</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="23">
         <v>60529918995.147797</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="23">
         <v>22428588179.077099</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AL11" s="23">
         <v>196774657010.78601</v>
       </c>
-      <c r="AM11" s="24">
+      <c r="AM11" s="23">
         <v>25003975891.869999</v>
       </c>
     </row>
@@ -7721,19 +7696,19 @@
       <c r="AA12">
         <v>2007</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="27">
         <v>-2314920943.3025799</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AC12" s="23">
         <v>89805058431.674896</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="23">
         <v>-215291612737.58499</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AL12" s="23">
         <v>253350700964.82501</v>
       </c>
-      <c r="AM12" s="24">
+      <c r="AM12" s="23">
         <v>19885766138.678902</v>
       </c>
     </row>
@@ -7816,19 +7791,19 @@
       <c r="AA13">
         <v>2008</v>
       </c>
-      <c r="AB13" s="28">
+      <c r="AB13" s="27">
         <v>-1216764111.40026</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AC13" s="23">
         <v>67071495031.356796</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="23">
         <v>-44626567876.180496</v>
       </c>
-      <c r="AL13" s="24">
+      <c r="AL13" s="23">
         <v>179790818739.19299</v>
       </c>
-      <c r="AM13" s="24">
+      <c r="AM13" s="23">
         <v>-32240945237.269798</v>
       </c>
     </row>
@@ -7908,7 +7883,7 @@
       <c r="Y14">
         <v>2018</v>
       </c>
-      <c r="AD14" s="26"/>
+      <c r="AD14" s="25"/>
     </row>
     <row r="15" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -8063,16 +8038,16 @@
       <c r="Y16">
         <v>2020</v>
       </c>
-      <c r="AA16" s="27"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="28">
+      <c r="AA16" s="26"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="27">
         <f>AD13/1000000*AE16</f>
         <v>-30346.066155802739</v>
       </c>
       <c r="AE16">
         <v>0.68</v>
       </c>
-      <c r="AO16" s="23" t="s">
+      <c r="AO16" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8149,37 +8124,37 @@
       <c r="X17" s="11">
         <v>51883</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="22">
         <v>2021</v>
       </c>
-      <c r="AO17" s="24">
+      <c r="AO17" s="23">
         <v>-40349990002.638199</v>
       </c>
-      <c r="AP17" s="24">
+      <c r="AP17" s="23">
         <v>978949113.63696301</v>
       </c>
-      <c r="AQ17" s="24">
+      <c r="AQ17" s="23">
         <v>9566981856.6299992</v>
       </c>
-      <c r="AR17" s="24">
+      <c r="AR17" s="23">
         <v>54866847627.849503</v>
       </c>
-      <c r="AS17" s="24">
+      <c r="AS17" s="23">
         <v>138642130944.80399</v>
       </c>
-      <c r="AT17" s="24">
+      <c r="AT17" s="23">
         <v>120408012952.85001</v>
       </c>
-      <c r="AU17" s="24">
+      <c r="AU17" s="23">
         <v>196774657010.78601</v>
       </c>
-      <c r="AV17" s="24">
+      <c r="AV17" s="23">
         <v>253350700964.82501</v>
       </c>
-      <c r="AW17" s="24">
+      <c r="AW17" s="23">
         <v>179790818739.19299</v>
       </c>
-      <c r="AX17" s="24">
+      <c r="AX17" s="23">
         <v>184648762253.237</v>
       </c>
       <c r="AY17" t="s">
@@ -8262,7 +8237,7 @@
       <c r="Y18">
         <v>2022</v>
       </c>
-      <c r="AO18" s="23" t="s">
+      <c r="AO18" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8342,34 +8317,34 @@
       <c r="Y19">
         <v>2023</v>
       </c>
-      <c r="Z19" s="23" t="s">
+      <c r="Z19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AO19" s="24">
+      <c r="AO19" s="23">
         <v>-11105864290.9863</v>
       </c>
-      <c r="AP19" s="24">
+      <c r="AP19" s="23">
         <v>10957096375.778</v>
       </c>
-      <c r="AQ19" s="24">
+      <c r="AQ19" s="23">
         <v>-26188558142.2048</v>
       </c>
-      <c r="AR19" s="24">
+      <c r="AR19" s="23">
         <v>11840631690.743</v>
       </c>
-      <c r="AS19" s="24">
+      <c r="AS19" s="23">
         <v>11323516418.1084</v>
       </c>
-      <c r="AT19" s="24">
+      <c r="AT19" s="23">
         <v>-9684894919.7530899</v>
       </c>
-      <c r="AU19" s="24">
+      <c r="AU19" s="23">
         <v>25003975891.869999</v>
       </c>
-      <c r="AV19" s="24">
+      <c r="AV19" s="23">
         <v>19885766138.678902</v>
       </c>
-      <c r="AW19" s="24">
+      <c r="AW19" s="23">
         <v>-32240945237.269798</v>
       </c>
       <c r="AY19" t="s">
@@ -8452,7 +8427,7 @@
       <c r="Y20">
         <v>2021</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="Z20" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8529,7 +8504,7 @@
       <c r="X21" s="11">
         <v>10691</v>
       </c>
-      <c r="Z21" s="23" t="s">
+      <c r="Z21" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8606,7 +8581,7 @@
       <c r="X22" s="11">
         <v>46973</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="Z22" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8683,7 +8658,7 @@
       <c r="X23" s="11">
         <v>8825</v>
       </c>
-      <c r="Z23" s="23" t="s">
+      <c r="Z23" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8763,7 +8738,7 @@
       <c r="Y24">
         <v>2022</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="Z24" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8840,8 +8815,11 @@
       <c r="X25" s="11">
         <v>37672</v>
       </c>
-      <c r="Z25" s="23" t="s">
+      <c r="Z25" s="22" t="s">
         <v>26</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8917,7 +8895,7 @@
       <c r="X26" s="11">
         <v>35567</v>
       </c>
-      <c r="Z26" s="23" t="s">
+      <c r="Z26" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8994,7 +8972,7 @@
       <c r="X27" s="11">
         <v>36070</v>
       </c>
-      <c r="Z27" s="23" t="s">
+      <c r="Z27" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -12247,10 +12225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1215FD3-43C2-4A46-86F2-13091B45B0E6}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12262,1213 +12240,1151 @@
     <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-    </row>
-    <row r="2" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="17" t="s">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="46" t="s">
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="69" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="56" cm="1">
+        <f t="array" ref="B2:N2">('Table 1'!W5:AI5/1000000)*'Table 1'!AN26</f>
+        <v>562879.60427807819</v>
+      </c>
+      <c r="C2" s="56">
+        <v>498358.88561026088</v>
+      </c>
+      <c r="D2" s="56">
+        <v>64520.718667817353</v>
+      </c>
+      <c r="E2" s="56">
+        <v>88416.223975455447</v>
+      </c>
+      <c r="F2" s="56">
+        <v>148740.39734242827</v>
+      </c>
+      <c r="G2" s="56">
+        <v>-60324.173366972813</v>
+      </c>
+      <c r="H2" s="56">
+        <v>121295.65217391304</v>
+      </c>
+      <c r="I2" s="56">
+        <v>132176.05881878911</v>
+      </c>
+      <c r="J2" s="56">
+        <v>-10879.511615024565</v>
+      </c>
+      <c r="K2" s="56">
+        <v>31548.457153457606</v>
+      </c>
+      <c r="L2" s="56">
+        <v>61716.573570830755</v>
+      </c>
+      <c r="M2" s="56">
+        <v>-30168.116417373149</v>
+      </c>
+      <c r="N2" s="57">
+        <v>-36852.137226402177</v>
+      </c>
+      <c r="O2" s="47"/>
+    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="19">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="3">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>11</v>
-      </c>
-      <c r="M3" s="19">
-        <v>12</v>
-      </c>
-      <c r="N3" s="18">
-        <v>13</v>
-      </c>
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="58" cm="1">
+        <f t="array" ref="B3:N3">'Table 1'!W6:AI6/1000000*'Table 1'!AN27</f>
+        <v>596219.21675474453</v>
+      </c>
+      <c r="C3" s="58">
+        <v>495525.57239672897</v>
+      </c>
+      <c r="D3" s="58">
+        <v>100693.64435801555</v>
+      </c>
+      <c r="E3" s="58">
+        <v>92083.636055633557</v>
+      </c>
+      <c r="F3" s="58">
+        <v>157567.56643824998</v>
+      </c>
+      <c r="G3" s="58">
+        <v>-65483.930382616425</v>
+      </c>
+      <c r="H3" s="58">
+        <v>106625.25264000001</v>
+      </c>
+      <c r="I3" s="58">
+        <v>120667.68738923332</v>
+      </c>
+      <c r="J3" s="58">
+        <v>-14041.439327222999</v>
+      </c>
+      <c r="K3" s="58">
+        <v>40648.452423551891</v>
+      </c>
+      <c r="L3" s="58">
+        <v>69705.075261091566</v>
+      </c>
+      <c r="M3" s="58">
+        <v>-29056.622837539671</v>
+      </c>
+      <c r="N3" s="59">
+        <v>-7888.3178157411667</v>
+      </c>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="59" cm="1">
-        <f t="array" ref="B4:N4">('Table 1'!W5:AI5/1000000)*'Table 1'!AN26</f>
-        <v>562879.60427807819</v>
-      </c>
-      <c r="C4" s="59">
-        <v>498358.88561026088</v>
-      </c>
-      <c r="D4" s="59">
-        <v>64520.718667817353</v>
-      </c>
-      <c r="E4" s="59">
-        <v>88416.223975455447</v>
-      </c>
-      <c r="F4" s="59">
-        <v>148740.39734242827</v>
-      </c>
-      <c r="G4" s="59">
-        <v>-60324.173366972813</v>
-      </c>
-      <c r="H4" s="59">
-        <v>121295.65217391304</v>
-      </c>
-      <c r="I4" s="59">
-        <v>132176.05881878911</v>
-      </c>
-      <c r="J4" s="59">
-        <v>-10879.511615024565</v>
-      </c>
-      <c r="K4" s="59">
-        <v>31548.457153457606</v>
-      </c>
-      <c r="L4" s="59">
-        <v>61716.573570830755</v>
-      </c>
-      <c r="M4" s="59">
-        <v>-30168.116417373149</v>
-      </c>
-      <c r="N4" s="60">
-        <v>-36852.137226402177</v>
-      </c>
-      <c r="O4" s="50"/>
+        <v>2002</v>
+      </c>
+      <c r="B4" s="58" cm="1">
+        <f t="array" ref="B4:N4">'Table 1'!W7:AI7/1000000*'Table 1'!AN28</f>
+        <v>609204.28451123356</v>
+      </c>
+      <c r="C4" s="58">
+        <v>467906.54444305581</v>
+      </c>
+      <c r="D4" s="58">
+        <v>141297.74006817787</v>
+      </c>
+      <c r="E4" s="58">
+        <v>104396.37133134474</v>
+      </c>
+      <c r="F4" s="58">
+        <v>152634.06991084208</v>
+      </c>
+      <c r="G4" s="58">
+        <v>-48237.698579497359</v>
+      </c>
+      <c r="H4" s="58">
+        <v>108137.89473684209</v>
+      </c>
+      <c r="I4" s="58">
+        <v>130372.99674907367</v>
+      </c>
+      <c r="J4" s="58">
+        <v>-22235.032342565893</v>
+      </c>
+      <c r="K4" s="58">
+        <v>41381.760631211262</v>
+      </c>
+      <c r="L4" s="58">
+        <v>70397.588184208304</v>
+      </c>
+      <c r="M4" s="58">
+        <v>-29015.827552997049</v>
+      </c>
+      <c r="N4" s="59">
+        <v>41811.071502838524</v>
+      </c>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="61" cm="1">
-        <f t="array" ref="B5:N5">'Table 1'!W6:AI6/1000000*'Table 1'!AN27</f>
-        <v>596219.21675474453</v>
-      </c>
-      <c r="C5" s="61">
-        <v>495525.57239672897</v>
-      </c>
-      <c r="D5" s="61">
-        <v>100693.64435801555</v>
-      </c>
-      <c r="E5" s="61">
-        <v>92083.636055633557</v>
-      </c>
-      <c r="F5" s="61">
-        <v>157567.56643824998</v>
-      </c>
-      <c r="G5" s="61">
-        <v>-65483.930382616425</v>
-      </c>
-      <c r="H5" s="61">
-        <v>106625.25264000001</v>
-      </c>
-      <c r="I5" s="61">
-        <v>120667.68738923332</v>
-      </c>
-      <c r="J5" s="61">
-        <v>-14041.439327222999</v>
-      </c>
-      <c r="K5" s="61">
-        <v>40648.452423551891</v>
-      </c>
-      <c r="L5" s="61">
-        <v>69705.075261091566</v>
-      </c>
-      <c r="M5" s="61">
-        <v>-29056.622837539671</v>
-      </c>
-      <c r="N5" s="62">
-        <v>-7888.3178157411667</v>
-      </c>
-      <c r="O5" s="50"/>
+        <v>2003</v>
+      </c>
+      <c r="B5" s="58" cm="1">
+        <f t="array" ref="B5:N5">('Table 1'!W8:AI8/1000000)*'Table 1'!AN29</f>
+        <v>620687.70653608406</v>
+      </c>
+      <c r="C5" s="58">
+        <v>490596.74869378406</v>
+      </c>
+      <c r="D5" s="58">
+        <v>130090.95784230006</v>
+      </c>
+      <c r="E5" s="58">
+        <v>106365.86816079999</v>
+      </c>
+      <c r="F5" s="58">
+        <v>152650.76958504075</v>
+      </c>
+      <c r="G5" s="58">
+        <v>-46284.901424240721</v>
+      </c>
+      <c r="H5" s="58">
+        <v>111953.09734513274</v>
+      </c>
+      <c r="I5" s="58">
+        <v>132949.15968703985</v>
+      </c>
+      <c r="J5" s="58">
+        <v>-20996.413888087613</v>
+      </c>
+      <c r="K5" s="58">
+        <v>50161.854109675929</v>
+      </c>
+      <c r="L5" s="58">
+        <v>81128.078191849389</v>
+      </c>
+      <c r="M5" s="58">
+        <v>-30966.224082173452</v>
+      </c>
+      <c r="N5" s="59">
+        <v>31845.420218532036</v>
+      </c>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="61" cm="1">
-        <f t="array" ref="B6:N6">'Table 1'!W7:AI7/1000000*'Table 1'!AN28</f>
-        <v>609204.28451123356</v>
-      </c>
-      <c r="C6" s="61">
-        <v>467906.54444305581</v>
-      </c>
-      <c r="D6" s="61">
-        <v>141297.74006817787</v>
-      </c>
-      <c r="E6" s="61">
-        <v>104396.37133134474</v>
-      </c>
-      <c r="F6" s="61">
-        <v>152634.06991084208</v>
-      </c>
-      <c r="G6" s="61">
-        <v>-48237.698579497359</v>
-      </c>
-      <c r="H6" s="61">
-        <v>108137.89473684209</v>
-      </c>
-      <c r="I6" s="61">
-        <v>130372.99674907367</v>
-      </c>
-      <c r="J6" s="61">
-        <v>-22235.032342565893</v>
-      </c>
-      <c r="K6" s="61">
-        <v>41381.760631211262</v>
-      </c>
-      <c r="L6" s="61">
-        <v>70397.588184208304</v>
-      </c>
-      <c r="M6" s="61">
-        <v>-29015.827552997049</v>
-      </c>
-      <c r="N6" s="62">
-        <v>41811.071502838524</v>
-      </c>
-      <c r="O6" s="50"/>
+        <v>2004</v>
+      </c>
+      <c r="B6" s="58" cm="1">
+        <f t="array" ref="B6:N6">'Table 1'!W9:AI9/1000000*'Table 1'!AN30</f>
+        <v>688077.88576449919</v>
+      </c>
+      <c r="C6" s="58">
+        <v>535150.62504960329</v>
+      </c>
+      <c r="D6" s="58">
+        <v>152927.26071489594</v>
+      </c>
+      <c r="E6" s="58">
+        <v>122515.88055965728</v>
+      </c>
+      <c r="F6" s="58">
+        <v>157561.42053271775</v>
+      </c>
+      <c r="G6" s="58">
+        <v>-35045.539973060484</v>
+      </c>
+      <c r="H6" s="58">
+        <v>142795.16129032261</v>
+      </c>
+      <c r="I6" s="58">
+        <v>127828.41231345727</v>
+      </c>
+      <c r="J6" s="58">
+        <v>14965.536200629756</v>
+      </c>
+      <c r="K6" s="58">
+        <v>38897.395327991857</v>
+      </c>
+      <c r="L6" s="58">
+        <v>68918.279354664133</v>
+      </c>
+      <c r="M6" s="58">
+        <v>-30020.884026672262</v>
+      </c>
+      <c r="N6" s="59">
+        <v>102827.35838988952</v>
+      </c>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="61" cm="1">
-        <f t="array" ref="B7:N7">('Table 1'!W8:AI8/1000000)*'Table 1'!AN29</f>
-        <v>620687.70653608406</v>
-      </c>
-      <c r="C7" s="61">
-        <v>490596.74869378406</v>
-      </c>
-      <c r="D7" s="61">
-        <v>130090.95784230006</v>
-      </c>
-      <c r="E7" s="61">
-        <v>106365.86816079999</v>
-      </c>
-      <c r="F7" s="61">
-        <v>152650.76958504075</v>
-      </c>
-      <c r="G7" s="61">
-        <v>-46284.901424240721</v>
-      </c>
-      <c r="H7" s="61">
-        <v>111953.09734513274</v>
-      </c>
-      <c r="I7" s="61">
-        <v>132949.15968703985</v>
-      </c>
-      <c r="J7" s="61">
-        <v>-20996.413888087613</v>
-      </c>
-      <c r="K7" s="61">
-        <v>50161.854109675929</v>
-      </c>
-      <c r="L7" s="61">
-        <v>81128.078191849389</v>
-      </c>
-      <c r="M7" s="61">
-        <v>-30966.224082173452</v>
-      </c>
-      <c r="N7" s="62">
-        <v>31845.420218532036</v>
-      </c>
-      <c r="O7" s="50"/>
+        <v>2005</v>
+      </c>
+      <c r="B7" s="58" cm="1">
+        <f t="array" ref="B7:N7">'Table 1'!W10:AI10/1000000*'Table 1'!AN31</f>
+        <v>741561.58650112583</v>
+      </c>
+      <c r="C7" s="58">
+        <v>583948.96001115732</v>
+      </c>
+      <c r="D7" s="58">
+        <v>157612.62648996859</v>
+      </c>
+      <c r="E7" s="58">
+        <v>131196.32860612017</v>
+      </c>
+      <c r="F7" s="58">
+        <v>168834.01864037418</v>
+      </c>
+      <c r="G7" s="58">
+        <v>-37637.690034254039</v>
+      </c>
+      <c r="H7" s="58">
+        <v>167318.54838709679</v>
+      </c>
+      <c r="I7" s="58">
+        <v>148277.3231795879</v>
+      </c>
+      <c r="J7" s="58">
+        <v>19041.451870375808</v>
+      </c>
+      <c r="K7" s="58">
+        <v>42551.47995851202</v>
+      </c>
+      <c r="L7" s="58">
+        <v>74239.488277423967</v>
+      </c>
+      <c r="M7" s="58">
+        <v>-31688.008318911936</v>
+      </c>
+      <c r="N7" s="59">
+        <v>107328.42188298953</v>
+      </c>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="61" cm="1">
-        <f t="array" ref="B8:N8">'Table 1'!W9:AI9/1000000*'Table 1'!AN30</f>
-        <v>688077.88576449919</v>
-      </c>
-      <c r="C8" s="61">
-        <v>535150.62504960329</v>
-      </c>
-      <c r="D8" s="61">
-        <v>152927.26071489594</v>
-      </c>
-      <c r="E8" s="61">
-        <v>122515.88055965728</v>
-      </c>
-      <c r="F8" s="61">
-        <v>157561.42053271775</v>
-      </c>
-      <c r="G8" s="61">
-        <v>-35045.539973060484</v>
-      </c>
-      <c r="H8" s="61">
-        <v>142795.16129032261</v>
-      </c>
-      <c r="I8" s="61">
-        <v>127828.41231345727</v>
-      </c>
-      <c r="J8" s="61">
-        <v>14965.536200629756</v>
-      </c>
-      <c r="K8" s="61">
-        <v>38897.395327991857</v>
-      </c>
-      <c r="L8" s="61">
-        <v>68918.279354664133</v>
-      </c>
-      <c r="M8" s="61">
-        <v>-30020.884026672262</v>
-      </c>
-      <c r="N8" s="62">
-        <v>102827.35838988952</v>
-      </c>
-      <c r="O8" s="50"/>
+        <v>2006</v>
+      </c>
+      <c r="B8" s="58" cm="1">
+        <f t="array" ref="B8:N8">('Table 1'!W11:AI11/1000000)*'Table 1'!AN32</f>
+        <v>839465.21146186499</v>
+      </c>
+      <c r="C8" s="58">
+        <v>678862.99410938332</v>
+      </c>
+      <c r="D8" s="58">
+        <v>160602.2173524817</v>
+      </c>
+      <c r="E8" s="58">
+        <v>146543.60304914758</v>
+      </c>
+      <c r="F8" s="58">
+        <v>178189.4566339984</v>
+      </c>
+      <c r="G8" s="58">
+        <v>-31645.853584850807</v>
+      </c>
+      <c r="H8" s="58">
+        <v>208164.28571428571</v>
+      </c>
+      <c r="I8" s="58">
+        <v>167592.75008099683</v>
+      </c>
+      <c r="J8" s="58">
+        <v>40572.19255210222</v>
+      </c>
+      <c r="K8" s="58">
+        <v>39496.835681084995</v>
+      </c>
+      <c r="L8" s="58">
+        <v>71337.792975503093</v>
+      </c>
+      <c r="M8" s="58">
+        <v>-31840.957294418091</v>
+      </c>
+      <c r="N8" s="59">
+        <v>137687.68033125796</v>
+      </c>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="61" cm="1">
-        <f t="array" ref="B9:N9">'Table 1'!W10:AI10/1000000*'Table 1'!AN31</f>
-        <v>741561.58650112583</v>
-      </c>
-      <c r="C9" s="61">
-        <v>583948.96001115732</v>
-      </c>
-      <c r="D9" s="61">
-        <v>157612.62648996859</v>
-      </c>
-      <c r="E9" s="61">
-        <v>131196.32860612017</v>
-      </c>
-      <c r="F9" s="61">
-        <v>168834.01864037418</v>
-      </c>
-      <c r="G9" s="61">
-        <v>-37637.690034254039</v>
-      </c>
-      <c r="H9" s="61">
-        <v>167318.54838709679</v>
-      </c>
-      <c r="I9" s="61">
-        <v>148277.3231795879</v>
-      </c>
-      <c r="J9" s="61">
-        <v>19041.451870375808</v>
-      </c>
-      <c r="K9" s="61">
-        <v>42551.47995851202</v>
-      </c>
-      <c r="L9" s="61">
-        <v>74239.488277423967</v>
-      </c>
-      <c r="M9" s="61">
-        <v>-31688.008318911936</v>
-      </c>
-      <c r="N9" s="62">
-        <v>107328.42188298953</v>
-      </c>
-      <c r="O9" s="50"/>
+        <v>2007</v>
+      </c>
+      <c r="B9" s="58" cm="1">
+        <f t="array" ref="B9:N9">'Table 1'!W12:AI12/1000000*'Table 1'!AN33</f>
+        <v>927517.85529065691</v>
+      </c>
+      <c r="C9" s="58">
+        <v>725725.81255943212</v>
+      </c>
+      <c r="D9" s="58">
+        <v>201792.04273122476</v>
+      </c>
+      <c r="E9" s="58">
+        <v>156525.75939063574</v>
+      </c>
+      <c r="F9" s="58">
+        <v>188878.13325553358</v>
+      </c>
+      <c r="G9" s="58">
+        <v>-32352.373864897814</v>
+      </c>
+      <c r="H9" s="58">
+        <v>245274.45255474452</v>
+      </c>
+      <c r="I9" s="58">
+        <v>209216.21950501972</v>
+      </c>
+      <c r="J9" s="58">
+        <v>36059.408286664235</v>
+      </c>
+      <c r="K9" s="58">
+        <v>42243.10382139562</v>
+      </c>
+      <c r="L9" s="58">
+        <v>75640.004145165774</v>
+      </c>
+      <c r="M9" s="58">
+        <v>-33396.900323770147</v>
+      </c>
+      <c r="N9" s="59">
+        <v>172100.14382832189</v>
+      </c>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="61" cm="1">
-        <f t="array" ref="B10:N10">('Table 1'!W11:AI11/1000000)*'Table 1'!AN32</f>
-        <v>839465.21146186499</v>
-      </c>
-      <c r="C10" s="61">
-        <v>678862.99410938332</v>
-      </c>
-      <c r="D10" s="61">
-        <v>160602.2173524817</v>
-      </c>
-      <c r="E10" s="61">
-        <v>146543.60304914758</v>
-      </c>
-      <c r="F10" s="61">
-        <v>178189.4566339984</v>
-      </c>
-      <c r="G10" s="61">
-        <v>-31645.853584850807</v>
-      </c>
-      <c r="H10" s="61">
-        <v>208164.28571428571</v>
-      </c>
-      <c r="I10" s="61">
-        <v>167592.75008099683</v>
-      </c>
-      <c r="J10" s="61">
-        <v>40572.19255210222</v>
-      </c>
-      <c r="K10" s="61">
-        <v>39496.835681084995</v>
-      </c>
-      <c r="L10" s="61">
-        <v>71337.792975503093</v>
-      </c>
-      <c r="M10" s="61">
-        <v>-31840.957294418091</v>
-      </c>
-      <c r="N10" s="62">
-        <v>137687.68033125796</v>
-      </c>
-      <c r="O10" s="50"/>
+        <v>2008</v>
+      </c>
+      <c r="B10" s="58" cm="1">
+        <f t="array" ref="B10:N10">'Table 1'!W13:AI13/1000000*'Table 1'!AN34</f>
+        <v>951368.9222440545</v>
+      </c>
+      <c r="C10" s="58">
+        <v>765439.52958971425</v>
+      </c>
+      <c r="D10" s="58">
+        <v>185929.39265434022</v>
+      </c>
+      <c r="E10" s="58">
+        <v>166218.85843686463</v>
+      </c>
+      <c r="F10" s="58">
+        <v>196022.38486613132</v>
+      </c>
+      <c r="G10" s="58">
+        <v>-29803.526429266669</v>
+      </c>
+      <c r="H10" s="58">
+        <v>197542.85714285713</v>
+      </c>
+      <c r="I10" s="58">
+        <v>174959.27469241974</v>
+      </c>
+      <c r="J10" s="58">
+        <v>22582.679925935099</v>
+      </c>
+      <c r="K10" s="58">
+        <v>45108.280516301427</v>
+      </c>
+      <c r="L10" s="58">
+        <v>78749.629546019321</v>
+      </c>
+      <c r="M10" s="58">
+        <v>-33641.349029717887</v>
+      </c>
+      <c r="N10" s="59">
+        <v>145068.0497350959</v>
+      </c>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="61" cm="1">
-        <f t="array" ref="B11:N11">'Table 1'!W12:AI12/1000000*'Table 1'!AN33</f>
-        <v>927517.85529065691</v>
-      </c>
-      <c r="C11" s="61">
-        <v>725725.81255943212</v>
-      </c>
-      <c r="D11" s="61">
-        <v>201792.04273122476</v>
-      </c>
-      <c r="E11" s="61">
-        <v>156525.75939063574</v>
-      </c>
-      <c r="F11" s="61">
-        <v>188878.13325553358</v>
-      </c>
-      <c r="G11" s="61">
-        <v>-32352.373864897814</v>
-      </c>
-      <c r="H11" s="61">
-        <v>245274.45255474452</v>
-      </c>
-      <c r="I11" s="61">
-        <v>209216.21950501972</v>
-      </c>
-      <c r="J11" s="61">
-        <v>36059.408286664235</v>
-      </c>
-      <c r="K11" s="61">
-        <v>42243.10382139562</v>
-      </c>
-      <c r="L11" s="61">
-        <v>75640.004145165774</v>
-      </c>
-      <c r="M11" s="61">
-        <v>-33396.900323770147</v>
-      </c>
-      <c r="N11" s="62">
-        <v>172100.14382832189</v>
-      </c>
-      <c r="O11" s="50"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="60">
+        <v>769982</v>
+      </c>
+      <c r="C11" s="60">
+        <v>629356</v>
+      </c>
+      <c r="D11" s="60">
+        <v>140626</v>
+      </c>
+      <c r="E11" s="60">
+        <v>162329</v>
+      </c>
+      <c r="F11" s="60">
+        <v>179971</v>
+      </c>
+      <c r="G11" s="60">
+        <v>-17642</v>
+      </c>
+      <c r="H11" s="60">
+        <v>183515</v>
+      </c>
+      <c r="I11" s="60">
+        <v>128991</v>
+      </c>
+      <c r="J11" s="60">
+        <v>54524</v>
+      </c>
+      <c r="K11" s="60">
+        <v>41478</v>
+      </c>
+      <c r="L11" s="60">
+        <v>76242</v>
+      </c>
+      <c r="M11" s="60">
+        <v>34764</v>
+      </c>
+      <c r="N11" s="61">
+        <v>142744</v>
+      </c>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="61" cm="1">
-        <f t="array" ref="B12:N12">'Table 1'!W13:AI13/1000000*'Table 1'!AN34</f>
-        <v>951368.9222440545</v>
-      </c>
-      <c r="C12" s="61">
-        <v>765439.52958971425</v>
-      </c>
-      <c r="D12" s="61">
-        <v>185929.39265434022</v>
-      </c>
-      <c r="E12" s="61">
-        <v>166218.85843686463</v>
-      </c>
-      <c r="F12" s="61">
-        <v>196022.38486613132</v>
-      </c>
-      <c r="G12" s="61">
-        <v>-29803.526429266669</v>
-      </c>
-      <c r="H12" s="61">
-        <v>197542.85714285713</v>
-      </c>
-      <c r="I12" s="61">
-        <v>174959.27469241974</v>
-      </c>
-      <c r="J12" s="61">
-        <v>22582.679925935099</v>
-      </c>
-      <c r="K12" s="61">
-        <v>45108.280516301427</v>
-      </c>
-      <c r="L12" s="61">
-        <v>78749.629546019321</v>
-      </c>
-      <c r="M12" s="61">
-        <v>-33641.349029717887</v>
-      </c>
-      <c r="N12" s="62">
-        <v>145068.0497350959</v>
-      </c>
-      <c r="O12" s="50"/>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="60">
+        <v>915035</v>
+      </c>
+      <c r="C12" s="60">
+        <v>754206</v>
+      </c>
+      <c r="D12" s="62">
+        <v>160829</v>
+      </c>
+      <c r="E12" s="60">
+        <v>174306</v>
+      </c>
+      <c r="F12" s="60">
+        <v>199560</v>
+      </c>
+      <c r="G12" s="63">
+        <v>-25255</v>
+      </c>
+      <c r="H12" s="60">
+        <v>200815</v>
+      </c>
+      <c r="I12" s="60">
+        <v>149508</v>
+      </c>
+      <c r="J12" s="63">
+        <v>51306</v>
+      </c>
+      <c r="K12" s="60">
+        <v>42627</v>
+      </c>
+      <c r="L12" s="60">
+        <v>82209</v>
+      </c>
+      <c r="M12" s="63">
+        <v>39582</v>
+      </c>
+      <c r="N12" s="61">
+        <v>147298</v>
+      </c>
+      <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="63">
-        <v>769982</v>
-      </c>
-      <c r="C13" s="63">
-        <v>629356</v>
-      </c>
-      <c r="D13" s="63">
-        <v>140626</v>
-      </c>
-      <c r="E13" s="63">
-        <v>162329</v>
-      </c>
-      <c r="F13" s="63">
-        <v>179971</v>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="60">
+        <v>1027494</v>
+      </c>
+      <c r="C13" s="60">
+        <v>864524</v>
+      </c>
+      <c r="D13" s="62">
+        <v>162970</v>
+      </c>
+      <c r="E13" s="60">
+        <v>183949</v>
+      </c>
+      <c r="F13" s="60">
+        <v>213879</v>
       </c>
       <c r="G13" s="63">
-        <v>-17642</v>
-      </c>
-      <c r="H13" s="63">
-        <v>183515</v>
-      </c>
-      <c r="I13" s="63">
-        <v>128991</v>
+        <v>-29930</v>
+      </c>
+      <c r="H13" s="60">
+        <v>220396</v>
+      </c>
+      <c r="I13" s="60">
+        <v>151309</v>
       </c>
       <c r="J13" s="63">
-        <v>54524</v>
-      </c>
-      <c r="K13" s="63">
-        <v>41478</v>
-      </c>
-      <c r="L13" s="63">
-        <v>76242</v>
+        <v>69087</v>
+      </c>
+      <c r="K13" s="60">
+        <v>51001</v>
+      </c>
+      <c r="L13" s="60">
+        <v>85788</v>
       </c>
       <c r="M13" s="63">
-        <v>34764</v>
-      </c>
-      <c r="N13" s="64">
-        <v>142744</v>
-      </c>
-      <c r="O13" s="50"/>
+        <v>34787</v>
+      </c>
+      <c r="N13" s="61">
+        <v>167340</v>
+      </c>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="63">
-        <v>915035</v>
-      </c>
-      <c r="C14" s="63">
-        <v>754206</v>
-      </c>
-      <c r="D14" s="65">
-        <v>160829</v>
-      </c>
-      <c r="E14" s="63">
-        <v>174306</v>
-      </c>
-      <c r="F14" s="63">
-        <v>199560</v>
-      </c>
-      <c r="G14" s="66">
-        <v>-25255</v>
-      </c>
-      <c r="H14" s="63">
-        <v>200815</v>
-      </c>
-      <c r="I14" s="63">
-        <v>149508</v>
-      </c>
-      <c r="J14" s="66">
-        <v>51306</v>
-      </c>
-      <c r="K14" s="63">
-        <v>42627</v>
-      </c>
-      <c r="L14" s="63">
-        <v>82209</v>
-      </c>
-      <c r="M14" s="66">
-        <v>39582</v>
-      </c>
-      <c r="N14" s="64">
-        <v>147298</v>
-      </c>
-      <c r="O14" s="50"/>
+        <v>2012</v>
+      </c>
+      <c r="B14" s="60">
+        <v>1069020</v>
+      </c>
+      <c r="C14" s="60">
+        <v>869489</v>
+      </c>
+      <c r="D14" s="62">
+        <v>199531</v>
+      </c>
+      <c r="E14" s="60">
+        <v>199251</v>
+      </c>
+      <c r="F14" s="60">
+        <v>230025</v>
+      </c>
+      <c r="G14" s="63">
+        <v>-30774</v>
+      </c>
+      <c r="H14" s="60">
+        <v>204835</v>
+      </c>
+      <c r="I14" s="60">
+        <v>139177</v>
+      </c>
+      <c r="J14" s="63">
+        <v>65658</v>
+      </c>
+      <c r="K14" s="60">
+        <v>52938</v>
+      </c>
+      <c r="L14" s="60">
+        <v>91641</v>
+      </c>
+      <c r="M14" s="63">
+        <v>38703</v>
+      </c>
+      <c r="N14" s="61">
+        <v>195712</v>
+      </c>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="63">
-        <v>1027494</v>
-      </c>
-      <c r="C15" s="63">
-        <v>864524</v>
-      </c>
-      <c r="D15" s="65">
-        <v>162970</v>
-      </c>
-      <c r="E15" s="63">
-        <v>183949</v>
-      </c>
-      <c r="F15" s="63">
-        <v>213879</v>
-      </c>
-      <c r="G15" s="66">
-        <v>-29930</v>
-      </c>
-      <c r="H15" s="63">
-        <v>220396</v>
-      </c>
-      <c r="I15" s="63">
-        <v>151309</v>
-      </c>
-      <c r="J15" s="66">
-        <v>69087</v>
-      </c>
-      <c r="K15" s="63">
-        <v>51001</v>
-      </c>
-      <c r="L15" s="63">
-        <v>85788</v>
-      </c>
-      <c r="M15" s="66">
-        <v>34787</v>
-      </c>
-      <c r="N15" s="64">
-        <v>167340</v>
-      </c>
-      <c r="O15" s="50"/>
+        <v>2013</v>
+      </c>
+      <c r="B15" s="60">
+        <v>1071458</v>
+      </c>
+      <c r="C15" s="60">
+        <v>867656</v>
+      </c>
+      <c r="D15" s="62">
+        <v>203802</v>
+      </c>
+      <c r="E15" s="60">
+        <v>208257</v>
+      </c>
+      <c r="F15" s="60">
+        <v>247578</v>
+      </c>
+      <c r="G15" s="63">
+        <v>-39321</v>
+      </c>
+      <c r="H15" s="60">
+        <v>192273</v>
+      </c>
+      <c r="I15" s="60">
+        <v>128988</v>
+      </c>
+      <c r="J15" s="63">
+        <v>63284</v>
+      </c>
+      <c r="K15" s="60">
+        <v>60321</v>
+      </c>
+      <c r="L15" s="60">
+        <v>103734</v>
+      </c>
+      <c r="M15" s="63">
+        <v>43413</v>
+      </c>
+      <c r="N15" s="61">
+        <v>184352</v>
+      </c>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="63">
-        <v>1069020</v>
-      </c>
-      <c r="C16" s="63">
-        <v>869489</v>
-      </c>
-      <c r="D16" s="65">
-        <v>199531</v>
-      </c>
-      <c r="E16" s="63">
-        <v>199251</v>
-      </c>
-      <c r="F16" s="63">
-        <v>230025</v>
-      </c>
-      <c r="G16" s="66">
-        <v>-30774</v>
-      </c>
-      <c r="H16" s="63">
-        <v>204835</v>
-      </c>
-      <c r="I16" s="63">
-        <v>139177</v>
-      </c>
-      <c r="J16" s="66">
-        <v>65658</v>
-      </c>
-      <c r="K16" s="63">
-        <v>52938</v>
-      </c>
-      <c r="L16" s="63">
-        <v>91641</v>
-      </c>
-      <c r="M16" s="66">
-        <v>38703</v>
-      </c>
-      <c r="N16" s="64">
-        <v>195712</v>
-      </c>
-      <c r="O16" s="50"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="60">
+        <v>1106923</v>
+      </c>
+      <c r="C16" s="60">
+        <v>887294</v>
+      </c>
+      <c r="D16" s="62">
+        <v>219629</v>
+      </c>
+      <c r="E16" s="60">
+        <v>228840</v>
+      </c>
+      <c r="F16" s="60">
+        <v>254143</v>
+      </c>
+      <c r="G16" s="63">
+        <v>-25303</v>
+      </c>
+      <c r="H16" s="60">
+        <v>191498</v>
+      </c>
+      <c r="I16" s="60">
+        <v>132852</v>
+      </c>
+      <c r="J16" s="63">
+        <v>58646</v>
+      </c>
+      <c r="K16" s="60">
+        <v>62475</v>
+      </c>
+      <c r="L16" s="60">
+        <v>103970</v>
+      </c>
+      <c r="M16" s="63">
+        <v>41495</v>
+      </c>
+      <c r="N16" s="61">
+        <v>211477</v>
+      </c>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="63">
-        <v>1071458</v>
-      </c>
-      <c r="C17" s="63">
-        <v>867656</v>
-      </c>
-      <c r="D17" s="65">
-        <v>203802</v>
-      </c>
-      <c r="E17" s="63">
-        <v>208257</v>
-      </c>
-      <c r="F17" s="63">
-        <v>247578</v>
-      </c>
-      <c r="G17" s="66">
-        <v>-39321</v>
-      </c>
-      <c r="H17" s="63">
-        <v>192273</v>
-      </c>
-      <c r="I17" s="63">
-        <v>128988</v>
-      </c>
-      <c r="J17" s="66">
-        <v>63284</v>
-      </c>
-      <c r="K17" s="63">
-        <v>60321</v>
-      </c>
-      <c r="L17" s="63">
-        <v>103734</v>
-      </c>
-      <c r="M17" s="66">
-        <v>43413</v>
-      </c>
-      <c r="N17" s="64">
-        <v>184352</v>
-      </c>
-      <c r="O17" s="50"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="60">
+        <v>1166594</v>
+      </c>
+      <c r="C17" s="60">
+        <v>918200</v>
+      </c>
+      <c r="D17" s="62">
+        <v>248394</v>
+      </c>
+      <c r="E17" s="60">
+        <v>253318</v>
+      </c>
+      <c r="F17" s="60">
+        <v>271834</v>
+      </c>
+      <c r="G17" s="63">
+        <v>-18516</v>
+      </c>
+      <c r="H17" s="60">
+        <v>202782</v>
+      </c>
+      <c r="I17" s="60">
+        <v>133458</v>
+      </c>
+      <c r="J17" s="63">
+        <v>69324</v>
+      </c>
+      <c r="K17" s="60">
+        <v>71769</v>
+      </c>
+      <c r="L17" s="60">
+        <v>111189</v>
+      </c>
+      <c r="M17" s="63">
+        <v>39420</v>
+      </c>
+      <c r="N17" s="61">
+        <v>259781</v>
+      </c>
+      <c r="O17" s="47"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="63">
-        <v>1106923</v>
-      </c>
-      <c r="C18" s="63">
-        <v>887294</v>
-      </c>
-      <c r="D18" s="65">
-        <v>219629</v>
-      </c>
-      <c r="E18" s="63">
-        <v>228840</v>
-      </c>
-      <c r="F18" s="63">
-        <v>254143</v>
-      </c>
-      <c r="G18" s="66">
-        <v>-25303</v>
-      </c>
-      <c r="H18" s="63">
-        <v>191498</v>
-      </c>
-      <c r="I18" s="63">
-        <v>132852</v>
-      </c>
-      <c r="J18" s="66">
-        <v>58646</v>
-      </c>
-      <c r="K18" s="63">
-        <v>62475</v>
-      </c>
-      <c r="L18" s="63">
-        <v>103970</v>
-      </c>
-      <c r="M18" s="66">
-        <v>41495</v>
-      </c>
-      <c r="N18" s="64">
-        <v>211477</v>
-      </c>
-      <c r="O18" s="50"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="60">
+        <v>1179166</v>
+      </c>
+      <c r="C18" s="60">
+        <v>926757</v>
+      </c>
+      <c r="D18" s="62">
+        <v>252409</v>
+      </c>
+      <c r="E18" s="60">
+        <v>265105</v>
+      </c>
+      <c r="F18" s="60">
+        <v>286092</v>
+      </c>
+      <c r="G18" s="63">
+        <v>-20987</v>
+      </c>
+      <c r="H18" s="60">
+        <v>213177</v>
+      </c>
+      <c r="I18" s="60">
+        <v>135919</v>
+      </c>
+      <c r="J18" s="63">
+        <v>77258</v>
+      </c>
+      <c r="K18" s="60">
+        <v>65415</v>
+      </c>
+      <c r="L18" s="60">
+        <v>103894</v>
+      </c>
+      <c r="M18" s="63">
+        <v>38480</v>
+      </c>
+      <c r="N18" s="61">
+        <v>270200</v>
+      </c>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="63">
-        <v>1166594</v>
-      </c>
-      <c r="C19" s="63">
-        <v>918200</v>
-      </c>
-      <c r="D19" s="65">
-        <v>248394</v>
-      </c>
-      <c r="E19" s="63">
-        <v>253318</v>
-      </c>
-      <c r="F19" s="63">
-        <v>271834</v>
-      </c>
-      <c r="G19" s="66">
-        <v>-18516</v>
-      </c>
-      <c r="H19" s="63">
-        <v>202782</v>
-      </c>
-      <c r="I19" s="63">
-        <v>133458</v>
-      </c>
-      <c r="J19" s="66">
-        <v>69324</v>
-      </c>
-      <c r="K19" s="63">
-        <v>71769</v>
-      </c>
-      <c r="L19" s="63">
-        <v>111189</v>
-      </c>
-      <c r="M19" s="66">
-        <v>39420</v>
-      </c>
-      <c r="N19" s="64">
-        <v>259781</v>
-      </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="31"/>
+        <v>2017</v>
+      </c>
+      <c r="B19" s="60">
+        <v>1256858</v>
+      </c>
+      <c r="C19" s="60">
+        <v>1001782</v>
+      </c>
+      <c r="D19" s="62">
+        <v>255077</v>
+      </c>
+      <c r="E19" s="60">
+        <v>284032</v>
+      </c>
+      <c r="F19" s="60">
+        <v>308026</v>
+      </c>
+      <c r="G19" s="63">
+        <v>-23994</v>
+      </c>
+      <c r="H19" s="60">
+        <v>209623</v>
+      </c>
+      <c r="I19" s="60">
+        <v>132577</v>
+      </c>
+      <c r="J19" s="63">
+        <v>77046</v>
+      </c>
+      <c r="K19" s="60">
+        <v>66827</v>
+      </c>
+      <c r="L19" s="60">
+        <v>118992</v>
+      </c>
+      <c r="M19" s="63">
+        <v>52165</v>
+      </c>
+      <c r="N19" s="61">
+        <v>255964</v>
+      </c>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="63">
-        <v>1179166</v>
-      </c>
-      <c r="C20" s="63">
-        <v>926757</v>
-      </c>
-      <c r="D20" s="65">
-        <v>252409</v>
-      </c>
-      <c r="E20" s="63">
-        <v>265105</v>
-      </c>
-      <c r="F20" s="63">
-        <v>286092</v>
-      </c>
-      <c r="G20" s="66">
-        <v>-20987</v>
-      </c>
-      <c r="H20" s="63">
-        <v>213177</v>
-      </c>
-      <c r="I20" s="63">
-        <v>135919</v>
-      </c>
-      <c r="J20" s="66">
-        <v>77258</v>
-      </c>
-      <c r="K20" s="63">
-        <v>65415</v>
-      </c>
-      <c r="L20" s="63">
-        <v>103894</v>
-      </c>
-      <c r="M20" s="66">
-        <v>38480</v>
-      </c>
-      <c r="N20" s="64">
-        <v>270200</v>
-      </c>
-      <c r="O20" s="50"/>
+        <v>2018</v>
+      </c>
+      <c r="B20" s="60">
+        <v>1290468</v>
+      </c>
+      <c r="C20" s="60">
+        <v>1068485</v>
+      </c>
+      <c r="D20" s="62">
+        <v>221983</v>
+      </c>
+      <c r="E20" s="60">
+        <v>302691</v>
+      </c>
+      <c r="F20" s="60">
+        <v>318497</v>
+      </c>
+      <c r="G20" s="63">
+        <v>-15806</v>
+      </c>
+      <c r="H20" s="60">
+        <v>241703</v>
+      </c>
+      <c r="I20" s="60">
+        <v>129314</v>
+      </c>
+      <c r="J20" s="62">
+        <v>112389</v>
+      </c>
+      <c r="K20" s="60">
+        <v>69522</v>
+      </c>
+      <c r="L20" s="60">
+        <v>120479</v>
+      </c>
+      <c r="M20" s="63">
+        <v>50958</v>
+      </c>
+      <c r="N20" s="61">
+        <v>267609</v>
+      </c>
+      <c r="O20" s="47"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="63">
-        <v>1256858</v>
-      </c>
-      <c r="C21" s="63">
-        <v>1001782</v>
-      </c>
-      <c r="D21" s="65">
-        <v>255077</v>
-      </c>
-      <c r="E21" s="63">
-        <v>284032</v>
-      </c>
-      <c r="F21" s="63">
-        <v>308026</v>
-      </c>
-      <c r="G21" s="66">
-        <v>-23994</v>
-      </c>
-      <c r="H21" s="63">
-        <v>209623</v>
-      </c>
-      <c r="I21" s="63">
-        <v>132577</v>
-      </c>
-      <c r="J21" s="66">
-        <v>77046</v>
-      </c>
-      <c r="K21" s="63">
-        <v>66827</v>
-      </c>
-      <c r="L21" s="63">
-        <v>118992</v>
-      </c>
-      <c r="M21" s="66">
-        <v>52165</v>
-      </c>
-      <c r="N21" s="64">
-        <v>255964</v>
-      </c>
-      <c r="O21" s="50"/>
+        <v>2019</v>
+      </c>
+      <c r="B21" s="60">
+        <v>1309678</v>
+      </c>
+      <c r="C21" s="60">
+        <v>1090130</v>
+      </c>
+      <c r="D21" s="62">
+        <v>219548</v>
+      </c>
+      <c r="E21" s="60">
+        <v>327594</v>
+      </c>
+      <c r="F21" s="60">
+        <v>341148</v>
+      </c>
+      <c r="G21" s="63">
+        <v>-13553</v>
+      </c>
+      <c r="H21" s="60">
+        <v>251148</v>
+      </c>
+      <c r="I21" s="60">
+        <v>122547</v>
+      </c>
+      <c r="J21" s="62">
+        <v>128602</v>
+      </c>
+      <c r="K21" s="60">
+        <v>80366</v>
+      </c>
+      <c r="L21" s="60">
+        <v>131112</v>
+      </c>
+      <c r="M21" s="63">
+        <v>50747</v>
+      </c>
+      <c r="N21" s="61">
+        <v>283849</v>
+      </c>
+      <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="63">
-        <v>1290468</v>
-      </c>
-      <c r="C22" s="63">
-        <v>1068485</v>
-      </c>
-      <c r="D22" s="65">
-        <v>221983</v>
-      </c>
-      <c r="E22" s="63">
-        <v>302691</v>
-      </c>
-      <c r="F22" s="63">
-        <v>318497</v>
-      </c>
-      <c r="G22" s="66">
-        <v>-15806</v>
-      </c>
-      <c r="H22" s="63">
-        <v>241703</v>
-      </c>
-      <c r="I22" s="63">
-        <v>129314</v>
-      </c>
-      <c r="J22" s="65">
-        <v>112389</v>
-      </c>
-      <c r="K22" s="63">
-        <v>69522</v>
-      </c>
-      <c r="L22" s="63">
-        <v>120479</v>
-      </c>
-      <c r="M22" s="66">
-        <v>50958</v>
-      </c>
-      <c r="N22" s="64">
-        <v>267609</v>
-      </c>
-      <c r="O22" s="50"/>
+        <v>2020</v>
+      </c>
+      <c r="B22" s="60">
+        <v>1188235</v>
+      </c>
+      <c r="C22" s="60">
+        <v>1005510</v>
+      </c>
+      <c r="D22" s="62">
+        <v>182725</v>
+      </c>
+      <c r="E22" s="60">
+        <v>292007</v>
+      </c>
+      <c r="F22" s="60">
+        <v>285373</v>
+      </c>
+      <c r="G22" s="63">
+        <v>6634</v>
+      </c>
+      <c r="H22" s="60">
+        <v>188409</v>
+      </c>
+      <c r="I22" s="60">
+        <v>102372</v>
+      </c>
+      <c r="J22" s="63">
+        <v>86037</v>
+      </c>
+      <c r="K22" s="60">
+        <v>84416</v>
+      </c>
+      <c r="L22" s="60">
+        <v>137304</v>
+      </c>
+      <c r="M22" s="63">
+        <v>52889</v>
+      </c>
+      <c r="N22" s="61">
+        <v>222507</v>
+      </c>
+      <c r="O22" s="47"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="63">
-        <v>1309678</v>
-      </c>
-      <c r="C23" s="63">
-        <v>1090130</v>
-      </c>
-      <c r="D23" s="65">
-        <v>219548</v>
-      </c>
-      <c r="E23" s="63">
-        <v>327594</v>
-      </c>
-      <c r="F23" s="63">
-        <v>341148</v>
-      </c>
-      <c r="G23" s="66">
-        <v>-13553</v>
-      </c>
-      <c r="H23" s="63">
-        <v>251148</v>
-      </c>
-      <c r="I23" s="63">
-        <v>122547</v>
-      </c>
-      <c r="J23" s="65">
-        <v>128602</v>
-      </c>
-      <c r="K23" s="63">
-        <v>80366</v>
-      </c>
-      <c r="L23" s="63">
-        <v>131112</v>
-      </c>
-      <c r="M23" s="66">
-        <v>50747</v>
-      </c>
-      <c r="N23" s="64">
-        <v>283849</v>
-      </c>
-      <c r="O23" s="50"/>
+        <v>2021</v>
+      </c>
+      <c r="B23" s="60">
+        <v>1375112</v>
+      </c>
+      <c r="C23" s="60">
+        <v>1178621</v>
+      </c>
+      <c r="D23" s="62">
+        <v>196491</v>
+      </c>
+      <c r="E23" s="60">
+        <v>345547</v>
+      </c>
+      <c r="F23" s="60">
+        <v>343932</v>
+      </c>
+      <c r="G23" s="63">
+        <v>1615</v>
+      </c>
+      <c r="H23" s="60">
+        <v>240492</v>
+      </c>
+      <c r="I23" s="60">
+        <v>117311</v>
+      </c>
+      <c r="J23" s="62">
+        <v>123181</v>
+      </c>
+      <c r="K23" s="60">
+        <v>100009</v>
+      </c>
+      <c r="L23" s="60">
+        <v>157841</v>
+      </c>
+      <c r="M23" s="63">
+        <v>57832</v>
+      </c>
+      <c r="N23" s="61">
+        <v>263454</v>
+      </c>
+      <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="63">
-        <v>1188235</v>
-      </c>
-      <c r="C24" s="63">
-        <v>1005510</v>
-      </c>
-      <c r="D24" s="65">
-        <v>182725</v>
-      </c>
-      <c r="E24" s="63">
-        <v>292007</v>
-      </c>
-      <c r="F24" s="63">
-        <v>285373</v>
-      </c>
-      <c r="G24" s="66">
-        <v>6634</v>
-      </c>
-      <c r="H24" s="63">
-        <v>188409</v>
-      </c>
-      <c r="I24" s="63">
-        <v>102372</v>
-      </c>
-      <c r="J24" s="66">
-        <v>86037</v>
-      </c>
-      <c r="K24" s="63">
-        <v>84416</v>
-      </c>
-      <c r="L24" s="63">
-        <v>137304</v>
-      </c>
-      <c r="M24" s="66">
-        <v>52889</v>
-      </c>
-      <c r="N24" s="64">
-        <v>222507</v>
-      </c>
-      <c r="O24" s="50"/>
+        <v>2022</v>
+      </c>
+      <c r="B24" s="60">
+        <v>1579998</v>
+      </c>
+      <c r="C24" s="60">
+        <v>1454082</v>
+      </c>
+      <c r="D24" s="62">
+        <v>125916</v>
+      </c>
+      <c r="E24" s="60">
+        <v>409171</v>
+      </c>
+      <c r="F24" s="60">
+        <v>446460</v>
+      </c>
+      <c r="G24" s="63">
+        <v>-37289</v>
+      </c>
+      <c r="H24" s="60">
+        <v>313856</v>
+      </c>
+      <c r="I24" s="60">
+        <v>171762</v>
+      </c>
+      <c r="J24" s="62">
+        <v>142094</v>
+      </c>
+      <c r="K24" s="60">
+        <v>102436</v>
+      </c>
+      <c r="L24" s="60">
+        <v>168526</v>
+      </c>
+      <c r="M24" s="63">
+        <v>66091</v>
+      </c>
+      <c r="N24" s="61">
+        <v>164630</v>
+      </c>
+      <c r="O24" s="47"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="63">
-        <v>1375112</v>
-      </c>
-      <c r="C25" s="63">
-        <v>1178621</v>
+      <c r="A25" s="43">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="64">
+        <v>1539230</v>
+      </c>
+      <c r="C25" s="64">
+        <v>1312409</v>
       </c>
       <c r="D25" s="65">
-        <v>196491</v>
-      </c>
-      <c r="E25" s="63">
-        <v>345547</v>
-      </c>
-      <c r="F25" s="63">
-        <v>343932</v>
+        <v>226821</v>
+      </c>
+      <c r="E25" s="64">
+        <v>406931</v>
+      </c>
+      <c r="F25" s="64">
+        <v>469925</v>
       </c>
       <c r="G25" s="66">
-        <v>1615</v>
-      </c>
-      <c r="H25" s="63">
-        <v>240492</v>
-      </c>
-      <c r="I25" s="63">
-        <v>117311</v>
+        <v>-62994</v>
+      </c>
+      <c r="H25" s="64">
+        <v>399945</v>
+      </c>
+      <c r="I25" s="64">
+        <v>256044</v>
       </c>
       <c r="J25" s="65">
-        <v>123181</v>
-      </c>
-      <c r="K25" s="63">
-        <v>100009</v>
-      </c>
-      <c r="L25" s="63">
-        <v>157841</v>
+        <v>143901</v>
+      </c>
+      <c r="K25" s="64">
+        <v>108997</v>
+      </c>
+      <c r="L25" s="64">
+        <v>173614</v>
       </c>
       <c r="M25" s="66">
-        <v>57832</v>
-      </c>
-      <c r="N25" s="64">
-        <v>263454</v>
-      </c>
-      <c r="O25" s="50"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="63">
-        <v>1579998</v>
-      </c>
-      <c r="C26" s="63">
-        <v>1454082</v>
-      </c>
-      <c r="D26" s="65">
-        <v>125916</v>
-      </c>
-      <c r="E26" s="63">
-        <v>409171</v>
-      </c>
-      <c r="F26" s="63">
-        <v>446460</v>
-      </c>
-      <c r="G26" s="66">
-        <v>-37289</v>
-      </c>
-      <c r="H26" s="63">
-        <v>313856</v>
-      </c>
-      <c r="I26" s="63">
-        <v>171762</v>
-      </c>
-      <c r="J26" s="65">
-        <v>142094</v>
-      </c>
-      <c r="K26" s="63">
-        <v>102436</v>
-      </c>
-      <c r="L26" s="63">
-        <v>168526</v>
-      </c>
-      <c r="M26" s="66">
-        <v>66091</v>
-      </c>
-      <c r="N26" s="64">
-        <v>164630</v>
-      </c>
-      <c r="O26" s="50"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="44">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="67">
-        <v>1539230</v>
-      </c>
-      <c r="C27" s="67">
-        <v>1312409</v>
-      </c>
-      <c r="D27" s="68">
-        <v>226821</v>
-      </c>
-      <c r="E27" s="67">
-        <v>406931</v>
-      </c>
-      <c r="F27" s="67">
-        <v>469925</v>
-      </c>
-      <c r="G27" s="69">
-        <v>-62994</v>
-      </c>
-      <c r="H27" s="67">
-        <v>399945</v>
-      </c>
-      <c r="I27" s="67">
-        <v>256044</v>
-      </c>
-      <c r="J27" s="68">
-        <v>143901</v>
-      </c>
-      <c r="K27" s="67">
-        <v>108997</v>
-      </c>
-      <c r="L27" s="67">
-        <v>173614</v>
-      </c>
-      <c r="M27" s="69">
         <v>64616</v>
       </c>
-      <c r="N27" s="70">
+      <c r="N25" s="67">
         <v>243112</v>
       </c>
-      <c r="O27" s="50"/>
+      <c r="O25" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895DD7F4-37A4-4B44-8724-4E9B7066EDE4}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Q9" sqref="Q8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13477,1149 +13393,1066 @@
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="114" t="s">
+    <row r="1" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="111" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="115"/>
-      <c r="C2" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="112"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="116"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="113"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="45">
-        <v>14</v>
-      </c>
-      <c r="C4" s="19">
-        <v>15</v>
-      </c>
-      <c r="D4" s="19">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19">
-        <v>17</v>
-      </c>
-      <c r="F4" s="19">
-        <v>18</v>
-      </c>
-      <c r="G4" s="19">
-        <v>19</v>
-      </c>
-      <c r="H4" s="19">
-        <v>20</v>
-      </c>
-      <c r="I4" s="19">
-        <v>21</v>
-      </c>
-      <c r="J4" s="19">
-        <v>22</v>
-      </c>
-      <c r="K4" s="19">
-        <v>23</v>
-      </c>
-      <c r="L4" s="19">
-        <v>24</v>
-      </c>
-      <c r="M4" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M1" s="70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="44" cm="1">
+        <f t="array" ref="B2:M2">'Table 2'!AB5:AM5/1000000*'Table 1'!AN26</f>
+        <v>5065.0440615632378</v>
+      </c>
+      <c r="C2" s="44">
+        <v>-162864.5410581663</v>
+      </c>
+      <c r="D2" s="44">
+        <v>164092.57697152716</v>
+      </c>
+      <c r="E2" s="44">
+        <v>0</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0</v>
+      </c>
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44">
+        <v>0</v>
+      </c>
+      <c r="K2" s="44">
+        <v>0</v>
+      </c>
+      <c r="L2" s="45">
+        <v>-43858.684785476304</v>
+      </c>
+      <c r="M2" s="46">
+        <v>-12071.59162063728</v>
+      </c>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="48" cm="1">
+        <f t="array" ref="B3:M3">'Table 2'!AB6:AM6/1000000*'Table 1'!AN27</f>
+        <v>-3200.4970867869561</v>
+      </c>
+      <c r="C3" s="48">
+        <v>14771.594202920778</v>
+      </c>
+      <c r="D3" s="48">
+        <v>-29636.016659355777</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0</v>
+      </c>
+      <c r="I3" s="48">
+        <v>0</v>
+      </c>
+      <c r="J3" s="48">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
+        <v>0</v>
+      </c>
+      <c r="L3" s="49">
+        <v>1087.7212373744035</v>
+      </c>
+      <c r="M3" s="50">
+        <v>12174.551528642221</v>
+      </c>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="48" cm="1">
+        <f t="array" ref="B4:M4">'Table 2'!AB7:AM7/1000000*'Table 1'!AN28</f>
+        <v>-4173.6609777492522</v>
+      </c>
+      <c r="C4" s="48">
+        <v>-35860.417885788731</v>
+      </c>
+      <c r="D4" s="48">
+        <v>-66869.435331512213</v>
+      </c>
+      <c r="E4" s="48">
+        <v>0</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <v>0</v>
+      </c>
+      <c r="H4" s="48">
+        <v>0</v>
+      </c>
+      <c r="I4" s="48">
+        <v>0</v>
+      </c>
+      <c r="J4" s="48">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
+        <v>0</v>
+      </c>
+      <c r="L4" s="49">
+        <v>10070.507217505263</v>
+      </c>
+      <c r="M4" s="50">
+        <v>-27566.903307583998</v>
+      </c>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="47" cm="1">
-        <f t="array" ref="B5:M5">'Table 2'!AB5:AM5/1000000*'Table 1'!AN26</f>
-        <v>5065.0440615632378</v>
-      </c>
-      <c r="C5" s="47">
-        <v>-162864.5410581663</v>
-      </c>
-      <c r="D5" s="47">
-        <v>164092.57697152716</v>
-      </c>
-      <c r="E5" s="47">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="48" cm="1">
+        <f t="array" ref="B5:M5">'Table 2'!AB8:AM8/1000000*'Table 1'!AN29</f>
+        <v>6230.9337985775228</v>
+      </c>
+      <c r="C5" s="48">
+        <v>-23097.943617019646</v>
+      </c>
+      <c r="D5" s="48">
+        <v>-53645.018124742302</v>
+      </c>
+      <c r="E5" s="48">
         <v>0</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>0</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="48">
         <v>0</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="48">
         <v>0</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="48">
         <v>0</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="48">
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="48">
-        <v>-43858.684785476304</v>
-      </c>
-      <c r="M5" s="49">
-        <v>-12071.59162063728</v>
-      </c>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="49">
+        <v>48554.732414026112</v>
+      </c>
+      <c r="M5" s="50">
+        <v>10478.435124551328</v>
+      </c>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2001</v>
-      </c>
-      <c r="B6" s="51" cm="1">
-        <f t="array" ref="B6:M6">'Table 2'!AB6:AM6/1000000*'Table 1'!AN27</f>
-        <v>-3200.4970867869561</v>
-      </c>
-      <c r="C6" s="51">
-        <v>14771.594202920778</v>
-      </c>
-      <c r="D6" s="51">
-        <v>-29636.016659355777</v>
-      </c>
-      <c r="E6" s="51">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="48" cm="1">
+        <f t="array" ref="B6:M6">'Table 2'!AB9:AM9/1000000*'Table 1'!AN30</f>
+        <v>-150.14593527440564</v>
+      </c>
+      <c r="C6" s="48">
+        <v>23772.659493029278</v>
+      </c>
+      <c r="D6" s="48">
+        <v>-15508.70159786363</v>
+      </c>
+      <c r="E6" s="48">
         <v>0</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="48">
         <v>0</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="48">
         <v>0</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="48">
         <v>0</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="48">
         <v>0</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="48">
         <v>0</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="48">
         <v>0</v>
       </c>
-      <c r="L6" s="52">
-        <v>1087.7212373744035</v>
-      </c>
-      <c r="M6" s="53">
-        <v>12174.551528642221</v>
-      </c>
-      <c r="N6" s="50"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="49">
+        <v>111808.17011677743</v>
+      </c>
+      <c r="M6" s="50">
+        <v>9131.8680791196784</v>
+      </c>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2002</v>
-      </c>
-      <c r="B7" s="51" cm="1">
-        <f t="array" ref="B7:M7">'Table 2'!AB7:AM7/1000000*'Table 1'!AN28</f>
-        <v>-4173.6609777492522</v>
-      </c>
-      <c r="C7" s="51">
-        <v>-35860.417885788731</v>
-      </c>
-      <c r="D7" s="51">
-        <v>-66869.435331512213</v>
-      </c>
-      <c r="E7" s="51">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="48" cm="1">
+        <f t="array" ref="B7:M7">'Table 2'!AB10:AM10/1000000*'Table 1'!AN31</f>
+        <v>-2413.7290044590732</v>
+      </c>
+      <c r="C7" s="48">
+        <v>23458.836213208226</v>
+      </c>
+      <c r="D7" s="48">
+        <v>28717.324581587902</v>
+      </c>
+      <c r="E7" s="48">
         <v>0</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="48">
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="48">
         <v>0</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="48">
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="48">
         <v>0</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="48">
         <v>0</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="48">
         <v>0</v>
       </c>
-      <c r="L7" s="52">
-        <v>10070.507217505263</v>
-      </c>
-      <c r="M7" s="53">
-        <v>-27566.903307583998</v>
-      </c>
-      <c r="N7" s="50"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="49">
+        <v>97103.236252298404</v>
+      </c>
+      <c r="M7" s="50">
+        <v>-7810.3991288331372</v>
+      </c>
+      <c r="N7" s="47"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2003</v>
-      </c>
-      <c r="B8" s="51" cm="1">
-        <f t="array" ref="B8:M8">'Table 2'!AB8:AM8/1000000*'Table 1'!AN29</f>
-        <v>6230.9337985775228</v>
-      </c>
-      <c r="C8" s="51">
-        <v>-23097.943617019646</v>
-      </c>
-      <c r="D8" s="51">
-        <v>-53645.018124742302</v>
-      </c>
-      <c r="E8" s="51">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="48" cm="1">
+        <f t="array" ref="B8:M8">'Table 2'!AB11:AM11/1000000*'Table 1'!AN32</f>
+        <v>-1360.7443293014999</v>
+      </c>
+      <c r="C8" s="48">
+        <v>48039.618250117295</v>
+      </c>
+      <c r="D8" s="48">
+        <v>17800.466808791345</v>
+      </c>
+      <c r="E8" s="48">
         <v>0</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="48">
         <v>0</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="48">
         <v>0</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="48">
         <v>0</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="48">
         <v>0</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="48">
         <v>0</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="48">
         <v>0</v>
       </c>
-      <c r="L8" s="52">
-        <v>48554.732414026112</v>
-      </c>
-      <c r="M8" s="53">
-        <v>10478.435124551328</v>
-      </c>
-      <c r="N8" s="50"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L8" s="49">
+        <v>156170.36270697301</v>
+      </c>
+      <c r="M8" s="50">
+        <v>19844.425311007933</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2004</v>
-      </c>
-      <c r="B9" s="51" cm="1">
-        <f t="array" ref="B9:M9">'Table 2'!AB9:AM9/1000000*'Table 1'!AN30</f>
-        <v>-150.14593527440564</v>
-      </c>
-      <c r="C9" s="51">
-        <v>23772.659493029278</v>
-      </c>
-      <c r="D9" s="51">
-        <v>-15508.70159786363</v>
-      </c>
-      <c r="E9" s="51">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="48" cm="1">
+        <f t="array" ref="B9:M9">'Table 2'!AB12:AM12/1000000*'Table 1'!AN33</f>
+        <v>-1689.7233162792554</v>
+      </c>
+      <c r="C9" s="48">
+        <v>65551.137541368545</v>
+      </c>
+      <c r="D9" s="48">
+        <v>-157147.16258217883</v>
+      </c>
+      <c r="E9" s="48">
         <v>0</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="48">
         <v>0</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="48">
         <v>0</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="48">
         <v>0</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="48">
         <v>0</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="48">
         <v>0</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="48">
         <v>0</v>
       </c>
-      <c r="L9" s="52">
-        <v>111808.17011677743</v>
-      </c>
-      <c r="M9" s="53">
-        <v>9131.8680791196784</v>
-      </c>
-      <c r="N9" s="50"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L9" s="49">
+        <v>184927.51895242702</v>
+      </c>
+      <c r="M9" s="50">
+        <v>14515.157765459051</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2005</v>
-      </c>
-      <c r="B10" s="51" cm="1">
-        <f t="array" ref="B10:M10">'Table 2'!AB10:AM10/1000000*'Table 1'!AN31</f>
-        <v>-2413.7290044590732</v>
-      </c>
-      <c r="C10" s="51">
-        <v>23458.836213208226</v>
-      </c>
-      <c r="D10" s="51">
-        <v>28717.324581587902</v>
-      </c>
-      <c r="E10" s="51">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="48" cm="1">
+        <f t="array" ref="B10:M10">'Table 2'!AB13:AM13/1000000*'Table 1'!AN34</f>
+        <v>-827.73068802738771</v>
+      </c>
+      <c r="C10" s="48">
+        <v>45626.86736826993</v>
+      </c>
+      <c r="D10" s="48">
+        <v>-30358.209439578568</v>
+      </c>
+      <c r="E10" s="48">
         <v>0</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="48">
         <v>0</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="48">
         <v>0</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="48">
         <v>0</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>0</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="48">
         <v>0</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="48">
         <v>0</v>
       </c>
-      <c r="L10" s="52">
-        <v>97103.236252298404</v>
-      </c>
-      <c r="M10" s="53">
-        <v>-7810.3991288331372</v>
-      </c>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10" s="49">
+        <v>122306.679414417</v>
+      </c>
+      <c r="M10" s="50">
+        <v>-21932.615807666531</v>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" s="51" cm="1">
-        <f t="array" ref="B11:M11">'Table 2'!AB11:AM11/1000000*'Table 1'!AN32</f>
-        <v>-1360.7443293014999</v>
-      </c>
-      <c r="C11" s="51">
-        <v>48039.618250117295</v>
-      </c>
-      <c r="D11" s="51">
-        <v>17800.466808791345</v>
-      </c>
-      <c r="E11" s="51">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51">
-        <v>0</v>
-      </c>
-      <c r="G11" s="51">
-        <v>0</v>
-      </c>
-      <c r="H11" s="51">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51">
-        <v>0</v>
-      </c>
-      <c r="K11" s="51">
-        <v>0</v>
-      </c>
-      <c r="L11" s="52">
-        <v>156170.36270697301</v>
-      </c>
-      <c r="M11" s="53">
-        <v>19844.425311007933</v>
-      </c>
-      <c r="N11" s="50"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="51">
+        <v>-1858</v>
+      </c>
+      <c r="C11" s="52">
+        <v>32203</v>
+      </c>
+      <c r="D11" s="52">
+        <v>85437</v>
+      </c>
+      <c r="E11" s="52">
+        <v>-6843</v>
+      </c>
+      <c r="F11" s="52">
+        <v>10248</v>
+      </c>
+      <c r="G11" s="52">
+        <v>-62956</v>
+      </c>
+      <c r="H11" s="53">
+        <v>15723</v>
+      </c>
+      <c r="I11" s="53">
+        <v>5285</v>
+      </c>
+      <c r="J11" s="53">
+        <v>52195</v>
+      </c>
+      <c r="K11" s="53">
+        <v>8648</v>
+      </c>
+      <c r="L11" s="53">
+        <v>129693</v>
+      </c>
+      <c r="M11" s="52">
+        <v>-11194</v>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2007</v>
-      </c>
-      <c r="B12" s="51" cm="1">
-        <f t="array" ref="B12:M12">'Table 2'!AB12:AM12/1000000*'Table 1'!AN33</f>
-        <v>-1689.7233162792554</v>
-      </c>
-      <c r="C12" s="51">
-        <v>65551.137541368545</v>
-      </c>
-      <c r="D12" s="51">
-        <v>-157147.16258217883</v>
-      </c>
-      <c r="E12" s="51">
-        <v>0</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0</v>
-      </c>
-      <c r="G12" s="51">
-        <v>0</v>
-      </c>
-      <c r="H12" s="51">
-        <v>0</v>
-      </c>
-      <c r="I12" s="51">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51">
-        <v>0</v>
-      </c>
-      <c r="K12" s="51">
-        <v>0</v>
-      </c>
-      <c r="L12" s="52">
-        <v>184927.51895242702</v>
+        <v>2010</v>
+      </c>
+      <c r="B12" s="51">
+        <v>1219</v>
+      </c>
+      <c r="C12" s="53">
+        <v>45158</v>
+      </c>
+      <c r="D12" s="53">
+        <v>112835</v>
+      </c>
+      <c r="E12" s="53">
+        <v>13539</v>
+      </c>
+      <c r="F12" s="53">
+        <v>80388</v>
+      </c>
+      <c r="G12" s="53">
+        <v>-217132</v>
+      </c>
+      <c r="H12" s="53">
+        <v>50241</v>
+      </c>
+      <c r="I12" s="53">
+        <v>-36338</v>
+      </c>
+      <c r="J12" s="53">
+        <v>122841</v>
+      </c>
+      <c r="K12" s="53">
+        <v>1613</v>
+      </c>
+      <c r="L12" s="53">
+        <v>92757</v>
       </c>
       <c r="M12" s="53">
-        <v>14515.157765459051</v>
-      </c>
-      <c r="N12" s="50"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-55760</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="51" cm="1">
-        <f t="array" ref="B13:M13">'Table 2'!AB13:AM13/1000000*'Table 1'!AN34</f>
-        <v>-827.73068802738771</v>
-      </c>
-      <c r="C13" s="51">
-        <v>45626.86736826993</v>
-      </c>
-      <c r="D13" s="51">
-        <v>-30358.209439578568</v>
-      </c>
-      <c r="E13" s="51">
-        <v>0</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0</v>
-      </c>
-      <c r="H13" s="51">
-        <v>0</v>
-      </c>
-      <c r="I13" s="51">
-        <v>0</v>
-      </c>
-      <c r="J13" s="51">
-        <v>0</v>
-      </c>
-      <c r="K13" s="51">
-        <v>0</v>
-      </c>
-      <c r="L13" s="52">
-        <v>122306.679414417</v>
+        <v>2011</v>
+      </c>
+      <c r="B13" s="51">
+        <v>419</v>
+      </c>
+      <c r="C13" s="53">
+        <v>7492</v>
+      </c>
+      <c r="D13" s="53">
+        <v>-34315</v>
+      </c>
+      <c r="E13" s="53">
+        <v>28591</v>
+      </c>
+      <c r="F13" s="53">
+        <v>116254</v>
+      </c>
+      <c r="G13" s="53">
+        <v>46433</v>
+      </c>
+      <c r="H13" s="53">
+        <v>-10544</v>
+      </c>
+      <c r="I13" s="53">
+        <v>2442</v>
+      </c>
+      <c r="J13" s="53">
+        <v>77924</v>
+      </c>
+      <c r="K13" s="53">
+        <v>2836</v>
+      </c>
+      <c r="L13" s="53">
+        <v>120857</v>
       </c>
       <c r="M13" s="53">
-        <v>-21932.615807666531</v>
-      </c>
-      <c r="N13" s="50"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-46902</v>
+      </c>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2009</v>
-      </c>
-      <c r="B14" s="54">
-        <v>-1858</v>
-      </c>
-      <c r="C14" s="55">
-        <v>32203</v>
-      </c>
-      <c r="D14" s="55">
-        <v>85437</v>
-      </c>
-      <c r="E14" s="55">
-        <v>-6843</v>
-      </c>
-      <c r="F14" s="55">
-        <v>10248</v>
-      </c>
-      <c r="G14" s="55">
-        <v>-62956</v>
-      </c>
-      <c r="H14" s="56">
-        <v>15723</v>
-      </c>
-      <c r="I14" s="56">
-        <v>5285</v>
-      </c>
-      <c r="J14" s="56">
-        <v>52195</v>
-      </c>
-      <c r="K14" s="56">
-        <v>8648</v>
-      </c>
-      <c r="L14" s="56">
-        <v>129693</v>
-      </c>
-      <c r="M14" s="55">
-        <v>-11194</v>
-      </c>
-      <c r="N14" s="50"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="51">
+        <v>-413</v>
+      </c>
+      <c r="C14" s="53">
+        <v>26449</v>
+      </c>
+      <c r="D14" s="53">
+        <v>51786</v>
+      </c>
+      <c r="E14" s="53">
+        <v>24138</v>
+      </c>
+      <c r="F14" s="53">
+        <v>47748</v>
+      </c>
+      <c r="G14" s="53">
+        <v>-117589</v>
+      </c>
+      <c r="H14" s="53">
+        <v>-16326</v>
+      </c>
+      <c r="I14" s="53">
+        <v>80501</v>
+      </c>
+      <c r="J14" s="53">
+        <v>101161</v>
+      </c>
+      <c r="K14" s="53">
+        <v>1297</v>
+      </c>
+      <c r="L14" s="53">
+        <v>151417</v>
+      </c>
+      <c r="M14" s="53">
+        <v>-43882</v>
+      </c>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
-      </c>
-      <c r="B15" s="54">
-        <v>1219</v>
-      </c>
-      <c r="C15" s="56">
-        <v>45158</v>
-      </c>
-      <c r="D15" s="56">
-        <v>112835</v>
-      </c>
-      <c r="E15" s="56">
-        <v>13539</v>
-      </c>
-      <c r="F15" s="56">
-        <v>80388</v>
-      </c>
-      <c r="G15" s="56">
-        <v>-217132</v>
-      </c>
-      <c r="H15" s="56">
-        <v>50241</v>
-      </c>
-      <c r="I15" s="56">
-        <v>-36338</v>
-      </c>
-      <c r="J15" s="56">
-        <v>122841</v>
-      </c>
-      <c r="K15" s="56">
-        <v>1613</v>
-      </c>
-      <c r="L15" s="56">
-        <v>92757</v>
-      </c>
-      <c r="M15" s="56">
-        <v>-55760</v>
-      </c>
-      <c r="N15" s="50"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="51">
+        <v>-563</v>
+      </c>
+      <c r="C15" s="53">
+        <v>20144</v>
+      </c>
+      <c r="D15" s="53">
+        <v>158100</v>
+      </c>
+      <c r="E15" s="53">
+        <v>23894</v>
+      </c>
+      <c r="F15" s="53">
+        <v>23038</v>
+      </c>
+      <c r="G15" s="53">
+        <v>101589</v>
+      </c>
+      <c r="H15" s="53">
+        <v>34051</v>
+      </c>
+      <c r="I15" s="53">
+        <v>10022</v>
+      </c>
+      <c r="J15" s="53">
+        <v>-122624</v>
+      </c>
+      <c r="K15" s="53">
+        <v>838</v>
+      </c>
+      <c r="L15" s="53">
+        <v>226014</v>
+      </c>
+      <c r="M15" s="53">
+        <v>42224</v>
+      </c>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2011</v>
-      </c>
-      <c r="B16" s="54">
-        <v>419</v>
-      </c>
-      <c r="C16" s="56">
-        <v>7492</v>
-      </c>
-      <c r="D16" s="56">
-        <v>-34315</v>
-      </c>
-      <c r="E16" s="56">
-        <v>28591</v>
-      </c>
-      <c r="F16" s="56">
-        <v>116254</v>
-      </c>
-      <c r="G16" s="56">
-        <v>46433</v>
-      </c>
-      <c r="H16" s="56">
-        <v>-10544</v>
-      </c>
-      <c r="I16" s="56">
-        <v>2442</v>
-      </c>
-      <c r="J16" s="56">
-        <v>77924</v>
-      </c>
-      <c r="K16" s="56">
-        <v>2836</v>
-      </c>
-      <c r="L16" s="56">
-        <v>120857</v>
-      </c>
-      <c r="M16" s="56">
-        <v>-46902</v>
-      </c>
-      <c r="N16" s="50"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="51">
+        <v>3255</v>
+      </c>
+      <c r="C16" s="53">
+        <v>65628</v>
+      </c>
+      <c r="D16" s="53">
+        <v>126365</v>
+      </c>
+      <c r="E16" s="53">
+        <v>38547</v>
+      </c>
+      <c r="F16" s="53">
+        <v>2956</v>
+      </c>
+      <c r="G16" s="53">
+        <v>43725</v>
+      </c>
+      <c r="H16" s="53">
+        <v>-20149</v>
+      </c>
+      <c r="I16" s="53">
+        <v>22987</v>
+      </c>
+      <c r="J16" s="53">
+        <v>-43606</v>
+      </c>
+      <c r="K16" s="53">
+        <v>-2564</v>
+      </c>
+      <c r="L16" s="53">
+        <v>230931</v>
+      </c>
+      <c r="M16" s="53">
+        <v>16200</v>
+      </c>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2012</v>
-      </c>
-      <c r="B17" s="54">
-        <v>-413</v>
-      </c>
-      <c r="C17" s="56">
-        <v>26449</v>
-      </c>
-      <c r="D17" s="56">
-        <v>51786</v>
-      </c>
-      <c r="E17" s="56">
-        <v>24138</v>
-      </c>
-      <c r="F17" s="56">
-        <v>47748</v>
-      </c>
-      <c r="G17" s="56">
-        <v>-117589</v>
-      </c>
-      <c r="H17" s="56">
-        <v>-16326</v>
-      </c>
-      <c r="I17" s="56">
-        <v>80501</v>
-      </c>
-      <c r="J17" s="56">
-        <v>101161</v>
-      </c>
-      <c r="K17" s="56">
-        <v>1297</v>
-      </c>
-      <c r="L17" s="56">
-        <v>151417</v>
-      </c>
-      <c r="M17" s="56">
-        <v>-43882</v>
-      </c>
-      <c r="N17" s="50"/>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="51">
+        <v>265</v>
+      </c>
+      <c r="C17" s="53">
+        <v>61685</v>
+      </c>
+      <c r="D17" s="53">
+        <v>192659</v>
+      </c>
+      <c r="E17" s="53">
+        <v>30388</v>
+      </c>
+      <c r="F17" s="53">
+        <v>44787</v>
+      </c>
+      <c r="G17" s="53">
+        <v>-48935</v>
+      </c>
+      <c r="H17" s="53">
+        <v>-34094</v>
+      </c>
+      <c r="I17" s="53">
+        <v>-751</v>
+      </c>
+      <c r="J17" s="53">
+        <v>38994</v>
+      </c>
+      <c r="K17" s="53">
+        <v>-2213</v>
+      </c>
+      <c r="L17" s="53">
+        <v>237733</v>
+      </c>
+      <c r="M17" s="53">
+        <v>-22313</v>
+      </c>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="54">
-        <v>-563</v>
-      </c>
-      <c r="C18" s="56">
-        <v>20144</v>
-      </c>
-      <c r="D18" s="56">
-        <v>158100</v>
-      </c>
-      <c r="E18" s="56">
-        <v>23894</v>
-      </c>
-      <c r="F18" s="56">
-        <v>23038</v>
-      </c>
-      <c r="G18" s="56">
-        <v>101589</v>
-      </c>
-      <c r="H18" s="56">
-        <v>34051</v>
-      </c>
-      <c r="I18" s="56">
-        <v>10022</v>
-      </c>
-      <c r="J18" s="56">
-        <v>-122624</v>
-      </c>
-      <c r="K18" s="56">
-        <v>838</v>
-      </c>
-      <c r="L18" s="56">
-        <v>226014</v>
-      </c>
-      <c r="M18" s="56">
-        <v>42224</v>
-      </c>
-      <c r="N18" s="50"/>
+        <v>2016</v>
+      </c>
+      <c r="B18" s="51">
+        <v>2451</v>
+      </c>
+      <c r="C18" s="53">
+        <v>43462</v>
+      </c>
+      <c r="D18" s="53">
+        <v>196931</v>
+      </c>
+      <c r="E18" s="53">
+        <v>28605</v>
+      </c>
+      <c r="F18" s="53">
+        <v>11777</v>
+      </c>
+      <c r="G18" s="53">
+        <v>-68228</v>
+      </c>
+      <c r="H18" s="53">
+        <v>-7300</v>
+      </c>
+      <c r="I18" s="53">
+        <v>4109</v>
+      </c>
+      <c r="J18" s="53">
+        <v>59642</v>
+      </c>
+      <c r="K18" s="53">
+        <v>1686</v>
+      </c>
+      <c r="L18" s="53">
+        <v>258906</v>
+      </c>
+      <c r="M18" s="53">
+        <v>-13744</v>
+      </c>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2014</v>
-      </c>
-      <c r="B19" s="54">
-        <v>3255</v>
-      </c>
-      <c r="C19" s="56">
-        <v>65628</v>
-      </c>
-      <c r="D19" s="56">
-        <v>126365</v>
-      </c>
-      <c r="E19" s="56">
-        <v>38547</v>
-      </c>
-      <c r="F19" s="56">
-        <v>2956</v>
-      </c>
-      <c r="G19" s="56">
-        <v>43725</v>
-      </c>
-      <c r="H19" s="56">
-        <v>-20149</v>
-      </c>
-      <c r="I19" s="56">
-        <v>22987</v>
-      </c>
-      <c r="J19" s="56">
-        <v>-43606</v>
-      </c>
-      <c r="K19" s="56">
-        <v>-2564</v>
-      </c>
-      <c r="L19" s="56">
-        <v>230931</v>
-      </c>
-      <c r="M19" s="56">
-        <v>16200</v>
-      </c>
-      <c r="N19" s="50"/>
+        <v>2017</v>
+      </c>
+      <c r="B19" s="51">
+        <v>-2653</v>
+      </c>
+      <c r="C19" s="53">
+        <v>33362</v>
+      </c>
+      <c r="D19" s="53">
+        <v>195393</v>
+      </c>
+      <c r="E19" s="53">
+        <v>11122</v>
+      </c>
+      <c r="F19" s="53">
+        <v>29699</v>
+      </c>
+      <c r="G19" s="53">
+        <v>-38656</v>
+      </c>
+      <c r="H19" s="53">
+        <v>-15993</v>
+      </c>
+      <c r="I19" s="53">
+        <v>4721</v>
+      </c>
+      <c r="J19" s="53">
+        <v>79626</v>
+      </c>
+      <c r="K19" s="53">
+        <v>-1269</v>
+      </c>
+      <c r="L19" s="53">
+        <v>268306</v>
+      </c>
+      <c r="M19" s="53">
+        <v>14996</v>
+      </c>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="54">
-        <v>265</v>
-      </c>
-      <c r="C20" s="56">
-        <v>61685</v>
-      </c>
-      <c r="D20" s="56">
-        <v>192659</v>
-      </c>
-      <c r="E20" s="56">
-        <v>30388</v>
-      </c>
-      <c r="F20" s="56">
-        <v>44787</v>
-      </c>
-      <c r="G20" s="56">
-        <v>-48935</v>
-      </c>
-      <c r="H20" s="56">
-        <v>-34094</v>
-      </c>
-      <c r="I20" s="56">
-        <v>-751</v>
-      </c>
-      <c r="J20" s="56">
-        <v>38994</v>
-      </c>
-      <c r="K20" s="56">
-        <v>-2213</v>
-      </c>
-      <c r="L20" s="56">
-        <v>237733</v>
-      </c>
-      <c r="M20" s="56">
-        <v>-22313</v>
-      </c>
-      <c r="N20" s="50"/>
+        <v>2018</v>
+      </c>
+      <c r="B20" s="51">
+        <v>914</v>
+      </c>
+      <c r="C20" s="53">
+        <v>21249</v>
+      </c>
+      <c r="D20" s="53">
+        <v>150181</v>
+      </c>
+      <c r="E20" s="53">
+        <v>22668</v>
+      </c>
+      <c r="F20" s="53">
+        <v>48399</v>
+      </c>
+      <c r="G20" s="53">
+        <v>85552</v>
+      </c>
+      <c r="H20" s="53">
+        <v>19852</v>
+      </c>
+      <c r="I20" s="53">
+        <v>-12176</v>
+      </c>
+      <c r="J20" s="53">
+        <v>-44828</v>
+      </c>
+      <c r="K20" s="53">
+        <v>392</v>
+      </c>
+      <c r="L20" s="53">
+        <v>242889</v>
+      </c>
+      <c r="M20" s="53">
+        <v>-25634</v>
+      </c>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="54">
-        <v>2451</v>
-      </c>
-      <c r="C21" s="56">
-        <v>43462</v>
-      </c>
-      <c r="D21" s="56">
-        <v>196931</v>
-      </c>
-      <c r="E21" s="56">
-        <v>28605</v>
-      </c>
-      <c r="F21" s="56">
-        <v>11777</v>
-      </c>
-      <c r="G21" s="56">
-        <v>-68228</v>
-      </c>
-      <c r="H21" s="56">
-        <v>-7300</v>
-      </c>
-      <c r="I21" s="56">
-        <v>4109</v>
-      </c>
-      <c r="J21" s="56">
-        <v>59642</v>
-      </c>
-      <c r="K21" s="56">
-        <v>1686</v>
-      </c>
-      <c r="L21" s="56">
-        <v>258906</v>
-      </c>
-      <c r="M21" s="56">
-        <v>-13744</v>
-      </c>
-      <c r="N21" s="50"/>
+        <v>2019</v>
+      </c>
+      <c r="B21" s="51">
+        <v>-3705</v>
+      </c>
+      <c r="C21" s="53">
+        <v>87894</v>
+      </c>
+      <c r="D21" s="53">
+        <v>74008</v>
+      </c>
+      <c r="E21" s="53">
+        <v>20553</v>
+      </c>
+      <c r="F21" s="53">
+        <v>18401</v>
+      </c>
+      <c r="G21" s="53">
+        <v>19920</v>
+      </c>
+      <c r="H21" s="53">
+        <v>-28796</v>
+      </c>
+      <c r="I21" s="53">
+        <v>-1429</v>
+      </c>
+      <c r="J21" s="53">
+        <v>28706</v>
+      </c>
+      <c r="K21" s="53">
+        <v>-544</v>
+      </c>
+      <c r="L21" s="53">
+        <v>200312</v>
+      </c>
+      <c r="M21" s="53">
+        <v>-79832</v>
+      </c>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="54">
-        <v>-2653</v>
-      </c>
-      <c r="C22" s="56">
-        <v>33362</v>
-      </c>
-      <c r="D22" s="56">
-        <v>195393</v>
-      </c>
-      <c r="E22" s="56">
-        <v>11122</v>
-      </c>
-      <c r="F22" s="56">
-        <v>29699</v>
-      </c>
-      <c r="G22" s="56">
-        <v>-38656</v>
-      </c>
-      <c r="H22" s="56">
-        <v>-15993</v>
-      </c>
-      <c r="I22" s="56">
-        <v>4721</v>
-      </c>
-      <c r="J22" s="56">
-        <v>79626</v>
-      </c>
-      <c r="K22" s="56">
-        <v>-1269</v>
-      </c>
-      <c r="L22" s="56">
-        <v>268306</v>
-      </c>
-      <c r="M22" s="56">
-        <v>14996</v>
-      </c>
-      <c r="N22" s="50"/>
+        <v>2020</v>
+      </c>
+      <c r="B22" s="51">
+        <v>-10345</v>
+      </c>
+      <c r="C22" s="53">
+        <v>-27363</v>
+      </c>
+      <c r="D22" s="53">
+        <v>17245</v>
+      </c>
+      <c r="E22" s="53">
+        <v>93177</v>
+      </c>
+      <c r="F22" s="53">
+        <v>85760</v>
+      </c>
+      <c r="G22" s="53">
+        <v>-112738</v>
+      </c>
+      <c r="H22" s="53">
+        <v>56271</v>
+      </c>
+      <c r="I22" s="53">
+        <v>10057</v>
+      </c>
+      <c r="J22" s="53">
+        <v>132170</v>
+      </c>
+      <c r="K22" s="53">
+        <v>-51</v>
+      </c>
+      <c r="L22" s="53">
+        <v>168767</v>
+      </c>
+      <c r="M22" s="53">
+        <v>-43395</v>
+      </c>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="54">
-        <v>914</v>
-      </c>
-      <c r="C23" s="56">
-        <v>21249</v>
-      </c>
-      <c r="D23" s="56">
-        <v>150181</v>
-      </c>
-      <c r="E23" s="56">
-        <v>22668</v>
-      </c>
-      <c r="F23" s="56">
-        <v>48399</v>
-      </c>
-      <c r="G23" s="56">
-        <v>85552</v>
-      </c>
-      <c r="H23" s="56">
-        <v>19852</v>
-      </c>
-      <c r="I23" s="56">
-        <v>-12176</v>
-      </c>
-      <c r="J23" s="56">
-        <v>-44828</v>
-      </c>
-      <c r="K23" s="56">
-        <v>392</v>
-      </c>
-      <c r="L23" s="56">
-        <v>242889</v>
-      </c>
-      <c r="M23" s="56">
-        <v>-25634</v>
-      </c>
-      <c r="N23" s="50"/>
+        <v>2021</v>
+      </c>
+      <c r="B23" s="51">
+        <v>-2593</v>
+      </c>
+      <c r="C23" s="53">
+        <v>81494</v>
+      </c>
+      <c r="D23" s="53">
+        <v>197193</v>
+      </c>
+      <c r="E23" s="53">
+        <v>47880</v>
+      </c>
+      <c r="F23" s="53">
+        <v>149480</v>
+      </c>
+      <c r="G23" s="53">
+        <v>-48383</v>
+      </c>
+      <c r="H23" s="53">
+        <v>6085</v>
+      </c>
+      <c r="I23" s="53">
+        <v>-3780</v>
+      </c>
+      <c r="J23" s="53">
+        <v>-103402</v>
+      </c>
+      <c r="K23" s="53">
+        <v>31892</v>
+      </c>
+      <c r="L23" s="53">
+        <v>208978</v>
+      </c>
+      <c r="M23" s="53">
+        <v>-51883</v>
+      </c>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="54">
-        <v>-3705</v>
-      </c>
-      <c r="C24" s="56">
-        <v>87894</v>
-      </c>
-      <c r="D24" s="56">
-        <v>74008</v>
-      </c>
-      <c r="E24" s="56">
-        <v>20553</v>
-      </c>
-      <c r="F24" s="56">
-        <v>18401</v>
-      </c>
-      <c r="G24" s="56">
-        <v>19920</v>
-      </c>
-      <c r="H24" s="56">
-        <v>-28796</v>
-      </c>
-      <c r="I24" s="56">
-        <v>-1429</v>
-      </c>
-      <c r="J24" s="56">
-        <v>28706</v>
-      </c>
-      <c r="K24" s="56">
-        <v>-544</v>
-      </c>
-      <c r="L24" s="56">
-        <v>200312</v>
-      </c>
-      <c r="M24" s="56">
-        <v>-79832</v>
-      </c>
-      <c r="N24" s="50"/>
+        <v>2022</v>
+      </c>
+      <c r="B24" s="51">
+        <v>-21644</v>
+      </c>
+      <c r="C24" s="53">
+        <v>112166</v>
+      </c>
+      <c r="D24" s="53">
+        <v>10732</v>
+      </c>
+      <c r="E24" s="53">
+        <v>41519</v>
+      </c>
+      <c r="F24" s="53">
+        <v>29346</v>
+      </c>
+      <c r="G24" s="53">
+        <v>-93531</v>
+      </c>
+      <c r="H24" s="53">
+        <v>37389</v>
+      </c>
+      <c r="I24" s="53">
+        <v>-19396</v>
+      </c>
+      <c r="J24" s="53">
+        <v>104884</v>
+      </c>
+      <c r="K24" s="53">
+        <v>4426</v>
+      </c>
+      <c r="L24" s="53">
+        <v>198190</v>
+      </c>
+      <c r="M24" s="53">
+        <v>55204</v>
+      </c>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B25" s="54">
-        <v>-10345</v>
-      </c>
-      <c r="C25" s="56">
-        <v>-27363</v>
-      </c>
-      <c r="D25" s="56">
-        <v>17245</v>
-      </c>
-      <c r="E25" s="56">
-        <v>93177</v>
-      </c>
-      <c r="F25" s="56">
-        <v>85760</v>
-      </c>
-      <c r="G25" s="56">
-        <v>-112738</v>
-      </c>
-      <c r="H25" s="56">
-        <v>56271</v>
-      </c>
-      <c r="I25" s="56">
-        <v>10057</v>
-      </c>
-      <c r="J25" s="56">
-        <v>132170</v>
-      </c>
-      <c r="K25" s="56">
-        <v>-51</v>
-      </c>
-      <c r="L25" s="56">
-        <v>168767</v>
-      </c>
-      <c r="M25" s="56">
-        <v>-43395</v>
-      </c>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="54">
-        <v>-2593</v>
-      </c>
-      <c r="C26" s="56">
-        <v>81494</v>
-      </c>
-      <c r="D26" s="56">
-        <v>197193</v>
-      </c>
-      <c r="E26" s="56">
-        <v>47880</v>
-      </c>
-      <c r="F26" s="56">
-        <v>149480</v>
-      </c>
-      <c r="G26" s="56">
-        <v>-48383</v>
-      </c>
-      <c r="H26" s="56">
-        <v>6085</v>
-      </c>
-      <c r="I26" s="56">
-        <v>-3780</v>
-      </c>
-      <c r="J26" s="56">
-        <v>-103402</v>
-      </c>
-      <c r="K26" s="56">
-        <v>31892</v>
-      </c>
-      <c r="L26" s="56">
-        <v>208978</v>
-      </c>
-      <c r="M26" s="56">
-        <v>-51883</v>
-      </c>
-      <c r="N26" s="50"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="54">
-        <v>-21644</v>
-      </c>
-      <c r="C27" s="56">
-        <v>112166</v>
-      </c>
-      <c r="D27" s="56">
-        <v>10732</v>
-      </c>
-      <c r="E27" s="56">
-        <v>41519</v>
-      </c>
-      <c r="F27" s="56">
-        <v>29346</v>
-      </c>
-      <c r="G27" s="56">
-        <v>-93531</v>
-      </c>
-      <c r="H27" s="56">
-        <v>37389</v>
-      </c>
-      <c r="I27" s="56">
-        <v>-19396</v>
-      </c>
-      <c r="J27" s="56">
-        <v>104884</v>
-      </c>
-      <c r="K27" s="56">
-        <v>4426</v>
-      </c>
-      <c r="L27" s="56">
-        <v>198190</v>
-      </c>
-      <c r="M27" s="56">
-        <v>55204</v>
-      </c>
-      <c r="N27" s="50"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2023</v>
-      </c>
-      <c r="B28" s="57">
         <v>-27252</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C25" s="55">
         <v>59704</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D25" s="55">
         <v>1152</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E25" s="55">
         <v>39966</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F25" s="55">
         <v>130880</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G25" s="55">
         <v>97432</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H25" s="55">
         <v>60193</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I25" s="55">
         <v>7346</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J25" s="55">
         <v>-34090</v>
       </c>
-      <c r="K28" s="58">
+      <c r="K25" s="55">
         <v>884</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L25" s="55">
         <v>232587</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M25" s="55">
         <v>16727</v>
       </c>
-      <c r="N28" s="50"/>
+      <c r="N25" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EDB33-C033-48FC-8F2A-D53BE596AD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB39025-0607-4B5F-BE59-F115C59BC8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1221,49 +1221,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,55 +1248,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1684,95 +1684,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="88"/>
-      <c r="W1" s="78" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="77"/>
+      <c r="W1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="78" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="80" t="s">
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="89"/>
+      <c r="R2" s="79"/>
       <c r="V2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="78" t="s">
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="78" t="s">
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="80" t="s">
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="78" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1783,42 +1783,42 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="92"/>
+      <c r="L3" s="83"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="90"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="81"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="81"/>
+      <c r="AI3" s="80"/>
       <c r="AK3" t="s">
         <v>32</v>
       </c>
@@ -1870,44 +1870,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="84">
         <v>3</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="84">
         <v>6</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="86">
-        <v>9</v>
-      </c>
-      <c r="L4" s="87"/>
+      <c r="K4" s="84">
+        <v>9</v>
+      </c>
+      <c r="L4" s="85"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="86">
+      <c r="O4" s="84">
         <v>12</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="85"/>
+      <c r="Q4" s="84">
         <v>13</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="85"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
@@ -1947,12 +1947,12 @@
       <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AK4" s="75" t="s">
+      <c r="AK4" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="77"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="92"/>
     </row>
     <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1961,10 +1961,10 @@
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="86">
         <v>140626</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -2001,10 +2001,10 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="86">
         <v>142744</v>
       </c>
-      <c r="R5" s="85"/>
+      <c r="R5" s="87"/>
       <c r="S5">
         <v>2009</v>
       </c>
@@ -2094,10 +2094,10 @@
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="88">
         <v>160829</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -2134,10 +2134,10 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="88">
         <v>147298</v>
       </c>
-      <c r="R6" s="83"/>
+      <c r="R6" s="89"/>
       <c r="S6">
         <v>2010</v>
       </c>
@@ -2227,10 +2227,10 @@
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="88">
         <v>162970</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -2267,10 +2267,10 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="88">
         <v>167340</v>
       </c>
-      <c r="R7" s="83"/>
+      <c r="R7" s="89"/>
       <c r="S7">
         <v>2011</v>
       </c>
@@ -2327,10 +2327,10 @@
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="88">
         <v>199531</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -2367,10 +2367,10 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="88">
         <v>195712</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="89"/>
       <c r="S8">
         <v>2012</v>
       </c>
@@ -2430,10 +2430,10 @@
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="88">
         <v>203802</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -2470,10 +2470,10 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="88">
         <v>184352</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="89"/>
       <c r="S9">
         <v>2013</v>
       </c>
@@ -2563,10 +2563,10 @@
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="88">
         <v>219629</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -2603,10 +2603,10 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="88">
         <v>211477</v>
       </c>
-      <c r="R10" s="83"/>
+      <c r="R10" s="89"/>
       <c r="S10">
         <v>2014</v>
       </c>
@@ -2663,10 +2663,10 @@
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="88">
         <v>248394</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -2703,10 +2703,10 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="88">
         <v>259781</v>
       </c>
-      <c r="R11" s="83"/>
+      <c r="R11" s="89"/>
       <c r="S11">
         <v>2015</v>
       </c>
@@ -2766,10 +2766,10 @@
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="88">
         <v>252409</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -2806,10 +2806,10 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="88">
         <v>270200</v>
       </c>
-      <c r="R12" s="83"/>
+      <c r="R12" s="89"/>
       <c r="S12">
         <v>2016</v>
       </c>
@@ -2902,10 +2902,10 @@
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="88">
         <v>255077</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -2942,10 +2942,10 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="88">
         <v>255964</v>
       </c>
-      <c r="R13" s="83"/>
+      <c r="R13" s="89"/>
       <c r="S13">
         <v>2017</v>
       </c>
@@ -3038,10 +3038,10 @@
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="88">
         <v>221983</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -3060,10 +3060,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="88">
         <v>112389</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -3076,10 +3076,10 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="82">
+      <c r="Q14" s="88">
         <v>267609</v>
       </c>
-      <c r="R14" s="83"/>
+      <c r="R14" s="89"/>
       <c r="S14">
         <v>2018</v>
       </c>
@@ -3104,10 +3104,10 @@
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="88">
         <v>219548</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -3126,10 +3126,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="88">
         <v>128602</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -3142,10 +3142,10 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="88">
         <v>283849</v>
       </c>
-      <c r="R15" s="83"/>
+      <c r="R15" s="89"/>
       <c r="S15">
         <v>2019</v>
       </c>
@@ -3193,10 +3193,10 @@
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="88">
         <v>182725</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -3233,10 +3233,10 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="82">
+      <c r="Q16" s="88">
         <v>222507</v>
       </c>
-      <c r="R16" s="83"/>
+      <c r="R16" s="89"/>
       <c r="S16">
         <v>2020</v>
       </c>
@@ -3251,10 +3251,10 @@
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="88">
         <v>196491</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -3273,10 +3273,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="88">
         <v>123181</v>
       </c>
-      <c r="L17" s="83"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -3289,10 +3289,10 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="88">
         <v>263454</v>
       </c>
-      <c r="R17" s="83"/>
+      <c r="R17" s="89"/>
       <c r="S17" s="22">
         <v>2021</v>
       </c>
@@ -3311,10 +3311,10 @@
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="88">
         <v>125916</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -3333,10 +3333,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="88">
         <v>142094</v>
       </c>
-      <c r="L18" s="83"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -3349,10 +3349,10 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="82">
+      <c r="Q18" s="88">
         <v>164630</v>
       </c>
-      <c r="R18" s="83"/>
+      <c r="R18" s="89"/>
       <c r="S18">
         <v>2022</v>
       </c>
@@ -3400,10 +3400,10 @@
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="88">
         <v>226821</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="88">
         <v>143901</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -3438,10 +3438,10 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="82">
+      <c r="Q19" s="88">
         <v>243112</v>
       </c>
-      <c r="R19" s="83"/>
+      <c r="R19" s="89"/>
       <c r="S19">
         <v>2023</v>
       </c>
@@ -6222,6 +6222,53 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="W1:AI1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6232,53 +6279,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="W1:AI1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6588,127 +6588,127 @@
       <c r="A1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="88"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="102"/>
+      <c r="X1" s="94"/>
       <c r="AB1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
       <c r="AM1" s="93" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="96" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="80" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="78" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="100" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="109"/>
-      <c r="U2" s="80" t="s">
+      <c r="T2" s="108"/>
+      <c r="U2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="103"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="96" t="s">
+      <c r="V2" s="79"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="96"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="80" t="s">
+      <c r="AD2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="98" t="s">
+      <c r="AE2" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AF2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="100" t="s">
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="80" t="s">
+      <c r="AL2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="94"/>
+      <c r="AM2" s="95"/>
     </row>
     <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="91" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="92"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="111" t="s">
         <v>21</v>
       </c>
@@ -6721,20 +6721,20 @@
         <v>23</v>
       </c>
       <c r="P3" s="114"/>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="92"/>
-      <c r="S3" s="101"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="110"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="104"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="99"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="98"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="105"/>
       <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
@@ -6750,62 +6750,62 @@
       <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="95"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="97"/>
       <c r="AY3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="84">
         <v>14</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="86">
+      <c r="B4" s="85"/>
+      <c r="C4" s="84">
         <v>15</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86">
+      <c r="D4" s="85"/>
+      <c r="E4" s="84">
         <v>16</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="85"/>
+      <c r="G4" s="84">
         <v>17</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="85"/>
+      <c r="I4" s="84">
         <v>18</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="85"/>
+      <c r="K4" s="84">
         <v>19</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="85"/>
+      <c r="M4" s="84">
         <v>20</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="85"/>
+      <c r="O4" s="84">
         <v>21</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="85"/>
+      <c r="Q4" s="84">
         <v>22</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="86">
+      <c r="R4" s="85"/>
+      <c r="S4" s="84">
         <v>23</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="86">
+      <c r="T4" s="85"/>
+      <c r="U4" s="84">
         <v>24</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="86">
+      <c r="V4" s="85"/>
+      <c r="W4" s="84">
         <v>25</v>
       </c>
-      <c r="X4" s="87"/>
+      <c r="X4" s="85"/>
       <c r="AB4" s="18">
         <v>14</v>
       </c>
@@ -11497,6 +11497,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W1:X3"/>
@@ -11511,27 +11532,6 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
@@ -12227,8 +12227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1215FD3-43C2-4A46-86F2-13091B45B0E6}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12736,7 +12736,7 @@
         <v>76242</v>
       </c>
       <c r="M11" s="60">
-        <v>34764</v>
+        <v>-34764</v>
       </c>
       <c r="N11" s="61">
         <v>142744</v>
@@ -12781,7 +12781,7 @@
         <v>82209</v>
       </c>
       <c r="M12" s="63">
-        <v>39582</v>
+        <v>-39582</v>
       </c>
       <c r="N12" s="61">
         <v>147298</v>
@@ -12826,7 +12826,7 @@
         <v>85788</v>
       </c>
       <c r="M13" s="63">
-        <v>34787</v>
+        <v>-34787</v>
       </c>
       <c r="N13" s="61">
         <v>167340</v>
@@ -12871,7 +12871,7 @@
         <v>91641</v>
       </c>
       <c r="M14" s="63">
-        <v>38703</v>
+        <v>-38703</v>
       </c>
       <c r="N14" s="61">
         <v>195712</v>
@@ -12916,7 +12916,7 @@
         <v>103734</v>
       </c>
       <c r="M15" s="63">
-        <v>43413</v>
+        <v>-43413</v>
       </c>
       <c r="N15" s="61">
         <v>184352</v>
@@ -12961,7 +12961,7 @@
         <v>103970</v>
       </c>
       <c r="M16" s="63">
-        <v>41495</v>
+        <v>-41495</v>
       </c>
       <c r="N16" s="61">
         <v>211477</v>
@@ -13006,7 +13006,7 @@
         <v>111189</v>
       </c>
       <c r="M17" s="63">
-        <v>39420</v>
+        <v>-39420</v>
       </c>
       <c r="N17" s="61">
         <v>259781</v>
@@ -13052,7 +13052,7 @@
         <v>103894</v>
       </c>
       <c r="M18" s="63">
-        <v>38480</v>
+        <v>-38480</v>
       </c>
       <c r="N18" s="61">
         <v>270200</v>
@@ -13097,7 +13097,7 @@
         <v>118992</v>
       </c>
       <c r="M19" s="63">
-        <v>52165</v>
+        <v>-52165</v>
       </c>
       <c r="N19" s="61">
         <v>255964</v>
@@ -13142,7 +13142,7 @@
         <v>120479</v>
       </c>
       <c r="M20" s="63">
-        <v>50958</v>
+        <v>-50958</v>
       </c>
       <c r="N20" s="61">
         <v>267609</v>
@@ -13187,7 +13187,7 @@
         <v>131112</v>
       </c>
       <c r="M21" s="63">
-        <v>50747</v>
+        <v>-50747</v>
       </c>
       <c r="N21" s="61">
         <v>283849</v>
@@ -13232,7 +13232,7 @@
         <v>137304</v>
       </c>
       <c r="M22" s="63">
-        <v>52889</v>
+        <v>-52889</v>
       </c>
       <c r="N22" s="61">
         <v>222507</v>
@@ -13277,7 +13277,7 @@
         <v>157841</v>
       </c>
       <c r="M23" s="63">
-        <v>57832</v>
+        <v>-57832</v>
       </c>
       <c r="N23" s="61">
         <v>263454</v>
@@ -13322,7 +13322,7 @@
         <v>168526</v>
       </c>
       <c r="M24" s="63">
-        <v>66091</v>
+        <v>-66091</v>
       </c>
       <c r="N24" s="61">
         <v>164630</v>
@@ -13367,7 +13367,7 @@
         <v>173614</v>
       </c>
       <c r="M25" s="66">
-        <v>64616</v>
+        <v>-64616</v>
       </c>
       <c r="N25" s="67">
         <v>243112</v>
@@ -13383,8 +13383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895DD7F4-37A4-4B44-8724-4E9B7066EDE4}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q8:Q9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB39025-0607-4B5F-BE59-F115C59BC8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321D51C-CBF6-42C2-8664-C8FDE2173D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Current Account" sheetId="3" r:id="rId3"/>
-    <sheet name="Financial acc and Capital acc" sheetId="4" r:id="rId4"/>
+    <sheet name="%Current Account" sheetId="5" r:id="rId4"/>
+    <sheet name="Financial acc and Capital acc" sheetId="4" r:id="rId5"/>
+    <sheet name="%Financial acc and Capital acc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="96">
   <si>
     <r>
       <rPr>
@@ -594,6 +596,12 @@
   <si>
     <t>Financial derivatives and employee stock options (Financial account)</t>
   </si>
+  <si>
+    <t xml:space="preserve">GDP </t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CPMNACSCAB1GQDE</t>
+  </si>
 </sst>
 </file>
 
@@ -677,7 +685,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1009,13 +1017,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1221,22 +1240,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1248,82 +1294,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1341,6 +1360,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,6 +1387,3697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Procent af Betalingsbalancen løbende poster til BNP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Current Account'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Current Account'!$N$2:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.7470808482404419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36261292426444519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8989055800251027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4376762464676851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5592618794098794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6968725223442576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7707624723227138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8757548473160952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7043044832926908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8410552396774698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7562228036272902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2211925030429338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1251610526242972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.546363088216391</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2126651121086018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5919115689389276</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6343147223693926</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8245178456195026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9401376481604782</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1558843972224206</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5506468302638012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3013269672751981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2538073164555659</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8974686771570601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E640-47A1-8C0D-994A781EAE13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="515637960"/>
+        <c:axId val="515639040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="515637960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515639040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515639040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515637960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="1F497D"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Procent af BNP For Current Account Underbalancer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Varer Balance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Current Account'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Current Account'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.0587889979551734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6287203036676097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4172253285157748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.873016549527736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7806412711323398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8973940131376335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7311559512061514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0620073004884034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3110369239178681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7543871135381099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2849974696504605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0587291874083116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2641969321818722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2370350747736758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4906984017519651</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2153016666154031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0657984632070185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7974033008824915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5863837746548413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3083121928961816</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3794574645289952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4455238376599748</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2534920856394276</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5022777272263061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4427-4A07-BD11-C877F8C09F80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tjenesteydelser Balance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Current Account'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Current Account'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-2.8598397788410588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.010187982155843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1907794205646685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0895533138233024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5538840727257304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6470887116846342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3263401913135258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2925439019136162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1719216584137231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.72190702613342717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.9869340174721124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1127064157767121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.1203692478410121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3962937369367117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.86298777328827225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.6123921095479391</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.67064531117086035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.7334683048701941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.46897456986433378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.38942078793850066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19530617496065319</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4757882029308513E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.96349523794758907</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.5281234239726211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4427-4A07-BD11-C877F8C09F80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Primær Indkomst Balance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Current Account'!$J$2:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.51577432983184746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.64546174409527401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.009833650985734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.94789283045294492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66355685658816543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83328600669272856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7004606776454614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4406475544012878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88798658685704213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2311109110587792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0049747258136685</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5684446423911029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3903686252922975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2472229304519944</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0001889480403121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2927992332199896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4688004693590475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.355205427066307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3346566451020259</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6951444086524803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5329450369444855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4138208459766268</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6715088187112741</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4907846593815948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4427-4A07-BD11-C877F8C09F80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sekundær Indkomst Balance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Current Account'!$M$2:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.4302057461818019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3356848979061267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3177925097110137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3979845296507931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3310958705173723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3867206183574987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.334517372907936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3342748830910967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3228308951878602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.4225357587859915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5468153743647259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.293274910979769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4090352570088609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5416011800725686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.415234464395402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.3037641476765911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2296388990258116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.5946225774591012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5119578723995144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4581226832077836</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5570618461703327</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.6027478845318699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.7076983499475475</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.5674702854782185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4427-4A07-BD11-C877F8C09F80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="614247680"/>
+        <c:axId val="614248040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614247680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614248040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614248040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614247680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Procent af BNP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Balance af Kapital Konto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.24012288408367666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14712155808730107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18955238014512571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28129839248641902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.6573200922785698E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.10562884684719265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.7031480892603494E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.7507923143398138E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2547675958252587E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.6028979398929122E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7637005238507425E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5577146281671981E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5035825676166178E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9992201975925553E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11101550021947304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7645230627675444E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8322373739923706E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.109908363843564E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7118990057952749E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10645643173556739</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.30455869459872736</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.1862035976468716E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.55925047413815376</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.66108549306444853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A279-406C-8C4E-5D74AC506F3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Finansiel Konto Balance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$L$2:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-2.0792462523129727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.000074640524791E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45736551735359304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.192025885235994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9574620587561506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2494011761520882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5454081747198298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3882348762455861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8092915083252423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3070109931029688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6248282977097896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4930958667399299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5125414440872982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0257860344348817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8761660464464294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8627032501166676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.273411870872577</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2017982414979702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2066787485624566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7556007432698992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9685313882400601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7915867930159965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.120950446749247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6421507256487926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A279-406C-8C4E-5D74AC506F3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="695593536"/>
+        <c:axId val="695593896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695593536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695593896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695593896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695593536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364191</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>320488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AB5BA6-9128-6065-9D10-285629404850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5163BC77-C498-6E04-D357-FF59CFA127B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAE51BC-0BD9-D7C3-AE29-4A974B65E95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1649,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV61"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView topLeftCell="AC17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI47" sqref="AI47:AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1684,95 +5404,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-      <c r="W1" s="75" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="88"/>
+      <c r="W1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="75" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="75" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78" t="s">
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="79"/>
+      <c r="R2" s="89"/>
       <c r="V2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="75" t="s">
+      <c r="W2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="75" t="s">
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="75" t="s">
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="75" t="s">
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="78" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="80" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1783,42 +5503,42 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="83"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="83"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="81"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="90"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +5575,7 @@
       <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="80"/>
+      <c r="AI3" s="81"/>
       <c r="AK3" t="s">
         <v>32</v>
       </c>
@@ -1870,44 +5590,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="86">
         <v>3</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="86">
         <v>6</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="84">
-        <v>9</v>
-      </c>
-      <c r="L4" s="85"/>
+      <c r="K4" s="86">
+        <v>9</v>
+      </c>
+      <c r="L4" s="87"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="84">
+      <c r="O4" s="86">
         <v>12</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="84">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="86">
         <v>13</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="87"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
@@ -1947,12 +5667,12 @@
       <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AK4" s="90" t="s">
+      <c r="AK4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="92"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="77"/>
     </row>
     <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1961,10 +5681,10 @@
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="84">
         <v>140626</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -2001,10 +5721,10 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="86">
+      <c r="Q5" s="84">
         <v>142744</v>
       </c>
-      <c r="R5" s="87"/>
+      <c r="R5" s="85"/>
       <c r="S5">
         <v>2009</v>
       </c>
@@ -2094,10 +5814,10 @@
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="82">
         <v>160829</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -2134,10 +5854,10 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="88">
+      <c r="Q6" s="82">
         <v>147298</v>
       </c>
-      <c r="R6" s="89"/>
+      <c r="R6" s="83"/>
       <c r="S6">
         <v>2010</v>
       </c>
@@ -2227,10 +5947,10 @@
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="82">
         <v>162970</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -2267,10 +5987,10 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="88">
+      <c r="Q7" s="82">
         <v>167340</v>
       </c>
-      <c r="R7" s="89"/>
+      <c r="R7" s="83"/>
       <c r="S7">
         <v>2011</v>
       </c>
@@ -2327,10 +6047,10 @@
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="82">
         <v>199531</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -2367,10 +6087,10 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="88">
+      <c r="Q8" s="82">
         <v>195712</v>
       </c>
-      <c r="R8" s="89"/>
+      <c r="R8" s="83"/>
       <c r="S8">
         <v>2012</v>
       </c>
@@ -2430,10 +6150,10 @@
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="82">
         <v>203802</v>
       </c>
-      <c r="D9" s="89"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -2470,10 +6190,10 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="88">
+      <c r="Q9" s="82">
         <v>184352</v>
       </c>
-      <c r="R9" s="89"/>
+      <c r="R9" s="83"/>
       <c r="S9">
         <v>2013</v>
       </c>
@@ -2563,10 +6283,10 @@
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="82">
         <v>219629</v>
       </c>
-      <c r="D10" s="89"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -2603,10 +6323,10 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="88">
+      <c r="Q10" s="82">
         <v>211477</v>
       </c>
-      <c r="R10" s="89"/>
+      <c r="R10" s="83"/>
       <c r="S10">
         <v>2014</v>
       </c>
@@ -2663,10 +6383,10 @@
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="82">
         <v>248394</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -2703,10 +6423,10 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="88">
+      <c r="Q11" s="82">
         <v>259781</v>
       </c>
-      <c r="R11" s="89"/>
+      <c r="R11" s="83"/>
       <c r="S11">
         <v>2015</v>
       </c>
@@ -2766,10 +6486,10 @@
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="82">
         <v>252409</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -2806,10 +6526,10 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="88">
+      <c r="Q12" s="82">
         <v>270200</v>
       </c>
-      <c r="R12" s="89"/>
+      <c r="R12" s="83"/>
       <c r="S12">
         <v>2016</v>
       </c>
@@ -2902,10 +6622,10 @@
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="82">
         <v>255077</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -2942,10 +6662,10 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="88">
+      <c r="Q13" s="82">
         <v>255964</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="83"/>
       <c r="S13">
         <v>2017</v>
       </c>
@@ -3038,10 +6758,10 @@
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="82">
         <v>221983</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -3060,10 +6780,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="82">
         <v>112389</v>
       </c>
-      <c r="L14" s="89"/>
+      <c r="L14" s="83"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -3076,10 +6796,10 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="88">
+      <c r="Q14" s="82">
         <v>267609</v>
       </c>
-      <c r="R14" s="89"/>
+      <c r="R14" s="83"/>
       <c r="S14">
         <v>2018</v>
       </c>
@@ -3104,10 +6824,10 @@
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="82">
         <v>219548</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -3126,10 +6846,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="82">
         <v>128602</v>
       </c>
-      <c r="L15" s="89"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -3142,10 +6862,10 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="88">
+      <c r="Q15" s="82">
         <v>283849</v>
       </c>
-      <c r="R15" s="89"/>
+      <c r="R15" s="83"/>
       <c r="S15">
         <v>2019</v>
       </c>
@@ -3193,10 +6913,10 @@
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="82">
         <v>182725</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -3233,10 +6953,10 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="88">
+      <c r="Q16" s="82">
         <v>222507</v>
       </c>
-      <c r="R16" s="89"/>
+      <c r="R16" s="83"/>
       <c r="S16">
         <v>2020</v>
       </c>
@@ -3251,10 +6971,10 @@
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="82">
         <v>196491</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -3273,10 +6993,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="82">
         <v>123181</v>
       </c>
-      <c r="L17" s="89"/>
+      <c r="L17" s="83"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -3289,10 +7009,10 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="88">
+      <c r="Q17" s="82">
         <v>263454</v>
       </c>
-      <c r="R17" s="89"/>
+      <c r="R17" s="83"/>
       <c r="S17" s="22">
         <v>2021</v>
       </c>
@@ -3311,10 +7031,10 @@
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="82">
         <v>125916</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -3333,10 +7053,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="82">
         <v>142094</v>
       </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -3349,10 +7069,10 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="88">
+      <c r="Q18" s="82">
         <v>164630</v>
       </c>
-      <c r="R18" s="89"/>
+      <c r="R18" s="83"/>
       <c r="S18">
         <v>2022</v>
       </c>
@@ -3400,10 +7120,10 @@
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="82">
         <v>226821</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -3422,10 +7142,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="82">
         <v>143901</v>
       </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -3438,10 +7158,10 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="88">
+      <c r="Q19" s="82">
         <v>243112</v>
       </c>
-      <c r="R19" s="89"/>
+      <c r="R19" s="83"/>
       <c r="S19">
         <v>2023</v>
       </c>
@@ -3939,6 +7659,9 @@
       <c r="T25" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="AH25" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="AK25" s="22" t="s">
         <v>64</v>
       </c>
@@ -4007,6 +7730,9 @@
       <c r="T26" s="22" t="s">
         <v>27</v>
       </c>
+      <c r="AJ26" s="118">
+        <v>2109355</v>
+      </c>
       <c r="AK26">
         <v>2000</v>
       </c>
@@ -4079,6 +7805,9 @@
       <c r="T27" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="AJ27" s="118">
+        <v>2175410</v>
+      </c>
       <c r="AK27">
         <v>2001</v>
       </c>
@@ -4151,6 +7880,9 @@
       <c r="S28">
         <v>2023</v>
       </c>
+      <c r="AJ28" s="118">
+        <v>2201851</v>
+      </c>
       <c r="AK28">
         <v>2002</v>
       </c>
@@ -4217,6 +7949,9 @@
       <c r="R29" s="10">
         <v>45198</v>
       </c>
+      <c r="AJ29" s="118">
+        <v>2215062</v>
+      </c>
       <c r="AK29">
         <v>2003</v>
       </c>
@@ -4283,6 +8018,9 @@
       <c r="R30" s="10">
         <v>65507</v>
       </c>
+      <c r="AJ30" s="118">
+        <v>2255351</v>
+      </c>
       <c r="AK30">
         <v>2004</v>
       </c>
@@ -4349,6 +8087,9 @@
       <c r="R31" s="10">
         <v>68695</v>
       </c>
+      <c r="AJ31" s="118">
+        <v>2285104</v>
+      </c>
       <c r="AK31">
         <v>2005</v>
       </c>
@@ -4415,6 +8156,9 @@
       <c r="R32" s="10">
         <v>17046</v>
       </c>
+      <c r="AJ32" s="118">
+        <v>2385953</v>
+      </c>
       <c r="AK32">
         <v>2006</v>
       </c>
@@ -4481,6 +8225,9 @@
       <c r="R33" s="10">
         <v>24100</v>
       </c>
+      <c r="AJ33" s="118">
+        <v>2503000</v>
+      </c>
       <c r="AK33">
         <v>2007</v>
       </c>
@@ -4547,6 +8294,9 @@
       <c r="R34" s="10">
         <v>16534</v>
       </c>
+      <c r="AJ34" s="118">
+        <v>2543133</v>
+      </c>
       <c r="AK34">
         <v>2008</v>
       </c>
@@ -4613,6 +8363,9 @@
       <c r="R35" s="10">
         <v>20513</v>
       </c>
+      <c r="AJ35" s="118">
+        <v>2443805</v>
+      </c>
       <c r="AK35">
         <v>2009</v>
       </c>
@@ -4679,6 +8432,9 @@
       <c r="R36" s="10">
         <v>25098</v>
       </c>
+      <c r="AJ36" s="118">
+        <v>2558935</v>
+      </c>
       <c r="AK36">
         <v>2010</v>
       </c>
@@ -4745,6 +8501,9 @@
       <c r="R37" s="10">
         <v>15642</v>
       </c>
+      <c r="AJ37" s="118">
+        <v>2689838</v>
+      </c>
       <c r="AK37">
         <v>2011</v>
       </c>
@@ -4811,6 +8570,9 @@
       <c r="R38" s="10">
         <v>22460</v>
       </c>
+      <c r="AJ38" s="118">
+        <v>2746773</v>
+      </c>
       <c r="AK38">
         <v>2012</v>
       </c>
@@ -4877,6 +8639,9 @@
       <c r="R39" s="10">
         <v>20385</v>
       </c>
+      <c r="AJ39" s="118">
+        <v>2816098</v>
+      </c>
       <c r="AK39">
         <v>2013</v>
       </c>
@@ -4943,6 +8708,9 @@
       <c r="R40" s="10">
         <v>11194</v>
       </c>
+      <c r="AJ40" s="118">
+        <v>2932023</v>
+      </c>
       <c r="AK40">
         <v>2014</v>
       </c>
@@ -5009,6 +8777,9 @@
       <c r="R41" s="10">
         <v>4457</v>
       </c>
+      <c r="AJ41" s="118">
+        <v>3023553</v>
+      </c>
       <c r="AK41">
         <v>2015</v>
       </c>
@@ -5075,6 +8846,9 @@
       <c r="R42" s="10">
         <v>11788</v>
       </c>
+      <c r="AJ42" s="118">
+        <v>3129374</v>
+      </c>
       <c r="AK42">
         <v>2016</v>
       </c>
@@ -5141,6 +8915,9 @@
       <c r="R43" s="10">
         <v>8077</v>
       </c>
+      <c r="AJ43" s="118">
+        <v>3271307</v>
+      </c>
       <c r="AK43">
         <v>2017</v>
       </c>
@@ -5207,6 +8984,9 @@
       <c r="R44" s="10">
         <v>1341</v>
       </c>
+      <c r="AJ44" s="118">
+        <v>3370332</v>
+      </c>
       <c r="AK44">
         <v>2018</v>
       </c>
@@ -5273,6 +9053,9 @@
       <c r="R45" s="10">
         <v>12995</v>
       </c>
+      <c r="AJ45" s="118">
+        <v>3480297</v>
+      </c>
       <c r="AK45">
         <v>2019</v>
       </c>
@@ -5339,6 +9122,9 @@
       <c r="R46" s="10">
         <v>8848</v>
       </c>
+      <c r="AJ46" s="118">
+        <v>3396718</v>
+      </c>
       <c r="AK46">
         <v>2020</v>
       </c>
@@ -5405,6 +9191,9 @@
       <c r="R47" s="10">
         <v>20907</v>
       </c>
+      <c r="AJ47" s="118">
+        <v>3608303</v>
+      </c>
       <c r="AK47">
         <v>2021</v>
       </c>
@@ -5471,6 +9260,9 @@
       <c r="R48" s="10">
         <v>26536</v>
       </c>
+      <c r="AJ48" s="118">
+        <v>3870180</v>
+      </c>
       <c r="AK48">
         <v>2022</v>
       </c>
@@ -5537,6 +9329,9 @@
       <c r="R49" s="10">
         <v>17083</v>
       </c>
+      <c r="AJ49" s="118">
+        <v>4122311</v>
+      </c>
       <c r="AK49">
         <v>2023</v>
       </c>
@@ -5603,6 +9398,9 @@
       <c r="R50" s="10">
         <v>20836</v>
       </c>
+      <c r="AI50" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="51" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
@@ -6222,53 +10020,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="W1:AI1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6279,6 +10030,53 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="W1:AI1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6540,8 +10338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView topLeftCell="S4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView topLeftCell="S3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6588,127 +10386,127 @@
       <c r="A1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="94"/>
+      <c r="X1" s="102"/>
       <c r="AB1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
       <c r="AM1" s="93" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="99" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="78" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="103" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="75" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="107" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="108"/>
-      <c r="U2" s="78" t="s">
+      <c r="T2" s="109"/>
+      <c r="U2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="96"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="99" t="s">
+      <c r="V2" s="89"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="103"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AD2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="103" t="s">
+      <c r="AE2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="75" t="s">
+      <c r="AF2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="107" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="78" t="s">
+      <c r="AL2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="95"/>
+      <c r="AM2" s="94"/>
     </row>
     <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="82" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="83"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="111" t="s">
         <v>21</v>
       </c>
@@ -6721,20 +10519,20 @@
         <v>23</v>
       </c>
       <c r="P3" s="114"/>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="83"/>
-      <c r="S3" s="109"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="101"/>
       <c r="T3" s="110"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="98"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="105"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="104"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="99"/>
       <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
@@ -6750,62 +10548,62 @@
       <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="97"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="95"/>
       <c r="AY3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84">
+      <c r="A4" s="86">
         <v>14</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="84">
+      <c r="B4" s="87"/>
+      <c r="C4" s="86">
         <v>15</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="84">
+      <c r="D4" s="87"/>
+      <c r="E4" s="86">
         <v>16</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="84">
+      <c r="F4" s="87"/>
+      <c r="G4" s="86">
         <v>17</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="84">
+      <c r="H4" s="87"/>
+      <c r="I4" s="86">
         <v>18</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="84">
+      <c r="J4" s="87"/>
+      <c r="K4" s="86">
         <v>19</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="84">
+      <c r="L4" s="87"/>
+      <c r="M4" s="86">
         <v>20</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="84">
+      <c r="N4" s="87"/>
+      <c r="O4" s="86">
         <v>21</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="84">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="86">
         <v>22</v>
       </c>
-      <c r="R4" s="85"/>
-      <c r="S4" s="84">
+      <c r="R4" s="87"/>
+      <c r="S4" s="86">
         <v>23</v>
       </c>
-      <c r="T4" s="85"/>
-      <c r="U4" s="84">
+      <c r="T4" s="87"/>
+      <c r="U4" s="86">
         <v>24</v>
       </c>
-      <c r="V4" s="85"/>
-      <c r="W4" s="84">
+      <c r="V4" s="87"/>
+      <c r="W4" s="86">
         <v>25</v>
       </c>
-      <c r="X4" s="85"/>
+      <c r="X4" s="87"/>
       <c r="AB4" s="18">
         <v>14</v>
       </c>
@@ -11497,27 +15295,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W1:X3"/>
@@ -11532,6 +15309,27 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
@@ -12227,8 +16025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1215FD3-43C2-4A46-86F2-13091B45B0E6}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13380,11 +17178,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DFB6B7-72EB-4930-AB1B-1C51C15C30CF}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="115">
+        <v>2000</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:N2">'Current Account'!B2:N2/'Table 1'!AJ26*100</f>
+        <v>26.684915733865477</v>
+      </c>
+      <c r="C2">
+        <v>23.626126735910308</v>
+      </c>
+      <c r="D2">
+        <v>3.0587889979551734</v>
+      </c>
+      <c r="E2">
+        <v>4.1916236942314331</v>
+      </c>
+      <c r="F2">
+        <v>7.0514634730724932</v>
+      </c>
+      <c r="G2">
+        <v>-2.8598397788410588</v>
+      </c>
+      <c r="H2">
+        <v>5.7503669213533541</v>
+      </c>
+      <c r="I2">
+        <v>6.2661836826323274</v>
+      </c>
+      <c r="J2">
+        <v>-0.51577432983184746</v>
+      </c>
+      <c r="K2">
+        <v>1.4956447422770283</v>
+      </c>
+      <c r="L2">
+        <v>2.9258504884588299</v>
+      </c>
+      <c r="M2">
+        <v>-1.4302057461818019</v>
+      </c>
+      <c r="N2">
+        <v>-1.7470808482404419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="115">
+        <v>2001</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" ref="B3:N3">'Current Account'!B3:N3/'Table 1'!AJ27*100</f>
+        <v>27.407211364972326</v>
+      </c>
+      <c r="C3">
+        <v>22.778491061304717</v>
+      </c>
+      <c r="D3">
+        <v>4.6287203036676097</v>
+      </c>
+      <c r="E3">
+        <v>4.2329324612663157</v>
+      </c>
+      <c r="F3">
+        <v>7.2431204434221588</v>
+      </c>
+      <c r="G3">
+        <v>-3.010187982155843</v>
+      </c>
+      <c r="H3">
+        <v>4.9013865266777294</v>
+      </c>
+      <c r="I3">
+        <v>5.5468940286765864</v>
+      </c>
+      <c r="J3">
+        <v>-0.64546174409527401</v>
+      </c>
+      <c r="K3">
+        <v>1.8685421333703482</v>
+      </c>
+      <c r="L3">
+        <v>3.2042270312764751</v>
+      </c>
+      <c r="M3">
+        <v>-1.3356848979061267</v>
+      </c>
+      <c r="N3">
+        <v>-0.36261292426444519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="115">
+        <v>2002</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4:N4">'Current Account'!B4:N4/'Table 1'!AJ28*100</f>
+        <v>27.667825139450109</v>
+      </c>
+      <c r="C4">
+        <v>21.250599810934336</v>
+      </c>
+      <c r="D4">
+        <v>6.4172253285157748</v>
+      </c>
+      <c r="E4">
+        <v>4.7413004481840391</v>
+      </c>
+      <c r="F4">
+        <v>6.9320798687487066</v>
+      </c>
+      <c r="G4">
+        <v>-2.1907794205646685</v>
+      </c>
+      <c r="H4">
+        <v>4.9112267240990466</v>
+      </c>
+      <c r="I4">
+        <v>5.9210635392255728</v>
+      </c>
+      <c r="J4">
+        <v>-1.009833650985734</v>
+      </c>
+      <c r="K4">
+        <v>1.8794078541741137</v>
+      </c>
+      <c r="L4">
+        <v>3.197200363885127</v>
+      </c>
+      <c r="M4">
+        <v>-1.3177925097110137</v>
+      </c>
+      <c r="N4">
+        <v>1.8989055800251027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="115">
+        <v>2003</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" ref="B5:N5">'Current Account'!B5:N5/'Table 1'!AJ29*100</f>
+        <v>28.021234012234604</v>
+      </c>
+      <c r="C5">
+        <v>22.148217462706871</v>
+      </c>
+      <c r="D5">
+        <v>5.873016549527736</v>
+      </c>
+      <c r="E5">
+        <v>4.801936386466835</v>
+      </c>
+      <c r="F5">
+        <v>6.8914897002901387</v>
+      </c>
+      <c r="G5">
+        <v>-2.0895533138233024</v>
+      </c>
+      <c r="H5">
+        <v>5.0541744359811487</v>
+      </c>
+      <c r="I5">
+        <v>6.0020513957189392</v>
+      </c>
+      <c r="J5">
+        <v>-0.94789283045294492</v>
+      </c>
+      <c r="K5">
+        <v>2.2645801386</v>
+      </c>
+      <c r="L5">
+        <v>3.6625646682507935</v>
+      </c>
+      <c r="M5">
+        <v>-1.3979845296507931</v>
+      </c>
+      <c r="N5">
+        <v>1.4376762464676851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="115">
+        <v>2004</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6:N6">'Current Account'!B6:N6/'Table 1'!AJ30*100</f>
+        <v>30.50868293957345</v>
+      </c>
+      <c r="C6">
+        <v>23.728041668441112</v>
+      </c>
+      <c r="D6">
+        <v>6.7806412711323398</v>
+      </c>
+      <c r="E6">
+        <v>5.4322311941536938</v>
+      </c>
+      <c r="F6">
+        <v>6.9861152668794242</v>
+      </c>
+      <c r="G6">
+        <v>-1.5538840727257304</v>
+      </c>
+      <c r="H6">
+        <v>6.3313941506365348</v>
+      </c>
+      <c r="I6">
+        <v>5.6677835207671565</v>
+      </c>
+      <c r="J6">
+        <v>0.66355685658816543</v>
+      </c>
+      <c r="K6">
+        <v>1.7246714736638267</v>
+      </c>
+      <c r="L6">
+        <v>3.0557673441811999</v>
+      </c>
+      <c r="M6">
+        <v>-1.3310958705173723</v>
+      </c>
+      <c r="N6">
+        <v>4.5592618794098794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="115">
+        <v>2005</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7:N7">'Current Account'!B7:N7/'Table 1'!AJ31*100</f>
+        <v>32.451984089176065</v>
+      </c>
+      <c r="C7">
+        <v>25.554590076038437</v>
+      </c>
+      <c r="D7">
+        <v>6.8973940131376335</v>
+      </c>
+      <c r="E7">
+        <v>5.7413723229279787</v>
+      </c>
+      <c r="F7">
+        <v>7.3884610346126118</v>
+      </c>
+      <c r="G7">
+        <v>-1.6470887116846342</v>
+      </c>
+      <c r="H7">
+        <v>7.3221415037169768</v>
+      </c>
+      <c r="I7">
+        <v>6.4888654161730885</v>
+      </c>
+      <c r="J7">
+        <v>0.83328600669272856</v>
+      </c>
+      <c r="K7">
+        <v>1.8621244354091551</v>
+      </c>
+      <c r="L7">
+        <v>3.2488450537666544</v>
+      </c>
+      <c r="M7">
+        <v>-1.3867206183574987</v>
+      </c>
+      <c r="N7">
+        <v>4.6968725223442576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="115">
+        <v>2006</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8:N8">'Current Account'!B8:N8/'Table 1'!AJ32*100</f>
+        <v>35.183644081080601</v>
+      </c>
+      <c r="C8">
+        <v>28.45248812987445</v>
+      </c>
+      <c r="D8">
+        <v>6.7311559512061514</v>
+      </c>
+      <c r="E8">
+        <v>6.1419316746452086</v>
+      </c>
+      <c r="F8">
+        <v>7.4682718659587337</v>
+      </c>
+      <c r="G8">
+        <v>-1.3263401913135258</v>
+      </c>
+      <c r="H8">
+        <v>8.7245761217545237</v>
+      </c>
+      <c r="I8">
+        <v>7.0241429768732582</v>
+      </c>
+      <c r="J8">
+        <v>1.7004606776454614</v>
+      </c>
+      <c r="K8">
+        <v>1.6553903484722874</v>
+      </c>
+      <c r="L8">
+        <v>2.9899077213802241</v>
+      </c>
+      <c r="M8">
+        <v>-1.334517372907936</v>
+      </c>
+      <c r="N8">
+        <v>5.7707624723227138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="115">
+        <v>2007</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9:N9">'Current Account'!B9:N9/'Table 1'!AJ33*100</f>
+        <v>37.056246715567596</v>
+      </c>
+      <c r="C9">
+        <v>28.994239415079186</v>
+      </c>
+      <c r="D9">
+        <v>8.0620073004884034</v>
+      </c>
+      <c r="E9">
+        <v>6.2535261442523264</v>
+      </c>
+      <c r="F9">
+        <v>7.5460700461659442</v>
+      </c>
+      <c r="G9">
+        <v>-1.2925439019136162</v>
+      </c>
+      <c r="H9">
+        <v>9.7992190393425709</v>
+      </c>
+      <c r="I9">
+        <v>8.3586184380750979</v>
+      </c>
+      <c r="J9">
+        <v>1.4406475544012878</v>
+      </c>
+      <c r="K9">
+        <v>1.6876989141588341</v>
+      </c>
+      <c r="L9">
+        <v>3.021973797249931</v>
+      </c>
+      <c r="M9">
+        <v>-1.3342748830910967</v>
+      </c>
+      <c r="N9">
+        <v>6.8757548473160952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="115">
+        <v>2008</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10:N10">'Current Account'!B10:N10/'Table 1'!AJ34*100</f>
+        <v>37.409326301221938</v>
+      </c>
+      <c r="C10">
+        <v>30.098289377304067</v>
+      </c>
+      <c r="D10">
+        <v>7.3110369239178681</v>
+      </c>
+      <c r="E10">
+        <v>6.5359876356000504</v>
+      </c>
+      <c r="F10">
+        <v>7.707909294013775</v>
+      </c>
+      <c r="G10">
+        <v>-1.1719216584137231</v>
+      </c>
+      <c r="H10">
+        <v>7.76769666167114</v>
+      </c>
+      <c r="I10">
+        <v>6.8796745861274156</v>
+      </c>
+      <c r="J10">
+        <v>0.88798658685704213</v>
+      </c>
+      <c r="K10">
+        <v>1.7737287242272199</v>
+      </c>
+      <c r="L10">
+        <v>3.0965596194150806</v>
+      </c>
+      <c r="M10">
+        <v>-1.3228308951878602</v>
+      </c>
+      <c r="N10">
+        <v>5.7043044832926908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="115">
+        <v>2009</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11:N11">'Current Account'!B11:N11/'Table 1'!AJ35*100</f>
+        <v>31.507505713426397</v>
+      </c>
+      <c r="C11">
+        <v>25.753118599888293</v>
+      </c>
+      <c r="D11">
+        <v>5.7543871135381099</v>
+      </c>
+      <c r="E11">
+        <v>6.6424694277980452</v>
+      </c>
+      <c r="F11">
+        <v>7.364376453931472</v>
+      </c>
+      <c r="G11">
+        <v>-0.72190702613342717</v>
+      </c>
+      <c r="H11">
+        <v>7.5093962079625838</v>
+      </c>
+      <c r="I11">
+        <v>5.2782852969038032</v>
+      </c>
+      <c r="J11">
+        <v>2.2311109110587792</v>
+      </c>
+      <c r="K11">
+        <v>1.6972712634600551</v>
+      </c>
+      <c r="L11">
+        <v>3.119807022246047</v>
+      </c>
+      <c r="M11">
+        <v>-1.4225357587859915</v>
+      </c>
+      <c r="N11">
+        <v>5.8410552396774698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="115">
+        <v>2010</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12:N12">'Current Account'!B12:N12/'Table 1'!AJ36*100</f>
+        <v>35.758430753418899</v>
+      </c>
+      <c r="C12">
+        <v>29.47343328376844</v>
+      </c>
+      <c r="D12">
+        <v>6.2849974696504605</v>
+      </c>
+      <c r="E12">
+        <v>6.8116618827754518</v>
+      </c>
+      <c r="F12">
+        <v>7.798556821490191</v>
+      </c>
+      <c r="G12">
+        <v>-0.9869340174721124</v>
+      </c>
+      <c r="H12">
+        <v>7.8476006619941501</v>
+      </c>
+      <c r="I12">
+        <v>5.8425868574231075</v>
+      </c>
+      <c r="J12">
+        <v>2.0049747258136685</v>
+      </c>
+      <c r="K12">
+        <v>1.6658101905675602</v>
+      </c>
+      <c r="L12">
+        <v>3.2126255649322868</v>
+      </c>
+      <c r="M12">
+        <v>-1.5468153743647259</v>
+      </c>
+      <c r="N12">
+        <v>5.7562228036272902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="115">
+        <v>2011</v>
+      </c>
+      <c r="B13" cm="1">
+        <f t="array" ref="B13:N13">'Current Account'!B13:N13/'Table 1'!AJ37*100</f>
+        <v>38.199103440430243</v>
+      </c>
+      <c r="C13">
+        <v>32.140374253021932</v>
+      </c>
+      <c r="D13">
+        <v>6.0587291874083116</v>
+      </c>
+      <c r="E13">
+        <v>6.8386646333347958</v>
+      </c>
+      <c r="F13">
+        <v>7.9513710491115077</v>
+      </c>
+      <c r="G13">
+        <v>-1.1127064157767121</v>
+      </c>
+      <c r="H13">
+        <v>8.1936532980796617</v>
+      </c>
+      <c r="I13">
+        <v>5.6252086556885583</v>
+      </c>
+      <c r="J13">
+        <v>2.5684446423911029</v>
+      </c>
+      <c r="K13">
+        <v>1.8960621420323454</v>
+      </c>
+      <c r="L13">
+        <v>3.1893370530121148</v>
+      </c>
+      <c r="M13">
+        <v>-1.293274910979769</v>
+      </c>
+      <c r="N13">
+        <v>6.2211925030429338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="115">
+        <v>2012</v>
+      </c>
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:N14">'Current Account'!B14:N14/'Table 1'!AJ38*100</f>
+        <v>38.919124368850284</v>
+      </c>
+      <c r="C14">
+        <v>31.654927436668412</v>
+      </c>
+      <c r="D14">
+        <v>7.2641969321818722</v>
+      </c>
+      <c r="E14">
+        <v>7.2540031520624382</v>
+      </c>
+      <c r="F14">
+        <v>8.3743723999034501</v>
+      </c>
+      <c r="G14">
+        <v>-1.1203692478410121</v>
+      </c>
+      <c r="H14">
+        <v>7.4572962527300222</v>
+      </c>
+      <c r="I14">
+        <v>5.0669276274377246</v>
+      </c>
+      <c r="J14">
+        <v>2.3903686252922975</v>
+      </c>
+      <c r="K14">
+        <v>1.9272797570094071</v>
+      </c>
+      <c r="L14">
+        <v>3.3363150140182678</v>
+      </c>
+      <c r="M14">
+        <v>-1.4090352570088609</v>
+      </c>
+      <c r="N14">
+        <v>7.1251610526242972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="115">
+        <v>2013</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15:N15">'Current Account'!B15:N15/'Table 1'!AJ39*100</f>
+        <v>38.047610559007531</v>
+      </c>
+      <c r="C15">
+        <v>30.810575484233858</v>
+      </c>
+      <c r="D15">
+        <v>7.2370350747736758</v>
+      </c>
+      <c r="E15">
+        <v>7.3952326943167463</v>
+      </c>
+      <c r="F15">
+        <v>8.7915264312534571</v>
+      </c>
+      <c r="G15">
+        <v>-1.3962937369367117</v>
+      </c>
+      <c r="H15">
+        <v>6.8276388108652473</v>
+      </c>
+      <c r="I15">
+        <v>4.5803803702854093</v>
+      </c>
+      <c r="J15">
+        <v>2.2472229304519944</v>
+      </c>
+      <c r="K15">
+        <v>2.1420064216515193</v>
+      </c>
+      <c r="L15">
+        <v>3.6836076017240877</v>
+      </c>
+      <c r="M15">
+        <v>-1.5416011800725686</v>
+      </c>
+      <c r="N15">
+        <v>6.546363088216391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="115">
+        <v>2014</v>
+      </c>
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:N16">'Current Account'!B16:N16/'Table 1'!AJ40*100</f>
+        <v>37.752875744835563</v>
+      </c>
+      <c r="C16">
+        <v>30.262177343083597</v>
+      </c>
+      <c r="D16">
+        <v>7.4906984017519651</v>
+      </c>
+      <c r="E16">
+        <v>7.8048500983791733</v>
+      </c>
+      <c r="F16">
+        <v>8.6678378716674462</v>
+      </c>
+      <c r="G16">
+        <v>-0.86298777328827225</v>
+      </c>
+      <c r="H16">
+        <v>6.5312584519289247</v>
+      </c>
+      <c r="I16">
+        <v>4.5310695038886122</v>
+      </c>
+      <c r="J16">
+        <v>2.0001889480403121</v>
+      </c>
+      <c r="K16">
+        <v>2.1307813751802085</v>
+      </c>
+      <c r="L16">
+        <v>3.5460158395756105</v>
+      </c>
+      <c r="M16">
+        <v>-1.415234464395402</v>
+      </c>
+      <c r="N16">
+        <v>7.2126651121086018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="115">
+        <v>2015</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17:N17">'Current Account'!B17:N17/'Table 1'!AJ41*100</f>
+        <v>38.583547237306568</v>
+      </c>
+      <c r="C17">
+        <v>30.368245570691172</v>
+      </c>
+      <c r="D17">
+        <v>8.2153016666154031</v>
+      </c>
+      <c r="E17">
+        <v>8.378156427223205</v>
+      </c>
+      <c r="F17">
+        <v>8.9905485367711417</v>
+      </c>
+      <c r="G17">
+        <v>-0.6123921095479391</v>
+      </c>
+      <c r="H17">
+        <v>6.7067453423174666</v>
+      </c>
+      <c r="I17">
+        <v>4.4139461090974761</v>
+      </c>
+      <c r="J17">
+        <v>2.2927992332199896</v>
+      </c>
+      <c r="K17">
+        <v>2.373664361100996</v>
+      </c>
+      <c r="L17">
+        <v>3.6774285087775875</v>
+      </c>
+      <c r="M17">
+        <v>-1.3037641476765911</v>
+      </c>
+      <c r="N17">
+        <v>8.5919115689389276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="115">
+        <v>2016</v>
+      </c>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:N18">'Current Account'!B18:N18/'Table 1'!AJ42*100</f>
+        <v>37.680571258021573</v>
+      </c>
+      <c r="C18">
+        <v>29.614772794814552</v>
+      </c>
+      <c r="D18">
+        <v>8.0657984632070185</v>
+      </c>
+      <c r="E18">
+        <v>8.4715026072307111</v>
+      </c>
+      <c r="F18">
+        <v>9.1421479184015713</v>
+      </c>
+      <c r="G18">
+        <v>-0.67064531117086035</v>
+      </c>
+      <c r="H18">
+        <v>6.8121291990027393</v>
+      </c>
+      <c r="I18">
+        <v>4.3433287296436927</v>
+      </c>
+      <c r="J18">
+        <v>2.4688004693590475</v>
+      </c>
+      <c r="K18">
+        <v>2.0903541730710358</v>
+      </c>
+      <c r="L18">
+        <v>3.3199611168240035</v>
+      </c>
+      <c r="M18">
+        <v>-1.2296388990258116</v>
+      </c>
+      <c r="N18">
+        <v>8.6343147223693926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="115">
+        <v>2017</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19:N19">'Current Account'!B19:N19/'Table 1'!AJ43*100</f>
+        <v>38.42066794709271</v>
+      </c>
+      <c r="C19">
+        <v>30.623295215031792</v>
+      </c>
+      <c r="D19">
+        <v>7.7974033008824915</v>
+      </c>
+      <c r="E19">
+        <v>8.6825235295861862</v>
+      </c>
+      <c r="F19">
+        <v>9.4159918344563796</v>
+      </c>
+      <c r="G19">
+        <v>-0.7334683048701941</v>
+      </c>
+      <c r="H19">
+        <v>6.4079280850131166</v>
+      </c>
+      <c r="I19">
+        <v>4.0527226579468083</v>
+      </c>
+      <c r="J19">
+        <v>2.355205427066307</v>
+      </c>
+      <c r="K19">
+        <v>2.0428226393915336</v>
+      </c>
+      <c r="L19">
+        <v>3.6374452168506348</v>
+      </c>
+      <c r="M19">
+        <v>-1.5946225774591012</v>
+      </c>
+      <c r="N19">
+        <v>7.8245178456195026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="115">
+        <v>2018</v>
+      </c>
+      <c r="B20" cm="1">
+        <f t="array" ref="B20:N20">'Current Account'!B20:N20/'Table 1'!AJ44*100</f>
+        <v>38.289046895083331</v>
+      </c>
+      <c r="C20">
+        <v>31.702663120428493</v>
+      </c>
+      <c r="D20">
+        <v>6.5863837746548413</v>
+      </c>
+      <c r="E20">
+        <v>8.981044003973496</v>
+      </c>
+      <c r="F20">
+        <v>9.4500185738378288</v>
+      </c>
+      <c r="G20">
+        <v>-0.46897456986433378</v>
+      </c>
+      <c r="H20">
+        <v>7.1714893369555295</v>
+      </c>
+      <c r="I20">
+        <v>3.8368326918535027</v>
+      </c>
+      <c r="J20">
+        <v>3.3346566451020259</v>
+      </c>
+      <c r="K20">
+        <v>2.0627641431170582</v>
+      </c>
+      <c r="L20">
+        <v>3.5746923448491126</v>
+      </c>
+      <c r="M20">
+        <v>-1.5119578723995144</v>
+      </c>
+      <c r="N20">
+        <v>7.9401376481604782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="115">
+        <v>2019</v>
+      </c>
+      <c r="B21" cm="1">
+        <f t="array" ref="B21:N21">'Current Account'!B21:N21/'Table 1'!AJ45*100</f>
+        <v>37.631213657914827</v>
+      </c>
+      <c r="C21">
+        <v>31.322901465018649</v>
+      </c>
+      <c r="D21">
+        <v>6.3083121928961816</v>
+      </c>
+      <c r="E21">
+        <v>9.4128173543809623</v>
+      </c>
+      <c r="F21">
+        <v>9.8022668754994182</v>
+      </c>
+      <c r="G21">
+        <v>-0.38942078793850066</v>
+      </c>
+      <c r="H21">
+        <v>7.2162806794937335</v>
+      </c>
+      <c r="I21">
+        <v>3.5211650040212086</v>
+      </c>
+      <c r="J21">
+        <v>3.6951444086524803</v>
+      </c>
+      <c r="K21">
+        <v>2.3091707403132546</v>
+      </c>
+      <c r="L21">
+        <v>3.7672646903410829</v>
+      </c>
+      <c r="M21">
+        <v>-1.4581226832077836</v>
+      </c>
+      <c r="N21">
+        <v>8.1558843972224206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="115">
+        <v>2020</v>
+      </c>
+      <c r="B22" cm="1">
+        <f t="array" ref="B22:N22">'Current Account'!B22:N22/'Table 1'!AJ46*100</f>
+        <v>34.9818560151299</v>
+      </c>
+      <c r="C22">
+        <v>29.602398550600906</v>
+      </c>
+      <c r="D22">
+        <v>5.3794574645289952</v>
+      </c>
+      <c r="E22">
+        <v>8.5967395585974469</v>
+      </c>
+      <c r="F22">
+        <v>8.4014333836367925</v>
+      </c>
+      <c r="G22">
+        <v>0.19530617496065319</v>
+      </c>
+      <c r="H22">
+        <v>5.5467954655052321</v>
+      </c>
+      <c r="I22">
+        <v>3.0138504285607461</v>
+      </c>
+      <c r="J22">
+        <v>2.5329450369444855</v>
+      </c>
+      <c r="K22">
+        <v>2.4852225000721284</v>
+      </c>
+      <c r="L22">
+        <v>4.0422549060593198</v>
+      </c>
+      <c r="M22">
+        <v>-1.5570618461703327</v>
+      </c>
+      <c r="N22">
+        <v>6.5506468302638012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="115">
+        <v>2021</v>
+      </c>
+      <c r="B23" cm="1">
+        <f t="array" ref="B23:N23">'Current Account'!B23:N23/'Table 1'!AJ47*100</f>
+        <v>38.109659859496283</v>
+      </c>
+      <c r="C23">
+        <v>32.664136021836306</v>
+      </c>
+      <c r="D23">
+        <v>5.4455238376599748</v>
+      </c>
+      <c r="E23">
+        <v>9.5764407811649974</v>
+      </c>
+      <c r="F23">
+        <v>9.5316828991356886</v>
+      </c>
+      <c r="G23">
+        <v>4.4757882029308513E-2</v>
+      </c>
+      <c r="H23">
+        <v>6.6649613405526082</v>
+      </c>
+      <c r="I23">
+        <v>3.2511404945759819</v>
+      </c>
+      <c r="J23">
+        <v>3.4138208459766268</v>
+      </c>
+      <c r="K23">
+        <v>2.7716353088972849</v>
+      </c>
+      <c r="L23">
+        <v>4.3743831934291553</v>
+      </c>
+      <c r="M23">
+        <v>-1.6027478845318699</v>
+      </c>
+      <c r="N23">
+        <v>7.3013269672751981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="115">
+        <v>2022</v>
+      </c>
+      <c r="B24" cm="1">
+        <f t="array" ref="B24:N24">'Current Account'!B24:N24/'Table 1'!AJ48*100</f>
+        <v>40.824922871804418</v>
+      </c>
+      <c r="C24">
+        <v>37.571430786164981</v>
+      </c>
+      <c r="D24">
+        <v>3.2534920856394276</v>
+      </c>
+      <c r="E24">
+        <v>10.572402317204885</v>
+      </c>
+      <c r="F24">
+        <v>11.535897555152474</v>
+      </c>
+      <c r="G24">
+        <v>-0.96349523794758907</v>
+      </c>
+      <c r="H24">
+        <v>8.1095969696499903</v>
+      </c>
+      <c r="I24">
+        <v>4.4380881509387162</v>
+      </c>
+      <c r="J24">
+        <v>3.6715088187112741</v>
+      </c>
+      <c r="K24">
+        <v>2.6468019575316912</v>
+      </c>
+      <c r="L24">
+        <v>4.3544744688877524</v>
+      </c>
+      <c r="M24">
+        <v>-1.7076983499475475</v>
+      </c>
+      <c r="N24">
+        <v>4.2538073164555659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="116">
+        <v>2023</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" ref="B25:N25">'Current Account'!B25:N25/'Table 1'!AJ49*100</f>
+        <v>37.339007173403459</v>
+      </c>
+      <c r="C25">
+        <v>31.836729446177159</v>
+      </c>
+      <c r="D25">
+        <v>5.5022777272263061</v>
+      </c>
+      <c r="E25">
+        <v>9.8714289145093623</v>
+      </c>
+      <c r="F25">
+        <v>11.399552338481984</v>
+      </c>
+      <c r="G25">
+        <v>-1.5281234239726211</v>
+      </c>
+      <c r="H25">
+        <v>9.7019608661258214</v>
+      </c>
+      <c r="I25">
+        <v>6.2111762067442271</v>
+      </c>
+      <c r="J25">
+        <v>3.4907846593815948</v>
+      </c>
+      <c r="K25">
+        <v>2.6440751316433913</v>
+      </c>
+      <c r="L25">
+        <v>4.2115696753592831</v>
+      </c>
+      <c r="M25">
+        <v>-1.5674702854782185</v>
+      </c>
+      <c r="N25">
+        <v>5.8974686771570601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895DD7F4-37A4-4B44-8724-4E9B7066EDE4}">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14455,4 +19393,1069 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C98C7F-0B30-407D-B0CC-5D52498564DE}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:M2">'Financial acc and Capital acc'!B2:M2/'Table 1'!AJ26*100</f>
+        <v>0.24012288408367666</v>
+      </c>
+      <c r="C2">
+        <v>-7.7210588572414931</v>
+      </c>
+      <c r="D2">
+        <v>7.7792774080952309</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-2.0792462523129727</v>
+      </c>
+      <c r="M2">
+        <v>-0.57228828815620325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" ref="B3:M3">'Financial acc and Capital acc'!B3:M3/'Table 1'!AJ27*100</f>
+        <v>-0.14712155808730107</v>
+      </c>
+      <c r="C3">
+        <v>0.67902575619863736</v>
+      </c>
+      <c r="D3">
+        <v>-1.3623186736916617</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5.000074640524791E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.55964399945951437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4:M4">'Financial acc and Capital acc'!B4:M4/'Table 1'!AJ28*100</f>
+        <v>-0.18955238014512571</v>
+      </c>
+      <c r="C4">
+        <v>-1.6286487090084085</v>
+      </c>
+      <c r="D4">
+        <v>-3.0369645962198266</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.45736551735359304</v>
+      </c>
+      <c r="M4">
+        <v>-1.2519876825263834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" ref="B5:M5">'Financial acc and Capital acc'!B5:M5/'Table 1'!AJ29*100</f>
+        <v>0.28129839248641902</v>
+      </c>
+      <c r="C5">
+        <v>-1.0427673634877781</v>
+      </c>
+      <c r="D5">
+        <v>-2.4218291914511787</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.192025885235994</v>
+      </c>
+      <c r="M5">
+        <v>0.47305380727723778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6:M6">'Financial acc and Capital acc'!B6:M6/'Table 1'!AJ30*100</f>
+        <v>-6.6573200922785698E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.0540558650529022</v>
+      </c>
+      <c r="D6">
+        <v>-0.68764026521209465</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>4.9574620587561506</v>
+      </c>
+      <c r="M6">
+        <v>0.40489786641279685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7:M7">'Financial acc and Capital acc'!B7:M7/'Table 1'!AJ31*100</f>
+        <v>-0.10562884684719265</v>
+      </c>
+      <c r="C7">
+        <v>1.0265981860435334</v>
+      </c>
+      <c r="D7">
+        <v>1.2567184942824441</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>4.2494011761520882</v>
+      </c>
+      <c r="M7">
+        <v>-0.34179622147758426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8:M8">'Financial acc and Capital acc'!B8:M8/'Table 1'!AJ32*100</f>
+        <v>-5.7031480892603494E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.0134352290308022</v>
+      </c>
+      <c r="D8">
+        <v>0.74605270132275636</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.5454081747198298</v>
+      </c>
+      <c r="M8">
+        <v>0.83171903683802384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9:M9">'Financial acc and Capital acc'!B9:M9/'Table 1'!AJ33*100</f>
+        <v>-6.7507923143398138E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.6189028182728147</v>
+      </c>
+      <c r="D9">
+        <v>-6.2783524803107813</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.3882348762455861</v>
+      </c>
+      <c r="M9">
+        <v>0.57991041811662214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10:M10">'Financial acc and Capital acc'!B10:M10/'Table 1'!AJ34*100</f>
+        <v>-3.2547675958252587E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.7941203770416227</v>
+      </c>
+      <c r="D10">
+        <v>-1.1937326690966836</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4.8092915083252423</v>
+      </c>
+      <c r="M10">
+        <v>-0.86242504059624614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11:M11">'Financial acc and Capital acc'!B11:M11/'Table 1'!AJ35*100</f>
+        <v>-7.6028979398929122E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.3177401633927421</v>
+      </c>
+      <c r="D11">
+        <v>3.4960645387009195</v>
+      </c>
+      <c r="E11">
+        <v>-0.28001415824912379</v>
+      </c>
+      <c r="F11">
+        <v>0.41934606075361991</v>
+      </c>
+      <c r="G11">
+        <v>-2.576146623810001</v>
+      </c>
+      <c r="H11">
+        <v>0.64338193923001219</v>
+      </c>
+      <c r="I11">
+        <v>0.21626111739684628</v>
+      </c>
+      <c r="J11">
+        <v>2.1358087081416071</v>
+      </c>
+      <c r="K11">
+        <v>0.35387438850481118</v>
+      </c>
+      <c r="L11">
+        <v>5.3070109931029688</v>
+      </c>
+      <c r="M11">
+        <v>-0.45805618697072803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12:M12">'Financial acc and Capital acc'!B12:M12/'Table 1'!AJ36*100</f>
+        <v>4.7637005238507425E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.7647185254803268</v>
+      </c>
+      <c r="D12">
+        <v>4.4094515882583964</v>
+      </c>
+      <c r="E12">
+        <v>0.52908729608215921</v>
+      </c>
+      <c r="F12">
+        <v>3.1414631477548278</v>
+      </c>
+      <c r="G12">
+        <v>-8.4852487460603729</v>
+      </c>
+      <c r="H12">
+        <v>1.9633558492107068</v>
+      </c>
+      <c r="I12">
+        <v>-1.4200438854445308</v>
+      </c>
+      <c r="J12">
+        <v>4.8004736345393688</v>
+      </c>
+      <c r="K12">
+        <v>6.3034035643734596E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.6248282977097896</v>
+      </c>
+      <c r="M12">
+        <v>-2.1790315111560083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" cm="1">
+        <f t="array" ref="B13:M13">'Financial acc and Capital acc'!B13:M13/'Table 1'!AJ37*100</f>
+        <v>1.5577146281671981E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.27852978506512288</v>
+      </c>
+      <c r="D13">
+        <v>-1.275727385812826</v>
+      </c>
+      <c r="E13">
+        <v>1.0629264662035409</v>
+      </c>
+      <c r="F13">
+        <v>4.3219703194021353</v>
+      </c>
+      <c r="G13">
+        <v>1.7262377882980313</v>
+      </c>
+      <c r="H13">
+        <v>-0.39199386728866203</v>
+      </c>
+      <c r="I13">
+        <v>9.0786136562871073E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.8969774387899943</v>
+      </c>
+      <c r="K13">
+        <v>0.10543385884205665</v>
+      </c>
+      <c r="L13">
+        <v>4.4930958667399299</v>
+      </c>
+      <c r="M13">
+        <v>-1.743673782584676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:M14">'Financial acc and Capital acc'!B14:M14/'Table 1'!AJ38*100</f>
+        <v>-1.5035825676166178E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.9629117513533153</v>
+      </c>
+      <c r="D14">
+        <v>1.8853396330894472</v>
+      </c>
+      <c r="E14">
+        <v>0.87877665901040969</v>
+      </c>
+      <c r="F14">
+        <v>1.738330761224171</v>
+      </c>
+      <c r="G14">
+        <v>-4.2809871802293094</v>
+      </c>
+      <c r="H14">
+        <v>-0.59437019367818167</v>
+      </c>
+      <c r="I14">
+        <v>2.930748190695045</v>
+      </c>
+      <c r="J14">
+        <v>3.682903538079048</v>
+      </c>
+      <c r="K14">
+        <v>4.7219045767524288E-2</v>
+      </c>
+      <c r="L14">
+        <v>5.5125414440872982</v>
+      </c>
+      <c r="M14">
+        <v>-1.5975837828608335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15:M15">'Financial acc and Capital acc'!B15:M15/'Table 1'!AJ39*100</f>
+        <v>-1.9992201975925553E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.7153160152807182</v>
+      </c>
+      <c r="D15">
+        <v>5.6141512120671937</v>
+      </c>
+      <c r="E15">
+        <v>0.84847899469407662</v>
+      </c>
+      <c r="F15">
+        <v>0.81808232525998736</v>
+      </c>
+      <c r="G15">
+        <v>3.6074383774996464</v>
+      </c>
+      <c r="H15">
+        <v>1.2091553632011385</v>
+      </c>
+      <c r="I15">
+        <v>0.35588250124818099</v>
+      </c>
+      <c r="J15">
+        <v>-4.3543939166889789</v>
+      </c>
+      <c r="K15">
+        <v>2.9757487132905176E-2</v>
+      </c>
+      <c r="L15">
+        <v>8.0257860344348817</v>
+      </c>
+      <c r="M15">
+        <v>1.4993796380665729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:M16">'Financial acc and Capital acc'!B16:M16/'Table 1'!AJ40*100</f>
+        <v>0.11101550021947304</v>
+      </c>
+      <c r="C16">
+        <v>2.2383180486646932</v>
+      </c>
+      <c r="D16">
+        <v>4.3098229447722609</v>
+      </c>
+      <c r="E16">
+        <v>1.314689550525354</v>
+      </c>
+      <c r="F16">
+        <v>0.10081776302573342</v>
+      </c>
+      <c r="G16">
+        <v>1.4912911665426909</v>
+      </c>
+      <c r="H16">
+        <v>-0.68720470473799156</v>
+      </c>
+      <c r="I16">
+        <v>0.78399794271736611</v>
+      </c>
+      <c r="J16">
+        <v>-1.4872325353518714</v>
+      </c>
+      <c r="K16">
+        <v>-8.7448154397151728E-2</v>
+      </c>
+      <c r="L16">
+        <v>7.8761660464464294</v>
+      </c>
+      <c r="M16">
+        <v>0.55251954026281513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17:M17">'Financial acc and Capital acc'!B17:M17/'Table 1'!AJ41*100</f>
+        <v>8.7645230627675444E-3</v>
+      </c>
+      <c r="C17">
+        <v>2.0401494533087394</v>
+      </c>
+      <c r="D17">
+        <v>6.3719405613197457</v>
+      </c>
+      <c r="E17">
+        <v>1.0050427427599251</v>
+      </c>
+      <c r="F17">
+        <v>1.4812705449515851</v>
+      </c>
+      <c r="G17">
+        <v>-1.6184601361378483</v>
+      </c>
+      <c r="H17">
+        <v>-1.1276137709509308</v>
+      </c>
+      <c r="I17">
+        <v>-2.4838327623163872E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.2896747634322931</v>
+      </c>
+      <c r="K17">
+        <v>-7.3192035992092744E-2</v>
+      </c>
+      <c r="L17">
+        <v>7.8627032501166676</v>
+      </c>
+      <c r="M17">
+        <v>-0.73797284188502732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:M18">'Financial acc and Capital acc'!B18:M18/'Table 1'!AJ42*100</f>
+        <v>7.8322373739923706E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.3888400683331554</v>
+      </c>
+      <c r="D18">
+        <v>6.2929838363838906</v>
+      </c>
+      <c r="E18">
+        <v>0.91408057969421352</v>
+      </c>
+      <c r="F18">
+        <v>0.376337248280327</v>
+      </c>
+      <c r="G18">
+        <v>-2.1802443555803812</v>
+      </c>
+      <c r="H18">
+        <v>-0.23327349175905468</v>
+      </c>
+      <c r="I18">
+        <v>0.13130421611478846</v>
+      </c>
+      <c r="J18">
+        <v>1.9058763829443204</v>
+      </c>
+      <c r="K18">
+        <v>5.3876590014488523E-2</v>
+      </c>
+      <c r="L18">
+        <v>8.273411870872577</v>
+      </c>
+      <c r="M18">
+        <v>-0.43919326996389696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19:M19">'Financial acc and Capital acc'!B19:M19/'Table 1'!AJ43*100</f>
+        <v>-8.109908363843564E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.0198370253846551</v>
+      </c>
+      <c r="D19">
+        <v>5.972933754001077</v>
+      </c>
+      <c r="E19">
+        <v>0.33998643355698505</v>
+      </c>
+      <c r="F19">
+        <v>0.90786343195548447</v>
+      </c>
+      <c r="G19">
+        <v>-1.1816683668026267</v>
+      </c>
+      <c r="H19">
+        <v>-0.48888716344873778</v>
+      </c>
+      <c r="I19">
+        <v>0.14431540665550496</v>
+      </c>
+      <c r="J19">
+        <v>2.4340729867297686</v>
+      </c>
+      <c r="K19">
+        <v>-3.8791834578656176E-2</v>
+      </c>
+      <c r="L19">
+        <v>8.2017982414979702</v>
+      </c>
+      <c r="M19">
+        <v>0.45841004833847754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" cm="1">
+        <f t="array" ref="B20:M20">'Financial acc and Capital acc'!B20:M20/'Table 1'!AJ44*100</f>
+        <v>2.7118990057952749E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.63047201284621213</v>
+      </c>
+      <c r="D20">
+        <v>4.4559705097301983</v>
+      </c>
+      <c r="E20">
+        <v>0.67257468997119574</v>
+      </c>
+      <c r="F20">
+        <v>1.4360306343707385</v>
+      </c>
+      <c r="G20">
+        <v>2.5383849424923124</v>
+      </c>
+      <c r="H20">
+        <v>0.58902209040533693</v>
+      </c>
+      <c r="I20">
+        <v>-0.36127004698646903</v>
+      </c>
+      <c r="J20">
+        <v>-1.3300766808729823</v>
+      </c>
+      <c r="K20">
+        <v>1.1630901644111024E-2</v>
+      </c>
+      <c r="L20">
+        <v>7.2066787485624566</v>
+      </c>
+      <c r="M20">
+        <v>-0.7605778896559745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" cm="1">
+        <f t="array" ref="B21:M21">'Financial acc and Capital acc'!B21:M21/'Table 1'!AJ45*100</f>
+        <v>-0.10645643173556739</v>
+      </c>
+      <c r="C21">
+        <v>2.5254741190191528</v>
+      </c>
+      <c r="D21">
+        <v>2.1264851821554309</v>
+      </c>
+      <c r="E21">
+        <v>0.59055304762783178</v>
+      </c>
+      <c r="F21">
+        <v>0.52871924436334017</v>
+      </c>
+      <c r="G21">
+        <v>0.57236494471592514</v>
+      </c>
+      <c r="H21">
+        <v>-0.82740065000199703</v>
+      </c>
+      <c r="I21">
+        <v>-4.1059714156579163E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.82481466380599133</v>
+      </c>
+      <c r="K21">
+        <v>-1.5630849895856589E-2</v>
+      </c>
+      <c r="L21">
+        <v>5.7556007432698992</v>
+      </c>
+      <c r="M21">
+        <v>-2.2938272222169545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22" cm="1">
+        <f t="array" ref="B22:M22">'Financial acc and Capital acc'!B22:M22/'Table 1'!AJ46*100</f>
+        <v>-0.30455869459872736</v>
+      </c>
+      <c r="C22">
+        <v>-0.80557173130062598</v>
+      </c>
+      <c r="D22">
+        <v>0.50769595827501723</v>
+      </c>
+      <c r="E22">
+        <v>2.7431479445747335</v>
+      </c>
+      <c r="F22">
+        <v>2.5247901062142928</v>
+      </c>
+      <c r="G22">
+        <v>-3.3190273670054449</v>
+      </c>
+      <c r="H22">
+        <v>1.6566285455548562</v>
+      </c>
+      <c r="I22">
+        <v>0.29607992185397786</v>
+      </c>
+      <c r="J22">
+        <v>3.8911090058109035</v>
+      </c>
+      <c r="K22">
+        <v>-1.5014493402160556E-3</v>
+      </c>
+      <c r="L22">
+        <v>4.9685313882400601</v>
+      </c>
+      <c r="M22">
+        <v>-1.2775567474250145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23" cm="1">
+        <f t="array" ref="B23:M23">'Financial acc and Capital acc'!B23:M23/'Table 1'!AJ47*100</f>
+        <v>-7.1862035976468716E-2</v>
+      </c>
+      <c r="C23">
+        <v>2.2585132124436336</v>
+      </c>
+      <c r="D23">
+        <v>5.4649789665668322</v>
+      </c>
+      <c r="E23">
+        <v>1.3269395613394994</v>
+      </c>
+      <c r="F23">
+        <v>4.142667619653893</v>
+      </c>
+      <c r="G23">
+        <v>-1.340879632336863</v>
+      </c>
+      <c r="H23">
+        <v>0.16863883105160515</v>
+      </c>
+      <c r="I23">
+        <v>-0.10475838642153942</v>
+      </c>
+      <c r="J23">
+        <v>-2.8656684319470953</v>
+      </c>
+      <c r="K23">
+        <v>0.88385038617876599</v>
+      </c>
+      <c r="L23">
+        <v>5.7915867930159965</v>
+      </c>
+      <c r="M23">
+        <v>-1.4378781382827328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="B24" cm="1">
+        <f t="array" ref="B24:M24">'Financial acc and Capital acc'!B24:M24/'Table 1'!AJ48*100</f>
+        <v>-0.55925047413815376</v>
+      </c>
+      <c r="C24">
+        <v>2.8982114526972906</v>
+      </c>
+      <c r="D24">
+        <v>0.27729976383527377</v>
+      </c>
+      <c r="E24">
+        <v>1.0727924799363338</v>
+      </c>
+      <c r="F24">
+        <v>0.75825930576872391</v>
+      </c>
+      <c r="G24">
+        <v>-2.4167093003426197</v>
+      </c>
+      <c r="H24">
+        <v>0.96607909709625905</v>
+      </c>
+      <c r="I24">
+        <v>-0.50116532047605022</v>
+      </c>
+      <c r="J24">
+        <v>2.7100548294911349</v>
+      </c>
+      <c r="K24">
+        <v>0.11436160592013808</v>
+      </c>
+      <c r="L24">
+        <v>5.120950446749247</v>
+      </c>
+      <c r="M24">
+        <v>1.4263936044318353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" ref="B25:M25">'Financial acc and Capital acc'!B25:M25/'Table 1'!AJ49*100</f>
+        <v>-0.66108549306444853</v>
+      </c>
+      <c r="C25">
+        <v>1.448313822028469</v>
+      </c>
+      <c r="D25">
+        <v>2.7945489799289763E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.96950472683890176</v>
+      </c>
+      <c r="F25">
+        <v>3.1749181466415317</v>
+      </c>
+      <c r="G25">
+        <v>2.3635286129552089</v>
+      </c>
+      <c r="H25">
+        <v>1.4601761002505633</v>
+      </c>
+      <c r="I25">
+        <v>0.17820101394581825</v>
+      </c>
+      <c r="J25">
+        <v>-0.82696332227238556</v>
+      </c>
+      <c r="K25">
+        <v>2.1444282102927217E-2</v>
+      </c>
+      <c r="L25">
+        <v>5.6421507256487926</v>
+      </c>
+      <c r="M25">
+        <v>0.4057675415561805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Balance of Payments Tyskland.xlsx
+++ b/Balance of Payments Tyskland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicla\Desktop\UNI\R-Studio\Projekt Eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321D51C-CBF6-42C2-8664-C8FDE2173D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F07C2-306D-4F57-A254-E4ADB6651C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -600,7 +600,10 @@
     <t xml:space="preserve">GDP </t>
   </si>
   <si>
-    <t>https://fred.stlouisfed.org/series/CPMNACSCAB1GQDE</t>
+    <t>https://fred.stlouisfed.org/series/CLVMNACSCAB1GQDE</t>
+  </si>
+  <si>
+    <t>Real Gross Domestic Product for Germany, Millions of Chained 2010 Euros, Annual, Seasonally Adjusted</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
     <numFmt numFmtId="165" formatCode="#.##0..&quot;M&quot;"/>
     <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -675,6 +678,13 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1029,12 +1039,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1240,49 +1251,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,55 +1288,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,18 +1381,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4AFFC842-15A6-4E53-B942-1162ACB461AB}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{F1A4957E-D0C2-4874-B1C3-A3DFC032343A}"/>
@@ -1403,62 +1418,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Procent af Betalingsbalancen løbende poster til BNP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1566,76 +1526,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-1.7470808482404419</c:v>
+                  <c:v>-1.5649961797368477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.36261292426444519</c:v>
+                  <c:v>-0.32904137464932487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8989055800251027</c:v>
+                  <c:v>1.7468881767796558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4376762464676851</c:v>
+                  <c:v>1.340079449252584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5592618794098794</c:v>
+                  <c:v>4.2968058150689465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6968725223442576</c:v>
+                  <c:v>4.4447575102510681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7707624723227138</c:v>
+                  <c:v>5.4828163367845502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8757548473160952</c:v>
+                  <c:v>6.6479562391141496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7043044832926908</c:v>
+                  <c:v>5.5655362009905653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8410552396774698</c:v>
+                  <c:v>5.8038546452040931</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.7562228036272902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2211925030429338</c:v>
+                  <c:v>6.2884956155273759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1251610526242972</c:v>
+                  <c:v>7.3095062273772129</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.546363088216391</c:v>
+                  <c:v>6.8476161008421714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.2126651121086018</c:v>
+                  <c:v>7.685617863681923</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5919115689389276</c:v>
+                  <c:v>9.3253575951080148</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6343147223693926</c:v>
+                  <c:v>9.4959816217962789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8245178456195026</c:v>
+                  <c:v>8.7350413560001332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9401376481604782</c:v>
+                  <c:v>9.0416788116498186</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.1558843972224206</c:v>
+                  <c:v>9.4856075741030406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.5506468302638012</c:v>
+                  <c:v>7.7614758967536419</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.3013269672751981</c:v>
+                  <c:v>8.9113674207044955</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2538073164555659</c:v>
+                  <c:v>5.4657956497605271</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.8974686771570601</c:v>
+                  <c:v>8.0802244589516441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,94 +1785,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="1F497D"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Procent af BNP For Current Account Underbalancer</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2023,76 +1896,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.0587889979551734</c:v>
+                  <c:v>2.7399951760916661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6287203036676097</c:v>
+                  <c:v>4.2001825905005878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4172253285157748</c:v>
+                  <c:v>5.9034926075507945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.873016549527736</c:v>
+                  <c:v>5.4743262278134486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7806412711323398</c:v>
+                  <c:v>6.3903104525044272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8973940131376335</c:v>
+                  <c:v>6.5271611471696716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7311559512061514</c:v>
+                  <c:v>6.3952886627584959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0620073004884034</c:v>
+                  <c:v>7.7949073117385055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3110369239178681</c:v>
+                  <c:v>7.1331817552902157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7543871135381099</c:v>
+                  <c:v>5.7177384922411507</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.2849974696504605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0587291874083116</c:v>
+                  <c:v>6.1242747129347226</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2641969321818722</c:v>
+                  <c:v>7.4521393019068984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2370350747736758</c:v>
+                  <c:v>7.5700716921098561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4906984017519651</c:v>
+                  <c:v>7.9818825015609134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2153016666154031</c:v>
+                  <c:v>8.9165984982706981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0657984632070185</c:v>
+                  <c:v>8.8707299229310763</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7974033008824915</c:v>
+                  <c:v>8.7047715458597512</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5863837746548413</c:v>
+                  <c:v>7.5001176628830182</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3083121928961816</c:v>
+                  <c:v>7.3368099647318621</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3794574645289952</c:v>
+                  <c:v>6.3738025465909356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4455238376599748</c:v>
+                  <c:v>6.6463348283254255</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2534920856394276</c:v>
+                  <c:v>4.180472119511915</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.5022777272263061</c:v>
+                  <c:v>7.53876646156451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,76 +2080,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-2.8598397788410588</c:v>
+                  <c:v>-2.5617808889916747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.010187982155843</c:v>
+                  <c:v>-2.7314977633811655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.1907794205646685</c:v>
+                  <c:v>-2.015395977543029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0895533138233024</c:v>
+                  <c:v>-1.9477037760428653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5538840727257304</c:v>
+                  <c:v>-1.4644340018685498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.6470887116846342</c:v>
+                  <c:v>-1.5586775852405061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.3263401913135258</c:v>
+                  <c:v>-1.2601592430715236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2925439019136162</c:v>
+                  <c:v>-1.2497210106916048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1719216584137231</c:v>
+                  <c:v>-1.1434123886145664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.72190702613342717</c:v>
+                  <c:v>-0.71730933454779611</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.9869340174721124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1127064157767121</c:v>
+                  <c:v>-1.1247440765670751</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.1203692478410121</c:v>
+                  <c:v>-1.1493559140027509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.3962937369367117</c:v>
+                  <c:v>-1.460548910243529</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.86298777328827225</c:v>
+                  <c:v>-0.91957607117910556</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.6123921095479391</c:v>
+                  <c:v>-0.66466878344074432</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.67064531117086035</c:v>
+                  <c:v>-0.73757278422146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.7334683048701941</c:v>
+                  <c:v>-0.81882054623254508</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.46897456986433378</c:v>
+                  <c:v>-0.53403575850190765</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.38942078793850066</c:v>
+                  <c:v>-0.45291136996014958</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19530617496065319</c:v>
+                  <c:v>0.23140679214165696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4757882029308513E-2</c:v>
+                  <c:v>5.4627594891092028E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.96349523794758907</c:v>
+                  <c:v>-1.2380128408183215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.5281234239726211</c:v>
+                  <c:v>-2.0937084947151923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,76 +2183,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.51577432983184746</c:v>
+                  <c:v>-0.46201917707822365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.64546174409527401</c:v>
+                  <c:v>-0.58570339154754791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.009833650985734</c:v>
+                  <c:v>-0.92899114309722119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.94789283045294492</c:v>
+                  <c:v>-0.88354502990837802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66355685658816543</c:v>
+                  <c:v>0.62535889260783983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83328600669272856</c:v>
+                  <c:v>0.78855753883353108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7004606776454614</c:v>
+                  <c:v>1.6156120838745351</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4406475544012878</c:v>
+                  <c:v>1.3929178847010579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88798658685704213</c:v>
+                  <c:v>0.86638458897519854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2311109110587792</c:v>
+                  <c:v>2.2169013806192064</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.0049747258136685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5684446423911029</c:v>
+                  <c:v>2.5962310062742908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3903686252922975</c:v>
+                  <c:v>2.4522132514977777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2472229304519944</c:v>
+                  <c:v>2.3506364852331192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0001889480403121</c:v>
+                  <c:v>2.1313464122977446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2927992332199896</c:v>
+                  <c:v>2.4885233713137911</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4688004693590475</c:v>
+                  <c:v>2.7151759738591301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.355205427066307</c:v>
+                  <c:v>2.6292759775374122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3346566451020259</c:v>
+                  <c:v>3.7972760257035878</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6951444086524803</c:v>
+                  <c:v>4.2975952187423569</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5329450369444855</c:v>
+                  <c:v>3.0011375000741238</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4138208459766268</c:v>
+                  <c:v>4.1666140967675585</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.6715088187112741</c:v>
+                  <c:v>4.7175895466019098</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4907846593815948</c:v>
+                  <c:v>4.782784806457931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,76 +2286,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-1.4302057461818019</c:v>
+                  <c:v>-1.2811465086269245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3356848979061267</c:v>
+                  <c:v>-1.2120240771806057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.3177925097110137</c:v>
+                  <c:v>-1.2122962715358006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3979845296507931</c:v>
+                  <c:v>-1.3030822086411766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3310958705173723</c:v>
+                  <c:v>-1.2544707077878132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.3867206183574987</c:v>
+                  <c:v>-1.3122853247011614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.334517372907936</c:v>
+                  <c:v>-1.2679284044344659</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.3342748830910967</c:v>
+                  <c:v>-1.2900694150259269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3228308951878602</c:v>
+                  <c:v>-1.2906504651916966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4225357587859915</c:v>
+                  <c:v>-1.4134758931084674</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.5468153743647259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.293274910979769</c:v>
+                  <c:v>-1.3072660271145622</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4090352570088609</c:v>
+                  <c:v>-1.4454904120247114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5416011800725686</c:v>
+                  <c:v>-1.6125431662572753</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.415234464395402</c:v>
+                  <c:v>-1.5080349789976282</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.3037641476765911</c:v>
+                  <c:v>-1.415059594039433</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.2296388990258116</c:v>
+                  <c:v>-1.3523514907724679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.5946225774591012</c:v>
+                  <c:v>-1.7801856211644878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.5119578723995144</c:v>
+                  <c:v>-1.7217129053359619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.4581226832077836</c:v>
+                  <c:v>-1.6958528216164472</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.5570618461703327</c:v>
+                  <c:v>-1.8448709420530742</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.6027478845318699</c:v>
+                  <c:v>-1.9561752741434266</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.7076983499475475</c:v>
+                  <c:v>-2.1942531755349752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.5674702854782185</c:v>
+                  <c:v>-2.1476183143556034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,62 +2576,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Procent af BNP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2869,76 +2687,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.24012288408367666</c:v>
+                  <c:v>0.2150967407357382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14712155808730107</c:v>
+                  <c:v>-0.13350070136576936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.18955238014512571</c:v>
+                  <c:v>-0.17437771274103347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28129839248641902</c:v>
+                  <c:v>0.26220242269775212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.6573200922785698E-3</c:v>
+                  <c:v>-6.2740883155806707E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.10562884684719265</c:v>
+                  <c:v>-9.9958985067129275E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.7031480892603494E-2</c:v>
+                  <c:v>-5.4185757367193166E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.7507923143398138E-2</c:v>
+                  <c:v>-6.5271338030030865E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.2547675958252587E-2</c:v>
+                  <c:v>-3.1755890544468743E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.6028979398929122E-2</c:v>
+                  <c:v>-7.5544764969380188E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.7637005238507425E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5577146281671981E-2</c:v>
+                  <c:v>1.5745665488860826E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5035825676166178E-2</c:v>
+                  <c:v>-1.5424838905671544E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.9992201975925553E-2</c:v>
+                  <c:v>-2.0912210688108307E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11101550021947304</c:v>
+                  <c:v>0.11829506824044536</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7645230627675444E-3</c:v>
+                  <c:v>9.5127040187836069E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8322373739923706E-2</c:v>
+                  <c:v>8.6138604570772312E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.109908363843564E-2</c:v>
+                  <c:v>-9.053642198695265E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7118990057952749E-2</c:v>
+                  <c:v>3.0881227588937347E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.10645643173556739</c:v>
+                  <c:v>-0.12381292892365928</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.30455869459872736</c:v>
+                  <c:v>-0.36085367270205626</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.1862035976468716E-2</c:v>
+                  <c:v>-8.7708578051146527E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.55925047413815376</c:v>
+                  <c:v>-0.71859127159944636</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.66108549306444853</c:v>
+                  <c:v>-0.90576473787945566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,7 +2771,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Finansiel Konto Balance</c:v>
+            <c:v>Balancen af Finansielle Konto</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3053,76 +2871,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-2.0792462523129727</c:v>
+                  <c:v>-1.8625425634304285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.000074640524791E-2</c:v>
+                  <c:v>4.5371560773925332E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45736551735359304</c:v>
+                  <c:v>0.42075099632975971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.192025885235994</c:v>
+                  <c:v>2.0432199865941691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9574620587561506</c:v>
+                  <c:v>4.6720834129414373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2494011761520882</c:v>
+                  <c:v>4.0213051774172355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5454081747198298</c:v>
+                  <c:v>6.2188092203407761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3882348762455861</c:v>
+                  <c:v>7.1434574431853042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8092915083252423</c:v>
+                  <c:v>4.6922961544385116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3070109931029688</c:v>
+                  <c:v>5.273211627111853</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.6248282977097896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4930958667399299</c:v>
+                  <c:v>4.54170380426552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5125414440872982</c:v>
+                  <c:v>5.6551642435352747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0257860344348817</c:v>
+                  <c:v>8.3951196917621864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8761660464464294</c:v>
+                  <c:v>8.3926262377371081</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8627032501166676</c:v>
+                  <c:v>8.5339006207452197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.273411870872577</c:v>
+                  <c:v>9.0990622419422191</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2017982414979702</c:v>
+                  <c:v>9.1562251178406786</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2066787485624566</c:v>
+                  <c:v>8.2064666169030662</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7556007432698992</c:v>
+                  <c:v>6.6939852681662719</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.9685313882400601</c:v>
+                  <c:v>5.8869204234807082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7915867930159965</c:v>
+                  <c:v>7.0687093034988422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.120950446749247</c:v>
+                  <c:v>6.580003886448635</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6421507256487926</c:v>
+                  <c:v>7.7304088906931216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,6 +3147,694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Netto Direkte Investering</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-6.9163528564096008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61615996918785065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4982667931581033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.97197899568460322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99337864113939678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97149325976377321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.912970013881778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5321367205473297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7504749153215295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3093477213718783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7647185254803268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28154302110392676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98782461069275229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74823369822602792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.385090242237772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2143062165987422</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.52744024147487</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1385134226644231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7179378610911703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9372236369274245</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.95447453321859488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.756545645854275</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7239654671143736</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.984359970290438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B878-4846-9C0B-AE6937715C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Netto Portefølje Investering</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6.9685037398490692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2361920359326308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7938395685606876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2574230721538702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.64805592843491422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1892613519230393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70882659935026782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.0703462339312573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1646928041133791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.473798753869179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4094515882583964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2895286664683991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9341179360026792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8725053459856538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5924289702623282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9158794096408709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9209961390154078</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6679921226146392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0741505913940914</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4731841413717075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60153906097118992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6700800739065702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3563075922567574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.828860186544595E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B878-4846-9C0B-AE6937715C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Netto Andre Investering Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'%Financial acc and Capital acc'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4166753236847191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1414631477548278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3687269588115187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.783305588542385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85572914712724546</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10742863954493287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6077187731670242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41389406202773787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0135096858614803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6352522254671538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61492083809021714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9914752026030298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0561813525203938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97430139790969095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3500106008242758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B878-4846-9C0B-AE6937715C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="350351296"/>
+        <c:axId val="350344456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="350351296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350344456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350344456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350351296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3410,6 +3916,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4962,6 +5508,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5072,6 +6123,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F474B9-FCDD-76B9-15BB-53139FBBA797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5369,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV61"/>
   <sheetViews>
-    <sheetView topLeftCell="AC17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI47" sqref="AI47:AI48"/>
+    <sheetView topLeftCell="Y23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5404,95 +6491,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="88"/>
-      <c r="W1" s="78" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="81"/>
+      <c r="W1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
     </row>
     <row r="2" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="78" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="80" t="s">
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="89"/>
+      <c r="R2" s="83"/>
       <c r="V2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="78" t="s">
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="78" t="s">
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="80" t="s">
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="82" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5503,42 +6590,42 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="92"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="90"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
       <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5575,7 +6662,7 @@
       <c r="AH3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="81"/>
+      <c r="AI3" s="84"/>
       <c r="AK3" t="s">
         <v>32</v>
       </c>
@@ -5590,44 +6677,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="88">
         <v>3</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="88">
         <v>6</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
       <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="86">
-        <v>9</v>
-      </c>
-      <c r="L4" s="87"/>
+      <c r="K4" s="88">
+        <v>9</v>
+      </c>
+      <c r="L4" s="89"/>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
-      <c r="O4" s="86">
+      <c r="O4" s="88">
         <v>12</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>13</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="W4" s="3">
         <v>1</v>
       </c>
@@ -5667,12 +6754,12 @@
       <c r="AI4" s="18">
         <v>13</v>
       </c>
-      <c r="AK4" s="75" t="s">
+      <c r="AK4" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="77"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="96"/>
     </row>
     <row r="5" spans="1:48" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -5681,10 +6768,10 @@
       <c r="B5" s="4">
         <v>629356</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="90">
         <v>140626</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="4">
         <v>162329</v>
       </c>
@@ -5721,10 +6808,10 @@
       <c r="P5" s="7">
         <v>34764</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="90">
         <v>142744</v>
       </c>
-      <c r="R5" s="85"/>
+      <c r="R5" s="91"/>
       <c r="S5">
         <v>2009</v>
       </c>
@@ -5814,10 +6901,10 @@
       <c r="B6" s="8">
         <v>754206</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="92">
         <v>160829</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="8">
         <v>174306</v>
       </c>
@@ -5854,10 +6941,10 @@
       <c r="P6" s="11">
         <v>39582</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="92">
         <v>147298</v>
       </c>
-      <c r="R6" s="83"/>
+      <c r="R6" s="93"/>
       <c r="S6">
         <v>2010</v>
       </c>
@@ -5947,10 +7034,10 @@
       <c r="B7" s="8">
         <v>864524</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="92">
         <v>162970</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="8">
         <v>183949</v>
       </c>
@@ -5987,10 +7074,10 @@
       <c r="P7" s="11">
         <v>34787</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="92">
         <v>167340</v>
       </c>
-      <c r="R7" s="83"/>
+      <c r="R7" s="93"/>
       <c r="S7">
         <v>2011</v>
       </c>
@@ -6047,10 +7134,10 @@
       <c r="B8" s="8">
         <v>869489</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="92">
         <v>199531</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="8">
         <v>199251</v>
       </c>
@@ -6087,10 +7174,10 @@
       <c r="P8" s="11">
         <v>38703</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="92">
         <v>195712</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="93"/>
       <c r="S8">
         <v>2012</v>
       </c>
@@ -6150,10 +7237,10 @@
       <c r="B9" s="8">
         <v>867656</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="92">
         <v>203802</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="8">
         <v>208257</v>
       </c>
@@ -6190,10 +7277,10 @@
       <c r="P9" s="11">
         <v>43413</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="92">
         <v>184352</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="93"/>
       <c r="S9">
         <v>2013</v>
       </c>
@@ -6283,10 +7370,10 @@
       <c r="B10" s="8">
         <v>887294</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="92">
         <v>219629</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="8">
         <v>228840</v>
       </c>
@@ -6323,10 +7410,10 @@
       <c r="P10" s="11">
         <v>41495</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="92">
         <v>211477</v>
       </c>
-      <c r="R10" s="83"/>
+      <c r="R10" s="93"/>
       <c r="S10">
         <v>2014</v>
       </c>
@@ -6383,10 +7470,10 @@
       <c r="B11" s="8">
         <v>918200</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="92">
         <v>248394</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="8">
         <v>253318</v>
       </c>
@@ -6423,10 +7510,10 @@
       <c r="P11" s="11">
         <v>39420</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="92">
         <v>259781</v>
       </c>
-      <c r="R11" s="83"/>
+      <c r="R11" s="93"/>
       <c r="S11">
         <v>2015</v>
       </c>
@@ -6486,10 +7573,10 @@
       <c r="B12" s="8">
         <v>926757</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="92">
         <v>252409</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="8">
         <v>265105</v>
       </c>
@@ -6526,10 +7613,10 @@
       <c r="P12" s="11">
         <v>38480</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="92">
         <v>270200</v>
       </c>
-      <c r="R12" s="83"/>
+      <c r="R12" s="93"/>
       <c r="S12">
         <v>2016</v>
       </c>
@@ -6622,10 +7709,10 @@
       <c r="B13" s="8">
         <v>1001782</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="92">
         <v>255077</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="8">
         <v>284032</v>
       </c>
@@ -6662,10 +7749,10 @@
       <c r="P13" s="11">
         <v>52165</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="92">
         <v>255964</v>
       </c>
-      <c r="R13" s="83"/>
+      <c r="R13" s="93"/>
       <c r="S13">
         <v>2017</v>
       </c>
@@ -6758,10 +7845,10 @@
       <c r="B14" s="8">
         <v>1068485</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="92">
         <v>221983</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="8">
         <v>302691</v>
       </c>
@@ -6780,10 +7867,10 @@
       <c r="J14" s="8">
         <v>129314</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="92">
         <v>112389</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="8">
         <v>69522</v>
       </c>
@@ -6796,10 +7883,10 @@
       <c r="P14" s="11">
         <v>50958</v>
       </c>
-      <c r="Q14" s="82">
+      <c r="Q14" s="92">
         <v>267609</v>
       </c>
-      <c r="R14" s="83"/>
+      <c r="R14" s="93"/>
       <c r="S14">
         <v>2018</v>
       </c>
@@ -6824,10 +7911,10 @@
       <c r="B15" s="8">
         <v>1090130</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="92">
         <v>219548</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="8">
         <v>327594</v>
       </c>
@@ -6846,10 +7933,10 @@
       <c r="J15" s="8">
         <v>122547</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="92">
         <v>128602</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="8">
         <v>80366</v>
       </c>
@@ -6862,10 +7949,10 @@
       <c r="P15" s="11">
         <v>50747</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="92">
         <v>283849</v>
       </c>
-      <c r="R15" s="83"/>
+      <c r="R15" s="93"/>
       <c r="S15">
         <v>2019</v>
       </c>
@@ -6913,10 +8000,10 @@
       <c r="B16" s="8">
         <v>1005510</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="92">
         <v>182725</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="8">
         <v>292007</v>
       </c>
@@ -6953,10 +8040,10 @@
       <c r="P16" s="11">
         <v>52889</v>
       </c>
-      <c r="Q16" s="82">
+      <c r="Q16" s="92">
         <v>222507</v>
       </c>
-      <c r="R16" s="83"/>
+      <c r="R16" s="93"/>
       <c r="S16">
         <v>2020</v>
       </c>
@@ -6971,10 +8058,10 @@
       <c r="B17" s="8">
         <v>1178621</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="92">
         <v>196491</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="8">
         <v>345547</v>
       </c>
@@ -6993,10 +8080,10 @@
       <c r="J17" s="8">
         <v>117311</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="92">
         <v>123181</v>
       </c>
-      <c r="L17" s="83"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="8">
         <v>100009</v>
       </c>
@@ -7009,10 +8096,10 @@
       <c r="P17" s="11">
         <v>57832</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="92">
         <v>263454</v>
       </c>
-      <c r="R17" s="83"/>
+      <c r="R17" s="93"/>
       <c r="S17" s="22">
         <v>2021</v>
       </c>
@@ -7031,10 +8118,10 @@
       <c r="B18" s="8">
         <v>1454082</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="92">
         <v>125916</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="8">
         <v>409171</v>
       </c>
@@ -7053,10 +8140,10 @@
       <c r="J18" s="8">
         <v>171762</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="92">
         <v>142094</v>
       </c>
-      <c r="L18" s="83"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="8">
         <v>102436</v>
       </c>
@@ -7069,10 +8156,10 @@
       <c r="P18" s="11">
         <v>66091</v>
       </c>
-      <c r="Q18" s="82">
+      <c r="Q18" s="92">
         <v>164630</v>
       </c>
-      <c r="R18" s="83"/>
+      <c r="R18" s="93"/>
       <c r="S18">
         <v>2022</v>
       </c>
@@ -7120,10 +8207,10 @@
       <c r="B19" s="8">
         <v>1312409</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="92">
         <v>226821</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="8">
         <v>406931</v>
       </c>
@@ -7142,10 +8229,10 @@
       <c r="J19" s="8">
         <v>256044</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="92">
         <v>143901</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="8">
         <v>108997</v>
       </c>
@@ -7158,10 +8245,10 @@
       <c r="P19" s="11">
         <v>64616</v>
       </c>
-      <c r="Q19" s="82">
+      <c r="Q19" s="92">
         <v>243112</v>
       </c>
-      <c r="R19" s="83"/>
+      <c r="R19" s="93"/>
       <c r="S19">
         <v>2023</v>
       </c>
@@ -7662,6 +8749,7 @@
       <c r="AH25" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="AJ25" s="22"/>
       <c r="AK25" s="22" t="s">
         <v>64</v>
       </c>
@@ -7730,8 +8818,8 @@
       <c r="T26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AJ26" s="118">
-        <v>2109355</v>
+      <c r="AJ26" s="78">
+        <v>2354774.9</v>
       </c>
       <c r="AK26">
         <v>2000</v>
@@ -7805,8 +8893,8 @@
       <c r="T27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AJ27" s="118">
-        <v>2175410</v>
+      <c r="AJ27" s="78">
+        <v>2397363.5</v>
       </c>
       <c r="AK27">
         <v>2001</v>
@@ -7880,8 +8968,8 @@
       <c r="S28">
         <v>2023</v>
       </c>
-      <c r="AJ28" s="118">
-        <v>2201851</v>
+      <c r="AJ28" s="78">
+        <v>2393460.1</v>
       </c>
       <c r="AK28">
         <v>2002</v>
@@ -7949,8 +9037,8 @@
       <c r="R29" s="10">
         <v>45198</v>
       </c>
-      <c r="AJ29" s="118">
-        <v>2215062</v>
+      <c r="AJ29" s="78">
+        <v>2376383</v>
       </c>
       <c r="AK29">
         <v>2003</v>
@@ -8018,8 +9106,8 @@
       <c r="R30" s="10">
         <v>65507</v>
       </c>
-      <c r="AJ30" s="118">
-        <v>2255351</v>
+      <c r="AJ30" s="78">
+        <v>2393111.6</v>
       </c>
       <c r="AK30">
         <v>2004</v>
@@ -8087,8 +9175,8 @@
       <c r="R31" s="10">
         <v>68695</v>
       </c>
-      <c r="AJ31" s="118">
-        <v>2285104</v>
+      <c r="AJ31" s="78">
+        <v>2414719.4</v>
       </c>
       <c r="AK31">
         <v>2005</v>
@@ -8156,8 +9244,8 @@
       <c r="R32" s="10">
         <v>17046</v>
       </c>
-      <c r="AJ32" s="118">
-        <v>2385953</v>
+      <c r="AJ32" s="78">
+        <v>2511258.2999999998</v>
       </c>
       <c r="AK32">
         <v>2006</v>
@@ -8225,8 +9313,8 @@
       <c r="R33" s="10">
         <v>24100</v>
       </c>
-      <c r="AJ33" s="118">
-        <v>2503000</v>
+      <c r="AJ33" s="78">
+        <v>2588767.7000000002</v>
       </c>
       <c r="AK33">
         <v>2007</v>
@@ -8294,8 +9382,8 @@
       <c r="R34" s="10">
         <v>16534</v>
       </c>
-      <c r="AJ34" s="118">
-        <v>2543133</v>
+      <c r="AJ34" s="78">
+        <v>2606542.2000000002</v>
       </c>
       <c r="AK34">
         <v>2008</v>
@@ -8363,8 +9451,8 @@
       <c r="R35" s="10">
         <v>20513</v>
       </c>
-      <c r="AJ35" s="118">
-        <v>2443805</v>
+      <c r="AJ35" s="78">
+        <v>2459468.9</v>
       </c>
       <c r="AK35">
         <v>2009</v>
@@ -8432,7 +9520,7 @@
       <c r="R36" s="10">
         <v>25098</v>
       </c>
-      <c r="AJ36" s="118">
+      <c r="AJ36" s="78">
         <v>2558935</v>
       </c>
       <c r="AK36">
@@ -8501,8 +9589,8 @@
       <c r="R37" s="10">
         <v>15642</v>
       </c>
-      <c r="AJ37" s="118">
-        <v>2689838</v>
+      <c r="AJ37" s="78">
+        <v>2661049.7999999998</v>
       </c>
       <c r="AK37">
         <v>2011</v>
@@ -8570,8 +9658,8 @@
       <c r="R38" s="10">
         <v>22460</v>
       </c>
-      <c r="AJ38" s="118">
-        <v>2746773</v>
+      <c r="AJ38" s="78">
+        <v>2677499.6</v>
       </c>
       <c r="AK38">
         <v>2012</v>
@@ -8639,8 +9727,8 @@
       <c r="R39" s="10">
         <v>20385</v>
       </c>
-      <c r="AJ39" s="118">
-        <v>2816098</v>
+      <c r="AJ39" s="78">
+        <v>2692207</v>
       </c>
       <c r="AK39">
         <v>2013</v>
@@ -8708,8 +9796,8 @@
       <c r="R40" s="10">
         <v>11194</v>
       </c>
-      <c r="AJ40" s="118">
-        <v>2932023</v>
+      <c r="AJ40" s="78">
+        <v>2751594</v>
       </c>
       <c r="AK40">
         <v>2014</v>
@@ -8777,8 +9865,8 @@
       <c r="R41" s="10">
         <v>4457</v>
       </c>
-      <c r="AJ41" s="118">
-        <v>3023553</v>
+      <c r="AJ41" s="78">
+        <v>2785748.4</v>
       </c>
       <c r="AK41">
         <v>2015</v>
@@ -8846,8 +9934,8 @@
       <c r="R42" s="10">
         <v>11788</v>
       </c>
-      <c r="AJ42" s="118">
-        <v>3129374</v>
+      <c r="AJ42" s="78">
+        <v>2845414.1</v>
       </c>
       <c r="AK42">
         <v>2016</v>
@@ -8915,8 +10003,8 @@
       <c r="R43" s="10">
         <v>8077</v>
       </c>
-      <c r="AJ43" s="118">
-        <v>3271307</v>
+      <c r="AJ43" s="78">
+        <v>2930312.4</v>
       </c>
       <c r="AK43">
         <v>2017</v>
@@ -8984,8 +10072,8 @@
       <c r="R44" s="10">
         <v>1341</v>
       </c>
-      <c r="AJ44" s="118">
-        <v>3370332</v>
+      <c r="AJ44" s="78">
+        <v>2959726.9</v>
       </c>
       <c r="AK44">
         <v>2018</v>
@@ -9053,8 +10141,8 @@
       <c r="R45" s="10">
         <v>12995</v>
       </c>
-      <c r="AJ45" s="118">
-        <v>3480297</v>
+      <c r="AJ45" s="78">
+        <v>2992417.7</v>
       </c>
       <c r="AK45">
         <v>2019</v>
@@ -9122,8 +10210,8 @@
       <c r="R46" s="10">
         <v>8848</v>
       </c>
-      <c r="AJ46" s="118">
-        <v>3396718</v>
+      <c r="AJ46" s="78">
+        <v>2866813</v>
       </c>
       <c r="AK46">
         <v>2020</v>
@@ -9191,8 +10279,8 @@
       <c r="R47" s="10">
         <v>20907</v>
       </c>
-      <c r="AJ47" s="118">
-        <v>3608303</v>
+      <c r="AJ47" s="78">
+        <v>2956381.3</v>
       </c>
       <c r="AK47">
         <v>2021</v>
@@ -9260,8 +10348,8 @@
       <c r="R48" s="10">
         <v>26536</v>
       </c>
-      <c r="AJ48" s="118">
-        <v>3870180</v>
+      <c r="AJ48" s="78">
+        <v>3012004.3</v>
       </c>
       <c r="AK48">
         <v>2022</v>
@@ -9329,8 +10417,8 @@
       <c r="R49" s="10">
         <v>17083</v>
       </c>
-      <c r="AJ49" s="118">
-        <v>4122311</v>
+      <c r="AJ49" s="78">
+        <v>3008728.3</v>
       </c>
       <c r="AK49">
         <v>2023</v>
@@ -9398,9 +10486,10 @@
       <c r="R50" s="10">
         <v>20836</v>
       </c>
-      <c r="AI50" t="s">
+      <c r="AI50" s="119" t="s">
         <v>95</v>
       </c>
+      <c r="AJ50" s="26"/>
     </row>
     <row r="51" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
@@ -9457,6 +10546,9 @@
       <c r="R51" s="10">
         <v>25792</v>
       </c>
+      <c r="AI51" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="52" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
@@ -10020,6 +11112,53 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="W1:AI1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -10030,53 +11169,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="W1:AI1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10329,6 +11421,7 @@
     <hyperlink ref="O6" r:id="rId248" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN2._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="K6" r:id="rId249" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.IN1._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G6" r:id="rId250" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.S._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AI50" r:id="rId251" xr:uid="{72EB51A7-5CA7-4B93-AAE0-0D36EA787DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10338,7 +11431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView topLeftCell="S3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="AD3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
@@ -10383,156 +11476,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="93" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="102"/>
-      <c r="AB1" s="93" t="s">
+      <c r="X1" s="98"/>
+      <c r="AB1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="93" t="s">
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="97" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="96" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="80" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="78" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="100" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="109"/>
-      <c r="U2" s="80" t="s">
+      <c r="T2" s="112"/>
+      <c r="U2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="103"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="96" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="100"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="80" t="s">
+      <c r="AD2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="98" t="s">
+      <c r="AE2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AF2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="100" t="s">
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="80" t="s">
+      <c r="AL2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="94"/>
+      <c r="AM2" s="99"/>
     </row>
     <row r="3" spans="1:51" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="106"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="91" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="111" t="s">
+      <c r="J3" s="87"/>
+      <c r="K3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="111" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="91" t="s">
+      <c r="P3" s="118"/>
+      <c r="Q3" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="92"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="104"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="99"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="102"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="109"/>
       <c r="AF3" s="16" t="s">
         <v>20</v>
       </c>
@@ -10548,62 +11641,62 @@
       <c r="AJ3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="95"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="101"/>
       <c r="AY3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="88">
         <v>14</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="86">
+      <c r="B4" s="89"/>
+      <c r="C4" s="88">
         <v>15</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86">
+      <c r="D4" s="89"/>
+      <c r="E4" s="88">
         <v>16</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>17</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>18</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>19</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>20</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>21</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>22</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="86">
+      <c r="R4" s="89"/>
+      <c r="S4" s="88">
         <v>23</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="86">
+      <c r="T4" s="89"/>
+      <c r="U4" s="88">
         <v>24</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="86">
+      <c r="V4" s="89"/>
+      <c r="W4" s="88">
         <v>25</v>
       </c>
-      <c r="X4" s="87"/>
+      <c r="X4" s="89"/>
       <c r="AB4" s="18">
         <v>14</v>
       </c>
@@ -15295,6 +16388,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="W1:X3"/>
@@ -15309,27 +16423,6 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://www.bundesbank.de/Navigation/EN/Statistics/Time_series_databases/Macro_economic_time_series/its_details_value_node.html?tsId=BBFBOPV.M.N.DE.W1.S1.S1.T.B.KA._Z._Z._Z.EUR._T._X.N.ALL" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
@@ -16025,8 +17118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1215FD3-43C2-4A46-86F2-13091B45B0E6}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17181,14 +18274,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DFB6B7-72EB-4930-AB1B-1C51C15C30CF}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -17232,457 +18325,457 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="115">
+      <c r="A2" s="75">
         <v>2000</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:N2">'Current Account'!B2:N2/'Table 1'!AJ26*100</f>
-        <v>26.684915733865477</v>
+        <v>23.903754209291012</v>
       </c>
       <c r="C2">
-        <v>23.626126735910308</v>
+        <v>21.163759033199348</v>
       </c>
       <c r="D2">
-        <v>3.0587889979551734</v>
+        <v>2.7399951760916661</v>
       </c>
       <c r="E2">
-        <v>4.1916236942314331</v>
+        <v>3.7547633098796598</v>
       </c>
       <c r="F2">
-        <v>7.0514634730724932</v>
+        <v>6.3165441988713349</v>
       </c>
       <c r="G2">
-        <v>-2.8598397788410588</v>
+        <v>-2.5617808889916747</v>
       </c>
       <c r="H2">
-        <v>5.7503669213533541</v>
+        <v>5.1510508360656067</v>
       </c>
       <c r="I2">
-        <v>6.2661836826323274</v>
+        <v>5.6131080222907555</v>
       </c>
       <c r="J2">
-        <v>-0.51577432983184746</v>
+        <v>-0.46201917707822365</v>
       </c>
       <c r="K2">
-        <v>1.4956447422770283</v>
+        <v>1.3397653063763166</v>
       </c>
       <c r="L2">
-        <v>2.9258504884588299</v>
+        <v>2.6209118150032409</v>
       </c>
       <c r="M2">
-        <v>-1.4302057461818019</v>
+        <v>-1.2811465086269245</v>
       </c>
       <c r="N2">
-        <v>-1.7470808482404419</v>
+        <v>-1.5649961797368477</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="115">
+      <c r="A3" s="75">
         <v>2001</v>
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3:N3">'Current Account'!B3:N3/'Table 1'!AJ27*100</f>
-        <v>27.407211364972326</v>
+        <v>24.869787862989678</v>
       </c>
       <c r="C3">
-        <v>22.778491061304717</v>
+        <v>20.66960527248909</v>
       </c>
       <c r="D3">
-        <v>4.6287203036676097</v>
+        <v>4.2001825905005878</v>
       </c>
       <c r="E3">
-        <v>4.2329324612663157</v>
+        <v>3.8410377089512524</v>
       </c>
       <c r="F3">
-        <v>7.2431204434221588</v>
+        <v>6.5725354723324179</v>
       </c>
       <c r="G3">
-        <v>-3.010187982155843</v>
+        <v>-2.7314977633811655</v>
       </c>
       <c r="H3">
-        <v>4.9013865266777294</v>
+        <v>4.4476047391227906</v>
       </c>
       <c r="I3">
-        <v>5.5468940286765864</v>
+        <v>5.0333496522005667</v>
       </c>
       <c r="J3">
-        <v>-0.64546174409527401</v>
+        <v>-0.58570339154754791</v>
       </c>
       <c r="K3">
-        <v>1.8685421333703482</v>
+        <v>1.6955481479363428</v>
       </c>
       <c r="L3">
-        <v>3.2042270312764751</v>
+        <v>2.9075722251169491</v>
       </c>
       <c r="M3">
-        <v>-1.3356848979061267</v>
+        <v>-1.2120240771806057</v>
       </c>
       <c r="N3">
-        <v>-0.36261292426444519</v>
+        <v>-0.32904137464932487</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="115">
+      <c r="A4" s="75">
         <v>2002</v>
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4:N4">'Current Account'!B4:N4/'Table 1'!AJ28*100</f>
-        <v>27.667825139450109</v>
+        <v>25.452869864479194</v>
       </c>
       <c r="C4">
-        <v>21.250599810934336</v>
+        <v>19.549377256928402</v>
       </c>
       <c r="D4">
-        <v>6.4172253285157748</v>
+        <v>5.9034926075507945</v>
       </c>
       <c r="E4">
-        <v>4.7413004481840391</v>
+        <v>4.3617343498370724</v>
       </c>
       <c r="F4">
-        <v>6.9320798687487066</v>
+        <v>6.3771303273801001</v>
       </c>
       <c r="G4">
-        <v>-2.1907794205646685</v>
+        <v>-2.015395977543029</v>
       </c>
       <c r="H4">
-        <v>4.9112267240990466</v>
+        <v>4.5180571314659508</v>
       </c>
       <c r="I4">
-        <v>5.9210635392255728</v>
+        <v>5.4470511853978127</v>
       </c>
       <c r="J4">
-        <v>-1.009833650985734</v>
+        <v>-0.92899114309722119</v>
       </c>
       <c r="K4">
-        <v>1.8794078541741137</v>
+        <v>1.728951346680534</v>
       </c>
       <c r="L4">
-        <v>3.197200363885127</v>
+        <v>2.9412476182163347</v>
       </c>
       <c r="M4">
-        <v>-1.3177925097110137</v>
+        <v>-1.2122962715358006</v>
       </c>
       <c r="N4">
-        <v>1.8989055800251027</v>
+        <v>1.7468881767796558</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="115">
+      <c r="A5" s="75">
         <v>2003</v>
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5:N5">'Current Account'!B5:N5/'Table 1'!AJ29*100</f>
-        <v>28.021234012234604</v>
+        <v>26.119009710811937</v>
       </c>
       <c r="C5">
-        <v>22.148217462706871</v>
+        <v>20.644683482998492</v>
       </c>
       <c r="D5">
-        <v>5.873016549527736</v>
+        <v>5.4743262278134486</v>
       </c>
       <c r="E5">
-        <v>4.801936386466835</v>
+        <v>4.4759564498146966</v>
       </c>
       <c r="F5">
-        <v>6.8914897002901387</v>
+        <v>6.4236602258575637</v>
       </c>
       <c r="G5">
-        <v>-2.0895533138233024</v>
+        <v>-1.9477037760428653</v>
       </c>
       <c r="H5">
-        <v>5.0541744359811487</v>
+        <v>4.7110712938584705</v>
       </c>
       <c r="I5">
-        <v>6.0020513957189392</v>
+        <v>5.5946015304367966</v>
       </c>
       <c r="J5">
-        <v>-0.94789283045294492</v>
+        <v>-0.88354502990837802</v>
       </c>
       <c r="K5">
-        <v>2.2645801386</v>
+        <v>2.1108488871396545</v>
       </c>
       <c r="L5">
-        <v>3.6625646682507935</v>
+        <v>3.4139310957808311</v>
       </c>
       <c r="M5">
-        <v>-1.3979845296507931</v>
+        <v>-1.3030822086411766</v>
       </c>
       <c r="N5">
-        <v>1.4376762464676851</v>
+        <v>1.340079449252584</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="115">
+      <c r="A6" s="75">
         <v>2004</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6:N6">'Current Account'!B6:N6/'Table 1'!AJ30*100</f>
-        <v>30.50868293957345</v>
+        <v>28.752436190794413</v>
       </c>
       <c r="C6">
-        <v>23.728041668441112</v>
+        <v>22.362125738289983</v>
       </c>
       <c r="D6">
-        <v>6.7806412711323398</v>
+        <v>6.3903104525044272</v>
       </c>
       <c r="E6">
-        <v>5.4322311941536938</v>
+        <v>5.1195222387312516</v>
       </c>
       <c r="F6">
-        <v>6.9861152668794242</v>
+        <v>6.5839562405998002</v>
       </c>
       <c r="G6">
-        <v>-1.5538840727257304</v>
+        <v>-1.4644340018685498</v>
       </c>
       <c r="H6">
-        <v>6.3313941506365348</v>
+        <v>5.9669244547693721</v>
       </c>
       <c r="I6">
-        <v>5.6677835207671565</v>
+        <v>5.3415148843646598</v>
       </c>
       <c r="J6">
-        <v>0.66355685658816543</v>
+        <v>0.62535889260783983</v>
       </c>
       <c r="K6">
-        <v>1.7246714736638267</v>
+        <v>1.6253899453745433</v>
       </c>
       <c r="L6">
-        <v>3.0557673441811999</v>
+        <v>2.879860653162357</v>
       </c>
       <c r="M6">
-        <v>-1.3310958705173723</v>
+        <v>-1.2544707077878132</v>
       </c>
       <c r="N6">
-        <v>4.5592618794098794</v>
+        <v>4.2968058150689465</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="115">
+      <c r="A7" s="75">
         <v>2005</v>
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7:N7">'Current Account'!B7:N7/'Table 1'!AJ31*100</f>
-        <v>32.451984089176065</v>
+        <v>30.71005212867076</v>
       </c>
       <c r="C7">
-        <v>25.554590076038437</v>
+        <v>24.182890981501096</v>
       </c>
       <c r="D7">
-        <v>6.8973940131376335</v>
+        <v>6.5271611471696716</v>
       </c>
       <c r="E7">
-        <v>5.7413723229279787</v>
+        <v>5.4331914758344251</v>
       </c>
       <c r="F7">
-        <v>7.3884610346126118</v>
+        <v>6.9918690610749303</v>
       </c>
       <c r="G7">
-        <v>-1.6470887116846342</v>
+        <v>-1.5586775852405061</v>
       </c>
       <c r="H7">
-        <v>7.3221415037169768</v>
+        <v>6.9291093775573591</v>
       </c>
       <c r="I7">
-        <v>6.4888654161730885</v>
+        <v>6.1405612254404343</v>
       </c>
       <c r="J7">
-        <v>0.83328600669272856</v>
+        <v>0.78855753883353108</v>
       </c>
       <c r="K7">
-        <v>1.8621244354091551</v>
+        <v>1.7621707912940949</v>
       </c>
       <c r="L7">
-        <v>3.2488450537666544</v>
+        <v>3.074456115995257</v>
       </c>
       <c r="M7">
-        <v>-1.3867206183574987</v>
+        <v>-1.3122853247011614</v>
       </c>
       <c r="N7">
-        <v>4.6968725223442576</v>
+        <v>4.4447575102510681</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="115">
+      <c r="A8" s="75">
         <v>2006</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8:N8">'Current Account'!B8:N8/'Table 1'!AJ32*100</f>
-        <v>35.183644081080601</v>
+        <v>33.428071157071535</v>
       </c>
       <c r="C8">
-        <v>28.45248812987445</v>
+        <v>27.032782494313047</v>
       </c>
       <c r="D8">
-        <v>6.7311559512061514</v>
+        <v>6.3952886627584959</v>
       </c>
       <c r="E8">
-        <v>6.1419316746452086</v>
+        <v>5.8354651550239813</v>
       </c>
       <c r="F8">
-        <v>7.4682718659587337</v>
+        <v>7.0956243980955058</v>
       </c>
       <c r="G8">
-        <v>-1.3263401913135258</v>
+        <v>-1.2601592430715236</v>
       </c>
       <c r="H8">
-        <v>8.7245761217545237</v>
+        <v>8.2892423178565799</v>
       </c>
       <c r="I8">
-        <v>7.0241429768732582</v>
+        <v>6.6736563929324531</v>
       </c>
       <c r="J8">
-        <v>1.7004606776454614</v>
+        <v>1.6156120838745351</v>
       </c>
       <c r="K8">
-        <v>1.6553903484722874</v>
+        <v>1.5727906476639619</v>
       </c>
       <c r="L8">
-        <v>2.9899077213802241</v>
+        <v>2.8407190520984278</v>
       </c>
       <c r="M8">
-        <v>-1.334517372907936</v>
+        <v>-1.2679284044344659</v>
       </c>
       <c r="N8">
-        <v>5.7707624723227138</v>
+        <v>5.4828163367845502</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="115">
+      <c r="A9" s="75">
         <v>2007</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9:N9">'Current Account'!B9:N9/'Table 1'!AJ33*100</f>
-        <v>37.056246715567596</v>
+        <v>35.828547122658279</v>
       </c>
       <c r="C9">
-        <v>28.994239415079186</v>
+        <v>28.03363981091977</v>
       </c>
       <c r="D9">
-        <v>8.0620073004884034</v>
+        <v>7.7949073117385055</v>
       </c>
       <c r="E9">
-        <v>6.2535261442523264</v>
+        <v>6.0463424118987472</v>
       </c>
       <c r="F9">
-        <v>7.5460700461659442</v>
+        <v>7.2960634225903531</v>
       </c>
       <c r="G9">
-        <v>-1.2925439019136162</v>
+        <v>-1.2497210106916048</v>
       </c>
       <c r="H9">
-        <v>9.7992190393425709</v>
+        <v>9.4745640002671738</v>
       </c>
       <c r="I9">
-        <v>8.3586184380750979</v>
+        <v>8.0816915131094884</v>
       </c>
       <c r="J9">
-        <v>1.4406475544012878</v>
+        <v>1.3929178847010579</v>
       </c>
       <c r="K9">
-        <v>1.6876989141588341</v>
+        <v>1.6317842586415003</v>
       </c>
       <c r="L9">
-        <v>3.021973797249931</v>
+        <v>2.9218536736674272</v>
       </c>
       <c r="M9">
-        <v>-1.3342748830910967</v>
+        <v>-1.2900694150259269</v>
       </c>
       <c r="N9">
-        <v>6.8757548473160952</v>
+        <v>6.6479562391141496</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="115">
+      <c r="A10" s="75">
         <v>2008</v>
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10:N10">'Current Account'!B10:N10/'Table 1'!AJ34*100</f>
-        <v>37.409326301221938</v>
+        <v>36.499271803236269</v>
       </c>
       <c r="C10">
-        <v>30.098289377304067</v>
+        <v>29.366090047946059</v>
       </c>
       <c r="D10">
-        <v>7.3110369239178681</v>
+        <v>7.1331817552902157</v>
       </c>
       <c r="E10">
-        <v>6.5359876356000504</v>
+        <v>6.3769870457829008</v>
       </c>
       <c r="F10">
-        <v>7.707909294013775</v>
+        <v>7.5203994343974676</v>
       </c>
       <c r="G10">
-        <v>-1.1719216584137231</v>
+        <v>-1.1434123886145664</v>
       </c>
       <c r="H10">
-        <v>7.76769666167114</v>
+        <v>7.5787323582506021</v>
       </c>
       <c r="I10">
-        <v>6.8796745861274156</v>
+        <v>6.7123131439199302</v>
       </c>
       <c r="J10">
-        <v>0.88798658685704213</v>
+        <v>0.86638458897519854</v>
       </c>
       <c r="K10">
-        <v>1.7737287242272199</v>
+        <v>1.7305793290552298</v>
       </c>
       <c r="L10">
-        <v>3.0965596194150806</v>
+        <v>3.0212297942469268</v>
       </c>
       <c r="M10">
-        <v>-1.3228308951878602</v>
+        <v>-1.2906504651916966</v>
       </c>
       <c r="N10">
-        <v>5.7043044832926908</v>
+        <v>5.5655362009905653</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="115">
+      <c r="A11" s="75">
         <v>2009</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11:N11">'Current Account'!B11:N11/'Table 1'!AJ35*100</f>
-        <v>31.507505713426397</v>
+        <v>31.306840269458174</v>
       </c>
       <c r="C11">
-        <v>25.753118599888293</v>
+        <v>25.589101777217028</v>
       </c>
       <c r="D11">
-        <v>5.7543871135381099</v>
+        <v>5.7177384922411507</v>
       </c>
       <c r="E11">
-        <v>6.6424694277980452</v>
+        <v>6.6001647754114723</v>
       </c>
       <c r="F11">
-        <v>7.364376453931472</v>
+        <v>7.3174741099592682</v>
       </c>
       <c r="G11">
-        <v>-0.72190702613342717</v>
+        <v>-0.71730933454779611</v>
       </c>
       <c r="H11">
-        <v>7.5093962079625838</v>
+        <v>7.4615702601484406</v>
       </c>
       <c r="I11">
-        <v>5.2782852969038032</v>
+        <v>5.2446688795292351</v>
       </c>
       <c r="J11">
-        <v>2.2311109110587792</v>
+        <v>2.2169013806192064</v>
       </c>
       <c r="K11">
-        <v>1.6972712634600551</v>
+        <v>1.6864616584499199</v>
       </c>
       <c r="L11">
-        <v>3.119807022246047</v>
+        <v>3.0999375515583871</v>
       </c>
       <c r="M11">
-        <v>-1.4225357587859915</v>
+        <v>-1.4134758931084674</v>
       </c>
       <c r="N11">
-        <v>5.8410552396774698</v>
+        <v>5.8038546452040931</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="115">
+      <c r="A12" s="75">
         <v>2010</v>
       </c>
       <c r="B12" cm="1">
@@ -17727,588 +18820,588 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="115">
+      <c r="A13" s="75">
         <v>2011</v>
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13:N13">'Current Account'!B13:N13/'Table 1'!AJ37*100</f>
-        <v>38.199103440430243</v>
+        <v>38.612355169001347</v>
       </c>
       <c r="C13">
-        <v>32.140374253021932</v>
+        <v>32.488080456066626</v>
       </c>
       <c r="D13">
-        <v>6.0587291874083116</v>
+        <v>6.1242747129347226</v>
       </c>
       <c r="E13">
-        <v>6.8386646333347958</v>
+        <v>6.9126477828411925</v>
       </c>
       <c r="F13">
-        <v>7.9513710491115077</v>
+        <v>8.0373918594082685</v>
       </c>
       <c r="G13">
-        <v>-1.1127064157767121</v>
+        <v>-1.1247440765670751</v>
       </c>
       <c r="H13">
-        <v>8.1936532980796617</v>
+        <v>8.2822952054486176</v>
       </c>
       <c r="I13">
-        <v>5.6252086556885583</v>
+        <v>5.6860641991743259</v>
       </c>
       <c r="J13">
-        <v>2.5684446423911029</v>
+        <v>2.5962310062742908</v>
       </c>
       <c r="K13">
-        <v>1.8960621420323454</v>
+        <v>1.9165744286333912</v>
       </c>
       <c r="L13">
-        <v>3.1893370530121148</v>
+        <v>3.2238404557479532</v>
       </c>
       <c r="M13">
-        <v>-1.293274910979769</v>
+        <v>-1.3072660271145622</v>
       </c>
       <c r="N13">
-        <v>6.2211925030429338</v>
+        <v>6.2884956155273759</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="115">
+      <c r="A14" s="75">
         <v>2012</v>
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14:N14">'Current Account'!B14:N14/'Table 1'!AJ38*100</f>
-        <v>38.919124368850284</v>
+        <v>39.926056384845019</v>
       </c>
       <c r="C14">
-        <v>31.654927436668412</v>
+        <v>32.473917082938122</v>
       </c>
       <c r="D14">
-        <v>7.2641969321818722</v>
+        <v>7.4521393019068984</v>
       </c>
       <c r="E14">
-        <v>7.2540031520624382</v>
+        <v>7.4416817840047482</v>
       </c>
       <c r="F14">
-        <v>8.3743723999034501</v>
+        <v>8.5910376980074989</v>
       </c>
       <c r="G14">
-        <v>-1.1203692478410121</v>
+        <v>-1.1493559140027509</v>
       </c>
       <c r="H14">
-        <v>7.4572962527300222</v>
+        <v>7.6502345695962006</v>
       </c>
       <c r="I14">
-        <v>5.0669276274377246</v>
+        <v>5.1980213180984229</v>
       </c>
       <c r="J14">
-        <v>2.3903686252922975</v>
+        <v>2.4522132514977777</v>
       </c>
       <c r="K14">
-        <v>1.9272797570094071</v>
+        <v>1.977143152514383</v>
       </c>
       <c r="L14">
-        <v>3.3363150140182678</v>
+        <v>3.4226335645390944</v>
       </c>
       <c r="M14">
-        <v>-1.4090352570088609</v>
+        <v>-1.4454904120247114</v>
       </c>
       <c r="N14">
-        <v>7.1251610526242972</v>
+        <v>7.3095062273772129</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="115">
+      <c r="A15" s="75">
         <v>2013</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15:N15">'Current Account'!B15:N15/'Table 1'!AJ39*100</f>
-        <v>38.047610559007531</v>
+        <v>39.798499892467412</v>
       </c>
       <c r="C15">
-        <v>30.810575484233858</v>
+        <v>32.228428200357548</v>
       </c>
       <c r="D15">
-        <v>7.2370350747736758</v>
+        <v>7.5700716921098561</v>
       </c>
       <c r="E15">
-        <v>7.3952326943167463</v>
+        <v>7.7355493095441759</v>
       </c>
       <c r="F15">
-        <v>8.7915264312534571</v>
+        <v>9.1960982197877055</v>
       </c>
       <c r="G15">
-        <v>-1.3962937369367117</v>
+        <v>-1.460548910243529</v>
       </c>
       <c r="H15">
-        <v>6.8276388108652473</v>
+        <v>7.1418356760828567</v>
       </c>
       <c r="I15">
-        <v>4.5803803702854093</v>
+        <v>4.7911620466034002</v>
       </c>
       <c r="J15">
-        <v>2.2472229304519944</v>
+        <v>2.3506364852331192</v>
       </c>
       <c r="K15">
-        <v>2.1420064216515193</v>
+        <v>2.2405780833346025</v>
       </c>
       <c r="L15">
-        <v>3.6836076017240877</v>
+        <v>3.8531212495918772</v>
       </c>
       <c r="M15">
-        <v>-1.5416011800725686</v>
+        <v>-1.6125431662572753</v>
       </c>
       <c r="N15">
-        <v>6.546363088216391</v>
+        <v>6.8476161008421714</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="115">
+      <c r="A16" s="75">
         <v>2014</v>
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16:N16">'Current Account'!B16:N16/'Table 1'!AJ40*100</f>
-        <v>37.752875744835563</v>
+        <v>40.228427595059443</v>
       </c>
       <c r="C16">
-        <v>30.262177343083597</v>
+        <v>32.246545093498533</v>
       </c>
       <c r="D16">
-        <v>7.4906984017519651</v>
+        <v>7.9818825015609134</v>
       </c>
       <c r="E16">
-        <v>7.8048500983791733</v>
+        <v>8.3166339220102969</v>
       </c>
       <c r="F16">
-        <v>8.6678378716674462</v>
+        <v>9.2362099931894015</v>
       </c>
       <c r="G16">
-        <v>-0.86298777328827225</v>
+        <v>-0.91957607117910556</v>
       </c>
       <c r="H16">
-        <v>6.5312584519289247</v>
+        <v>6.9595296399105386</v>
       </c>
       <c r="I16">
-        <v>4.5310695038886122</v>
+        <v>4.8281832276127945</v>
       </c>
       <c r="J16">
-        <v>2.0001889480403121</v>
+        <v>2.1313464122977446</v>
       </c>
       <c r="K16">
-        <v>2.1307813751802085</v>
+        <v>2.2705021162279029</v>
       </c>
       <c r="L16">
-        <v>3.5460158395756105</v>
+        <v>3.7785370952255306</v>
       </c>
       <c r="M16">
-        <v>-1.415234464395402</v>
+        <v>-1.5080349789976282</v>
       </c>
       <c r="N16">
-        <v>7.2126651121086018</v>
+        <v>7.685617863681923</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="115">
+      <c r="A17" s="75">
         <v>2015</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17:N17">'Current Account'!B17:N17/'Table 1'!AJ41*100</f>
-        <v>38.583547237306568</v>
+        <v>41.877220498448466</v>
       </c>
       <c r="C17">
-        <v>30.368245570691172</v>
+        <v>32.960622000177764</v>
       </c>
       <c r="D17">
-        <v>8.2153016666154031</v>
+        <v>8.9165984982706981</v>
       </c>
       <c r="E17">
-        <v>8.378156427223205</v>
+        <v>9.0933553080385856</v>
       </c>
       <c r="F17">
-        <v>8.9905485367711417</v>
+        <v>9.7580240914793315</v>
       </c>
       <c r="G17">
-        <v>-0.6123921095479391</v>
+        <v>-0.66466878344074432</v>
       </c>
       <c r="H17">
-        <v>6.7067453423174666</v>
+        <v>7.2792647031584039</v>
       </c>
       <c r="I17">
-        <v>4.4139461090974761</v>
+        <v>4.7907413318446137</v>
       </c>
       <c r="J17">
-        <v>2.2927992332199896</v>
+        <v>2.4885233713137911</v>
       </c>
       <c r="K17">
-        <v>2.373664361100996</v>
+        <v>2.5762915272606817</v>
       </c>
       <c r="L17">
-        <v>3.6774285087775875</v>
+        <v>3.9913511213001152</v>
       </c>
       <c r="M17">
-        <v>-1.3037641476765911</v>
+        <v>-1.415059594039433</v>
       </c>
       <c r="N17">
-        <v>8.5919115689389276</v>
+        <v>9.3253575951080148</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="115">
+      <c r="A18" s="75">
         <v>2016</v>
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18:N18">'Current Account'!B18:N18/'Table 1'!AJ42*100</f>
-        <v>37.680571258021573</v>
+        <v>41.440927701876504</v>
       </c>
       <c r="C18">
-        <v>29.614772794814552</v>
+        <v>32.570197778945428</v>
       </c>
       <c r="D18">
-        <v>8.0657984632070185</v>
+        <v>8.8707299229310763</v>
       </c>
       <c r="E18">
-        <v>8.4715026072307111</v>
+        <v>9.3169215686391649</v>
       </c>
       <c r="F18">
-        <v>9.1421479184015713</v>
+        <v>10.054494352860626</v>
       </c>
       <c r="G18">
-        <v>-0.67064531117086035</v>
+        <v>-0.73757278422146</v>
       </c>
       <c r="H18">
-        <v>6.8121291990027393</v>
+        <v>7.4919499414865474</v>
       </c>
       <c r="I18">
-        <v>4.3433287296436927</v>
+        <v>4.7767739676274186</v>
       </c>
       <c r="J18">
-        <v>2.4688004693590475</v>
+        <v>2.7151759738591301</v>
       </c>
       <c r="K18">
-        <v>2.0903541730710358</v>
+        <v>2.2989623900436849</v>
       </c>
       <c r="L18">
-        <v>3.3199611168240035</v>
+        <v>3.6512787365466419</v>
       </c>
       <c r="M18">
-        <v>-1.2296388990258116</v>
+        <v>-1.3523514907724679</v>
       </c>
       <c r="N18">
-        <v>8.6343147223693926</v>
+        <v>9.4959816217962789</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="115">
+      <c r="A19" s="75">
         <v>2017</v>
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19:N19">'Current Account'!B19:N19/'Table 1'!AJ43*100</f>
-        <v>38.42066794709271</v>
+        <v>42.891604321778118</v>
       </c>
       <c r="C19">
-        <v>30.623295215031792</v>
+        <v>34.186866901972635</v>
       </c>
       <c r="D19">
-        <v>7.7974033008824915</v>
+        <v>8.7047715458597512</v>
       </c>
       <c r="E19">
-        <v>8.6825235295861862</v>
+        <v>9.6928914473419283</v>
       </c>
       <c r="F19">
-        <v>9.4159918344563796</v>
+        <v>10.511711993574474</v>
       </c>
       <c r="G19">
-        <v>-0.7334683048701941</v>
+        <v>-0.81882054623254508</v>
       </c>
       <c r="H19">
-        <v>6.4079280850131166</v>
+        <v>7.1536058749230964</v>
       </c>
       <c r="I19">
-        <v>4.0527226579468083</v>
+        <v>4.5243298973856847</v>
       </c>
       <c r="J19">
-        <v>2.355205427066307</v>
+        <v>2.6292759775374122</v>
       </c>
       <c r="K19">
-        <v>2.0428226393915336</v>
+        <v>2.280541828918992</v>
       </c>
       <c r="L19">
-        <v>3.6374452168506348</v>
+        <v>4.0607274500834798</v>
       </c>
       <c r="M19">
-        <v>-1.5946225774591012</v>
+        <v>-1.7801856211644878</v>
       </c>
       <c r="N19">
-        <v>7.8245178456195026</v>
+        <v>8.7350413560001332</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="115">
+      <c r="A20" s="75">
         <v>2018</v>
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20:N20">'Current Account'!B20:N20/'Table 1'!AJ44*100</f>
-        <v>38.289046895083331</v>
+        <v>43.600914665471329</v>
       </c>
       <c r="C20">
-        <v>31.702663120428493</v>
+        <v>36.100797002588315</v>
       </c>
       <c r="D20">
-        <v>6.5863837746548413</v>
+        <v>7.5001176628830182</v>
       </c>
       <c r="E20">
-        <v>8.981044003973496</v>
+        <v>10.226990875408132</v>
       </c>
       <c r="F20">
-        <v>9.4500185738378288</v>
+        <v>10.76102663391004</v>
       </c>
       <c r="G20">
-        <v>-0.46897456986433378</v>
+        <v>-0.53403575850190765</v>
       </c>
       <c r="H20">
-        <v>7.1714893369555295</v>
+        <v>8.166395352219828</v>
       </c>
       <c r="I20">
-        <v>3.8368326918535027</v>
+        <v>4.3691193265162402</v>
       </c>
       <c r="J20">
-        <v>3.3346566451020259</v>
+        <v>3.7972760257035878</v>
       </c>
       <c r="K20">
-        <v>2.0627641431170582</v>
+        <v>2.3489329370219934</v>
       </c>
       <c r="L20">
-        <v>3.5746923448491126</v>
+        <v>4.0706120554568734</v>
       </c>
       <c r="M20">
-        <v>-1.5119578723995144</v>
+        <v>-1.7217129053359619</v>
       </c>
       <c r="N20">
-        <v>7.9401376481604782</v>
+        <v>9.0416788116498186</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="115">
+      <c r="A21" s="75">
         <v>2019</v>
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21:N21">'Current Account'!B21:N21/'Table 1'!AJ45*100</f>
-        <v>37.631213657914827</v>
+        <v>43.766550371627595</v>
       </c>
       <c r="C21">
-        <v>31.322901465018649</v>
+        <v>36.429740406895732</v>
       </c>
       <c r="D21">
-        <v>6.3083121928961816</v>
+        <v>7.3368099647318621</v>
       </c>
       <c r="E21">
-        <v>9.4128173543809623</v>
+        <v>10.947468998061332</v>
       </c>
       <c r="F21">
-        <v>9.8022668754994182</v>
+        <v>11.400413785816063</v>
       </c>
       <c r="G21">
-        <v>-0.38942078793850066</v>
+        <v>-0.45291136996014958</v>
       </c>
       <c r="H21">
-        <v>7.2162806794937335</v>
+        <v>8.3928122735004536</v>
       </c>
       <c r="I21">
-        <v>3.5211650040212086</v>
+        <v>4.0952504725526788</v>
       </c>
       <c r="J21">
-        <v>3.6951444086524803</v>
+        <v>4.2975952187423569</v>
       </c>
       <c r="K21">
-        <v>2.3091707403132546</v>
+        <v>2.6856544793195143</v>
       </c>
       <c r="L21">
-        <v>3.7672646903410829</v>
+        <v>4.3814738831413802</v>
       </c>
       <c r="M21">
-        <v>-1.4581226832077836</v>
+        <v>-1.6958528216164472</v>
       </c>
       <c r="N21">
-        <v>8.1558843972224206</v>
+        <v>9.4856075741030406</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="115">
+      <c r="A22" s="75">
         <v>2020</v>
       </c>
       <c r="B22" cm="1">
         <f t="array" ref="B22:N22">'Current Account'!B22:N22/'Table 1'!AJ46*100</f>
-        <v>34.9818560151299</v>
+        <v>41.447942366662907</v>
       </c>
       <c r="C22">
-        <v>29.602398550600906</v>
+        <v>35.074139820071977</v>
       </c>
       <c r="D22">
-        <v>5.3794574645289952</v>
+        <v>6.3738025465909356</v>
       </c>
       <c r="E22">
-        <v>8.5967395585974469</v>
+        <v>10.185770749609409</v>
       </c>
       <c r="F22">
-        <v>8.4014333836367925</v>
+        <v>9.9543639574677538</v>
       </c>
       <c r="G22">
-        <v>0.19530617496065319</v>
+        <v>0.23140679214165696</v>
       </c>
       <c r="H22">
-        <v>5.5467954655052321</v>
+        <v>6.5720714954201762</v>
       </c>
       <c r="I22">
-        <v>3.0138504285607461</v>
+        <v>3.5709339953460519</v>
       </c>
       <c r="J22">
-        <v>2.5329450369444855</v>
+        <v>3.0011375000741238</v>
       </c>
       <c r="K22">
-        <v>2.4852225000721284</v>
+        <v>2.9445938748010421</v>
       </c>
       <c r="L22">
-        <v>4.0422549060593198</v>
+        <v>4.7894299349137874</v>
       </c>
       <c r="M22">
-        <v>-1.5570618461703327</v>
+        <v>-1.8448709420530742</v>
       </c>
       <c r="N22">
-        <v>6.5506468302638012</v>
+        <v>7.7614758967536419</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="115">
+      <c r="A23" s="75">
         <v>2021</v>
       </c>
       <c r="B23" cm="1">
         <f t="array" ref="B23:N23">'Current Account'!B23:N23/'Table 1'!AJ47*100</f>
-        <v>38.109659859496283</v>
+        <v>46.513350629027457</v>
       </c>
       <c r="C23">
-        <v>32.664136021836306</v>
+        <v>39.867015800702028</v>
       </c>
       <c r="D23">
-        <v>5.4455238376599748</v>
+        <v>6.6463348283254255</v>
       </c>
       <c r="E23">
-        <v>9.5764407811649974</v>
+        <v>11.688174323115899</v>
       </c>
       <c r="F23">
-        <v>9.5316828991356886</v>
+        <v>11.633546728224808</v>
       </c>
       <c r="G23">
-        <v>4.4757882029308513E-2</v>
+        <v>5.4627594891092028E-2</v>
       </c>
       <c r="H23">
-        <v>6.6649613405526082</v>
+        <v>8.1346746443024802</v>
       </c>
       <c r="I23">
-        <v>3.2511404945759819</v>
+        <v>3.9680605475349204</v>
       </c>
       <c r="J23">
-        <v>3.4138208459766268</v>
+        <v>4.1666140967675585</v>
       </c>
       <c r="K23">
-        <v>2.7716353088972849</v>
+        <v>3.3828180417728935</v>
       </c>
       <c r="L23">
-        <v>4.3743831934291553</v>
+        <v>5.3389933159163201</v>
       </c>
       <c r="M23">
-        <v>-1.6027478845318699</v>
+        <v>-1.9561752741434266</v>
       </c>
       <c r="N23">
-        <v>7.3013269672751981</v>
+        <v>8.9113674207044955</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="115">
+      <c r="A24" s="75">
         <v>2022</v>
       </c>
       <c r="B24" cm="1">
         <f t="array" ref="B24:N24">'Current Account'!B24:N24/'Table 1'!AJ48*100</f>
-        <v>40.824922871804418</v>
+        <v>52.456698019986227</v>
       </c>
       <c r="C24">
-        <v>37.571430786164981</v>
+        <v>48.276225900474316</v>
       </c>
       <c r="D24">
-        <v>3.2534920856394276</v>
+        <v>4.180472119511915</v>
       </c>
       <c r="E24">
-        <v>10.572402317204885</v>
+        <v>13.584675161320323</v>
       </c>
       <c r="F24">
-        <v>11.535897555152474</v>
+        <v>14.822688002138642</v>
       </c>
       <c r="G24">
-        <v>-0.96349523794758907</v>
+        <v>-1.2380128408183215</v>
       </c>
       <c r="H24">
-        <v>8.1095969696499903</v>
+        <v>10.420171046900565</v>
       </c>
       <c r="I24">
-        <v>4.4380881509387162</v>
+        <v>5.7025815002986553</v>
       </c>
       <c r="J24">
-        <v>3.6715088187112741</v>
+        <v>4.7175895466019098</v>
       </c>
       <c r="K24">
-        <v>2.6468019575316912</v>
+        <v>3.4009247596359677</v>
       </c>
       <c r="L24">
-        <v>4.3544744688877524</v>
+        <v>5.5951447346871319</v>
       </c>
       <c r="M24">
-        <v>-1.7076983499475475</v>
+        <v>-2.1942531755349752</v>
       </c>
       <c r="N24">
-        <v>4.2538073164555659</v>
+        <v>5.4657956497605271</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="116">
+      <c r="A25" s="76">
         <v>2023</v>
       </c>
       <c r="B25" cm="1">
         <f t="array" ref="B25:N25">'Current Account'!B25:N25/'Table 1'!AJ49*100</f>
-        <v>37.339007173403459</v>
+        <v>51.158823480338853</v>
       </c>
       <c r="C25">
-        <v>31.836729446177159</v>
+        <v>43.620057018774347</v>
       </c>
       <c r="D25">
-        <v>5.5022777272263061</v>
+        <v>7.53876646156451</v>
       </c>
       <c r="E25">
-        <v>9.8714289145093623</v>
+        <v>13.525016532732451</v>
       </c>
       <c r="F25">
-        <v>11.399552338481984</v>
+        <v>15.618725027447644</v>
       </c>
       <c r="G25">
-        <v>-1.5281234239726211</v>
+        <v>-2.0937084947151923</v>
       </c>
       <c r="H25">
-        <v>9.7019608661258214</v>
+        <v>13.292825410656059</v>
       </c>
       <c r="I25">
-        <v>6.2111762067442271</v>
+        <v>8.5100406041981262</v>
       </c>
       <c r="J25">
-        <v>3.4907846593815948</v>
+        <v>4.782784806457931</v>
       </c>
       <c r="K25">
-        <v>2.6440751316433913</v>
+        <v>3.622693348548621</v>
       </c>
       <c r="L25">
-        <v>4.2115696753592831</v>
+        <v>5.770344899537788</v>
       </c>
       <c r="M25">
-        <v>-1.5674702854782185</v>
+        <v>-2.1476183143556034</v>
       </c>
       <c r="N25">
-        <v>5.8974686771570601</v>
+        <v>8.0802244589516441</v>
       </c>
     </row>
   </sheetData>
@@ -19399,8 +20492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C98C7F-0B30-407D-B0CC-5D52498564DE}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19452,13 +20545,13 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2:M2">'Financial acc and Capital acc'!B2:M2/'Table 1'!AJ26*100</f>
-        <v>0.24012288408367666</v>
+        <v>0.2150967407357382</v>
       </c>
       <c r="C2">
-        <v>-7.7210588572414931</v>
+        <v>-6.9163528564096008</v>
       </c>
       <c r="D2">
-        <v>7.7792774080952309</v>
+        <v>6.9685037398490692</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -19482,10 +20575,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>-2.0792462523129727</v>
+        <v>-1.8625425634304285</v>
       </c>
       <c r="M2">
-        <v>-0.57228828815620325</v>
+        <v>-0.51264312442931514</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -19494,13 +20587,13 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3:M3">'Financial acc and Capital acc'!B3:M3/'Table 1'!AJ27*100</f>
-        <v>-0.14712155808730107</v>
+        <v>-0.13350070136576936</v>
       </c>
       <c r="C3">
-        <v>0.67902575619863736</v>
+        <v>0.61615996918785065</v>
       </c>
       <c r="D3">
-        <v>-1.3623186736916617</v>
+        <v>-1.2361920359326308</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -19524,10 +20617,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.000074640524791E-2</v>
+        <v>4.5371560773925332E-2</v>
       </c>
       <c r="M3">
-        <v>0.55964399945951437</v>
+        <v>0.50783085371251468</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -19536,13 +20629,13 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4:M4">'Financial acc and Capital acc'!B4:M4/'Table 1'!AJ28*100</f>
-        <v>-0.18955238014512571</v>
+        <v>-0.17437771274103347</v>
       </c>
       <c r="C4">
-        <v>-1.6286487090084085</v>
+        <v>-1.4982667931581033</v>
       </c>
       <c r="D4">
-        <v>-3.0369645962198266</v>
+        <v>-2.7938395685606876</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -19566,10 +20659,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.45736551735359304</v>
+        <v>0.42075099632975971</v>
       </c>
       <c r="M4">
-        <v>-1.2519876825263834</v>
+        <v>-1.1517594677088621</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -19578,13 +20671,13 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5:M5">'Financial acc and Capital acc'!B5:M5/'Table 1'!AJ29*100</f>
-        <v>0.28129839248641902</v>
+        <v>0.26220242269775212</v>
       </c>
       <c r="C5">
-        <v>-1.0427673634877781</v>
+        <v>-0.97197899568460322</v>
       </c>
       <c r="D5">
-        <v>-2.4218291914511787</v>
+        <v>-2.2574230721538702</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -19608,10 +20701,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.192025885235994</v>
+        <v>2.0432199865941691</v>
       </c>
       <c r="M5">
-        <v>0.47305380727723778</v>
+        <v>0.44094050178575289</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -19620,13 +20713,13 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6:M6">'Financial acc and Capital acc'!B6:M6/'Table 1'!AJ30*100</f>
-        <v>-6.6573200922785698E-3</v>
+        <v>-6.2740883155806707E-3</v>
       </c>
       <c r="C6">
-        <v>1.0540558650529022</v>
+        <v>0.99337864113939678</v>
       </c>
       <c r="D6">
-        <v>-0.68764026521209465</v>
+        <v>-0.64805592843491422</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -19650,10 +20743,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.9574620587561506</v>
+        <v>4.6720834129414373</v>
       </c>
       <c r="M6">
-        <v>0.40489786641279685</v>
+        <v>0.38158972941837221</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -19662,13 +20755,13 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7:M7">'Financial acc and Capital acc'!B7:M7/'Table 1'!AJ31*100</f>
-        <v>-0.10562884684719265</v>
+        <v>-9.9958985067129275E-2</v>
       </c>
       <c r="C7">
-        <v>1.0265981860435334</v>
+        <v>0.97149325976377321</v>
       </c>
       <c r="D7">
-        <v>1.2567184942824441</v>
+        <v>1.1892613519230393</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -19692,10 +20785,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.2494011761520882</v>
+        <v>4.0213051774172355</v>
       </c>
       <c r="M7">
-        <v>-0.34179622147758426</v>
+        <v>-0.32344955396611041</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -19704,13 +20797,13 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8:M8">'Financial acc and Capital acc'!B8:M8/'Table 1'!AJ32*100</f>
-        <v>-5.7031480892603494E-2</v>
+        <v>-5.4185757367193166E-2</v>
       </c>
       <c r="C8">
-        <v>2.0134352290308022</v>
+        <v>1.912970013881778</v>
       </c>
       <c r="D8">
-        <v>0.74605270132275636</v>
+        <v>0.70882659935026782</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -19734,10 +20827,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.5454081747198298</v>
+        <v>6.2188092203407761</v>
       </c>
       <c r="M8">
-        <v>0.83171903683802384</v>
+        <v>0.79021840608781402</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -19746,13 +20839,13 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9:M9">'Financial acc and Capital acc'!B9:M9/'Table 1'!AJ33*100</f>
-        <v>-6.7507923143398138E-2</v>
+        <v>-6.5271338030030865E-2</v>
       </c>
       <c r="C9">
-        <v>2.6189028182728147</v>
+        <v>2.5321367205473297</v>
       </c>
       <c r="D9">
-        <v>-6.2783524803107813</v>
+        <v>-6.0703462339312573</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -19776,10 +20869,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.3882348762455861</v>
+        <v>7.1434574431853042</v>
       </c>
       <c r="M9">
-        <v>0.57991041811662214</v>
+        <v>0.56069757689958233</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -19788,13 +20881,13 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10:M10">'Financial acc and Capital acc'!B10:M10/'Table 1'!AJ34*100</f>
-        <v>-3.2547675958252587E-2</v>
+        <v>-3.1755890544468743E-2</v>
       </c>
       <c r="C10">
-        <v>1.7941203770416227</v>
+        <v>1.7504749153215295</v>
       </c>
       <c r="D10">
-        <v>-1.1937326690966836</v>
+        <v>-1.1646928041133791</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -19818,10 +20911,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.8092915083252423</v>
+        <v>4.6922961544385116</v>
       </c>
       <c r="M10">
-        <v>-0.86242504059624614</v>
+        <v>-0.84144487695869752</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -19830,40 +20923,40 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11:M11">'Financial acc and Capital acc'!B11:M11/'Table 1'!AJ35*100</f>
-        <v>-7.6028979398929122E-2</v>
+        <v>-7.5544764969380188E-2</v>
       </c>
       <c r="C11">
-        <v>1.3177401633927421</v>
+        <v>1.3093477213718783</v>
       </c>
       <c r="D11">
-        <v>3.4960645387009195</v>
+        <v>3.473798753869179</v>
       </c>
       <c r="E11">
-        <v>-0.28001415824912379</v>
+        <v>-0.27823080015364293</v>
       </c>
       <c r="F11">
-        <v>0.41934606075361991</v>
+        <v>0.4166753236847191</v>
       </c>
       <c r="G11">
-        <v>-2.576146623810001</v>
+        <v>-2.5597396250873516</v>
       </c>
       <c r="H11">
-        <v>0.64338193923001219</v>
+        <v>0.63928435931838778</v>
       </c>
       <c r="I11">
-        <v>0.21626111739684628</v>
+        <v>0.21488379056145007</v>
       </c>
       <c r="J11">
-        <v>2.1358087081416071</v>
+        <v>2.1222061397076417</v>
       </c>
       <c r="K11">
-        <v>0.35387438850481118</v>
+        <v>0.35162062833972002</v>
       </c>
       <c r="L11">
-        <v>5.3070109931029688</v>
+        <v>5.273211627111853</v>
       </c>
       <c r="M11">
-        <v>-0.45805618697072803</v>
+        <v>-0.45513891230744979</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -19914,40 +21007,40 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13:M13">'Financial acc and Capital acc'!B13:M13/'Table 1'!AJ37*100</f>
-        <v>1.5577146281671981E-2</v>
+        <v>1.5745665488860826E-2</v>
       </c>
       <c r="C13">
-        <v>0.27852978506512288</v>
+        <v>0.28154302110392676</v>
       </c>
       <c r="D13">
-        <v>-1.275727385812826</v>
+        <v>-1.2895286664683991</v>
       </c>
       <c r="E13">
-        <v>1.0629264662035409</v>
+        <v>1.074425589479761</v>
       </c>
       <c r="F13">
-        <v>4.3219703194021353</v>
+        <v>4.3687269588115187</v>
       </c>
       <c r="G13">
-        <v>1.7262377882980313</v>
+        <v>1.7449128535662879</v>
       </c>
       <c r="H13">
-        <v>-0.39199386728866203</v>
+        <v>-0.39623459884140466</v>
       </c>
       <c r="I13">
-        <v>9.0786136562871073E-2</v>
+        <v>9.1768293851546862E-2</v>
       </c>
       <c r="J13">
-        <v>2.8969774387899943</v>
+        <v>2.9283179893889999</v>
       </c>
       <c r="K13">
-        <v>0.10543385884205665</v>
+        <v>0.10657448049262364</v>
       </c>
       <c r="L13">
-        <v>4.4930958667399299</v>
+        <v>4.54170380426552</v>
       </c>
       <c r="M13">
-        <v>-1.743673782584676</v>
+        <v>-1.7625374767507171</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -19956,40 +21049,40 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14:M14">'Financial acc and Capital acc'!B14:M14/'Table 1'!AJ38*100</f>
-        <v>-1.5035825676166178E-2</v>
+        <v>-1.5424838905671544E-2</v>
       </c>
       <c r="C14">
-        <v>0.9629117513533153</v>
+        <v>0.98782461069275229</v>
       </c>
       <c r="D14">
-        <v>1.8853396330894472</v>
+        <v>1.9341179360026792</v>
       </c>
       <c r="E14">
-        <v>0.87877665901040969</v>
+        <v>0.90151273972179113</v>
       </c>
       <c r="F14">
-        <v>1.738330761224171</v>
+        <v>1.783305588542385</v>
       </c>
       <c r="G14">
-        <v>-4.2809871802293094</v>
+        <v>-4.3917466878426428</v>
       </c>
       <c r="H14">
-        <v>-0.59437019367818167</v>
+        <v>-0.6097479902518006</v>
       </c>
       <c r="I14">
-        <v>2.930748190695045</v>
+        <v>3.0065737451464045</v>
       </c>
       <c r="J14">
-        <v>3.682903538079048</v>
+        <v>3.7781891732122013</v>
       </c>
       <c r="K14">
-        <v>4.7219045767524288E-2</v>
+        <v>4.8440716853888607E-2</v>
       </c>
       <c r="L14">
-        <v>5.5125414440872982</v>
+        <v>5.6551642435352747</v>
       </c>
       <c r="M14">
-        <v>-1.5975837828608335</v>
+        <v>-1.6389171449362681</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -19998,40 +21091,40 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15:M15">'Financial acc and Capital acc'!B15:M15/'Table 1'!AJ39*100</f>
-        <v>-1.9992201975925553E-2</v>
+        <v>-2.0912210688108307E-2</v>
       </c>
       <c r="C15">
-        <v>0.7153160152807182</v>
+        <v>0.74823369822602792</v>
       </c>
       <c r="D15">
-        <v>5.6141512120671937</v>
+        <v>5.8725053459856538</v>
       </c>
       <c r="E15">
-        <v>0.84847899469407662</v>
+        <v>0.8875246219922911</v>
       </c>
       <c r="F15">
-        <v>0.81808232525998736</v>
+        <v>0.85572914712724546</v>
       </c>
       <c r="G15">
-        <v>3.6074383774996464</v>
+        <v>3.7734468411975755</v>
       </c>
       <c r="H15">
-        <v>1.2091553632011385</v>
+        <v>1.2647987320440071</v>
       </c>
       <c r="I15">
-        <v>0.35588250124818099</v>
+        <v>0.37225963679613044</v>
       </c>
       <c r="J15">
-        <v>-4.3543939166889789</v>
+        <v>-4.5547760629104674</v>
       </c>
       <c r="K15">
-        <v>2.9757487132905176E-2</v>
+        <v>3.1126878430967602E-2</v>
       </c>
       <c r="L15">
-        <v>8.0257860344348817</v>
+        <v>8.3951196917621864</v>
       </c>
       <c r="M15">
-        <v>1.4993796380665729</v>
+        <v>1.5683786573617853</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -20040,40 +21133,40 @@
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16:M16">'Financial acc and Capital acc'!B16:M16/'Table 1'!AJ40*100</f>
-        <v>0.11101550021947304</v>
+        <v>0.11829506824044536</v>
       </c>
       <c r="C16">
-        <v>2.2383180486646932</v>
+        <v>2.385090242237772</v>
       </c>
       <c r="D16">
-        <v>4.3098229447722609</v>
+        <v>4.5924289702623282</v>
       </c>
       <c r="E16">
-        <v>1.314689550525354</v>
+        <v>1.4008970800197993</v>
       </c>
       <c r="F16">
-        <v>0.10081776302573342</v>
+        <v>0.10742863954493287</v>
       </c>
       <c r="G16">
-        <v>1.4912911665426909</v>
+        <v>1.5890789120778719</v>
       </c>
       <c r="H16">
-        <v>-0.68720470473799156</v>
+        <v>-0.73226646082234514</v>
       </c>
       <c r="I16">
-        <v>0.78399794271736611</v>
+        <v>0.83540667700249382</v>
       </c>
       <c r="J16">
-        <v>-1.4872325353518714</v>
+        <v>-1.5847541461421997</v>
       </c>
       <c r="K16">
-        <v>-8.7448154397151728E-2</v>
+        <v>-9.3182351756836215E-2</v>
       </c>
       <c r="L16">
-        <v>7.8761660464464294</v>
+        <v>8.3926262377371081</v>
       </c>
       <c r="M16">
-        <v>0.55251954026281513</v>
+        <v>0.58874964838562671</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -20082,40 +21175,40 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17:M17">'Financial acc and Capital acc'!B17:M17/'Table 1'!AJ41*100</f>
-        <v>8.7645230627675444E-3</v>
+        <v>9.5127040187836069E-3</v>
       </c>
       <c r="C17">
-        <v>2.0401494533087394</v>
+        <v>2.2143062165987422</v>
       </c>
       <c r="D17">
-        <v>6.3719405613197457</v>
+        <v>6.9158794096408709</v>
       </c>
       <c r="E17">
-        <v>1.0050427427599251</v>
+        <v>1.0908379234822498</v>
       </c>
       <c r="F17">
-        <v>1.4812705449515851</v>
+        <v>1.6077187731670242</v>
       </c>
       <c r="G17">
-        <v>-1.6184601361378483</v>
+        <v>-1.7566195138082104</v>
       </c>
       <c r="H17">
-        <v>-1.1276137709509308</v>
+        <v>-1.2238721917600313</v>
       </c>
       <c r="I17">
-        <v>-2.4838327623163872E-2</v>
+        <v>-2.6958644219269766E-2</v>
       </c>
       <c r="J17">
-        <v>1.2896747634322931</v>
+        <v>1.3997674736167847</v>
       </c>
       <c r="K17">
-        <v>-7.3192035992092744E-2</v>
+        <v>-7.9440052805917427E-2</v>
       </c>
       <c r="L17">
-        <v>7.8627032501166676</v>
+        <v>8.5339006207452197</v>
       </c>
       <c r="M17">
-        <v>-0.73797284188502732</v>
+        <v>-0.80096967838157973</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -20124,40 +21217,40 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18:M18">'Financial acc and Capital acc'!B18:M18/'Table 1'!AJ42*100</f>
-        <v>7.8322373739923706E-2</v>
+        <v>8.6138604570772312E-2</v>
       </c>
       <c r="C18">
-        <v>1.3888400683331554</v>
+        <v>1.52744024147487</v>
       </c>
       <c r="D18">
-        <v>6.2929838363838906</v>
+        <v>6.9209961390154078</v>
       </c>
       <c r="E18">
-        <v>0.91408057969421352</v>
+        <v>1.0053018293541176</v>
       </c>
       <c r="F18">
-        <v>0.376337248280327</v>
+        <v>0.41389406202773787</v>
       </c>
       <c r="G18">
-        <v>-2.1802443555803812</v>
+        <v>-2.3978232201773371</v>
       </c>
       <c r="H18">
-        <v>-0.23327349175905468</v>
+        <v>-0.2565531674282488</v>
       </c>
       <c r="I18">
-        <v>0.13130421611478846</v>
+        <v>0.14440780341954446</v>
       </c>
       <c r="J18">
-        <v>1.9058763829443204</v>
+        <v>2.0960745221583035</v>
       </c>
       <c r="K18">
-        <v>5.3876590014488523E-2</v>
+        <v>5.9253238395072266E-2</v>
       </c>
       <c r="L18">
-        <v>8.273411870872577</v>
+        <v>9.0990622419422191</v>
       </c>
       <c r="M18">
-        <v>-0.43919326996389696</v>
+        <v>-0.48302284015532221</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -20166,40 +21259,40 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19:M19">'Financial acc and Capital acc'!B19:M19/'Table 1'!AJ43*100</f>
-        <v>-8.109908363843564E-2</v>
+        <v>-9.053642198695265E-2</v>
       </c>
       <c r="C19">
-        <v>1.0198370253846551</v>
+        <v>1.1385134226644231</v>
       </c>
       <c r="D19">
-        <v>5.972933754001077</v>
+        <v>6.6679921226146392</v>
       </c>
       <c r="E19">
-        <v>0.33998643355698505</v>
+        <v>0.37954997562717208</v>
       </c>
       <c r="F19">
-        <v>0.90786343195548447</v>
+        <v>1.0135096858614803</v>
       </c>
       <c r="G19">
-        <v>-1.1816683668026267</v>
+        <v>-1.3191767539870494</v>
       </c>
       <c r="H19">
-        <v>-0.48888716344873778</v>
+        <v>-0.54577798599221028</v>
       </c>
       <c r="I19">
-        <v>0.14431540665550496</v>
+        <v>0.16110910222404956</v>
       </c>
       <c r="J19">
-        <v>2.4340729867297686</v>
+        <v>2.7173211975624172</v>
       </c>
       <c r="K19">
-        <v>-3.8791834578656176E-2</v>
+        <v>-4.330596287276401E-2</v>
       </c>
       <c r="L19">
-        <v>8.2017982414979702</v>
+        <v>9.1562251178406786</v>
       </c>
       <c r="M19">
-        <v>0.45841004833847754</v>
+        <v>0.5117543098817724</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -20208,40 +21301,40 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20:M20">'Financial acc and Capital acc'!B20:M20/'Table 1'!AJ44*100</f>
-        <v>2.7118990057952749E-2</v>
+        <v>3.0881227588937347E-2</v>
       </c>
       <c r="C20">
-        <v>0.63047201284621213</v>
+        <v>0.7179378610911703</v>
       </c>
       <c r="D20">
-        <v>4.4559705097301983</v>
+        <v>5.0741505913940914</v>
       </c>
       <c r="E20">
-        <v>0.67257468997119574</v>
+        <v>0.76588147372651183</v>
       </c>
       <c r="F20">
-        <v>1.4360306343707385</v>
+        <v>1.6352522254671538</v>
       </c>
       <c r="G20">
-        <v>2.5383849424923124</v>
+        <v>2.8905369613662666</v>
       </c>
       <c r="H20">
-        <v>0.58902209040533693</v>
+        <v>0.67073756027963261</v>
       </c>
       <c r="I20">
-        <v>-0.36127004698646903</v>
+        <v>-0.41138930757429004</v>
       </c>
       <c r="J20">
-        <v>-1.3300766808729823</v>
+        <v>-1.5145992017033734</v>
       </c>
       <c r="K20">
-        <v>1.1630901644111024E-2</v>
+        <v>1.3244465224139431E-2</v>
       </c>
       <c r="L20">
-        <v>7.2066787485624566</v>
+        <v>8.2064666169030662</v>
       </c>
       <c r="M20">
-        <v>-0.7605778896559745</v>
+        <v>-0.8660934223356892</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -20250,40 +21343,40 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21:M21">'Financial acc and Capital acc'!B21:M21/'Table 1'!AJ45*100</f>
-        <v>-0.10645643173556739</v>
+        <v>-0.12381292892365928</v>
       </c>
       <c r="C21">
-        <v>2.5254741190191528</v>
+        <v>2.9372236369274245</v>
       </c>
       <c r="D21">
-        <v>2.1264851821554309</v>
+        <v>2.4731841413717075</v>
       </c>
       <c r="E21">
-        <v>0.59055304762783178</v>
+        <v>0.6868359320291415</v>
       </c>
       <c r="F21">
-        <v>0.52871924436334017</v>
+        <v>0.61492083809021714</v>
       </c>
       <c r="G21">
-        <v>0.57236494471592514</v>
+        <v>0.6656824680591884</v>
       </c>
       <c r="H21">
-        <v>-0.82740065000199703</v>
+        <v>-0.96229881276266993</v>
       </c>
       <c r="I21">
-        <v>-4.1059714156579163E-2</v>
+        <v>-4.7754028456655627E-2</v>
       </c>
       <c r="J21">
-        <v>0.82481466380599133</v>
+        <v>0.95929121125035455</v>
       </c>
       <c r="K21">
-        <v>-1.5630849895856589E-2</v>
+        <v>-1.8179280252218797E-2</v>
       </c>
       <c r="L21">
-        <v>5.7556007432698992</v>
+        <v>6.6939852681662719</v>
       </c>
       <c r="M21">
-        <v>-2.2938272222169545</v>
+        <v>-2.6678093770131088</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -20292,40 +21385,40 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" ref="B22:M22">'Financial acc and Capital acc'!B22:M22/'Table 1'!AJ46*100</f>
-        <v>-0.30455869459872736</v>
+        <v>-0.36085367270205626</v>
       </c>
       <c r="C22">
-        <v>-0.80557173130062598</v>
+        <v>-0.95447453321859488</v>
       </c>
       <c r="D22">
-        <v>0.50769595827501723</v>
+        <v>0.60153906097118992</v>
       </c>
       <c r="E22">
-        <v>2.7431479445747335</v>
+        <v>3.2501945540221842</v>
       </c>
       <c r="F22">
-        <v>2.5247901062142928</v>
+        <v>2.9914752026030298</v>
       </c>
       <c r="G22">
-        <v>-3.3190273670054449</v>
+        <v>-3.9325201887950141</v>
       </c>
       <c r="H22">
-        <v>1.6566285455548562</v>
+        <v>1.9628416642452788</v>
       </c>
       <c r="I22">
-        <v>0.29607992185397786</v>
+        <v>0.35080767388734457</v>
       </c>
       <c r="J22">
-        <v>3.8911090058109035</v>
+        <v>4.6103460532654204</v>
       </c>
       <c r="K22">
-        <v>-1.5014493402160556E-3</v>
+        <v>-1.7789789567718578E-3</v>
       </c>
       <c r="L22">
-        <v>4.9685313882400601</v>
+        <v>5.8869204234807082</v>
       </c>
       <c r="M22">
-        <v>-1.2775567474250145</v>
+        <v>-1.5137018005708778</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -20334,40 +21427,40 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" ref="B23:M23">'Financial acc and Capital acc'!B23:M23/'Table 1'!AJ47*100</f>
-        <v>-7.1862035976468716E-2</v>
+        <v>-8.7708578051146527E-2</v>
       </c>
       <c r="C23">
-        <v>2.2585132124436336</v>
+        <v>2.756545645854275</v>
       </c>
       <c r="D23">
-        <v>5.4649789665668322</v>
+        <v>6.6700800739065702</v>
       </c>
       <c r="E23">
-        <v>1.3269395613394994</v>
+        <v>1.6195475191241402</v>
       </c>
       <c r="F23">
-        <v>4.142667619653893</v>
+        <v>5.0561813525203938</v>
       </c>
       <c r="G23">
-        <v>-1.340879632336863</v>
+        <v>-1.636561562610344</v>
       </c>
       <c r="H23">
-        <v>0.16863883105160515</v>
+        <v>0.205825953506065</v>
       </c>
       <c r="I23">
-        <v>-0.10475838642153942</v>
+        <v>-0.12785901466769528</v>
       </c>
       <c r="J23">
-        <v>-2.8656684319470953</v>
+        <v>-3.4975867287484199</v>
       </c>
       <c r="K23">
-        <v>0.88385038617876599</v>
+        <v>1.0787512422704069</v>
       </c>
       <c r="L23">
-        <v>5.7915867930159965</v>
+        <v>7.0687093034988422</v>
       </c>
       <c r="M23">
-        <v>-1.4378781382827328</v>
+        <v>-1.7549495391545062</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -20376,40 +21469,40 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" ref="B24:M24">'Financial acc and Capital acc'!B24:M24/'Table 1'!AJ48*100</f>
-        <v>-0.55925047413815376</v>
+        <v>-0.71859127159944636</v>
       </c>
       <c r="C24">
-        <v>2.8982114526972906</v>
+        <v>3.7239654671143736</v>
       </c>
       <c r="D24">
-        <v>0.27729976383527377</v>
+        <v>0.3563075922567574</v>
       </c>
       <c r="E24">
-        <v>1.0727924799363338</v>
+        <v>1.3784508873377108</v>
       </c>
       <c r="F24">
-        <v>0.75825930576872391</v>
+        <v>0.97430139790969095</v>
       </c>
       <c r="G24">
-        <v>-2.4167093003426197</v>
+        <v>-3.1052744513014141</v>
       </c>
       <c r="H24">
-        <v>0.96607909709625905</v>
+        <v>1.2413328891993947</v>
       </c>
       <c r="I24">
-        <v>-0.50116532047605022</v>
+        <v>-0.64395658399292466</v>
       </c>
       <c r="J24">
-        <v>2.7100548294911349</v>
+        <v>3.4821995440046356</v>
       </c>
       <c r="K24">
-        <v>0.11436160592013808</v>
+        <v>0.14694534134629225</v>
       </c>
       <c r="L24">
-        <v>5.120950446749247</v>
+        <v>6.580003886448635</v>
       </c>
       <c r="M24">
-        <v>1.4263936044318353</v>
+        <v>1.8327995082875546</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -20418,40 +21511,40 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" ref="B25:M25">'Financial acc and Capital acc'!B25:M25/'Table 1'!AJ49*100</f>
-        <v>-0.66108549306444853</v>
+        <v>-0.90576473787945566</v>
       </c>
       <c r="C25">
-        <v>1.448313822028469</v>
+        <v>1.984359970290438</v>
       </c>
       <c r="D25">
-        <v>2.7945489799289763E-2</v>
+        <v>3.828860186544595E-2</v>
       </c>
       <c r="E25">
-        <v>0.96950472683890176</v>
+        <v>1.3283352970090387</v>
       </c>
       <c r="F25">
-        <v>3.1749181466415317</v>
+        <v>4.3500106008242758</v>
       </c>
       <c r="G25">
-        <v>2.3635286129552089</v>
+        <v>3.2383116813837933</v>
       </c>
       <c r="H25">
-        <v>1.4601761002505633</v>
+        <v>2.0006126841031144</v>
       </c>
       <c r="I25">
-        <v>0.17820101394581825</v>
+        <v>0.24415631015934541</v>
       </c>
       <c r="J25">
-        <v>-0.82696332227238556</v>
+        <v>-1.1330368381884135</v>
       </c>
       <c r="K25">
-        <v>2.1444282102927217E-2</v>
+        <v>2.938118407035956E-2</v>
       </c>
       <c r="L25">
-        <v>5.6421507256487926</v>
+        <v>7.7304088906931216</v>
       </c>
       <c r="M25">
-        <v>0.4057675415561805</v>
+        <v>0.55594916962093266</v>
       </c>
     </row>
   </sheetData>
